--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0850A1F-FABF-4C38-8CE2-51A0A7BBD96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02A5ACE-101C-4A0B-BED2-57D0468E0567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="32">
   <si>
     <t>yosef</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>x-eleonora</t>
+  </si>
+  <si>
+    <t>Remote Monitoring</t>
   </si>
 </sst>
 </file>
@@ -299,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -315,8 +318,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -597,31 +598,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN26"/>
+  <dimension ref="A1:AX26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" customWidth="1"/>
-    <col min="11" max="11" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" customWidth="1"/>
-    <col min="22" max="22" width="17.81640625" customWidth="1"/>
-    <col min="24" max="24" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="8" customWidth="1"/>
-    <col min="33" max="33" width="17.26953125" customWidth="1"/>
-    <col min="35" max="35" width="10.26953125" customWidth="1"/>
-    <col min="43" max="43" width="9.1796875" customWidth="1"/>
+    <col min="33" max="33" width="17.28515625" customWidth="1"/>
+    <col min="35" max="35" width="10.28515625" customWidth="1"/>
+    <col min="43" max="43" width="17.42578125" customWidth="1"/>
+    <col min="44" max="44" width="18.7109375" customWidth="1"/>
+    <col min="48" max="48" width="9.140625" customWidth="1"/>
+    <col min="49" max="49" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -718,8 +722,32 @@
       <c r="AM1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="AQ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -822,8 +850,34 @@
         <f>ABS(AJ2-AK2)</f>
         <v>18.299999999999997</v>
       </c>
+      <c r="AQ2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="9">
+        <v>17</v>
+      </c>
+      <c r="AT2" s="9">
+        <v>17</v>
+      </c>
+      <c r="AU2" s="9">
+        <v>105</v>
+      </c>
+      <c r="AV2" s="9">
+        <v>104.4</v>
+      </c>
+      <c r="AW2" s="9">
+        <f>ABS(AS2-AT2)</f>
+        <v>0</v>
+      </c>
+      <c r="AX2" s="9">
+        <f>ABS(AU2-AV2)</f>
+        <v>0.59999999999999432</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
@@ -914,8 +968,31 @@
         <f t="shared" ref="AM3:AM12" si="7">ABS(AJ3-AK3)</f>
         <v>10</v>
       </c>
+      <c r="AR3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="9">
+        <v>12</v>
+      </c>
+      <c r="AT3" s="9">
+        <v>11</v>
+      </c>
+      <c r="AU3" s="9">
+        <v>71</v>
+      </c>
+      <c r="AV3" s="9">
+        <v>80</v>
+      </c>
+      <c r="AW3" s="9">
+        <f t="shared" ref="AW3:AW12" si="8">ABS(AS3-AT3)</f>
+        <v>1</v>
+      </c>
+      <c r="AX3" s="9">
+        <f t="shared" ref="AX3:AX12" si="9">ABS(AU3-AV3)</f>
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1006,8 +1083,31 @@
         <f t="shared" si="7"/>
         <v>53.300000000000011</v>
       </c>
+      <c r="AR4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="AT4" s="9">
+        <v>16.3</v>
+      </c>
+      <c r="AU4" s="9">
+        <v>100</v>
+      </c>
+      <c r="AV4" s="9">
+        <v>104</v>
+      </c>
+      <c r="AW4" s="9">
+        <f t="shared" si="8"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AX4" s="9">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
@@ -1098,8 +1198,31 @@
         <f t="shared" si="7"/>
         <v>0.29999999999999716</v>
       </c>
+      <c r="AR5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>12</v>
+      </c>
+      <c r="AU5" s="9">
+        <v>64</v>
+      </c>
+      <c r="AV5" s="9">
+        <v>66</v>
+      </c>
+      <c r="AW5" s="9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="AX5" s="9">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
@@ -1191,13 +1314,36 @@
         <f t="shared" si="7"/>
         <v>109</v>
       </c>
+      <c r="AR6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>15</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="AU6" s="9">
+        <v>107</v>
+      </c>
+      <c r="AV6" s="9">
+        <v>105</v>
+      </c>
+      <c r="AW6" s="9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="AX6" s="9">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="9">
-        <v>21.75</v>
+        <v>21.8</v>
       </c>
       <c r="D7" s="9">
         <v>21.7</v>
@@ -1210,7 +1356,7 @@
       </c>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
-        <v>5.0000000000000711E-2</v>
+        <v>0.10000000000000142</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="1"/>
@@ -1221,7 +1367,7 @@
         <v>16</v>
       </c>
       <c r="M7" s="9">
-        <v>21.75</v>
+        <v>21.8</v>
       </c>
       <c r="N7" s="9">
         <v>21.8</v>
@@ -1234,7 +1380,7 @@
       </c>
       <c r="Q7" s="9">
         <f t="shared" si="2"/>
-        <v>5.0000000000000711E-2</v>
+        <v>0</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" si="3"/>
@@ -1244,7 +1390,7 @@
         <v>16</v>
       </c>
       <c r="W7" s="9">
-        <v>21.75</v>
+        <v>21.8</v>
       </c>
       <c r="X7" s="11">
         <v>2.9</v>
@@ -1257,7 +1403,7 @@
       </c>
       <c r="AA7" s="1">
         <f t="shared" si="4"/>
-        <v>18.850000000000001</v>
+        <v>18.900000000000002</v>
       </c>
       <c r="AB7" s="9">
         <f t="shared" si="5"/>
@@ -1267,7 +1413,7 @@
         <v>16</v>
       </c>
       <c r="AH7" s="9">
-        <v>21.75</v>
+        <v>21.8</v>
       </c>
       <c r="AI7" s="11"/>
       <c r="AJ7" s="9">
@@ -1278,14 +1424,37 @@
       </c>
       <c r="AL7" s="9">
         <f t="shared" si="6"/>
-        <v>21.75</v>
+        <v>21.8</v>
       </c>
       <c r="AM7" s="9">
         <f t="shared" si="7"/>
         <v>108</v>
       </c>
+      <c r="AR7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS7" s="9">
+        <v>21.8</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>21.8</v>
+      </c>
+      <c r="AU7" s="9">
+        <v>108</v>
+      </c>
+      <c r="AV7" s="9">
+        <v>91.8</v>
+      </c>
+      <c r="AW7" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AX7" s="9">
+        <f t="shared" si="9"/>
+        <v>16.200000000000003</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
@@ -1377,8 +1546,31 @@
         <f t="shared" si="7"/>
         <v>112</v>
       </c>
+      <c r="AR8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS8" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="AT8" s="9">
+        <v>23</v>
+      </c>
+      <c r="AU8" s="9">
+        <v>110</v>
+      </c>
+      <c r="AV8" s="9">
+        <v>81</v>
+      </c>
+      <c r="AW8" s="9">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="AX8" s="9">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
@@ -1469,8 +1661,31 @@
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
+      <c r="AR9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS9" s="9">
+        <v>22</v>
+      </c>
+      <c r="AT9" s="9">
+        <v>20.8</v>
+      </c>
+      <c r="AU9" s="9">
+        <v>113</v>
+      </c>
+      <c r="AV9" s="9">
+        <v>71.2</v>
+      </c>
+      <c r="AW9" s="9">
+        <f t="shared" si="8"/>
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="AX9" s="9">
+        <f t="shared" si="9"/>
+        <v>41.8</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
@@ -1561,8 +1776,31 @@
         <f t="shared" si="7"/>
         <v>96</v>
       </c>
+      <c r="AR10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS10" s="9">
+        <v>25.5</v>
+      </c>
+      <c r="AT10" s="9">
+        <v>25.5</v>
+      </c>
+      <c r="AU10" s="9">
+        <v>110</v>
+      </c>
+      <c r="AV10" s="9">
+        <v>75.5</v>
+      </c>
+      <c r="AW10" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AX10" s="9">
+        <f t="shared" si="9"/>
+        <v>34.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
@@ -1653,8 +1891,31 @@
         <f t="shared" si="7"/>
         <v>27.700000000000003</v>
       </c>
+      <c r="AR11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS11" s="9">
+        <v>19.5</v>
+      </c>
+      <c r="AT11" s="9">
+        <v>19</v>
+      </c>
+      <c r="AU11" s="9">
+        <v>102</v>
+      </c>
+      <c r="AV11" s="9">
+        <v>56</v>
+      </c>
+      <c r="AW11" s="9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="AX11" s="9">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
@@ -1745,8 +2006,31 @@
         <f t="shared" si="7"/>
         <v>6.7000000000000028</v>
       </c>
+      <c r="AR12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS12" s="9">
+        <v>13</v>
+      </c>
+      <c r="AT12" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="AU12" s="9">
+        <v>104</v>
+      </c>
+      <c r="AV12" s="9">
+        <v>65</v>
+      </c>
+      <c r="AW12" s="9">
+        <f t="shared" si="8"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AX12" s="9">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
@@ -1837,8 +2121,31 @@
         <f>ABS(AJ13-AK13)</f>
         <v>10.5</v>
       </c>
+      <c r="AR13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS13" s="9">
+        <v>10</v>
+      </c>
+      <c r="AT13" s="9">
+        <v>9</v>
+      </c>
+      <c r="AU13" s="9">
+        <v>90</v>
+      </c>
+      <c r="AV13" s="9">
+        <v>66.5</v>
+      </c>
+      <c r="AW13" s="9">
+        <f>ABS(AS13-AT13)</f>
+        <v>1</v>
+      </c>
+      <c r="AX13" s="9">
+        <f>ABS(AU13-AV13)</f>
+        <v>23.5</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
         <v>4</v>
@@ -1930,8 +2237,32 @@
         <f>ABS(AJ14-AK14)</f>
         <v>2.7000000000000028</v>
       </c>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS14" s="4">
+        <v>12</v>
+      </c>
+      <c r="AT14" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="AU14" s="4">
+        <v>67</v>
+      </c>
+      <c r="AV14" s="4">
+        <v>70</v>
+      </c>
+      <c r="AW14" s="4">
+        <f>ABS(AS14-AT14)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AX14" s="5">
+        <f>ABS(AU14-AV14)</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="7">
         <v>16.5</v>
@@ -2014,8 +2345,29 @@
         <f>ABS(AJ15-AK15)</f>
         <v>15</v>
       </c>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="AT15" s="7">
+        <v>16.3</v>
+      </c>
+      <c r="AU15" s="7">
+        <v>105</v>
+      </c>
+      <c r="AV15" s="7">
+        <v>93</v>
+      </c>
+      <c r="AW15" s="7">
+        <f>ABS(AS15-AT15)</f>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AX15" s="8">
+        <f>ABS(AU15-AV15)</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2036,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" ref="H16:H25" si="8">ABS(E16-F16)</f>
+        <f t="shared" ref="H16:H25" si="10">ABS(E16-F16)</f>
         <v>5</v>
       </c>
       <c r="L16" s="3" t="s">
@@ -2059,7 +2411,7 @@
         <v>0.80000000000000071</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" ref="R16:R25" si="9">ABS(O16-P16)</f>
+        <f t="shared" ref="R16:R25" si="11">ABS(O16-P16)</f>
         <v>24.5</v>
       </c>
       <c r="V16" s="3" t="s">
@@ -2082,7 +2434,7 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="AB16" s="5">
-        <f t="shared" ref="AB16:AB25" si="10">ABS(Y16-Z16)</f>
+        <f t="shared" ref="AB16:AB25" si="12">ABS(Y16-Z16)</f>
         <v>27</v>
       </c>
       <c r="AG16" s="3" t="s">
@@ -2103,11 +2455,34 @@
         <v>14</v>
       </c>
       <c r="AM16" s="5">
-        <f t="shared" ref="AM16:AM25" si="11">ABS(AJ16-AK16)</f>
+        <f t="shared" ref="AM16:AM25" si="13">ABS(AJ16-AK16)</f>
         <v>4.7000000000000028</v>
       </c>
+      <c r="AR16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS16" s="4">
+        <v>14</v>
+      </c>
+      <c r="AT16" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="AU16" s="4">
+        <v>75</v>
+      </c>
+      <c r="AV16" s="4">
+        <v>67.3</v>
+      </c>
+      <c r="AW16" s="4">
+        <f>ABS(AS16-AT16)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AX16" s="5">
+        <f t="shared" ref="AX16:AX25" si="14">ABS(AU16-AV16)</f>
+        <v>7.7000000000000028</v>
+      </c>
     </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" s="7">
         <v>20.5</v>
@@ -2126,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="L17" s="6"/>
@@ -2147,7 +2522,7 @@
         <v>0.5</v>
       </c>
       <c r="R17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.7000000000000028</v>
       </c>
       <c r="V17" s="6"/>
@@ -2168,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28.300000000000011</v>
       </c>
       <c r="AG17" s="6"/>
@@ -2187,11 +2562,32 @@
         <v>20.5</v>
       </c>
       <c r="AM17" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>52</v>
       </c>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="7">
+        <v>20.5</v>
+      </c>
+      <c r="AT17" s="7">
+        <v>20.3</v>
+      </c>
+      <c r="AU17" s="7">
+        <v>105</v>
+      </c>
+      <c r="AV17" s="7">
+        <v>113</v>
+      </c>
+      <c r="AW17" s="7">
+        <f>ABS(AS17-AT17)</f>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AX17" s="8">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
@@ -2208,11 +2604,11 @@
         <v>93.8</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" ref="G18:G25" si="12">ABS(C18-D18)</f>
+        <f t="shared" ref="G18:G25" si="15">ABS(C18-D18)</f>
         <v>0.30000000000000071</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.2000000000000028</v>
       </c>
       <c r="L18" s="3" t="s">
@@ -2231,11 +2627,11 @@
         <v>100</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" ref="Q18:Q25" si="13">ABS(M18-N18)</f>
+        <f t="shared" ref="Q18:Q25" si="16">ABS(M18-N18)</f>
         <v>0.39999999999999858</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V18" s="3" t="s">
@@ -2254,11 +2650,11 @@
         <v>99.6</v>
       </c>
       <c r="AA18" s="4">
-        <f t="shared" ref="AA18:AA25" si="14">ABS(W18-X18)</f>
+        <f t="shared" ref="AA18:AA25" si="17">ABS(W18-X18)</f>
         <v>1.1000000000000014</v>
       </c>
       <c r="AB18" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.40000000000000568</v>
       </c>
       <c r="AG18" s="3" t="s">
@@ -2275,15 +2671,38 @@
         <v>108</v>
       </c>
       <c r="AL18" s="4">
-        <f t="shared" ref="AL18:AL25" si="15">ABS(AH18-AI18)</f>
+        <f t="shared" ref="AL18:AL25" si="18">ABS(AH18-AI18)</f>
         <v>16.5</v>
       </c>
       <c r="AM18" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
+      <c r="AR18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS18" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="AT18" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="AU18" s="4">
+        <v>100</v>
+      </c>
+      <c r="AV18" s="4">
+        <v>91.3</v>
+      </c>
+      <c r="AW18" s="4">
+        <f t="shared" ref="AW18:AW25" si="19">ABS(AS18-AT18)</f>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="AX18" s="5">
+        <f t="shared" si="14"/>
+        <v>8.7000000000000028</v>
+      </c>
     </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="7">
         <v>12.5</v>
@@ -2298,11 +2717,11 @@
         <v>80</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="L19" s="6"/>
@@ -2319,11 +2738,11 @@
         <v>58.5</v>
       </c>
       <c r="Q19" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.80000000000000071</v>
       </c>
       <c r="R19" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16.5</v>
       </c>
       <c r="V19" s="6"/>
@@ -2340,11 +2759,11 @@
         <v>100.8</v>
       </c>
       <c r="AA19" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5</v>
       </c>
       <c r="AB19" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>25.799999999999997</v>
       </c>
       <c r="AG19" s="6"/>
@@ -2359,15 +2778,36 @@
         <v>62</v>
       </c>
       <c r="AL19" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>12.5</v>
       </c>
       <c r="AM19" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="AT19" s="7">
+        <v>11</v>
+      </c>
+      <c r="AU19" s="7">
+        <v>75</v>
+      </c>
+      <c r="AV19" s="7">
+        <v>81</v>
+      </c>
+      <c r="AW19" s="7">
+        <f t="shared" si="19"/>
+        <v>1.5</v>
+      </c>
+      <c r="AX19" s="8">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
@@ -2384,11 +2824,11 @@
         <v>78.8</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.7999999999999972</v>
       </c>
       <c r="L20" s="3" t="s">
@@ -2407,11 +2847,11 @@
         <v>50.3</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.6999999999999993</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>21.700000000000003</v>
       </c>
       <c r="V20" s="3" t="s">
@@ -2430,11 +2870,11 @@
         <v>93.8</v>
       </c>
       <c r="AA20" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.30000000000000071</v>
       </c>
       <c r="AB20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>21.799999999999997</v>
       </c>
       <c r="AG20" s="3" t="s">
@@ -2451,15 +2891,38 @@
         <v>157</v>
       </c>
       <c r="AL20" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="AM20" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>85</v>
       </c>
+      <c r="AR20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS20" s="4">
+        <v>10</v>
+      </c>
+      <c r="AT20" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AU20" s="4">
+        <v>72</v>
+      </c>
+      <c r="AV20" s="4">
+        <v>71</v>
+      </c>
+      <c r="AW20" s="4">
+        <f t="shared" si="19"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AX20" s="5">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="7">
         <v>17.5</v>
@@ -2474,11 +2937,11 @@
         <v>74.3</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>36.700000000000003</v>
       </c>
       <c r="L21" s="6"/>
@@ -2495,11 +2958,11 @@
         <v>51.3</v>
       </c>
       <c r="Q21" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.30000000000000071</v>
       </c>
       <c r="R21" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>59.7</v>
       </c>
       <c r="V21" s="6"/>
@@ -2516,11 +2979,11 @@
         <v>99.6</v>
       </c>
       <c r="AA21" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.60000000000000142</v>
       </c>
       <c r="AB21" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>11.400000000000006</v>
       </c>
       <c r="AG21" s="6"/>
@@ -2535,15 +2998,36 @@
         <v>75.3</v>
       </c>
       <c r="AL21" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>17.5</v>
       </c>
       <c r="AM21" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>35.700000000000003</v>
       </c>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="AT21" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="AU21" s="7">
+        <v>111</v>
+      </c>
+      <c r="AV21" s="7">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="AW21" s="7">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AX21" s="8">
+        <f t="shared" si="14"/>
+        <v>29.400000000000006</v>
+      </c>
     </row>
-    <row r="22" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
@@ -2560,11 +3044,11 @@
         <v>85.5</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.90000000000000036</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="L22" s="3" t="s">
@@ -2583,11 +3067,11 @@
         <v>48.4</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.90000000000000036</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>45.6</v>
       </c>
       <c r="V22" s="3" t="s">
@@ -2606,11 +3090,11 @@
         <v>108.4</v>
       </c>
       <c r="AA22" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5999999999999996</v>
       </c>
       <c r="AB22" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>14.400000000000006</v>
       </c>
       <c r="AG22" s="3" t="s">
@@ -2627,15 +3111,38 @@
         <v>75</v>
       </c>
       <c r="AL22" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>15.5</v>
       </c>
       <c r="AM22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
+      <c r="AR22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS22" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="AT22" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="AU22" s="4">
+        <v>94</v>
+      </c>
+      <c r="AV22" s="4">
+        <v>72.5</v>
+      </c>
+      <c r="AW22" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AX22" s="5">
+        <f t="shared" si="14"/>
+        <v>21.5</v>
+      </c>
     </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="7">
         <v>13</v>
@@ -2650,11 +3157,11 @@
         <v>76</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.80000000000000071</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="L23" s="6"/>
@@ -2671,11 +3178,11 @@
         <v>63.7</v>
       </c>
       <c r="Q23" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.80000000000000071</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>30.299999999999997</v>
       </c>
       <c r="V23" s="6"/>
@@ -2692,11 +3199,11 @@
         <v>112.8</v>
       </c>
       <c r="AA23" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3000000000000007</v>
       </c>
       <c r="AB23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>18.799999999999997</v>
       </c>
       <c r="AG23" s="6"/>
@@ -2711,15 +3218,36 @@
         <v>115.5</v>
       </c>
       <c r="AL23" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
       <c r="AM23" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21.5</v>
       </c>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="7">
+        <v>13</v>
+      </c>
+      <c r="AT23" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="AU23" s="7">
+        <v>94</v>
+      </c>
+      <c r="AV23" s="7">
+        <v>106</v>
+      </c>
+      <c r="AW23" s="7">
+        <f t="shared" si="19"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="AX23" s="8">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
@@ -2736,11 +3264,11 @@
         <v>98.2</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.59999999999999964</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.7999999999999972</v>
       </c>
       <c r="L24" s="3" t="s">
@@ -2759,11 +3287,11 @@
         <v>49</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.90000000000000036</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>55</v>
       </c>
       <c r="V24" s="3" t="s">
@@ -2782,11 +3310,11 @@
         <v>126</v>
       </c>
       <c r="AA24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3000000000000007</v>
       </c>
       <c r="AB24" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="AG24" s="3" t="s">
@@ -2803,15 +3331,38 @@
         <v>120</v>
       </c>
       <c r="AL24" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>14.5</v>
       </c>
       <c r="AM24" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
+      <c r="AR24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS24" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="AT24" s="4">
+        <v>14</v>
+      </c>
+      <c r="AU24" s="4">
+        <v>104</v>
+      </c>
+      <c r="AV24" s="4">
+        <v>99.5</v>
+      </c>
+      <c r="AW24" s="4">
+        <f t="shared" si="19"/>
+        <v>0.5</v>
+      </c>
+      <c r="AX24" s="5">
+        <f t="shared" si="14"/>
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="7">
         <v>11</v>
@@ -2826,11 +3377,11 @@
         <v>76.3</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>21.700000000000003</v>
       </c>
       <c r="L25" s="6"/>
@@ -2847,11 +3398,11 @@
         <v>61.4</v>
       </c>
       <c r="Q25" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.90000000000000036</v>
       </c>
       <c r="R25" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>36.6</v>
       </c>
       <c r="V25" s="6"/>
@@ -2868,11 +3419,11 @@
         <v>93.8</v>
       </c>
       <c r="AA25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.69999999999999929</v>
       </c>
       <c r="AB25" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.2000000000000028</v>
       </c>
       <c r="AG25" s="6"/>
@@ -2887,45 +3438,72 @@
         <v>219</v>
       </c>
       <c r="AL25" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
       <c r="AM25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>121</v>
       </c>
+      <c r="AR25" s="6"/>
+      <c r="AS25" s="7">
+        <v>11</v>
+      </c>
+      <c r="AT25" s="7">
+        <v>10</v>
+      </c>
+      <c r="AU25" s="7">
+        <v>98</v>
+      </c>
+      <c r="AV25" s="7">
+        <v>86.5</v>
+      </c>
+      <c r="AW25" s="7">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AX25" s="8">
+        <f t="shared" si="14"/>
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="26" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:50" x14ac:dyDescent="0.25">
       <c r="G26">
         <f>AVERAGE(G2:G25)</f>
-        <v>0.85624999999999984</v>
+        <v>0.85833333333333339</v>
       </c>
       <c r="H26">
         <f>AVERAGE(H2:H25)</f>
         <v>12.983333333333333</v>
       </c>
-      <c r="Q26" s="15">
+      <c r="Q26">
         <f>AVERAGE(Q2:Q25)</f>
-        <v>0.6312500000000002</v>
-      </c>
-      <c r="R26" s="15">
+        <v>0.62916666666666676</v>
+      </c>
+      <c r="R26">
         <f>AVERAGE(R2:R25)</f>
         <v>29.125</v>
       </c>
-      <c r="S26" s="16"/>
       <c r="AA26">
         <f>AVERAGE(AA2:AA25)</f>
-        <v>2.4395833333333337</v>
+        <v>2.4416666666666669</v>
       </c>
       <c r="AB26">
         <f>AVERAGE(AB2:AB25)</f>
         <v>14.168749999999998</v>
       </c>
-      <c r="AM26" s="15">
+      <c r="AM26">
         <f>AVERAGE(AM2:AM25)</f>
         <v>39.412500000000009</v>
       </c>
-      <c r="AN26" s="16"/>
+      <c r="AW26">
+        <f>AVERAGE(AW2:AW25)</f>
+        <v>0.60833333333333306</v>
+      </c>
+      <c r="AX26">
+        <f>AVERAGE(AX2:AX25)</f>
+        <v>15.5375</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02A5ACE-101C-4A0B-BED2-57D0468E0567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F867D7AC-94D7-4961-8570-89447AF809D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +914,7 @@
         <v>71</v>
       </c>
       <c r="P3" s="9">
-        <v>82.7</v>
+        <v>82.5</v>
       </c>
       <c r="Q3" s="9">
         <f t="shared" ref="Q3:Q12" si="2">ABS(M3-N3)</f>
@@ -922,7 +922,7 @@
       </c>
       <c r="R3" s="9">
         <f t="shared" ref="R3:R12" si="3">ABS(O3-P3)</f>
-        <v>11.700000000000003</v>
+        <v>11.5</v>
       </c>
       <c r="V3" s="9" t="s">
         <v>1</v>
@@ -1029,7 +1029,7 @@
         <v>100</v>
       </c>
       <c r="P4" s="9">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="9">
         <f t="shared" si="2"/>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="R4" s="9">
         <f t="shared" si="3"/>
-        <v>0.29999999999999716</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9" t="s">
         <v>2</v>
@@ -1144,7 +1144,7 @@
         <v>64</v>
       </c>
       <c r="P5" s="9">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="10">
         <f t="shared" si="2"/>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="R5" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V5" s="10" t="s">
         <v>3</v>
@@ -1260,7 +1260,7 @@
         <v>107</v>
       </c>
       <c r="P6" s="9">
-        <v>104.8</v>
+        <v>105</v>
       </c>
       <c r="Q6" s="9">
         <f t="shared" si="2"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="R6" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000028</v>
+        <v>2</v>
       </c>
       <c r="V6" s="9" t="s">
         <v>15</v>
@@ -1376,7 +1376,7 @@
         <v>108</v>
       </c>
       <c r="P7" s="9">
-        <v>64.8</v>
+        <v>86.5</v>
       </c>
       <c r="Q7" s="9">
         <f t="shared" si="2"/>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="R7" s="9">
         <f t="shared" si="3"/>
-        <v>43.2</v>
+        <v>21.5</v>
       </c>
       <c r="V7" s="9" t="s">
         <v>16</v>
@@ -1492,7 +1492,7 @@
         <v>110</v>
       </c>
       <c r="P8" s="9">
-        <v>49.8</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="9">
         <f t="shared" si="2"/>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="R8" s="9">
         <f t="shared" si="3"/>
-        <v>60.2</v>
+        <v>59</v>
       </c>
       <c r="V8" s="9" t="s">
         <v>17</v>
@@ -1607,7 +1607,7 @@
         <v>113</v>
       </c>
       <c r="P9" s="9">
-        <v>62.1</v>
+        <v>60.5</v>
       </c>
       <c r="Q9" s="9">
         <f t="shared" si="2"/>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="R9" s="9">
         <f t="shared" si="3"/>
-        <v>50.9</v>
+        <v>52.5</v>
       </c>
       <c r="V9" s="9" t="s">
         <v>18</v>
@@ -1722,7 +1722,7 @@
         <v>110</v>
       </c>
       <c r="P10" s="9">
-        <v>75.599999999999994</v>
+        <v>75.5</v>
       </c>
       <c r="Q10" s="9">
         <f t="shared" si="2"/>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="R10" s="9">
         <f t="shared" si="3"/>
-        <v>34.400000000000006</v>
+        <v>34.5</v>
       </c>
       <c r="V10" s="9" t="s">
         <v>19</v>
@@ -1831,21 +1831,21 @@
         <v>19.5</v>
       </c>
       <c r="N11" s="9">
-        <v>18.899999999999999</v>
+        <v>19</v>
       </c>
       <c r="O11" s="9">
         <v>102</v>
       </c>
       <c r="P11" s="9">
-        <v>57.2</v>
+        <v>95.5</v>
       </c>
       <c r="Q11" s="9">
         <f t="shared" si="2"/>
-        <v>0.60000000000000142</v>
+        <v>0.5</v>
       </c>
       <c r="R11" s="9">
         <f t="shared" si="3"/>
-        <v>44.8</v>
+        <v>6.5</v>
       </c>
       <c r="V11" s="9" t="s">
         <v>20</v>
@@ -2061,21 +2061,21 @@
         <v>10</v>
       </c>
       <c r="N13" s="9">
-        <v>8.3000000000000007</v>
+        <v>8.1</v>
       </c>
       <c r="O13" s="9">
         <v>90</v>
       </c>
       <c r="P13" s="9">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="9">
         <f>ABS(M13-N13)</f>
-        <v>1.6999999999999993</v>
+        <v>1.9000000000000004</v>
       </c>
       <c r="R13" s="9">
         <f>ABS(O13-P13)</f>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="V13" s="9" t="s">
         <v>30</v>
@@ -2183,7 +2183,7 @@
         <v>67</v>
       </c>
       <c r="P14" s="4">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="4">
         <f>ABS(M14-N14)</f>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="R14" s="5">
         <f>ABS(O14-P14)</f>
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
@@ -2295,7 +2295,7 @@
         <v>105</v>
       </c>
       <c r="P15" s="7">
-        <v>60.8</v>
+        <v>61</v>
       </c>
       <c r="Q15" s="7">
         <f>ABS(M15-N15)</f>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="R15" s="8">
         <f>ABS(O15-P15)</f>
-        <v>44.2</v>
+        <v>44</v>
       </c>
       <c r="V15" s="6"/>
       <c r="W15" s="7">
@@ -2515,7 +2515,7 @@
         <v>105</v>
       </c>
       <c r="P17" s="7">
-        <v>96.3</v>
+        <v>48.5</v>
       </c>
       <c r="Q17" s="7">
         <f>ABS(M17-N17)</f>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="R17" s="8">
         <f t="shared" si="11"/>
-        <v>8.7000000000000028</v>
+        <v>56.5</v>
       </c>
       <c r="V17" s="6"/>
       <c r="W17" s="7">
@@ -2735,7 +2735,7 @@
         <v>75</v>
       </c>
       <c r="P19" s="7">
-        <v>58.5</v>
+        <v>55.5</v>
       </c>
       <c r="Q19" s="7">
         <f t="shared" si="16"/>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="R19" s="8">
         <f t="shared" si="11"/>
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="V19" s="6"/>
       <c r="W19" s="7">
@@ -2844,7 +2844,7 @@
         <v>72</v>
       </c>
       <c r="P20" s="4">
-        <v>50.3</v>
+        <v>49.5</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="16"/>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="R20" s="5">
         <f t="shared" si="11"/>
-        <v>21.700000000000003</v>
+        <v>22.5</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>27</v>
@@ -2955,7 +2955,7 @@
         <v>111</v>
       </c>
       <c r="P21" s="7">
-        <v>51.3</v>
+        <v>63.5</v>
       </c>
       <c r="Q21" s="7">
         <f t="shared" si="16"/>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="R21" s="8">
         <f t="shared" si="11"/>
-        <v>59.7</v>
+        <v>47.5</v>
       </c>
       <c r="V21" s="6"/>
       <c r="W21" s="7">
@@ -3064,7 +3064,7 @@
         <v>94</v>
       </c>
       <c r="P22" s="4">
-        <v>48.4</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="4">
         <f t="shared" si="16"/>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="R22" s="5">
         <f t="shared" si="11"/>
-        <v>45.6</v>
+        <v>22</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>28</v>
@@ -3175,7 +3175,7 @@
         <v>94</v>
       </c>
       <c r="P23" s="7">
-        <v>63.7</v>
+        <v>63.5</v>
       </c>
       <c r="Q23" s="7">
         <f t="shared" si="16"/>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="R23" s="8">
         <f t="shared" si="11"/>
-        <v>30.299999999999997</v>
+        <v>30.5</v>
       </c>
       <c r="V23" s="6"/>
       <c r="W23" s="7">
@@ -3284,7 +3284,7 @@
         <v>104</v>
       </c>
       <c r="P24" s="4">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="Q24" s="4">
         <f t="shared" si="16"/>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="R24" s="5">
         <f t="shared" si="11"/>
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>29</v>
@@ -3395,7 +3395,7 @@
         <v>98</v>
       </c>
       <c r="P25" s="7">
-        <v>61.4</v>
+        <v>61.5</v>
       </c>
       <c r="Q25" s="7">
         <f t="shared" si="16"/>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="R25" s="8">
         <f t="shared" si="11"/>
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="V25" s="6"/>
       <c r="W25" s="7">
@@ -3478,11 +3478,11 @@
       </c>
       <c r="Q26">
         <f>AVERAGE(Q2:Q25)</f>
-        <v>0.62916666666666676</v>
+        <v>0.63333333333333341</v>
       </c>
       <c r="R26">
         <f>AVERAGE(R2:R25)</f>
-        <v>29.125</v>
+        <v>24.104166666666668</v>
       </c>
       <c r="AA26">
         <f>AVERAGE(AA2:AA25)</f>

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F867D7AC-94D7-4961-8570-89447AF809D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD4FBBE-0991-4861-81E2-C5E92B6B8A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="38">
   <si>
     <t>yosef</t>
   </si>
@@ -133,6 +133,24 @@
   <si>
     <t>Remote Monitoring</t>
   </si>
+  <si>
+    <t>yosef-muhamad-vasile</t>
+  </si>
+  <si>
+    <t>x-vasile-yosef-muhamad</t>
+  </si>
+  <si>
+    <t>yosef-x-muhamad-vasile</t>
+  </si>
+  <si>
+    <t>muhamad-vasile-x-yosef</t>
+  </si>
+  <si>
+    <t>christian-muhamad-yosef-vasile</t>
+  </si>
+  <si>
+    <t>christian-vasile-muhamad-yosef</t>
+  </si>
 </sst>
 </file>
 
@@ -176,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -298,11 +316,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -312,12 +361,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -598,29 +653,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX26"/>
+  <dimension ref="A1:AY46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="AC16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AM46" sqref="AM46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="29" customWidth="1"/>
     <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="8" customWidth="1"/>
-    <col min="33" max="33" width="17.28515625" customWidth="1"/>
+    <col min="33" max="33" width="28.5703125" customWidth="1"/>
     <col min="35" max="35" width="10.28515625" customWidth="1"/>
-    <col min="43" max="43" width="17.42578125" customWidth="1"/>
-    <col min="44" max="44" width="18.7109375" customWidth="1"/>
+    <col min="43" max="43" width="18.5703125" customWidth="1"/>
+    <col min="44" max="44" width="28.140625" customWidth="1"/>
     <col min="48" max="48" width="9.140625" customWidth="1"/>
     <col min="49" max="49" width="9.85546875" customWidth="1"/>
   </cols>
@@ -629,129 +684,129 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="15" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="15" t="s">
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="Z1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="15" t="s">
         <v>12</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AK1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="15" t="s">
         <v>12</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AV1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AV1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="9">
@@ -770,14 +825,14 @@
         <f>ABS(C2-D2)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="10">
         <f>ABS(E2-F2)</f>
         <v>13.700000000000003</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="9">
@@ -796,14 +851,14 @@
         <f>ABS(M2-N2)</f>
         <v>0.10000000000000142</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="10">
         <f>ABS(O2-P2)</f>
         <v>2.5</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="W2" s="9">
@@ -822,14 +877,14 @@
         <f>ABS(W2-X2)</f>
         <v>0.19999999999999929</v>
       </c>
-      <c r="AB2" s="9">
+      <c r="AB2" s="10">
         <f>ABS(Y2-Z2)</f>
         <v>2.5</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AF2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AG2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="AH2" s="9">
@@ -846,14 +901,14 @@
         <f>ABS(AH2-AI2)</f>
         <v>17</v>
       </c>
-      <c r="AM2" s="9">
+      <c r="AM2" s="10">
         <f>ABS(AJ2-AK2)</f>
         <v>18.299999999999997</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AQ2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AR2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="AS2" s="9">
@@ -872,13 +927,13 @@
         <f>ABS(AS2-AT2)</f>
         <v>0</v>
       </c>
-      <c r="AX2" s="9">
+      <c r="AX2" s="10">
         <f>ABS(AU2-AV2)</f>
         <v>0.59999999999999432</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="9">
@@ -897,11 +952,11 @@
         <f t="shared" ref="G3:G12" si="0">ABS(C3-D3)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="10">
         <f t="shared" ref="H3:H12" si="1">ABS(E3-F3)</f>
         <v>6</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="9">
@@ -920,11 +975,11 @@
         <f t="shared" ref="Q3:Q12" si="2">ABS(M3-N3)</f>
         <v>0.19999999999999929</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="10">
         <f t="shared" ref="R3:R12" si="3">ABS(O3-P3)</f>
         <v>11.5</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="W3" s="9">
@@ -943,11 +998,11 @@
         <f t="shared" ref="AA3:AA12" si="4">ABS(W3-X3)</f>
         <v>1.8000000000000007</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AB3" s="10">
         <f t="shared" ref="AB3:AB12" si="5">ABS(Y3-Z3)</f>
         <v>44.3</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AG3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="AH3" s="9">
@@ -964,11 +1019,11 @@
         <f t="shared" ref="AL3:AL12" si="6">ABS(AH3-AI3)</f>
         <v>12</v>
       </c>
-      <c r="AM3" s="9">
+      <c r="AM3" s="10">
         <f t="shared" ref="AM3:AM12" si="7">ABS(AJ3-AK3)</f>
         <v>10</v>
       </c>
-      <c r="AR3" s="9" t="s">
+      <c r="AR3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="AS3" s="9">
@@ -987,13 +1042,13 @@
         <f t="shared" ref="AW3:AW12" si="8">ABS(AS3-AT3)</f>
         <v>1</v>
       </c>
-      <c r="AX3" s="9">
+      <c r="AX3" s="10">
         <f t="shared" ref="AX3:AX12" si="9">ABS(AU3-AV3)</f>
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="9">
@@ -1012,11 +1067,11 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="9">
@@ -1035,11 +1090,11 @@
         <f t="shared" si="2"/>
         <v>0.19999999999999929</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="W4" s="9">
@@ -1058,11 +1113,11 @@
         <f t="shared" si="4"/>
         <v>0.39999999999999858</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AB4" s="10">
         <f t="shared" si="5"/>
         <v>1.7000000000000028</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AG4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="AH4" s="9">
@@ -1079,11 +1134,11 @@
         <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
-      <c r="AM4" s="9">
+      <c r="AM4" s="10">
         <f t="shared" si="7"/>
         <v>53.300000000000011</v>
       </c>
-      <c r="AR4" s="9" t="s">
+      <c r="AR4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="AS4" s="9">
@@ -1102,13 +1157,13 @@
         <f t="shared" si="8"/>
         <v>0.19999999999999929</v>
       </c>
-      <c r="AX4" s="9">
+      <c r="AX4" s="10">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="9">
@@ -1127,26 +1182,26 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="10">
         <f t="shared" si="1"/>
         <v>20.799999999999997</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
         <v>12.5</v>
       </c>
       <c r="N5" s="9">
         <v>12</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="9">
         <v>64</v>
       </c>
       <c r="P5" s="9">
         <v>66</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="9">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
@@ -1154,22 +1209,22 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="V5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="10">
+      <c r="W5" s="9">
         <v>12.5</v>
       </c>
-      <c r="X5" s="10">
+      <c r="X5" s="9">
         <v>11.7</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y5" s="9">
         <v>64</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="Z5" s="9">
         <v>93.75</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AA5" s="9">
         <f t="shared" si="4"/>
         <v>0.80000000000000071</v>
       </c>
@@ -1177,20 +1232,20 @@
         <f t="shared" si="5"/>
         <v>29.75</v>
       </c>
-      <c r="AG5" s="10" t="s">
+      <c r="AG5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AH5" s="10">
+      <c r="AH5" s="9">
         <v>12.5</v>
       </c>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10">
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9">
         <v>64</v>
       </c>
-      <c r="AK5" s="10">
+      <c r="AK5" s="9">
         <v>64.3</v>
       </c>
-      <c r="AL5" s="10">
+      <c r="AL5" s="9">
         <f t="shared" si="6"/>
         <v>12.5</v>
       </c>
@@ -1198,7 +1253,7 @@
         <f t="shared" si="7"/>
         <v>0.29999999999999716</v>
       </c>
-      <c r="AR5" s="9" t="s">
+      <c r="AR5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="AS5" s="9">
@@ -1217,13 +1272,13 @@
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="AX5" s="9">
+      <c r="AX5" s="10">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="9">
@@ -1242,12 +1297,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="9" t="s">
+      <c r="K6" s="11"/>
+      <c r="L6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="M6" s="9">
@@ -1266,11 +1321,11 @@
         <f t="shared" si="2"/>
         <v>1.3000000000000007</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="10">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="W6" s="9">
@@ -1289,11 +1344,11 @@
         <f t="shared" si="4"/>
         <v>0.40000000000000036</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AB6" s="10">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AG6" s="9" t="s">
+      <c r="AG6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="AH6" s="9">
@@ -1310,11 +1365,11 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="AM6" s="9">
+      <c r="AM6" s="10">
         <f t="shared" si="7"/>
         <v>109</v>
       </c>
-      <c r="AR6" s="9" t="s">
+      <c r="AR6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="AS6" s="9">
@@ -1333,13 +1388,13 @@
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="AX6" s="9">
+      <c r="AX6" s="10">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="9">
@@ -1358,12 +1413,12 @@
         <f t="shared" si="0"/>
         <v>0.10000000000000142</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="10">
         <f t="shared" si="1"/>
         <v>13.700000000000003</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="9" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="14" t="s">
         <v>16</v>
       </c>
       <c r="M7" s="9">
@@ -1382,17 +1437,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="10">
         <f t="shared" si="3"/>
         <v>21.5</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="V7" s="14" t="s">
         <v>16</v>
       </c>
       <c r="W7" s="9">
         <v>21.8</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X7" s="16">
         <v>2.9</v>
       </c>
       <c r="Y7" s="9">
@@ -1401,21 +1456,21 @@
       <c r="Z7" s="9">
         <v>109.8</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7" s="17">
         <f t="shared" si="4"/>
         <v>18.900000000000002</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AB7" s="10">
         <f t="shared" si="5"/>
         <v>1.7999999999999972</v>
       </c>
-      <c r="AG7" s="9" t="s">
+      <c r="AG7" s="14" t="s">
         <v>16</v>
       </c>
       <c r="AH7" s="9">
         <v>21.8</v>
       </c>
-      <c r="AI7" s="11"/>
+      <c r="AI7" s="16"/>
       <c r="AJ7" s="9">
         <v>108</v>
       </c>
@@ -1426,11 +1481,11 @@
         <f t="shared" si="6"/>
         <v>21.8</v>
       </c>
-      <c r="AM7" s="9">
+      <c r="AM7" s="10">
         <f t="shared" si="7"/>
         <v>108</v>
       </c>
-      <c r="AR7" s="9" t="s">
+      <c r="AR7" s="14" t="s">
         <v>16</v>
       </c>
       <c r="AS7" s="9">
@@ -1449,13 +1504,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AX7" s="9">
+      <c r="AX7" s="10">
         <f t="shared" si="9"/>
         <v>16.200000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="9">
@@ -1474,12 +1529,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="9" t="s">
+      <c r="K8" s="11"/>
+      <c r="L8" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="9">
@@ -1498,11 +1553,11 @@
         <f t="shared" si="2"/>
         <v>0.60000000000000142</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="10">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="V8" s="14" t="s">
         <v>17</v>
       </c>
       <c r="W8" s="9">
@@ -1517,15 +1572,15 @@
       <c r="Z8" s="9">
         <v>111.3</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA8" s="17">
         <f t="shared" si="4"/>
         <v>23.1</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AB8" s="10">
         <f t="shared" si="5"/>
         <v>1.2999999999999972</v>
       </c>
-      <c r="AG8" s="9" t="s">
+      <c r="AG8" s="14" t="s">
         <v>17</v>
       </c>
       <c r="AH8" s="9">
@@ -1542,11 +1597,11 @@
         <f t="shared" si="6"/>
         <v>24.5</v>
       </c>
-      <c r="AM8" s="9">
+      <c r="AM8" s="10">
         <f t="shared" si="7"/>
         <v>112</v>
       </c>
-      <c r="AR8" s="9" t="s">
+      <c r="AR8" s="14" t="s">
         <v>17</v>
       </c>
       <c r="AS8" s="9">
@@ -1565,13 +1620,13 @@
         <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
-      <c r="AX8" s="9">
+      <c r="AX8" s="10">
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="9">
@@ -1590,11 +1645,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="10">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="14" t="s">
         <v>18</v>
       </c>
       <c r="M9" s="9">
@@ -1613,11 +1668,11 @@
         <f t="shared" si="2"/>
         <v>0.89999999999999858</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="10">
         <f t="shared" si="3"/>
         <v>52.5</v>
       </c>
-      <c r="V9" s="9" t="s">
+      <c r="V9" s="14" t="s">
         <v>18</v>
       </c>
       <c r="W9" s="9">
@@ -1636,11 +1691,11 @@
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AB9" s="10">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="AG9" s="9" t="s">
+      <c r="AG9" s="14" t="s">
         <v>18</v>
       </c>
       <c r="AH9" s="9">
@@ -1657,11 +1712,11 @@
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="AM9" s="9">
+      <c r="AM9" s="10">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="AR9" s="9" t="s">
+      <c r="AR9" s="14" t="s">
         <v>18</v>
       </c>
       <c r="AS9" s="9">
@@ -1680,13 +1735,13 @@
         <f t="shared" si="8"/>
         <v>1.1999999999999993</v>
       </c>
-      <c r="AX9" s="9">
+      <c r="AX9" s="10">
         <f t="shared" si="9"/>
         <v>41.8</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="9">
@@ -1705,11 +1760,11 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="M10" s="9">
@@ -1728,11 +1783,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="10">
         <f t="shared" si="3"/>
         <v>34.5</v>
       </c>
-      <c r="V10" s="9" t="s">
+      <c r="V10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="W10" s="9">
@@ -1751,11 +1806,11 @@
         <f t="shared" si="4"/>
         <v>0.60000000000000142</v>
       </c>
-      <c r="AB10" s="9">
+      <c r="AB10" s="10">
         <f t="shared" si="5"/>
         <v>2.9000000000000057</v>
       </c>
-      <c r="AG10" s="9" t="s">
+      <c r="AG10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="AH10" s="9">
@@ -1772,11 +1827,11 @@
         <f t="shared" si="6"/>
         <v>25.5</v>
       </c>
-      <c r="AM10" s="9">
+      <c r="AM10" s="10">
         <f t="shared" si="7"/>
         <v>96</v>
       </c>
-      <c r="AR10" s="9" t="s">
+      <c r="AR10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="AS10" s="9">
@@ -1795,13 +1850,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AX10" s="9">
+      <c r="AX10" s="10">
         <f t="shared" si="9"/>
         <v>34.5</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="9">
@@ -1820,11 +1875,11 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="10">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="14" t="s">
         <v>20</v>
       </c>
       <c r="M11" s="9">
@@ -1843,11 +1898,11 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="10">
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
-      <c r="V11" s="9" t="s">
+      <c r="V11" s="14" t="s">
         <v>20</v>
       </c>
       <c r="W11" s="9">
@@ -1866,11 +1921,11 @@
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="AB11" s="9">
+      <c r="AB11" s="10">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="AG11" s="9" t="s">
+      <c r="AG11" s="14" t="s">
         <v>20</v>
       </c>
       <c r="AH11" s="9">
@@ -1887,11 +1942,11 @@
         <f t="shared" si="6"/>
         <v>19.5</v>
       </c>
-      <c r="AM11" s="9">
+      <c r="AM11" s="10">
         <f t="shared" si="7"/>
         <v>27.700000000000003</v>
       </c>
-      <c r="AR11" s="9" t="s">
+      <c r="AR11" s="14" t="s">
         <v>20</v>
       </c>
       <c r="AS11" s="9">
@@ -1910,13 +1965,13 @@
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="AX11" s="9">
+      <c r="AX11" s="10">
         <f t="shared" si="9"/>
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="9">
@@ -1935,11 +1990,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="14" t="s">
         <v>21</v>
       </c>
       <c r="M12" s="9">
@@ -1958,11 +2013,11 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="10">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="V12" s="9" t="s">
+      <c r="V12" s="14" t="s">
         <v>21</v>
       </c>
       <c r="W12" s="9">
@@ -1981,11 +2036,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="9">
+      <c r="AB12" s="10">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="AG12" s="9" t="s">
+      <c r="AG12" s="14" t="s">
         <v>21</v>
       </c>
       <c r="AH12" s="9">
@@ -2002,11 +2057,11 @@
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="AM12" s="9">
+      <c r="AM12" s="10">
         <f t="shared" si="7"/>
         <v>6.7000000000000028</v>
       </c>
-      <c r="AR12" s="9" t="s">
+      <c r="AR12" s="14" t="s">
         <v>21</v>
       </c>
       <c r="AS12" s="9">
@@ -2025,13 +2080,13 @@
         <f t="shared" si="8"/>
         <v>0.19999999999999929</v>
       </c>
-      <c r="AX12" s="9">
+      <c r="AX12" s="10">
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="9">
@@ -2050,11 +2105,11 @@
         <f>ABS(C13-D13)</f>
         <v>1.4000000000000004</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="10">
         <f>ABS(E13-F13)</f>
         <v>1.9000000000000057</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="14" t="s">
         <v>30</v>
       </c>
       <c r="M13" s="9">
@@ -2073,34 +2128,34 @@
         <f>ABS(M13-N13)</f>
         <v>1.9000000000000004</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="10">
         <f>ABS(O13-P13)</f>
         <v>26</v>
       </c>
-      <c r="V13" s="9" t="s">
+      <c r="V13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="W13" s="12">
-        <v>10</v>
-      </c>
-      <c r="X13" s="12">
+      <c r="W13" s="9">
+        <v>10</v>
+      </c>
+      <c r="X13" s="9">
         <v>8.8000000000000007</v>
       </c>
-      <c r="Y13" s="12">
+      <c r="Y13" s="9">
         <v>90</v>
       </c>
-      <c r="Z13" s="12">
+      <c r="Z13" s="9">
         <v>108.4</v>
       </c>
-      <c r="AA13" s="12">
+      <c r="AA13" s="9">
         <f>ABS(W13-X13)</f>
         <v>1.1999999999999993</v>
       </c>
-      <c r="AB13" s="13">
+      <c r="AB13" s="10">
         <f>ABS(Y13-Z13)</f>
         <v>18.400000000000006</v>
       </c>
-      <c r="AG13" s="9" t="s">
+      <c r="AG13" s="14" t="s">
         <v>30</v>
       </c>
       <c r="AH13" s="9">
@@ -2117,11 +2172,11 @@
         <f>ABS(AH13-AI13)</f>
         <v>10</v>
       </c>
-      <c r="AM13" s="9">
+      <c r="AM13" s="10">
         <f>ABS(AJ13-AK13)</f>
         <v>10.5</v>
       </c>
-      <c r="AR13" s="9" t="s">
+      <c r="AR13" s="14" t="s">
         <v>30</v>
       </c>
       <c r="AS13" s="9">
@@ -2140,124 +2195,123 @@
         <f>ABS(AS13-AT13)</f>
         <v>1</v>
       </c>
-      <c r="AX13" s="9">
+      <c r="AX13" s="10">
         <f>ABS(AU13-AV13)</f>
         <v>23.5</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>12</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14">
         <v>67</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14">
         <v>69</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14">
         <f>ABS(C14-D14)</f>
         <v>1</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="13">
         <f>ABS(E14-F14)</f>
         <v>2</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14">
         <v>12</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14">
         <v>11.7</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14">
         <v>67</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14">
         <v>50</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14">
         <f>ABS(M14-N14)</f>
         <v>0.30000000000000071</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="13">
         <f>ABS(O14-P14)</f>
         <v>17</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14">
         <v>12</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14">
         <v>11.7</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y14">
         <v>67</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="Z14">
         <v>110.3</v>
       </c>
-      <c r="AA14" s="4">
+      <c r="AA14">
         <f>ABS(W14-X14)</f>
         <v>0.30000000000000071</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AB14" s="13">
         <f>ABS(Y14-Z14)</f>
         <v>43.3</v>
       </c>
-      <c r="AG14" s="3" t="s">
+      <c r="AG14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AH14" s="4">
+      <c r="AH14">
         <v>12</v>
       </c>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4">
+      <c r="AJ14">
         <v>67</v>
       </c>
-      <c r="AK14" s="4">
+      <c r="AK14">
         <v>69.7</v>
       </c>
-      <c r="AL14" s="4">
+      <c r="AL14">
         <f>ABS(AH14-AI14)</f>
         <v>12</v>
       </c>
-      <c r="AM14" s="5">
+      <c r="AM14" s="13">
         <f>ABS(AJ14-AK14)</f>
         <v>2.7000000000000028</v>
       </c>
       <c r="AQ14" s="2"/>
-      <c r="AR14" s="3" t="s">
+      <c r="AR14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AS14" s="4">
+      <c r="AS14">
         <v>12</v>
       </c>
-      <c r="AT14" s="4">
+      <c r="AT14">
         <v>11.5</v>
       </c>
-      <c r="AU14" s="4">
+      <c r="AU14">
         <v>67</v>
       </c>
-      <c r="AV14" s="4">
+      <c r="AV14">
         <v>70</v>
       </c>
-      <c r="AW14" s="4">
+      <c r="AW14">
         <f>ABS(AS14-AT14)</f>
         <v>0.5</v>
       </c>
-      <c r="AX14" s="5">
+      <c r="AX14" s="13">
         <f>ABS(AU14-AV14)</f>
         <v>3</v>
       </c>
@@ -2388,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" ref="H16:H25" si="10">ABS(E16-F16)</f>
+        <f t="shared" ref="H16:H45" si="10">ABS(E16-F16)</f>
         <v>5</v>
       </c>
       <c r="L16" s="3" t="s">
@@ -2411,7 +2465,7 @@
         <v>0.80000000000000071</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" ref="R16:R25" si="11">ABS(O16-P16)</f>
+        <f t="shared" ref="R16:R45" si="11">ABS(O16-P16)</f>
         <v>24.5</v>
       </c>
       <c r="V16" s="3" t="s">
@@ -2434,7 +2488,7 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="AB16" s="5">
-        <f t="shared" ref="AB16:AB25" si="12">ABS(Y16-Z16)</f>
+        <f t="shared" ref="AB16:AB45" si="12">ABS(Y16-Z16)</f>
         <v>27</v>
       </c>
       <c r="AG16" s="3" t="s">
@@ -2455,7 +2509,7 @@
         <v>14</v>
       </c>
       <c r="AM16" s="5">
-        <f t="shared" ref="AM16:AM25" si="13">ABS(AJ16-AK16)</f>
+        <f t="shared" ref="AM16:AM45" si="13">ABS(AJ16-AK16)</f>
         <v>4.7000000000000028</v>
       </c>
       <c r="AR16" s="3" t="s">
@@ -2478,7 +2532,7 @@
         <v>0.5</v>
       </c>
       <c r="AX16" s="5">
-        <f t="shared" ref="AX16:AX25" si="14">ABS(AU16-AV16)</f>
+        <f t="shared" ref="AX16:AX45" si="14">ABS(AU16-AV16)</f>
         <v>7.7000000000000028</v>
       </c>
     </row>
@@ -2604,7 +2658,7 @@
         <v>93.8</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" ref="G18:G25" si="15">ABS(C18-D18)</f>
+        <f t="shared" ref="G18:G45" si="15">ABS(C18-D18)</f>
         <v>0.30000000000000071</v>
       </c>
       <c r="H18" s="5">
@@ -2627,7 +2681,7 @@
         <v>100</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" ref="Q18:Q25" si="16">ABS(M18-N18)</f>
+        <f t="shared" ref="Q18:Q45" si="16">ABS(M18-N18)</f>
         <v>0.39999999999999858</v>
       </c>
       <c r="R18" s="5">
@@ -2650,7 +2704,7 @@
         <v>99.6</v>
       </c>
       <c r="AA18" s="4">
-        <f t="shared" ref="AA18:AA25" si="17">ABS(W18-X18)</f>
+        <f t="shared" ref="AA18:AA45" si="17">ABS(W18-X18)</f>
         <v>1.1000000000000014</v>
       </c>
       <c r="AB18" s="5">
@@ -2671,7 +2725,7 @@
         <v>108</v>
       </c>
       <c r="AL18" s="4">
-        <f t="shared" ref="AL18:AL25" si="18">ABS(AH18-AI18)</f>
+        <f t="shared" ref="AL18:AL45" si="18">ABS(AH18-AI18)</f>
         <v>16.5</v>
       </c>
       <c r="AM18" s="5">
@@ -2694,7 +2748,7 @@
         <v>91.3</v>
       </c>
       <c r="AW18" s="4">
-        <f t="shared" ref="AW18:AW25" si="19">ABS(AS18-AT18)</f>
+        <f t="shared" ref="AW18:AW45" si="19">ABS(AS18-AT18)</f>
         <v>0.69999999999999929</v>
       </c>
       <c r="AX18" s="5">
@@ -3468,42 +3522,2194 @@
       </c>
     </row>
     <row r="26" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="G26">
-        <f>AVERAGE(G2:G25)</f>
-        <v>0.85833333333333339</v>
-      </c>
-      <c r="H26">
-        <f>AVERAGE(H2:H25)</f>
-        <v>12.983333333333333</v>
-      </c>
-      <c r="Q26">
-        <f>AVERAGE(Q2:Q25)</f>
-        <v>0.63333333333333341</v>
-      </c>
-      <c r="R26">
-        <f>AVERAGE(R2:R25)</f>
-        <v>24.104166666666668</v>
-      </c>
-      <c r="AA26">
-        <f>AVERAGE(AA2:AA25)</f>
-        <v>2.4416666666666669</v>
-      </c>
-      <c r="AB26">
-        <f>AVERAGE(AB2:AB25)</f>
-        <v>14.168749999999998</v>
-      </c>
-      <c r="AM26">
-        <f>AVERAGE(AM2:AM25)</f>
-        <v>39.412500000000009</v>
-      </c>
-      <c r="AW26">
-        <f>AVERAGE(AW2:AW25)</f>
-        <v>0.60833333333333306</v>
-      </c>
-      <c r="AX26">
-        <f>AVERAGE(AX2:AX25)</f>
-        <v>15.5375</v>
-      </c>
+      <c r="B26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="4">
+        <v>16</v>
+      </c>
+      <c r="D26" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="E26" s="4">
+        <v>93</v>
+      </c>
+      <c r="F26" s="4">
+        <v>95.7</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="15"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="10"/>
+        <v>2.7000000000000028</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="4">
+        <v>16</v>
+      </c>
+      <c r="N26" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="O26" s="4">
+        <v>93</v>
+      </c>
+      <c r="P26" s="4">
+        <v>106</v>
+      </c>
+      <c r="Q26" s="4">
+        <f t="shared" si="16"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="R26" s="5">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W26" s="4">
+        <v>16</v>
+      </c>
+      <c r="X26" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>93</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>106</v>
+      </c>
+      <c r="AA26" s="4">
+        <f t="shared" si="17"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="AB26" s="5">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="AG26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>16</v>
+      </c>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4">
+        <v>93</v>
+      </c>
+      <c r="AK26" s="4">
+        <v>133</v>
+      </c>
+      <c r="AL26" s="4">
+        <f t="shared" si="18"/>
+        <v>16</v>
+      </c>
+      <c r="AM26" s="5">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="AR26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS26" s="4">
+        <v>16</v>
+      </c>
+      <c r="AT26" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="AU26" s="4">
+        <v>93</v>
+      </c>
+      <c r="AV26" s="4">
+        <v>107.3</v>
+      </c>
+      <c r="AW26" s="4">
+        <f t="shared" si="19"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="AX26" s="5">
+        <f t="shared" si="14"/>
+        <v>14.299999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27">
+        <v>11.6</v>
+      </c>
+      <c r="D27">
+        <v>10.8</v>
+      </c>
+      <c r="E27">
+        <v>69</v>
+      </c>
+      <c r="F27">
+        <v>64</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="15"/>
+        <v>0.79999999999999893</v>
+      </c>
+      <c r="H27" s="13">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="L27" s="12"/>
+      <c r="M27">
+        <v>11.6</v>
+      </c>
+      <c r="N27">
+        <v>10.5</v>
+      </c>
+      <c r="O27">
+        <v>69</v>
+      </c>
+      <c r="P27">
+        <v>80</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="16"/>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="R27" s="13">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="V27" s="12"/>
+      <c r="W27">
+        <v>11.6</v>
+      </c>
+      <c r="X27">
+        <v>10.5</v>
+      </c>
+      <c r="Y27">
+        <v>69</v>
+      </c>
+      <c r="Z27">
+        <v>91</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="17"/>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="AB27" s="13">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="AG27" s="12"/>
+      <c r="AH27">
+        <v>11.6</v>
+      </c>
+      <c r="AJ27">
+        <v>69</v>
+      </c>
+      <c r="AK27" s="18">
+        <v>74.5</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="18"/>
+        <v>11.6</v>
+      </c>
+      <c r="AM27" s="13">
+        <f t="shared" si="13"/>
+        <v>5.5</v>
+      </c>
+      <c r="AR27" s="12"/>
+      <c r="AS27">
+        <v>11.6</v>
+      </c>
+      <c r="AT27">
+        <v>11</v>
+      </c>
+      <c r="AU27">
+        <v>69</v>
+      </c>
+      <c r="AV27">
+        <v>55.8</v>
+      </c>
+      <c r="AW27">
+        <f t="shared" si="19"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="AX27" s="13">
+        <f t="shared" si="14"/>
+        <v>13.200000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="D28" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="E28" s="7">
+        <v>77</v>
+      </c>
+      <c r="F28" s="7">
+        <v>65.8</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="15"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="10"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="N28" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="O28" s="7">
+        <v>77</v>
+      </c>
+      <c r="P28" s="7">
+        <v>72</v>
+      </c>
+      <c r="Q28" s="7">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="R28" s="8">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="V28" s="6"/>
+      <c r="W28" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="X28" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="Y28" s="7">
+        <v>77</v>
+      </c>
+      <c r="Z28" s="7">
+        <v>86.4</v>
+      </c>
+      <c r="AA28" s="7">
+        <f t="shared" si="17"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="AB28" s="8">
+        <f t="shared" si="12"/>
+        <v>9.4000000000000057</v>
+      </c>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7">
+        <v>77</v>
+      </c>
+      <c r="AK28" s="7">
+        <v>67.5</v>
+      </c>
+      <c r="AL28" s="7">
+        <f t="shared" si="18"/>
+        <v>12.4</v>
+      </c>
+      <c r="AM28" s="8">
+        <f t="shared" si="13"/>
+        <v>9.5</v>
+      </c>
+      <c r="AR28" s="6"/>
+      <c r="AS28" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="AT28" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="AU28" s="7">
+        <v>77</v>
+      </c>
+      <c r="AV28" s="7">
+        <v>66.2</v>
+      </c>
+      <c r="AW28" s="7">
+        <f t="shared" si="19"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="AX28" s="8">
+        <f t="shared" si="14"/>
+        <v>10.799999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="D29" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>75</v>
+      </c>
+      <c r="F29" s="4">
+        <v>67.2</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="15"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="10"/>
+        <v>7.7999999999999972</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="N29" s="4">
+        <v>10</v>
+      </c>
+      <c r="O29" s="4">
+        <v>75</v>
+      </c>
+      <c r="P29" s="4">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="Q29" s="4">
+        <f t="shared" si="16"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="R29" s="5">
+        <f t="shared" si="11"/>
+        <v>7.4000000000000057</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W29" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="X29" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>75</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>80.3</v>
+      </c>
+      <c r="AA29" s="4">
+        <f t="shared" si="17"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="AB29" s="5">
+        <f t="shared" si="12"/>
+        <v>5.2999999999999972</v>
+      </c>
+      <c r="AG29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4">
+        <v>75</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>71</v>
+      </c>
+      <c r="AL29" s="4">
+        <f t="shared" si="18"/>
+        <v>10.4</v>
+      </c>
+      <c r="AM29" s="5">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AR29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS29" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="AT29" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AU29" s="4">
+        <v>75</v>
+      </c>
+      <c r="AV29" s="4">
+        <v>69</v>
+      </c>
+      <c r="AW29" s="4">
+        <f t="shared" si="19"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="AX29" s="5">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30">
+        <v>9.6</v>
+      </c>
+      <c r="D30">
+        <v>8.9</v>
+      </c>
+      <c r="E30">
+        <v>92</v>
+      </c>
+      <c r="F30">
+        <v>82.3</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="15"/>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="H30" s="13">
+        <f t="shared" si="10"/>
+        <v>9.7000000000000028</v>
+      </c>
+      <c r="L30" s="12"/>
+      <c r="M30">
+        <v>9.6</v>
+      </c>
+      <c r="N30">
+        <v>9.5</v>
+      </c>
+      <c r="O30">
+        <v>92</v>
+      </c>
+      <c r="P30">
+        <v>98</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="16"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="R30" s="13">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="V30" s="12"/>
+      <c r="W30">
+        <v>9.6</v>
+      </c>
+      <c r="X30">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Y30">
+        <v>92</v>
+      </c>
+      <c r="Z30">
+        <v>96.4</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="17"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="AB30" s="13">
+        <f t="shared" si="12"/>
+        <v>4.4000000000000057</v>
+      </c>
+      <c r="AG30" s="12"/>
+      <c r="AH30">
+        <v>9.6</v>
+      </c>
+      <c r="AJ30">
+        <v>92</v>
+      </c>
+      <c r="AK30" s="18">
+        <v>78.3</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="18"/>
+        <v>9.6</v>
+      </c>
+      <c r="AM30" s="13">
+        <f t="shared" si="13"/>
+        <v>13.700000000000003</v>
+      </c>
+      <c r="AR30" s="12"/>
+      <c r="AS30">
+        <v>9.6</v>
+      </c>
+      <c r="AT30">
+        <v>8.5</v>
+      </c>
+      <c r="AU30">
+        <v>92</v>
+      </c>
+      <c r="AV30">
+        <v>97.4</v>
+      </c>
+      <c r="AW30">
+        <f t="shared" si="19"/>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="AX30" s="13">
+        <f t="shared" si="14"/>
+        <v>5.4000000000000057</v>
+      </c>
+    </row>
+    <row r="31" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E31" s="7">
+        <v>72</v>
+      </c>
+      <c r="F31" s="7">
+        <v>65.5</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="15"/>
+        <v>0.70000000000000107</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="10"/>
+        <v>6.5</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="N31" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O31" s="7">
+        <v>72</v>
+      </c>
+      <c r="P31" s="7">
+        <v>72</v>
+      </c>
+      <c r="Q31" s="7">
+        <f t="shared" si="16"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="R31" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="6"/>
+      <c r="W31" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="X31" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>72</v>
+      </c>
+      <c r="Z31" s="7">
+        <v>80.3</v>
+      </c>
+      <c r="AA31" s="7">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AB31" s="8">
+        <f t="shared" si="12"/>
+        <v>8.2999999999999972</v>
+      </c>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7">
+        <v>72</v>
+      </c>
+      <c r="AK31" s="7">
+        <v>159</v>
+      </c>
+      <c r="AL31" s="7">
+        <f t="shared" si="18"/>
+        <v>10.4</v>
+      </c>
+      <c r="AM31" s="8">
+        <f t="shared" si="13"/>
+        <v>87</v>
+      </c>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="AT31" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="AU31" s="7">
+        <v>72</v>
+      </c>
+      <c r="AV31" s="7">
+        <v>84.6</v>
+      </c>
+      <c r="AW31" s="7">
+        <f t="shared" si="19"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="AX31" s="8">
+        <f t="shared" si="14"/>
+        <v>12.599999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="D32" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E32" s="4">
+        <v>95</v>
+      </c>
+      <c r="F32" s="4">
+        <v>81.2</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="15"/>
+        <v>1.2000000000000011</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="10"/>
+        <v>13.799999999999997</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="N32" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="O32" s="4">
+        <v>95</v>
+      </c>
+      <c r="P32" s="4">
+        <v>64.8</v>
+      </c>
+      <c r="Q32" s="4">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="R32" s="5">
+        <f t="shared" si="11"/>
+        <v>30.200000000000003</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W32" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="X32" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>95</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>95.8</v>
+      </c>
+      <c r="AA32" s="4">
+        <f t="shared" si="17"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="AB32" s="5">
+        <f t="shared" si="12"/>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="AG32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4">
+        <v>95</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>76.3</v>
+      </c>
+      <c r="AL32" s="4">
+        <f t="shared" si="18"/>
+        <v>10.4</v>
+      </c>
+      <c r="AM32" s="5">
+        <f>ABS(AJ32-AK32)</f>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="AR32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS32" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="AT32" s="4">
+        <v>10</v>
+      </c>
+      <c r="AU32" s="4">
+        <v>95</v>
+      </c>
+      <c r="AV32" s="4">
+        <v>88.5</v>
+      </c>
+      <c r="AW32" s="4">
+        <f t="shared" si="19"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="AX32" s="5">
+        <f t="shared" si="14"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B33" s="12"/>
+      <c r="C33">
+        <v>10.4</v>
+      </c>
+      <c r="D33">
+        <v>10.4</v>
+      </c>
+      <c r="E33">
+        <v>72</v>
+      </c>
+      <c r="F33">
+        <v>72.8</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="13">
+        <f t="shared" si="10"/>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="L33" s="12"/>
+      <c r="M33">
+        <v>10.4</v>
+      </c>
+      <c r="N33">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O33">
+        <v>72</v>
+      </c>
+      <c r="P33">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="16"/>
+        <v>0.70000000000000107</v>
+      </c>
+      <c r="R33" s="13">
+        <f t="shared" si="11"/>
+        <v>7.5999999999999943</v>
+      </c>
+      <c r="V33" s="12"/>
+      <c r="W33">
+        <v>10.4</v>
+      </c>
+      <c r="X33">
+        <v>9.4</v>
+      </c>
+      <c r="Y33">
+        <v>72</v>
+      </c>
+      <c r="Z33">
+        <v>92.6</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AB33" s="13">
+        <f t="shared" si="12"/>
+        <v>20.599999999999994</v>
+      </c>
+      <c r="AG33" s="12"/>
+      <c r="AH33">
+        <v>10.4</v>
+      </c>
+      <c r="AJ33">
+        <v>72</v>
+      </c>
+      <c r="AK33" s="18">
+        <v>72</v>
+      </c>
+      <c r="AL33">
+        <f t="shared" si="18"/>
+        <v>10.4</v>
+      </c>
+      <c r="AM33" s="13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AR33" s="12"/>
+      <c r="AS33">
+        <v>10.4</v>
+      </c>
+      <c r="AT33">
+        <v>10</v>
+      </c>
+      <c r="AU33">
+        <v>72</v>
+      </c>
+      <c r="AV33">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="AW33">
+        <f t="shared" si="19"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="AX33" s="13">
+        <f t="shared" si="14"/>
+        <v>2.9000000000000057</v>
+      </c>
+    </row>
+    <row r="34" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+      <c r="C34" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="D34">
+        <v>10.9</v>
+      </c>
+      <c r="E34" s="7">
+        <v>79</v>
+      </c>
+      <c r="F34" s="7">
+        <v>69</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="15"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="L34" s="6"/>
+      <c r="M34" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="N34">
+        <v>10.3</v>
+      </c>
+      <c r="O34" s="7">
+        <v>79</v>
+      </c>
+      <c r="P34" s="7">
+        <v>75.5</v>
+      </c>
+      <c r="Q34" s="7">
+        <f t="shared" si="16"/>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="R34" s="8">
+        <f t="shared" si="11"/>
+        <v>3.5</v>
+      </c>
+      <c r="V34" s="6"/>
+      <c r="W34" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="X34">
+        <v>10.5</v>
+      </c>
+      <c r="Y34" s="7">
+        <v>79</v>
+      </c>
+      <c r="Z34" s="7">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="AA34" s="7">
+        <f t="shared" si="17"/>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="AB34" s="8">
+        <f t="shared" si="12"/>
+        <v>2.4000000000000057</v>
+      </c>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="AJ34" s="7">
+        <v>79</v>
+      </c>
+      <c r="AK34" s="7">
+        <v>121</v>
+      </c>
+      <c r="AL34" s="7">
+        <f t="shared" si="18"/>
+        <v>11.2</v>
+      </c>
+      <c r="AM34" s="8">
+        <f>ABS(AJ34-AK34)</f>
+        <v>42</v>
+      </c>
+      <c r="AR34" s="6"/>
+      <c r="AS34" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="AT34">
+        <v>11.2</v>
+      </c>
+      <c r="AU34" s="7">
+        <v>79</v>
+      </c>
+      <c r="AV34" s="7">
+        <v>67.3</v>
+      </c>
+      <c r="AW34" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AX34" s="8">
+        <f t="shared" si="14"/>
+        <v>11.700000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="4">
+        <v>10</v>
+      </c>
+      <c r="D35" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="E35" s="4">
+        <v>75</v>
+      </c>
+      <c r="F35" s="4">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="15"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4000000000000057</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="4">
+        <v>10</v>
+      </c>
+      <c r="N35" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="O35" s="4">
+        <v>75</v>
+      </c>
+      <c r="P35" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="Q35" s="4">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="R35" s="5">
+        <f t="shared" si="11"/>
+        <v>14.200000000000003</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W35" s="4">
+        <v>10</v>
+      </c>
+      <c r="X35" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>75</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>91.7</v>
+      </c>
+      <c r="AA35" s="4">
+        <f t="shared" si="17"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="AB35" s="5">
+        <f t="shared" si="12"/>
+        <v>16.700000000000003</v>
+      </c>
+      <c r="AG35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH35" s="4">
+        <v>10</v>
+      </c>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4">
+        <v>75</v>
+      </c>
+      <c r="AK35" s="4">
+        <v>111</v>
+      </c>
+      <c r="AL35" s="4">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="AM35" s="5">
+        <f t="shared" si="13"/>
+        <v>36</v>
+      </c>
+      <c r="AR35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS35" s="4">
+        <v>10</v>
+      </c>
+      <c r="AT35" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="AU35" s="4">
+        <v>75</v>
+      </c>
+      <c r="AV35" s="4">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AW35" s="4">
+        <f t="shared" si="19"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="AX35" s="5">
+        <f t="shared" si="14"/>
+        <v>2.4000000000000057</v>
+      </c>
+    </row>
+    <row r="36" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>67</v>
+      </c>
+      <c r="F36">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="13">
+        <f t="shared" si="10"/>
+        <v>11.099999999999994</v>
+      </c>
+      <c r="L36" s="12"/>
+      <c r="M36">
+        <v>10</v>
+      </c>
+      <c r="N36">
+        <v>10</v>
+      </c>
+      <c r="O36">
+        <v>67</v>
+      </c>
+      <c r="P36">
+        <v>52.8</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="13">
+        <f t="shared" si="11"/>
+        <v>14.200000000000003</v>
+      </c>
+      <c r="V36" s="12"/>
+      <c r="W36">
+        <v>10</v>
+      </c>
+      <c r="X36">
+        <v>10.5</v>
+      </c>
+      <c r="Y36">
+        <v>67</v>
+      </c>
+      <c r="Z36">
+        <v>95.5</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB36" s="13">
+        <f t="shared" si="12"/>
+        <v>28.5</v>
+      </c>
+      <c r="AG36" s="12"/>
+      <c r="AH36">
+        <v>10</v>
+      </c>
+      <c r="AJ36">
+        <v>67</v>
+      </c>
+      <c r="AK36" s="18">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AL36">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="AM36" s="13">
+        <f t="shared" si="13"/>
+        <v>2.5999999999999943</v>
+      </c>
+      <c r="AR36" s="12"/>
+      <c r="AS36">
+        <v>10</v>
+      </c>
+      <c r="AT36">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AU36">
+        <v>67</v>
+      </c>
+      <c r="AV36">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="AW36">
+        <f t="shared" si="19"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AX36" s="13">
+        <f t="shared" si="14"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="D37" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="E37" s="7">
+        <v>91</v>
+      </c>
+      <c r="F37" s="7">
+        <v>71</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="15"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="L37" s="6"/>
+      <c r="M37" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="N37" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="O37" s="7">
+        <v>91</v>
+      </c>
+      <c r="P37" s="7">
+        <v>61.2</v>
+      </c>
+      <c r="Q37" s="7">
+        <f t="shared" si="16"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="R37" s="8">
+        <f t="shared" si="11"/>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="V37" s="6"/>
+      <c r="W37" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="X37" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y37" s="7">
+        <v>91</v>
+      </c>
+      <c r="Z37" s="7">
+        <v>90.5</v>
+      </c>
+      <c r="AA37" s="7">
+        <f t="shared" si="17"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="AB37" s="8">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7">
+        <v>91</v>
+      </c>
+      <c r="AK37" s="7">
+        <v>163</v>
+      </c>
+      <c r="AL37" s="7">
+        <f t="shared" si="18"/>
+        <v>10.4</v>
+      </c>
+      <c r="AM37" s="8">
+        <f t="shared" si="13"/>
+        <v>72</v>
+      </c>
+      <c r="AR37" s="6"/>
+      <c r="AS37" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="AT37" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AU37" s="7">
+        <v>91</v>
+      </c>
+      <c r="AV37" s="7">
+        <v>75</v>
+      </c>
+      <c r="AW37" s="7">
+        <f t="shared" si="19"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="AX37" s="8">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="D38" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="E38" s="4">
+        <v>92</v>
+      </c>
+      <c r="F38" s="4">
+        <v>66.3</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="15"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="10"/>
+        <v>25.700000000000003</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="N38" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="O38" s="4">
+        <v>92</v>
+      </c>
+      <c r="P38" s="4">
+        <v>49.2</v>
+      </c>
+      <c r="Q38" s="4">
+        <f t="shared" si="16"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="R38" s="5">
+        <f t="shared" si="11"/>
+        <v>42.8</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W38" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="X38" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>92</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>59.5</v>
+      </c>
+      <c r="AA38" s="4">
+        <f t="shared" si="17"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="AB38" s="5">
+        <f t="shared" si="12"/>
+        <v>32.5</v>
+      </c>
+      <c r="AG38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH38" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4">
+        <v>92</v>
+      </c>
+      <c r="AK38" s="4">
+        <v>234</v>
+      </c>
+      <c r="AL38" s="4">
+        <f t="shared" si="18"/>
+        <v>11.6</v>
+      </c>
+      <c r="AM38" s="5">
+        <f t="shared" si="13"/>
+        <v>142</v>
+      </c>
+      <c r="AR38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS38" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="AT38" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="AU38" s="4">
+        <v>92</v>
+      </c>
+      <c r="AV38" s="4">
+        <v>62.9</v>
+      </c>
+      <c r="AW38" s="4">
+        <f t="shared" si="19"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AX38" s="5">
+        <f t="shared" si="14"/>
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E39">
+        <v>71</v>
+      </c>
+      <c r="F39">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="15"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="H39" s="13">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="L39" s="12"/>
+      <c r="M39">
+        <v>10</v>
+      </c>
+      <c r="N39">
+        <v>9.4</v>
+      </c>
+      <c r="O39">
+        <v>71</v>
+      </c>
+      <c r="P39">
+        <v>54</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="16"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="R39" s="13">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="V39" s="12"/>
+      <c r="W39">
+        <v>10</v>
+      </c>
+      <c r="X39">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Y39">
+        <v>71</v>
+      </c>
+      <c r="Z39">
+        <v>89.6</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="17"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="AB39" s="13">
+        <f t="shared" si="12"/>
+        <v>18.599999999999994</v>
+      </c>
+      <c r="AG39" s="12"/>
+      <c r="AH39">
+        <v>10</v>
+      </c>
+      <c r="AJ39">
+        <v>71</v>
+      </c>
+      <c r="AK39" s="18">
+        <v>139</v>
+      </c>
+      <c r="AL39">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="AM39" s="13">
+        <f t="shared" si="13"/>
+        <v>68</v>
+      </c>
+      <c r="AR39" s="12"/>
+      <c r="AS39">
+        <v>10</v>
+      </c>
+      <c r="AT39">
+        <v>8</v>
+      </c>
+      <c r="AU39">
+        <v>71</v>
+      </c>
+      <c r="AV39">
+        <v>63.2</v>
+      </c>
+      <c r="AW39">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AX39" s="13">
+        <f t="shared" si="14"/>
+        <v>7.7999999999999972</v>
+      </c>
+    </row>
+    <row r="40" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40">
+        <v>11.2</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>105</v>
+      </c>
+      <c r="F40">
+        <v>62</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="15"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="H40" s="13">
+        <f t="shared" si="10"/>
+        <v>43</v>
+      </c>
+      <c r="L40" s="12"/>
+      <c r="M40">
+        <v>11.2</v>
+      </c>
+      <c r="N40">
+        <v>10.4</v>
+      </c>
+      <c r="O40">
+        <v>105</v>
+      </c>
+      <c r="P40">
+        <v>62.8</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="16"/>
+        <v>0.79999999999999893</v>
+      </c>
+      <c r="R40" s="13">
+        <f t="shared" si="11"/>
+        <v>42.2</v>
+      </c>
+      <c r="V40" s="12"/>
+      <c r="W40">
+        <v>11.2</v>
+      </c>
+      <c r="X40">
+        <v>10.5</v>
+      </c>
+      <c r="Y40">
+        <v>105</v>
+      </c>
+      <c r="Z40">
+        <v>85</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="17"/>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="AB40" s="13">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="AG40" s="12"/>
+      <c r="AH40">
+        <v>11.2</v>
+      </c>
+      <c r="AJ40">
+        <v>105</v>
+      </c>
+      <c r="AK40">
+        <v>69.5</v>
+      </c>
+      <c r="AL40">
+        <f t="shared" si="18"/>
+        <v>11.2</v>
+      </c>
+      <c r="AM40" s="13">
+        <f t="shared" si="13"/>
+        <v>35.5</v>
+      </c>
+      <c r="AR40" s="12"/>
+      <c r="AS40">
+        <v>11.2</v>
+      </c>
+      <c r="AT40">
+        <v>11.4</v>
+      </c>
+      <c r="AU40">
+        <v>105</v>
+      </c>
+      <c r="AV40">
+        <v>59.3</v>
+      </c>
+      <c r="AW40">
+        <f t="shared" si="19"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="AX40" s="13">
+        <f t="shared" si="14"/>
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="C41" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="D41" s="7">
+        <v>10.7</v>
+      </c>
+      <c r="E41" s="7">
+        <v>72</v>
+      </c>
+      <c r="F41" s="7">
+        <v>68.8</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="15"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" si="10"/>
+        <v>3.2000000000000028</v>
+      </c>
+      <c r="L41" s="6"/>
+      <c r="M41" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="N41" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="O41" s="7">
+        <v>72</v>
+      </c>
+      <c r="P41" s="7">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="Q41" s="7">
+        <f t="shared" si="16"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="R41" s="8">
+        <f t="shared" si="11"/>
+        <v>2.4000000000000057</v>
+      </c>
+      <c r="V41" s="6"/>
+      <c r="W41" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="X41" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="Y41" s="7">
+        <v>72</v>
+      </c>
+      <c r="Z41" s="7">
+        <v>89</v>
+      </c>
+      <c r="AA41" s="7">
+        <f t="shared" si="17"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="AB41" s="8">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7">
+        <v>72</v>
+      </c>
+      <c r="AK41" s="7">
+        <v>82.3</v>
+      </c>
+      <c r="AL41" s="7">
+        <f t="shared" si="18"/>
+        <v>10.4</v>
+      </c>
+      <c r="AM41" s="8">
+        <f t="shared" si="13"/>
+        <v>10.299999999999997</v>
+      </c>
+      <c r="AR41" s="6"/>
+      <c r="AS41" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="AT41" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="AU41" s="7">
+        <v>72</v>
+      </c>
+      <c r="AV41" s="7">
+        <v>67</v>
+      </c>
+      <c r="AW41" s="7">
+        <f t="shared" si="19"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AX41" s="8">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="D42" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="E42" s="4">
+        <v>95</v>
+      </c>
+      <c r="F42" s="4">
+        <v>56.6</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="15"/>
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="13">
+        <f t="shared" si="10"/>
+        <v>38.4</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M42" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="N42" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="O42" s="4">
+        <v>95</v>
+      </c>
+      <c r="P42" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="16"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="R42" s="13">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W42" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="X42" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="Y42" s="4">
+        <v>95</v>
+      </c>
+      <c r="Z42" s="4">
+        <v>88.5</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="17"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="AB42" s="13">
+        <f t="shared" si="12"/>
+        <v>6.5</v>
+      </c>
+      <c r="AG42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH42" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4">
+        <v>95</v>
+      </c>
+      <c r="AK42" s="4">
+        <v>150</v>
+      </c>
+      <c r="AL42">
+        <f t="shared" si="18"/>
+        <v>12.8</v>
+      </c>
+      <c r="AM42" s="13">
+        <f t="shared" si="13"/>
+        <v>55</v>
+      </c>
+      <c r="AR42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS42" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="AT42" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="AU42" s="4">
+        <v>95</v>
+      </c>
+      <c r="AV42" s="4">
+        <v>57.6</v>
+      </c>
+      <c r="AW42">
+        <f t="shared" si="19"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="AX42" s="13">
+        <f t="shared" si="14"/>
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B43" s="12"/>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>76</v>
+      </c>
+      <c r="F43">
+        <v>63.9</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="13">
+        <f t="shared" si="10"/>
+        <v>12.100000000000001</v>
+      </c>
+      <c r="L43" s="12"/>
+      <c r="M43">
+        <v>10</v>
+      </c>
+      <c r="N43">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O43">
+        <v>76</v>
+      </c>
+      <c r="P43">
+        <v>58.4</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="16"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="R43" s="13">
+        <f t="shared" si="11"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="V43" s="12"/>
+      <c r="W43">
+        <v>10</v>
+      </c>
+      <c r="X43">
+        <v>10.5</v>
+      </c>
+      <c r="Y43">
+        <v>76</v>
+      </c>
+      <c r="Z43">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB43" s="13">
+        <f t="shared" si="12"/>
+        <v>4.5999999999999943</v>
+      </c>
+      <c r="AG43" s="12"/>
+      <c r="AH43">
+        <v>10</v>
+      </c>
+      <c r="AJ43">
+        <v>76</v>
+      </c>
+      <c r="AK43" s="18">
+        <v>61</v>
+      </c>
+      <c r="AL43">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="AM43" s="13">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="AR43" s="12"/>
+      <c r="AS43">
+        <v>10</v>
+      </c>
+      <c r="AT43">
+        <v>10</v>
+      </c>
+      <c r="AU43">
+        <v>76</v>
+      </c>
+      <c r="AV43">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AW43">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AX43" s="13">
+        <f>ABS(AU43-AV43)</f>
+        <v>6.4000000000000057</v>
+      </c>
+    </row>
+    <row r="44" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B44" s="12"/>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>72</v>
+      </c>
+      <c r="F44">
+        <v>66</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H44" s="13">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="L44" s="12"/>
+      <c r="M44">
+        <v>10</v>
+      </c>
+      <c r="N44">
+        <v>9.5</v>
+      </c>
+      <c r="O44">
+        <v>72</v>
+      </c>
+      <c r="P44">
+        <v>50.8</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="R44" s="13">
+        <f t="shared" si="11"/>
+        <v>21.200000000000003</v>
+      </c>
+      <c r="V44" s="12"/>
+      <c r="W44">
+        <v>10</v>
+      </c>
+      <c r="X44">
+        <v>9.4</v>
+      </c>
+      <c r="Y44">
+        <v>72</v>
+      </c>
+      <c r="Z44">
+        <v>79.7</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="17"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="AB44" s="13">
+        <f t="shared" si="12"/>
+        <v>7.7000000000000028</v>
+      </c>
+      <c r="AG44" s="12"/>
+      <c r="AH44">
+        <v>10</v>
+      </c>
+      <c r="AJ44">
+        <v>72</v>
+      </c>
+      <c r="AK44">
+        <v>72.7</v>
+      </c>
+      <c r="AL44">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="AM44" s="13">
+        <f t="shared" si="13"/>
+        <v>0.70000000000000284</v>
+      </c>
+      <c r="AR44" s="12"/>
+      <c r="AS44">
+        <v>10</v>
+      </c>
+      <c r="AT44">
+        <v>9.6</v>
+      </c>
+      <c r="AU44">
+        <v>72</v>
+      </c>
+      <c r="AV44">
+        <v>57.3</v>
+      </c>
+      <c r="AW44">
+        <f t="shared" si="19"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="AX44" s="13">
+        <f>ABS(AU44-AV44)</f>
+        <v>14.700000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="7">
+        <v>10</v>
+      </c>
+      <c r="D45" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="E45" s="7">
+        <v>102</v>
+      </c>
+      <c r="F45" s="7">
+        <v>81</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="15"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="H45" s="13">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="L45" s="6"/>
+      <c r="M45" s="7">
+        <v>10</v>
+      </c>
+      <c r="N45" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O45" s="7">
+        <v>102</v>
+      </c>
+      <c r="P45" s="7">
+        <v>102</v>
+      </c>
+      <c r="Q45" s="7">
+        <f t="shared" si="16"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="R45" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="6"/>
+      <c r="W45" s="7">
+        <v>10</v>
+      </c>
+      <c r="X45" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y45" s="7">
+        <v>102</v>
+      </c>
+      <c r="Z45" s="7">
+        <v>82</v>
+      </c>
+      <c r="AA45" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB45" s="8">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="7">
+        <v>10</v>
+      </c>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7">
+        <v>102</v>
+      </c>
+      <c r="AK45" s="7">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="AL45" s="7">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="AM45" s="8">
+        <f t="shared" si="13"/>
+        <v>34.800000000000011</v>
+      </c>
+      <c r="AR45" s="6"/>
+      <c r="AS45" s="7">
+        <v>10</v>
+      </c>
+      <c r="AT45" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="AU45" s="7">
+        <v>102</v>
+      </c>
+      <c r="AV45" s="7">
+        <v>84</v>
+      </c>
+      <c r="AW45" s="7">
+        <f t="shared" si="19"/>
+        <v>0.5</v>
+      </c>
+      <c r="AX45" s="8">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <f>AVERAGE(G2:G45)</f>
+        <v>0.73181818181818192</v>
+      </c>
+      <c r="H46" s="4">
+        <f>AVERAGE(H2:H45)</f>
+        <v>12.786363636363637</v>
+      </c>
+      <c r="Q46">
+        <f>AVERAGE(Q2:Q45)</f>
+        <v>0.58636363636363642</v>
+      </c>
+      <c r="R46">
+        <f>AVERAGE(R2:R45)</f>
+        <v>20.650000000000002</v>
+      </c>
+      <c r="AA46">
+        <f>AVERAGE(AA2:AA45)</f>
+        <v>1.6772727272727268</v>
+      </c>
+      <c r="AB46">
+        <f>AVERAGE(AB2:AB45)</f>
+        <v>13.610227272727274</v>
+      </c>
+      <c r="AM46" s="20">
+        <f>AVERAGE(AM2:AM45)</f>
+        <v>37.231818181818191</v>
+      </c>
+      <c r="AW46">
+        <f>AVERAGE(AW2:AW45)</f>
+        <v>0.55454545454545456</v>
+      </c>
+      <c r="AX46" s="19">
+        <f>AVERAGE(AX2:AX45)</f>
+        <v>14.520454545454548</v>
+      </c>
+      <c r="AY46" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD4FBBE-0991-4861-81E2-C5E92B6B8A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CA3919-2C43-48C2-9876-C52C6F13045A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="42">
   <si>
     <t>yosef</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>christian-vasile-muhamad-yosef</t>
+  </si>
+  <si>
+    <t>christian-daniele-muhamad-yosef</t>
+  </si>
+  <si>
+    <t>christian-yosef-muhamad-daniele</t>
+  </si>
+  <si>
+    <t>christian-x-muhamad-yosef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR </t>
   </si>
 </sst>
 </file>
@@ -351,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -371,8 +383,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -653,34 +666,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY46"/>
+  <dimension ref="A1:AX57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AM46" sqref="AM46"/>
+    <sheetView tabSelected="1" topLeftCell="AA13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="28.85546875" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" customWidth="1"/>
+    <col min="12" max="12" width="30" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" customWidth="1"/>
     <col min="21" max="21" width="16" customWidth="1"/>
-    <col min="22" max="22" width="29" customWidth="1"/>
-    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.81640625" customWidth="1"/>
+    <col min="24" max="24" width="9" customWidth="1"/>
+    <col min="28" max="28" width="9.1796875" customWidth="1"/>
     <col min="32" max="32" width="8" customWidth="1"/>
-    <col min="33" max="33" width="28.5703125" customWidth="1"/>
-    <col min="35" max="35" width="10.28515625" customWidth="1"/>
-    <col min="43" max="43" width="18.5703125" customWidth="1"/>
-    <col min="44" max="44" width="28.140625" customWidth="1"/>
-    <col min="48" max="48" width="9.140625" customWidth="1"/>
-    <col min="49" max="49" width="9.85546875" customWidth="1"/>
+    <col min="33" max="33" width="30" customWidth="1"/>
+    <col min="35" max="35" width="10.26953125" customWidth="1"/>
+    <col min="43" max="43" width="18.54296875" customWidth="1"/>
+    <col min="44" max="44" width="28.90625" customWidth="1"/>
+    <col min="48" max="48" width="9.1796875" customWidth="1"/>
+    <col min="49" max="49" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -739,7 +753,7 @@
         <v>7</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="Y1" s="15" t="s">
         <v>9</v>
@@ -802,7 +816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
@@ -932,7 +946,7 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -1047,7 +1061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
@@ -1162,7 +1176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
@@ -1277,7 +1291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
@@ -1393,7 +1407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
@@ -1509,7 +1523,7 @@
         <v>16.200000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
@@ -1625,7 +1639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
@@ -1740,7 +1754,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
@@ -1855,7 +1869,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>20</v>
       </c>
@@ -1970,7 +1984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>21</v>
       </c>
@@ -2085,7 +2099,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>30</v>
       </c>
@@ -2200,7 +2214,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="12" t="s">
         <v>4</v>
@@ -2316,7 +2330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
       <c r="C15" s="7">
         <v>16.5</v>
@@ -2421,7 +2435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2442,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" ref="H16:H45" si="10">ABS(E16-F16)</f>
+        <f t="shared" ref="H16:H28" si="10">ABS(E16-F16)</f>
         <v>5</v>
       </c>
       <c r="L16" s="3" t="s">
@@ -2465,7 +2479,7 @@
         <v>0.80000000000000071</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" ref="R16:R45" si="11">ABS(O16-P16)</f>
+        <f t="shared" ref="R16:R28" si="11">ABS(O16-P16)</f>
         <v>24.5</v>
       </c>
       <c r="V16" s="3" t="s">
@@ -2488,7 +2502,7 @@
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="AB16" s="5">
-        <f t="shared" ref="AB16:AB45" si="12">ABS(Y16-Z16)</f>
+        <f t="shared" ref="AB16:AB28" si="12">ABS(Y16-Z16)</f>
         <v>27</v>
       </c>
       <c r="AG16" s="3" t="s">
@@ -2509,7 +2523,7 @@
         <v>14</v>
       </c>
       <c r="AM16" s="5">
-        <f t="shared" ref="AM16:AM45" si="13">ABS(AJ16-AK16)</f>
+        <f t="shared" ref="AM16:AM28" si="13">ABS(AJ16-AK16)</f>
         <v>4.7000000000000028</v>
       </c>
       <c r="AR16" s="3" t="s">
@@ -2532,11 +2546,11 @@
         <v>0.5</v>
       </c>
       <c r="AX16" s="5">
-        <f t="shared" ref="AX16:AX45" si="14">ABS(AU16-AV16)</f>
+        <f t="shared" ref="AX16:AX28" si="14">ABS(AU16-AV16)</f>
         <v>7.7000000000000028</v>
       </c>
     </row>
-    <row r="17" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
       <c r="C17" s="7">
         <v>20.5</v>
@@ -2641,7 +2655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
@@ -2658,7 +2672,7 @@
         <v>93.8</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" ref="G18:G45" si="15">ABS(C18-D18)</f>
+        <f t="shared" ref="G18:G28" si="15">ABS(C18-D18)</f>
         <v>0.30000000000000071</v>
       </c>
       <c r="H18" s="5">
@@ -2681,7 +2695,7 @@
         <v>100</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" ref="Q18:Q45" si="16">ABS(M18-N18)</f>
+        <f t="shared" ref="Q18:Q28" si="16">ABS(M18-N18)</f>
         <v>0.39999999999999858</v>
       </c>
       <c r="R18" s="5">
@@ -2704,7 +2718,7 @@
         <v>99.6</v>
       </c>
       <c r="AA18" s="4">
-        <f t="shared" ref="AA18:AA45" si="17">ABS(W18-X18)</f>
+        <f t="shared" ref="AA18:AA28" si="17">ABS(W18-X18)</f>
         <v>1.1000000000000014</v>
       </c>
       <c r="AB18" s="5">
@@ -2725,7 +2739,7 @@
         <v>108</v>
       </c>
       <c r="AL18" s="4">
-        <f t="shared" ref="AL18:AL45" si="18">ABS(AH18-AI18)</f>
+        <f t="shared" ref="AL18:AL28" si="18">ABS(AH18-AI18)</f>
         <v>16.5</v>
       </c>
       <c r="AM18" s="5">
@@ -2748,7 +2762,7 @@
         <v>91.3</v>
       </c>
       <c r="AW18" s="4">
-        <f t="shared" ref="AW18:AW45" si="19">ABS(AS18-AT18)</f>
+        <f t="shared" ref="AW18:AW28" si="19">ABS(AS18-AT18)</f>
         <v>0.69999999999999929</v>
       </c>
       <c r="AX18" s="5">
@@ -2756,7 +2770,7 @@
         <v>8.7000000000000028</v>
       </c>
     </row>
-    <row r="19" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
       <c r="C19" s="7">
         <v>12.5</v>
@@ -2861,7 +2875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
@@ -2976,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B21" s="6"/>
       <c r="C21" s="7">
         <v>17.5</v>
@@ -3081,7 +3095,7 @@
         <v>29.400000000000006</v>
       </c>
     </row>
-    <row r="22" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
@@ -3196,7 +3210,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="23" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B23" s="6"/>
       <c r="C23" s="7">
         <v>13</v>
@@ -3301,7 +3315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
@@ -3416,7 +3430,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="25" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
       <c r="C25" s="7">
         <v>11</v>
@@ -3521,2195 +3535,3375 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="26" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C26" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D26" s="4">
-        <v>15.6</v>
+        <v>18.3</v>
       </c>
       <c r="E26" s="4">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F26" s="4">
-        <v>95.7</v>
+        <v>44.5</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="15"/>
-        <v>0.40000000000000036</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="10"/>
-        <v>2.7000000000000028</v>
+        <v>42.5</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M26" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N26" s="4">
-        <v>15.2</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="O26" s="4">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="P26" s="4">
-        <v>106</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="Q26" s="4">
         <f t="shared" si="16"/>
-        <v>0.80000000000000071</v>
+        <v>0.10000000000000142</v>
       </c>
       <c r="R26" s="5">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>15.400000000000006</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="W26" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="X26" s="4">
-        <v>15.2</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="Y26" s="4">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z26" s="4">
-        <v>106</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="AA26" s="4">
         <f t="shared" si="17"/>
-        <v>0.80000000000000071</v>
+        <v>0.39999999999999858</v>
       </c>
       <c r="AB26" s="5">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>7.9000000000000057</v>
       </c>
       <c r="AG26" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AH26" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI26" s="4"/>
       <c r="AJ26" s="4">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK26" s="4">
-        <v>133</v>
+        <v>66.5</v>
       </c>
       <c r="AL26" s="4">
         <f t="shared" si="18"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AM26" s="5">
         <f t="shared" si="13"/>
+        <v>20.5</v>
+      </c>
+      <c r="AR26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AR26" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="AS26" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT26" s="4">
-        <v>15.2</v>
+        <v>17.61</v>
       </c>
       <c r="AU26" s="4">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AV26" s="4">
-        <v>107.3</v>
+        <v>40</v>
       </c>
       <c r="AW26" s="4">
         <f t="shared" si="19"/>
-        <v>0.80000000000000071</v>
+        <v>0.39000000000000057</v>
       </c>
       <c r="AX26" s="5">
         <f t="shared" si="14"/>
-        <v>14.299999999999997</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B27" s="12"/>
       <c r="C27">
-        <v>11.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D27">
-        <v>10.8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E27">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F27">
-        <v>64</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="G27">
         <f t="shared" si="15"/>
-        <v>0.79999999999999893</v>
+        <v>0.5</v>
       </c>
       <c r="H27" s="13">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>1.5999999999999943</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27">
-        <v>11.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="N27">
-        <v>10.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="O27">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P27">
-        <v>80</v>
+        <v>59.2</v>
       </c>
       <c r="Q27">
         <f t="shared" si="16"/>
-        <v>1.0999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="R27" s="13">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>14.799999999999997</v>
       </c>
       <c r="V27" s="12"/>
       <c r="W27">
-        <v>11.6</v>
-      </c>
-      <c r="X27">
-        <v>10.5</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="X27" s="18">
+        <v>8.1999999999999993</v>
       </c>
       <c r="Y27">
-        <v>69</v>
-      </c>
-      <c r="Z27">
-        <v>91</v>
+        <v>74</v>
+      </c>
+      <c r="Z27" s="18">
+        <v>92</v>
       </c>
       <c r="AA27">
         <f t="shared" si="17"/>
-        <v>1.0999999999999996</v>
+        <v>0.60000000000000142</v>
       </c>
       <c r="AB27" s="13">
         <f t="shared" si="12"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AG27" s="12"/>
       <c r="AH27">
-        <v>11.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AJ27">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AK27" s="18">
-        <v>74.5</v>
+        <v>192.5</v>
       </c>
       <c r="AL27">
         <f t="shared" si="18"/>
-        <v>11.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AM27" s="13">
         <f t="shared" si="13"/>
-        <v>5.5</v>
+        <v>118.5</v>
       </c>
       <c r="AR27" s="12"/>
       <c r="AS27">
-        <v>11.6</v>
-      </c>
-      <c r="AT27">
-        <v>11</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AT27" s="18">
+        <v>8.6</v>
       </c>
       <c r="AU27">
-        <v>69</v>
-      </c>
-      <c r="AV27">
-        <v>55.8</v>
+        <v>74</v>
+      </c>
+      <c r="AV27" s="18">
+        <v>60.6</v>
       </c>
       <c r="AW27">
         <f t="shared" si="19"/>
-        <v>0.59999999999999964</v>
+        <v>0.20000000000000107</v>
       </c>
       <c r="AX27" s="13">
         <f t="shared" si="14"/>
-        <v>13.200000000000003</v>
+        <v>13.399999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
       <c r="C28" s="7">
-        <v>12.4</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D28" s="7">
-        <v>12.2</v>
+        <v>9</v>
       </c>
       <c r="E28" s="7">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F28" s="7">
-        <v>65.8</v>
+        <v>81</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="15"/>
-        <v>0.20000000000000107</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="10"/>
-        <v>11.200000000000003</v>
+        <v>10</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="7">
-        <v>12.4</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="N28" s="7">
-        <v>12.9</v>
+        <v>8.6</v>
       </c>
       <c r="O28" s="7">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="P28" s="7">
-        <v>72</v>
+        <v>64.8</v>
       </c>
       <c r="Q28" s="7">
         <f t="shared" si="16"/>
-        <v>0.5</v>
+        <v>0.20000000000000107</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>26.200000000000003</v>
       </c>
       <c r="V28" s="6"/>
       <c r="W28" s="7">
-        <v>12.4</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="X28" s="7">
-        <v>12.8</v>
+        <v>7</v>
       </c>
       <c r="Y28" s="7">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="Z28" s="7">
-        <v>86.4</v>
+        <v>92.6</v>
       </c>
       <c r="AA28" s="7">
         <f t="shared" si="17"/>
-        <v>0.40000000000000036</v>
+        <v>1.8000000000000007</v>
       </c>
       <c r="AB28" s="8">
         <f t="shared" si="12"/>
-        <v>9.4000000000000057</v>
+        <v>1.5999999999999943</v>
       </c>
       <c r="AG28" s="6"/>
       <c r="AH28" s="7">
-        <v>12.4</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="AK28" s="7">
-        <v>67.5</v>
+        <v>116.6</v>
       </c>
       <c r="AL28" s="7">
         <f t="shared" si="18"/>
-        <v>12.4</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AM28" s="8">
         <f t="shared" si="13"/>
-        <v>9.5</v>
+        <v>25.599999999999994</v>
       </c>
       <c r="AR28" s="6"/>
       <c r="AS28" s="7">
-        <v>12.4</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AT28" s="7">
-        <v>12.2</v>
+        <v>7.1</v>
       </c>
       <c r="AU28" s="7">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="AV28" s="7">
-        <v>66.2</v>
+        <v>88.8</v>
       </c>
       <c r="AW28" s="7">
         <f t="shared" si="19"/>
-        <v>0.20000000000000107</v>
+        <v>1.7000000000000011</v>
       </c>
       <c r="AX28" s="8">
         <f t="shared" si="14"/>
-        <v>10.799999999999997</v>
+        <v>2.2000000000000028</v>
       </c>
     </row>
-    <row r="29" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="4">
-        <v>10.4</v>
+        <v>16</v>
       </c>
       <c r="D29" s="4">
-        <v>10.1</v>
+        <v>15.6</v>
       </c>
       <c r="E29" s="4">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F29" s="4">
-        <v>67.2</v>
+        <v>95.7</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="15"/>
-        <v>0.30000000000000071</v>
+        <f t="shared" ref="G29:G56" si="20">ABS(C29-D29)</f>
+        <v>0.40000000000000036</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="10"/>
-        <v>7.7999999999999972</v>
+        <f t="shared" ref="H29:H48" si="21">ABS(E29-F29)</f>
+        <v>2.7000000000000028</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M29" s="4">
-        <v>10.4</v>
+        <v>16</v>
       </c>
       <c r="N29" s="4">
-        <v>10</v>
+        <v>15.2</v>
       </c>
       <c r="O29" s="4">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="P29" s="4">
-        <v>67.599999999999994</v>
+        <v>106</v>
       </c>
       <c r="Q29" s="4">
-        <f t="shared" si="16"/>
-        <v>0.40000000000000036</v>
+        <f t="shared" ref="Q29:Q56" si="22">ABS(M29-N29)</f>
+        <v>0.80000000000000071</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" si="11"/>
-        <v>7.4000000000000057</v>
+        <f t="shared" ref="R29:R48" si="23">ABS(O29-P29)</f>
+        <v>13</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W29" s="4">
-        <v>10.4</v>
+        <v>16</v>
       </c>
       <c r="X29" s="4">
-        <v>10.5</v>
+        <v>15.2</v>
       </c>
       <c r="Y29" s="4">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="Z29" s="4">
-        <v>80.3</v>
+        <v>106</v>
       </c>
       <c r="AA29" s="4">
-        <f t="shared" si="17"/>
-        <v>9.9999999999999645E-2</v>
+        <f t="shared" ref="AA29:AA56" si="24">ABS(W29-X29)</f>
+        <v>0.80000000000000071</v>
       </c>
       <c r="AB29" s="5">
-        <f t="shared" si="12"/>
-        <v>5.2999999999999972</v>
+        <f t="shared" ref="AB29:AB48" si="25">ABS(Y29-Z29)</f>
+        <v>13</v>
       </c>
       <c r="AG29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AH29" s="4">
-        <v>10.4</v>
+        <v>16</v>
       </c>
       <c r="AI29" s="4"/>
       <c r="AJ29" s="4">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AK29" s="4">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="AL29" s="4">
-        <f t="shared" si="18"/>
-        <v>10.4</v>
+        <f t="shared" ref="AL29:AL56" si="26">ABS(AH29-AI29)</f>
+        <v>16</v>
       </c>
       <c r="AM29" s="5">
-        <f t="shared" si="13"/>
-        <v>4</v>
+        <f t="shared" ref="AM29:AM48" si="27">ABS(AJ29-AK29)</f>
+        <v>40</v>
       </c>
       <c r="AR29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AS29" s="4">
-        <v>10.4</v>
+        <v>16</v>
       </c>
       <c r="AT29" s="4">
-        <v>10.199999999999999</v>
+        <v>15.2</v>
       </c>
       <c r="AU29" s="4">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AV29" s="4">
-        <v>69</v>
+        <v>107.3</v>
       </c>
       <c r="AW29" s="4">
-        <f t="shared" si="19"/>
-        <v>0.20000000000000107</v>
+        <f t="shared" ref="AW29:AW56" si="28">ABS(AS29-AT29)</f>
+        <v>0.80000000000000071</v>
       </c>
       <c r="AX29" s="5">
-        <f t="shared" si="14"/>
-        <v>6</v>
+        <f t="shared" ref="AX29:AX48" si="29">ABS(AU29-AV29)</f>
+        <v>14.299999999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B30" s="12"/>
       <c r="C30">
-        <v>9.6</v>
+        <v>11.6</v>
       </c>
       <c r="D30">
-        <v>8.9</v>
+        <v>10.8</v>
       </c>
       <c r="E30">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F30">
-        <v>82.3</v>
+        <v>64</v>
       </c>
       <c r="G30">
-        <f t="shared" si="15"/>
-        <v>0.69999999999999929</v>
+        <f t="shared" si="20"/>
+        <v>0.79999999999999893</v>
       </c>
       <c r="H30" s="13">
-        <f t="shared" si="10"/>
-        <v>9.7000000000000028</v>
+        <f t="shared" si="21"/>
+        <v>5</v>
       </c>
       <c r="L30" s="12"/>
       <c r="M30">
-        <v>9.6</v>
+        <v>11.6</v>
       </c>
       <c r="N30">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="O30">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="P30">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="16"/>
-        <v>9.9999999999999645E-2</v>
+        <f t="shared" si="22"/>
+        <v>1.0999999999999996</v>
       </c>
       <c r="R30" s="13">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <f t="shared" si="23"/>
+        <v>11</v>
       </c>
       <c r="V30" s="12"/>
       <c r="W30">
-        <v>9.6</v>
+        <v>11.6</v>
       </c>
       <c r="X30">
-        <v>8.1999999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="Y30">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="Z30">
-        <v>96.4</v>
+        <v>91</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="17"/>
-        <v>1.4000000000000004</v>
+        <f t="shared" si="24"/>
+        <v>1.0999999999999996</v>
       </c>
       <c r="AB30" s="13">
-        <f t="shared" si="12"/>
-        <v>4.4000000000000057</v>
+        <f t="shared" si="25"/>
+        <v>22</v>
       </c>
       <c r="AG30" s="12"/>
       <c r="AH30">
-        <v>9.6</v>
+        <v>11.6</v>
       </c>
       <c r="AJ30">
-        <v>92</v>
-      </c>
-      <c r="AK30" s="18">
-        <v>78.3</v>
+        <v>69</v>
+      </c>
+      <c r="AK30">
+        <v>74.5</v>
       </c>
       <c r="AL30">
-        <f t="shared" si="18"/>
-        <v>9.6</v>
+        <f t="shared" si="26"/>
+        <v>11.6</v>
       </c>
       <c r="AM30" s="13">
-        <f t="shared" si="13"/>
-        <v>13.700000000000003</v>
+        <f t="shared" si="27"/>
+        <v>5.5</v>
       </c>
       <c r="AR30" s="12"/>
       <c r="AS30">
-        <v>9.6</v>
+        <v>11.6</v>
       </c>
       <c r="AT30">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AU30">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="AV30">
-        <v>97.4</v>
+        <v>55.8</v>
       </c>
       <c r="AW30">
-        <f t="shared" si="19"/>
-        <v>1.0999999999999996</v>
+        <f t="shared" si="28"/>
+        <v>0.59999999999999964</v>
       </c>
       <c r="AX30" s="13">
-        <f t="shared" si="14"/>
-        <v>5.4000000000000057</v>
+        <f t="shared" si="29"/>
+        <v>13.200000000000003</v>
       </c>
     </row>
-    <row r="31" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
       <c r="C31" s="7">
-        <v>10.4</v>
+        <v>12.4</v>
       </c>
       <c r="D31" s="7">
-        <v>9.6999999999999993</v>
+        <v>12.2</v>
       </c>
       <c r="E31" s="7">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F31" s="7">
-        <v>65.5</v>
+        <v>65.8</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="15"/>
-        <v>0.70000000000000107</v>
+        <f t="shared" si="20"/>
+        <v>0.20000000000000107</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="10"/>
-        <v>6.5</v>
+        <f t="shared" si="21"/>
+        <v>11.200000000000003</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="7">
-        <v>10.4</v>
+        <v>12.4</v>
       </c>
       <c r="N31" s="7">
-        <v>9.8000000000000007</v>
+        <v>12.9</v>
       </c>
       <c r="O31" s="7">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P31" s="7">
         <v>72</v>
       </c>
       <c r="Q31" s="7">
-        <f t="shared" si="16"/>
-        <v>0.59999999999999964</v>
+        <f t="shared" si="22"/>
+        <v>0.5</v>
       </c>
       <c r="R31" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="V31" s="6"/>
       <c r="W31" s="7">
-        <v>10.4</v>
+        <v>12.4</v>
       </c>
       <c r="X31" s="7">
-        <v>9.4</v>
+        <v>12.8</v>
       </c>
       <c r="Y31" s="7">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Z31" s="7">
-        <v>80.3</v>
+        <v>86.4</v>
       </c>
       <c r="AA31" s="7">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>0.40000000000000036</v>
       </c>
       <c r="AB31" s="8">
-        <f t="shared" si="12"/>
-        <v>8.2999999999999972</v>
+        <f t="shared" si="25"/>
+        <v>9.4000000000000057</v>
       </c>
       <c r="AG31" s="6"/>
       <c r="AH31" s="7">
-        <v>10.4</v>
+        <v>12.4</v>
       </c>
       <c r="AI31" s="7"/>
       <c r="AJ31" s="7">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AK31" s="7">
-        <v>159</v>
+        <v>67.5</v>
       </c>
       <c r="AL31" s="7">
-        <f t="shared" si="18"/>
-        <v>10.4</v>
+        <f t="shared" si="26"/>
+        <v>12.4</v>
       </c>
       <c r="AM31" s="8">
-        <f t="shared" si="13"/>
-        <v>87</v>
+        <f t="shared" si="27"/>
+        <v>9.5</v>
       </c>
       <c r="AR31" s="6"/>
       <c r="AS31" s="7">
-        <v>10.4</v>
+        <v>12.4</v>
       </c>
       <c r="AT31" s="7">
-        <v>9.6</v>
+        <v>12.2</v>
       </c>
       <c r="AU31" s="7">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AV31" s="7">
-        <v>84.6</v>
+        <v>66.2</v>
       </c>
       <c r="AW31" s="7">
-        <f t="shared" si="19"/>
-        <v>0.80000000000000071</v>
+        <f t="shared" si="28"/>
+        <v>0.20000000000000107</v>
       </c>
       <c r="AX31" s="8">
-        <f t="shared" si="14"/>
-        <v>12.599999999999994</v>
+        <f t="shared" si="29"/>
+        <v>10.799999999999997</v>
       </c>
     </row>
-    <row r="32" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="4">
         <v>10.4</v>
       </c>
       <c r="D32" s="4">
-        <v>9.1999999999999993</v>
+        <v>10.1</v>
       </c>
       <c r="E32" s="4">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F32" s="4">
-        <v>81.2</v>
+        <v>67.2</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="15"/>
-        <v>1.2000000000000011</v>
+        <f t="shared" si="20"/>
+        <v>0.30000000000000071</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="10"/>
-        <v>13.799999999999997</v>
+        <f t="shared" si="21"/>
+        <v>7.7999999999999972</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M32" s="4">
         <v>10.4</v>
       </c>
       <c r="N32" s="4">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="O32" s="4">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="P32" s="4">
-        <v>64.8</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="Q32" s="4">
-        <f t="shared" si="16"/>
-        <v>0.5</v>
+        <f t="shared" si="22"/>
+        <v>0.40000000000000036</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="11"/>
-        <v>30.200000000000003</v>
+        <f t="shared" si="23"/>
+        <v>7.4000000000000057</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W32" s="4">
         <v>10.4</v>
       </c>
       <c r="X32" s="4">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="Y32" s="4">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="Z32" s="4">
-        <v>95.8</v>
+        <v>80.3</v>
       </c>
       <c r="AA32" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="AB32" s="5">
-        <f t="shared" si="12"/>
-        <v>0.79999999999999716</v>
+        <f t="shared" si="25"/>
+        <v>5.2999999999999972</v>
       </c>
       <c r="AG32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AH32" s="4">
         <v>10.4</v>
       </c>
       <c r="AI32" s="4"/>
       <c r="AJ32" s="4">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK32" s="4">
-        <v>76.3</v>
+        <v>71</v>
       </c>
       <c r="AL32" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>10.4</v>
       </c>
       <c r="AM32" s="5">
-        <f>ABS(AJ32-AK32)</f>
-        <v>18.700000000000003</v>
+        <f t="shared" si="27"/>
+        <v>4</v>
       </c>
       <c r="AR32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AS32" s="4">
         <v>10.4</v>
       </c>
       <c r="AT32" s="4">
-        <v>10</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AU32" s="4">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AV32" s="4">
-        <v>88.5</v>
+        <v>69</v>
       </c>
       <c r="AW32" s="4">
-        <f t="shared" si="19"/>
-        <v>0.40000000000000036</v>
+        <f t="shared" si="28"/>
+        <v>0.20000000000000107</v>
       </c>
       <c r="AX32" s="5">
-        <f t="shared" si="14"/>
-        <v>6.5</v>
+        <f t="shared" si="29"/>
+        <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B33" s="12"/>
       <c r="C33">
-        <v>10.4</v>
+        <v>9.6</v>
       </c>
       <c r="D33">
-        <v>10.4</v>
+        <v>8.9</v>
       </c>
       <c r="E33">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F33">
-        <v>72.8</v>
+        <v>82.3</v>
       </c>
       <c r="G33">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0.69999999999999929</v>
       </c>
       <c r="H33" s="13">
-        <f t="shared" si="10"/>
-        <v>0.79999999999999716</v>
+        <f t="shared" si="21"/>
+        <v>9.7000000000000028</v>
       </c>
       <c r="L33" s="12"/>
       <c r="M33">
-        <v>10.4</v>
+        <v>9.6</v>
       </c>
       <c r="N33">
-        <v>9.6999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="O33">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="P33">
-        <v>64.400000000000006</v>
+        <v>98</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="16"/>
-        <v>0.70000000000000107</v>
+        <f t="shared" si="22"/>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="R33" s="13">
-        <f t="shared" si="11"/>
-        <v>7.5999999999999943</v>
+        <f t="shared" si="23"/>
+        <v>6</v>
       </c>
       <c r="V33" s="12"/>
       <c r="W33">
-        <v>10.4</v>
+        <v>9.6</v>
       </c>
       <c r="X33">
-        <v>9.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Y33">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="Z33">
-        <v>92.6</v>
+        <v>96.4</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>1.4000000000000004</v>
       </c>
       <c r="AB33" s="13">
-        <f t="shared" si="12"/>
-        <v>20.599999999999994</v>
+        <f t="shared" si="25"/>
+        <v>4.4000000000000057</v>
       </c>
       <c r="AG33" s="12"/>
       <c r="AH33">
-        <v>10.4</v>
+        <v>9.6</v>
       </c>
       <c r="AJ33">
-        <v>72</v>
-      </c>
-      <c r="AK33" s="18">
-        <v>72</v>
+        <v>92</v>
+      </c>
+      <c r="AK33">
+        <v>78.3</v>
       </c>
       <c r="AL33">
-        <f t="shared" si="18"/>
-        <v>10.4</v>
+        <f t="shared" si="26"/>
+        <v>9.6</v>
       </c>
       <c r="AM33" s="13">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>13.700000000000003</v>
       </c>
       <c r="AR33" s="12"/>
       <c r="AS33">
-        <v>10.4</v>
+        <v>9.6</v>
       </c>
       <c r="AT33">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AU33">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AV33">
-        <v>74.900000000000006</v>
+        <v>97.4</v>
       </c>
       <c r="AW33">
-        <f t="shared" si="19"/>
-        <v>0.40000000000000036</v>
+        <f t="shared" si="28"/>
+        <v>1.0999999999999996</v>
       </c>
       <c r="AX33" s="13">
-        <f t="shared" si="14"/>
-        <v>2.9000000000000057</v>
+        <f t="shared" si="29"/>
+        <v>5.4000000000000057</v>
       </c>
     </row>
-    <row r="34" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
       <c r="C34" s="7">
-        <v>11.2</v>
-      </c>
-      <c r="D34">
-        <v>10.9</v>
+        <v>10.4</v>
+      </c>
+      <c r="D34" s="7">
+        <v>9.6999999999999993</v>
       </c>
       <c r="E34" s="7">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F34" s="7">
-        <v>69</v>
+        <v>65.5</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" si="15"/>
-        <v>0.29999999999999893</v>
+        <f t="shared" si="20"/>
+        <v>0.70000000000000107</v>
       </c>
       <c r="H34" s="8">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" si="21"/>
+        <v>6.5</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="7">
-        <v>11.2</v>
-      </c>
-      <c r="N34">
-        <v>10.3</v>
+        <v>10.4</v>
+      </c>
+      <c r="N34" s="7">
+        <v>9.8000000000000007</v>
       </c>
       <c r="O34" s="7">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="P34" s="7">
-        <v>75.5</v>
+        <v>72</v>
       </c>
       <c r="Q34" s="7">
-        <f t="shared" si="16"/>
-        <v>0.89999999999999858</v>
+        <f t="shared" si="22"/>
+        <v>0.59999999999999964</v>
       </c>
       <c r="R34" s="8">
-        <f t="shared" si="11"/>
-        <v>3.5</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="V34" s="6"/>
       <c r="W34" s="7">
-        <v>11.2</v>
-      </c>
-      <c r="X34">
-        <v>10.5</v>
+        <v>10.4</v>
+      </c>
+      <c r="X34" s="7">
+        <v>9.4</v>
       </c>
       <c r="Y34" s="7">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Z34" s="7">
-        <v>81.400000000000006</v>
+        <v>80.3</v>
       </c>
       <c r="AA34" s="7">
-        <f t="shared" si="17"/>
-        <v>0.69999999999999929</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="AB34" s="8">
-        <f t="shared" si="12"/>
-        <v>2.4000000000000057</v>
+        <f t="shared" si="25"/>
+        <v>8.2999999999999972</v>
       </c>
       <c r="AG34" s="6"/>
       <c r="AH34" s="7">
-        <v>11.2</v>
-      </c>
+        <v>10.4</v>
+      </c>
+      <c r="AI34" s="7"/>
       <c r="AJ34" s="7">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AK34" s="7">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="AL34" s="7">
-        <f t="shared" si="18"/>
-        <v>11.2</v>
+        <f t="shared" si="26"/>
+        <v>10.4</v>
       </c>
       <c r="AM34" s="8">
-        <f>ABS(AJ34-AK34)</f>
-        <v>42</v>
+        <f t="shared" si="27"/>
+        <v>87</v>
       </c>
       <c r="AR34" s="6"/>
       <c r="AS34" s="7">
-        <v>11.2</v>
-      </c>
-      <c r="AT34">
-        <v>11.2</v>
+        <v>10.4</v>
+      </c>
+      <c r="AT34" s="7">
+        <v>9.6</v>
       </c>
       <c r="AU34" s="7">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AV34" s="7">
-        <v>67.3</v>
+        <v>84.6</v>
       </c>
       <c r="AW34" s="7">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>0.80000000000000071</v>
       </c>
       <c r="AX34" s="8">
-        <f t="shared" si="14"/>
-        <v>11.700000000000003</v>
+        <f t="shared" si="29"/>
+        <v>12.599999999999994</v>
       </c>
     </row>
-    <row r="35" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="4">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="D35" s="4">
-        <v>8.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E35" s="4">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F35" s="4">
-        <v>76.400000000000006</v>
+        <v>81.2</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="15"/>
-        <v>1.4000000000000004</v>
+        <f t="shared" si="20"/>
+        <v>1.2000000000000011</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="10"/>
-        <v>1.4000000000000057</v>
+        <f t="shared" si="21"/>
+        <v>13.799999999999997</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M35" s="4">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="N35" s="4">
-        <v>9.5</v>
+        <v>9.9</v>
       </c>
       <c r="O35" s="4">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="P35" s="4">
-        <v>89.2</v>
+        <v>64.8</v>
       </c>
       <c r="Q35" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
       <c r="R35" s="5">
-        <f t="shared" si="11"/>
-        <v>14.200000000000003</v>
+        <f t="shared" si="23"/>
+        <v>30.200000000000003</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W35" s="4">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="X35" s="4">
-        <v>8.1999999999999993</v>
+        <v>10.3</v>
       </c>
       <c r="Y35" s="4">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="Z35" s="4">
-        <v>91.7</v>
+        <v>95.8</v>
       </c>
       <c r="AA35" s="4">
-        <f t="shared" si="17"/>
-        <v>1.8000000000000007</v>
+        <f t="shared" si="24"/>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="AB35" s="5">
-        <f t="shared" si="12"/>
-        <v>16.700000000000003</v>
+        <f t="shared" si="25"/>
+        <v>0.79999999999999716</v>
       </c>
       <c r="AG35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH35" s="4">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK35" s="4">
-        <v>111</v>
+        <v>76.3</v>
       </c>
       <c r="AL35" s="4">
-        <f t="shared" si="18"/>
-        <v>10</v>
+        <f t="shared" si="26"/>
+        <v>10.4</v>
       </c>
       <c r="AM35" s="5">
-        <f t="shared" si="13"/>
-        <v>36</v>
+        <f t="shared" si="27"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="AR35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AS35" s="4">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="AT35" s="4">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AU35" s="4">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AV35" s="4">
-        <v>72.599999999999994</v>
+        <v>88.5</v>
       </c>
       <c r="AW35" s="4">
-        <f t="shared" si="19"/>
-        <v>0.59999999999999964</v>
+        <f t="shared" si="28"/>
+        <v>0.40000000000000036</v>
       </c>
       <c r="AX35" s="5">
-        <f t="shared" si="14"/>
-        <v>2.4000000000000057</v>
+        <f t="shared" si="29"/>
+        <v>6.5</v>
       </c>
     </row>
-    <row r="36" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B36" s="12"/>
       <c r="C36">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="E36">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F36">
-        <v>78.099999999999994</v>
+        <v>72.8</v>
       </c>
       <c r="G36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H36" s="13">
-        <f t="shared" si="10"/>
-        <v>11.099999999999994</v>
+        <f t="shared" si="21"/>
+        <v>0.79999999999999716</v>
       </c>
       <c r="L36" s="12"/>
       <c r="M36">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="N36">
-        <v>10</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="O36">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P36">
-        <v>52.8</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>0.70000000000000107</v>
       </c>
       <c r="R36" s="13">
-        <f t="shared" si="11"/>
-        <v>14.200000000000003</v>
+        <f t="shared" si="23"/>
+        <v>7.5999999999999943</v>
       </c>
       <c r="V36" s="12"/>
       <c r="W36">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="X36">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y36">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Z36">
-        <v>95.5</v>
+        <v>92.6</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="17"/>
-        <v>0.5</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="AB36" s="13">
-        <f t="shared" si="12"/>
-        <v>28.5</v>
+        <f t="shared" si="25"/>
+        <v>20.599999999999994</v>
       </c>
       <c r="AG36" s="12"/>
       <c r="AH36">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="AJ36">
-        <v>67</v>
-      </c>
-      <c r="AK36" s="18">
-        <v>69.599999999999994</v>
+        <v>72</v>
+      </c>
+      <c r="AK36">
+        <v>72</v>
       </c>
       <c r="AL36">
-        <f t="shared" si="18"/>
-        <v>10</v>
+        <f t="shared" si="26"/>
+        <v>10.4</v>
       </c>
       <c r="AM36" s="13">
-        <f t="shared" si="13"/>
-        <v>2.5999999999999943</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="AR36" s="12"/>
       <c r="AS36">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="AT36">
-        <v>10.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AU36">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AV36">
-        <v>67.099999999999994</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="AW36">
-        <f t="shared" si="19"/>
-        <v>0.19999999999999929</v>
+        <f t="shared" si="28"/>
+        <v>0.40000000000000036</v>
       </c>
       <c r="AX36" s="13">
-        <f t="shared" si="14"/>
-        <v>9.9999999999994316E-2</v>
+        <f t="shared" si="29"/>
+        <v>2.9000000000000057</v>
       </c>
     </row>
-    <row r="37" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
       <c r="C37" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="D37" s="7">
-        <v>9.6</v>
+        <v>11.2</v>
+      </c>
+      <c r="D37">
+        <v>10.9</v>
       </c>
       <c r="E37" s="7">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F37" s="7">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="15"/>
-        <v>0.80000000000000071</v>
+        <f t="shared" si="20"/>
+        <v>0.29999999999999893</v>
       </c>
       <c r="H37" s="8">
-        <f t="shared" si="10"/>
-        <v>20</v>
+        <f t="shared" si="21"/>
+        <v>10</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="N37" s="7">
-        <v>9.6</v>
+        <v>11.2</v>
+      </c>
+      <c r="N37">
+        <v>10.3</v>
       </c>
       <c r="O37" s="7">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="P37" s="7">
-        <v>61.2</v>
+        <v>75.5</v>
       </c>
       <c r="Q37" s="7">
-        <f t="shared" si="16"/>
-        <v>0.80000000000000071</v>
+        <f t="shared" si="22"/>
+        <v>0.89999999999999858</v>
       </c>
       <c r="R37" s="8">
-        <f t="shared" si="11"/>
-        <v>29.799999999999997</v>
+        <f t="shared" si="23"/>
+        <v>3.5</v>
       </c>
       <c r="V37" s="6"/>
       <c r="W37" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="X37" s="7">
-        <v>8</v>
+        <v>11.2</v>
+      </c>
+      <c r="X37">
+        <v>10.5</v>
       </c>
       <c r="Y37" s="7">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="Z37" s="7">
-        <v>90.5</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="AA37" s="7">
-        <f t="shared" si="17"/>
-        <v>2.4000000000000004</v>
+        <f t="shared" si="24"/>
+        <v>0.69999999999999929</v>
       </c>
       <c r="AB37" s="8">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
+        <f t="shared" si="25"/>
+        <v>2.4000000000000057</v>
       </c>
       <c r="AG37" s="6"/>
       <c r="AH37" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="AI37" s="7"/>
+        <v>11.2</v>
+      </c>
       <c r="AJ37" s="7">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AK37" s="7">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="AL37" s="7">
-        <f t="shared" si="18"/>
-        <v>10.4</v>
+        <f t="shared" si="26"/>
+        <v>11.2</v>
       </c>
       <c r="AM37" s="8">
-        <f t="shared" si="13"/>
-        <v>72</v>
+        <f t="shared" si="27"/>
+        <v>42</v>
       </c>
       <c r="AR37" s="6"/>
       <c r="AS37" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="AT37" s="7">
-        <v>9.8000000000000007</v>
+        <v>11.2</v>
+      </c>
+      <c r="AT37">
+        <v>11.2</v>
       </c>
       <c r="AU37" s="7">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AV37" s="7">
+        <v>67.3</v>
+      </c>
+      <c r="AW37" s="7">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AX37" s="8">
+        <f t="shared" si="29"/>
+        <v>11.700000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="2:50" x14ac:dyDescent="0.35">
+      <c r="B38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="4">
+        <v>10</v>
+      </c>
+      <c r="D38" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="E38" s="4">
         <v>75</v>
       </c>
-      <c r="AW37" s="7">
-        <f t="shared" si="19"/>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="AX37" s="8">
-        <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="D38" s="4">
-        <v>11.4</v>
-      </c>
-      <c r="E38" s="4">
-        <v>92</v>
-      </c>
       <c r="F38" s="4">
-        <v>66.3</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="15"/>
-        <v>0.19999999999999929</v>
+        <f t="shared" si="20"/>
+        <v>1.4000000000000004</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="10"/>
-        <v>25.700000000000003</v>
+        <f t="shared" si="21"/>
+        <v>1.4000000000000057</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M38" s="4">
-        <v>11.6</v>
+        <v>10</v>
       </c>
       <c r="N38" s="4">
-        <v>10.7</v>
+        <v>9.5</v>
       </c>
       <c r="O38" s="4">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="P38" s="4">
-        <v>49.2</v>
+        <v>89.2</v>
       </c>
       <c r="Q38" s="4">
-        <f t="shared" si="16"/>
-        <v>0.90000000000000036</v>
+        <f t="shared" si="22"/>
+        <v>0.5</v>
       </c>
       <c r="R38" s="5">
-        <f t="shared" si="11"/>
-        <v>42.8</v>
+        <f t="shared" si="23"/>
+        <v>14.200000000000003</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W38" s="4">
-        <v>11.6</v>
+        <v>10</v>
       </c>
       <c r="X38" s="4">
-        <v>11.7</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Y38" s="4">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="Z38" s="4">
-        <v>59.5</v>
+        <v>91.7</v>
       </c>
       <c r="AA38" s="4">
-        <f t="shared" si="17"/>
-        <v>9.9999999999999645E-2</v>
+        <f t="shared" si="24"/>
+        <v>1.8000000000000007</v>
       </c>
       <c r="AB38" s="5">
-        <f t="shared" si="12"/>
-        <v>32.5</v>
+        <f t="shared" si="25"/>
+        <v>16.700000000000003</v>
       </c>
       <c r="AG38" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AH38" s="4">
-        <v>11.6</v>
+        <v>10</v>
       </c>
       <c r="AI38" s="4"/>
       <c r="AJ38" s="4">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AK38" s="4">
-        <v>234</v>
+        <v>111</v>
       </c>
       <c r="AL38" s="4">
-        <f t="shared" si="18"/>
-        <v>11.6</v>
+        <f t="shared" si="26"/>
+        <v>10</v>
       </c>
       <c r="AM38" s="5">
-        <f t="shared" si="13"/>
-        <v>142</v>
+        <f t="shared" si="27"/>
+        <v>36</v>
       </c>
       <c r="AR38" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AS38" s="4">
-        <v>11.6</v>
+        <v>10</v>
       </c>
       <c r="AT38" s="4">
-        <v>11.4</v>
+        <v>9.4</v>
       </c>
       <c r="AU38" s="4">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AV38" s="4">
-        <v>62.9</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="AW38" s="4">
-        <f t="shared" si="19"/>
-        <v>0.19999999999999929</v>
+        <f t="shared" si="28"/>
+        <v>0.59999999999999964</v>
       </c>
       <c r="AX38" s="5">
-        <f t="shared" si="14"/>
-        <v>29.1</v>
+        <f t="shared" si="29"/>
+        <v>2.4000000000000057</v>
       </c>
     </row>
-    <row r="39" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B39" s="12"/>
       <c r="C39">
         <v>10</v>
       </c>
       <c r="D39">
-        <v>8.1999999999999993</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F39">
-        <v>69.400000000000006</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="G39">
-        <f t="shared" si="15"/>
-        <v>1.8000000000000007</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="H39" s="13">
-        <f t="shared" si="10"/>
-        <v>1.5999999999999943</v>
+        <f t="shared" si="21"/>
+        <v>11.099999999999994</v>
       </c>
       <c r="L39" s="12"/>
       <c r="M39">
         <v>10</v>
       </c>
       <c r="N39">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="O39">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P39">
-        <v>54</v>
+        <v>52.8</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="16"/>
-        <v>0.59999999999999964</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="R39" s="13">
-        <f t="shared" si="11"/>
-        <v>17</v>
+        <f t="shared" si="23"/>
+        <v>14.200000000000003</v>
       </c>
       <c r="V39" s="12"/>
       <c r="W39">
         <v>10</v>
       </c>
       <c r="X39">
-        <v>8.1999999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="Y39">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Z39">
-        <v>89.6</v>
+        <v>95.5</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="17"/>
-        <v>1.8000000000000007</v>
+        <f t="shared" si="24"/>
+        <v>0.5</v>
       </c>
       <c r="AB39" s="13">
-        <f t="shared" si="12"/>
-        <v>18.599999999999994</v>
+        <f t="shared" si="25"/>
+        <v>28.5</v>
       </c>
       <c r="AG39" s="12"/>
       <c r="AH39">
         <v>10</v>
       </c>
       <c r="AJ39">
-        <v>71</v>
-      </c>
-      <c r="AK39" s="18">
-        <v>139</v>
+        <v>67</v>
+      </c>
+      <c r="AK39">
+        <v>69.599999999999994</v>
       </c>
       <c r="AL39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="AM39" s="13">
-        <f t="shared" si="13"/>
-        <v>68</v>
+        <f t="shared" si="27"/>
+        <v>2.5999999999999943</v>
       </c>
       <c r="AR39" s="12"/>
       <c r="AS39">
         <v>10</v>
       </c>
       <c r="AT39">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AU39">
+        <v>67</v>
+      </c>
+      <c r="AV39">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="AW39">
+        <f t="shared" si="28"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AX39" s="13">
+        <f t="shared" si="29"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:50" x14ac:dyDescent="0.35">
+      <c r="B40" s="6"/>
+      <c r="C40" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="D40" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="E40" s="7">
+        <v>91</v>
+      </c>
+      <c r="F40" s="7">
+        <v>71</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="20"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="H40" s="8">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="N40" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="O40" s="7">
+        <v>91</v>
+      </c>
+      <c r="P40" s="7">
+        <v>61.2</v>
+      </c>
+      <c r="Q40" s="7">
+        <f t="shared" si="22"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="R40" s="8">
+        <f t="shared" si="23"/>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="V40" s="6"/>
+      <c r="W40" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="X40" s="7">
         <v>8</v>
       </c>
-      <c r="AU39">
+      <c r="Y40" s="7">
+        <v>91</v>
+      </c>
+      <c r="Z40" s="7">
+        <v>90.5</v>
+      </c>
+      <c r="AA40" s="7">
+        <f t="shared" si="24"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="AB40" s="8">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7">
+        <v>91</v>
+      </c>
+      <c r="AK40" s="7">
+        <v>163</v>
+      </c>
+      <c r="AL40" s="7">
+        <f t="shared" si="26"/>
+        <v>10.4</v>
+      </c>
+      <c r="AM40" s="8">
+        <f t="shared" si="27"/>
+        <v>72</v>
+      </c>
+      <c r="AR40" s="6"/>
+      <c r="AS40" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="AT40" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AU40" s="7">
+        <v>91</v>
+      </c>
+      <c r="AV40" s="7">
+        <v>75</v>
+      </c>
+      <c r="AW40" s="7">
+        <f t="shared" si="28"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="AX40" s="8">
+        <f t="shared" si="29"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:50" x14ac:dyDescent="0.35">
+      <c r="B41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="D41" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="E41" s="4">
+        <v>92</v>
+      </c>
+      <c r="F41" s="4">
+        <v>66.3</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="20"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="21"/>
+        <v>25.700000000000003</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M41" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="N41" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="O41" s="4">
+        <v>92</v>
+      </c>
+      <c r="P41" s="4">
+        <v>49.2</v>
+      </c>
+      <c r="Q41" s="4">
+        <f t="shared" si="22"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="R41" s="5">
+        <f t="shared" si="23"/>
+        <v>42.8</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W41" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="X41" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>92</v>
+      </c>
+      <c r="Z41" s="4">
+        <v>59.5</v>
+      </c>
+      <c r="AA41" s="4">
+        <f t="shared" si="24"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="AB41" s="5">
+        <f t="shared" si="25"/>
+        <v>32.5</v>
+      </c>
+      <c r="AG41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH41" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4">
+        <v>92</v>
+      </c>
+      <c r="AK41" s="4">
+        <v>234</v>
+      </c>
+      <c r="AL41" s="4">
+        <f t="shared" si="26"/>
+        <v>11.6</v>
+      </c>
+      <c r="AM41" s="5">
+        <f t="shared" si="27"/>
+        <v>142</v>
+      </c>
+      <c r="AR41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS41" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="AT41" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="AU41" s="4">
+        <v>92</v>
+      </c>
+      <c r="AV41" s="4">
+        <v>62.9</v>
+      </c>
+      <c r="AW41" s="4">
+        <f t="shared" si="28"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AX41" s="5">
+        <f t="shared" si="29"/>
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:50" x14ac:dyDescent="0.35">
+      <c r="B42" s="12"/>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E42">
         <v>71</v>
       </c>
-      <c r="AV39">
+      <c r="F42">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="20"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="H42" s="13">
+        <f t="shared" si="21"/>
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="L42" s="12"/>
+      <c r="M42">
+        <v>10</v>
+      </c>
+      <c r="N42">
+        <v>9.4</v>
+      </c>
+      <c r="O42">
+        <v>71</v>
+      </c>
+      <c r="P42">
+        <v>54</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="22"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="R42" s="13">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="V42" s="12"/>
+      <c r="W42">
+        <v>10</v>
+      </c>
+      <c r="X42">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Y42">
+        <v>71</v>
+      </c>
+      <c r="Z42">
+        <v>89.6</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="24"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="AB42" s="13">
+        <f t="shared" si="25"/>
+        <v>18.599999999999994</v>
+      </c>
+      <c r="AG42" s="12"/>
+      <c r="AH42">
+        <v>10</v>
+      </c>
+      <c r="AJ42">
+        <v>71</v>
+      </c>
+      <c r="AK42">
+        <v>139</v>
+      </c>
+      <c r="AL42">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="AM42" s="13">
+        <f t="shared" si="27"/>
+        <v>68</v>
+      </c>
+      <c r="AR42" s="12"/>
+      <c r="AS42">
+        <v>10</v>
+      </c>
+      <c r="AT42">
+        <v>8</v>
+      </c>
+      <c r="AU42">
+        <v>71</v>
+      </c>
+      <c r="AV42">
         <v>63.2</v>
       </c>
-      <c r="AW39">
-        <f t="shared" si="19"/>
+      <c r="AW42">
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
-      <c r="AX39" s="13">
-        <f t="shared" si="14"/>
+      <c r="AX42" s="13">
+        <f t="shared" si="29"/>
         <v>7.7999999999999972</v>
       </c>
     </row>
-    <row r="40" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B40" s="12"/>
-      <c r="C40">
-        <v>11.2</v>
-      </c>
-      <c r="D40">
-        <v>11</v>
-      </c>
-      <c r="E40">
-        <v>105</v>
-      </c>
-      <c r="F40">
-        <v>62</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="15"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="H40" s="13">
-        <f t="shared" si="10"/>
-        <v>43</v>
-      </c>
-      <c r="L40" s="12"/>
-      <c r="M40">
-        <v>11.2</v>
-      </c>
-      <c r="N40">
-        <v>10.4</v>
-      </c>
-      <c r="O40">
-        <v>105</v>
-      </c>
-      <c r="P40">
-        <v>62.8</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="16"/>
-        <v>0.79999999999999893</v>
-      </c>
-      <c r="R40" s="13">
-        <f t="shared" si="11"/>
-        <v>42.2</v>
-      </c>
-      <c r="V40" s="12"/>
-      <c r="W40">
-        <v>11.2</v>
-      </c>
-      <c r="X40">
-        <v>10.5</v>
-      </c>
-      <c r="Y40">
-        <v>105</v>
-      </c>
-      <c r="Z40">
-        <v>85</v>
-      </c>
-      <c r="AA40">
-        <f t="shared" si="17"/>
-        <v>0.69999999999999929</v>
-      </c>
-      <c r="AB40" s="13">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="AG40" s="12"/>
-      <c r="AH40">
-        <v>11.2</v>
-      </c>
-      <c r="AJ40">
-        <v>105</v>
-      </c>
-      <c r="AK40">
-        <v>69.5</v>
-      </c>
-      <c r="AL40">
-        <f t="shared" si="18"/>
-        <v>11.2</v>
-      </c>
-      <c r="AM40" s="13">
-        <f t="shared" si="13"/>
-        <v>35.5</v>
-      </c>
-      <c r="AR40" s="12"/>
-      <c r="AS40">
-        <v>11.2</v>
-      </c>
-      <c r="AT40">
-        <v>11.4</v>
-      </c>
-      <c r="AU40">
-        <v>105</v>
-      </c>
-      <c r="AV40">
-        <v>59.3</v>
-      </c>
-      <c r="AW40">
-        <f t="shared" si="19"/>
-        <v>0.20000000000000107</v>
-      </c>
-      <c r="AX40" s="13">
-        <f t="shared" si="14"/>
-        <v>45.7</v>
-      </c>
-    </row>
-    <row r="41" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-      <c r="C41" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="D41" s="7">
-        <v>10.7</v>
-      </c>
-      <c r="E41" s="7">
-        <v>72</v>
-      </c>
-      <c r="F41" s="7">
-        <v>68.8</v>
-      </c>
-      <c r="G41" s="7">
-        <f t="shared" si="15"/>
-        <v>0.29999999999999893</v>
-      </c>
-      <c r="H41" s="8">
-        <f t="shared" si="10"/>
-        <v>3.2000000000000028</v>
-      </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="N41" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="O41" s="7">
-        <v>72</v>
-      </c>
-      <c r="P41" s="7">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="Q41" s="7">
-        <f t="shared" si="16"/>
-        <v>0.30000000000000071</v>
-      </c>
-      <c r="R41" s="8">
-        <f t="shared" si="11"/>
-        <v>2.4000000000000057</v>
-      </c>
-      <c r="V41" s="6"/>
-      <c r="W41" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="X41" s="7">
-        <v>10.5</v>
-      </c>
-      <c r="Y41" s="7">
-        <v>72</v>
-      </c>
-      <c r="Z41" s="7">
-        <v>89</v>
-      </c>
-      <c r="AA41" s="7">
-        <f t="shared" si="17"/>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="AB41" s="8">
-        <f t="shared" si="12"/>
-        <v>17</v>
-      </c>
-      <c r="AG41" s="6"/>
-      <c r="AH41" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="AI41" s="7"/>
-      <c r="AJ41" s="7">
-        <v>72</v>
-      </c>
-      <c r="AK41" s="7">
-        <v>82.3</v>
-      </c>
-      <c r="AL41" s="7">
-        <f t="shared" si="18"/>
-        <v>10.4</v>
-      </c>
-      <c r="AM41" s="8">
-        <f t="shared" si="13"/>
-        <v>10.299999999999997</v>
-      </c>
-      <c r="AR41" s="6"/>
-      <c r="AS41" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="AT41" s="7">
-        <v>10.6</v>
-      </c>
-      <c r="AU41" s="7">
-        <v>72</v>
-      </c>
-      <c r="AV41" s="7">
-        <v>67</v>
-      </c>
-      <c r="AW41" s="7">
-        <f t="shared" si="19"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="AX41" s="8">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="D42" s="4">
-        <v>12.3</v>
-      </c>
-      <c r="E42" s="4">
-        <v>95</v>
-      </c>
-      <c r="F42" s="4">
-        <v>56.6</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="15"/>
-        <v>0.5</v>
-      </c>
-      <c r="H42" s="13">
-        <f t="shared" si="10"/>
-        <v>38.4</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M42" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="N42" s="4">
-        <v>12.9</v>
-      </c>
-      <c r="O42" s="4">
-        <v>95</v>
-      </c>
-      <c r="P42" s="4">
-        <v>50</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="16"/>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="R42" s="13">
-        <f t="shared" si="11"/>
-        <v>45</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W42" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="X42" s="4">
-        <v>12.9</v>
-      </c>
-      <c r="Y42" s="4">
-        <v>95</v>
-      </c>
-      <c r="Z42" s="4">
-        <v>88.5</v>
-      </c>
-      <c r="AA42">
-        <f t="shared" si="17"/>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="AB42" s="13">
-        <f t="shared" si="12"/>
-        <v>6.5</v>
-      </c>
-      <c r="AG42" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH42" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="AI42" s="4"/>
-      <c r="AJ42" s="4">
-        <v>95</v>
-      </c>
-      <c r="AK42" s="4">
-        <v>150</v>
-      </c>
-      <c r="AL42">
-        <f t="shared" si="18"/>
-        <v>12.8</v>
-      </c>
-      <c r="AM42" s="13">
-        <f t="shared" si="13"/>
-        <v>55</v>
-      </c>
-      <c r="AR42" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AS42" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="AT42" s="4">
-        <v>12.4</v>
-      </c>
-      <c r="AU42" s="4">
-        <v>95</v>
-      </c>
-      <c r="AV42" s="4">
-        <v>57.6</v>
-      </c>
-      <c r="AW42">
-        <f t="shared" si="19"/>
-        <v>0.40000000000000036</v>
-      </c>
-      <c r="AX42" s="13">
-        <f t="shared" si="14"/>
-        <v>37.4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:50" x14ac:dyDescent="0.35">
       <c r="B43" s="12"/>
       <c r="C43">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="F43">
-        <v>63.9</v>
+        <v>62</v>
       </c>
       <c r="G43">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0.19999999999999929</v>
       </c>
       <c r="H43" s="13">
-        <f t="shared" si="10"/>
-        <v>12.100000000000001</v>
+        <f t="shared" si="21"/>
+        <v>43</v>
       </c>
       <c r="L43" s="12"/>
       <c r="M43">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="N43">
-        <v>9.8000000000000007</v>
+        <v>10.4</v>
       </c>
       <c r="O43">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="P43">
-        <v>58.4</v>
+        <v>62.8</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="16"/>
-        <v>0.19999999999999929</v>
+        <f t="shared" si="22"/>
+        <v>0.79999999999999893</v>
       </c>
       <c r="R43" s="13">
-        <f t="shared" si="11"/>
-        <v>17.600000000000001</v>
+        <f t="shared" si="23"/>
+        <v>42.2</v>
       </c>
       <c r="V43" s="12"/>
       <c r="W43">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="X43">
         <v>10.5</v>
       </c>
       <c r="Y43">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="Z43">
-        <v>80.599999999999994</v>
+        <v>85</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="17"/>
-        <v>0.5</v>
+        <f t="shared" si="24"/>
+        <v>0.69999999999999929</v>
       </c>
       <c r="AB43" s="13">
-        <f t="shared" si="12"/>
-        <v>4.5999999999999943</v>
+        <f t="shared" si="25"/>
+        <v>20</v>
       </c>
       <c r="AG43" s="12"/>
       <c r="AH43">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="AJ43">
-        <v>76</v>
-      </c>
-      <c r="AK43" s="18">
-        <v>61</v>
+        <v>105</v>
+      </c>
+      <c r="AK43">
+        <v>69.5</v>
       </c>
       <c r="AL43">
-        <f t="shared" si="18"/>
-        <v>10</v>
+        <f t="shared" si="26"/>
+        <v>11.2</v>
       </c>
       <c r="AM43" s="13">
-        <f t="shared" si="13"/>
-        <v>15</v>
+        <f t="shared" si="27"/>
+        <v>35.5</v>
       </c>
       <c r="AR43" s="12"/>
       <c r="AS43">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="AT43">
-        <v>10</v>
+        <v>11.4</v>
       </c>
       <c r="AU43">
+        <v>105</v>
+      </c>
+      <c r="AV43">
+        <v>59.3</v>
+      </c>
+      <c r="AW43">
+        <f t="shared" si="28"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="AX43" s="13">
+        <f t="shared" si="29"/>
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:50" x14ac:dyDescent="0.35">
+      <c r="B44" s="6"/>
+      <c r="C44" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="D44" s="7">
+        <v>10.7</v>
+      </c>
+      <c r="E44" s="7">
+        <v>72</v>
+      </c>
+      <c r="F44" s="7">
+        <v>68.8</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" si="20"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="H44" s="8">
+        <f t="shared" si="21"/>
+        <v>3.2000000000000028</v>
+      </c>
+      <c r="L44" s="6"/>
+      <c r="M44" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="N44" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="O44" s="7">
+        <v>72</v>
+      </c>
+      <c r="P44" s="7">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="Q44" s="7">
+        <f t="shared" si="22"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="R44" s="8">
+        <f t="shared" si="23"/>
+        <v>2.4000000000000057</v>
+      </c>
+      <c r="V44" s="6"/>
+      <c r="W44" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="X44" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="Y44" s="7">
+        <v>72</v>
+      </c>
+      <c r="Z44" s="7">
+        <v>89</v>
+      </c>
+      <c r="AA44" s="7">
+        <f t="shared" si="24"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="AB44" s="8">
+        <f t="shared" si="25"/>
+        <v>17</v>
+      </c>
+      <c r="AG44" s="6"/>
+      <c r="AH44" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="AI44" s="7"/>
+      <c r="AJ44" s="7">
+        <v>72</v>
+      </c>
+      <c r="AK44" s="7">
+        <v>82.3</v>
+      </c>
+      <c r="AL44" s="7">
+        <f t="shared" si="26"/>
+        <v>10.4</v>
+      </c>
+      <c r="AM44" s="8">
+        <f t="shared" si="27"/>
+        <v>10.299999999999997</v>
+      </c>
+      <c r="AR44" s="6"/>
+      <c r="AS44" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="AT44" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="AU44" s="7">
+        <v>72</v>
+      </c>
+      <c r="AV44" s="7">
+        <v>67</v>
+      </c>
+      <c r="AW44" s="7">
+        <f t="shared" si="28"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AX44" s="8">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:50" x14ac:dyDescent="0.35">
+      <c r="B45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="D45" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="E45" s="4">
+        <v>95</v>
+      </c>
+      <c r="F45" s="4">
+        <v>56.6</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="H45" s="13">
+        <f t="shared" si="21"/>
+        <v>38.4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M45" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="N45" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="O45" s="4">
+        <v>95</v>
+      </c>
+      <c r="P45" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="22"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="R45" s="13">
+        <f t="shared" si="23"/>
+        <v>45</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W45" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="X45" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="Y45" s="4">
+        <v>95</v>
+      </c>
+      <c r="Z45" s="4">
+        <v>88.5</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="24"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="AB45" s="13">
+        <f t="shared" si="25"/>
+        <v>6.5</v>
+      </c>
+      <c r="AG45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH45" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4">
+        <v>95</v>
+      </c>
+      <c r="AK45" s="4">
+        <v>150</v>
+      </c>
+      <c r="AL45">
+        <f t="shared" si="26"/>
+        <v>12.8</v>
+      </c>
+      <c r="AM45" s="13">
+        <f t="shared" si="27"/>
+        <v>55</v>
+      </c>
+      <c r="AR45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS45" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="AT45" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="AU45" s="4">
+        <v>95</v>
+      </c>
+      <c r="AV45" s="4">
+        <v>57.6</v>
+      </c>
+      <c r="AW45">
+        <f t="shared" si="28"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="AX45" s="13">
+        <f t="shared" si="29"/>
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:50" x14ac:dyDescent="0.35">
+      <c r="B46" s="12"/>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
         <v>76</v>
       </c>
-      <c r="AV43">
+      <c r="F46">
+        <v>63.9</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="13">
+        <f t="shared" si="21"/>
+        <v>12.100000000000001</v>
+      </c>
+      <c r="L46" s="12"/>
+      <c r="M46">
+        <v>10</v>
+      </c>
+      <c r="N46">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O46">
+        <v>76</v>
+      </c>
+      <c r="P46">
+        <v>58.4</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="22"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="R46" s="13">
+        <f t="shared" si="23"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="V46" s="12"/>
+      <c r="W46">
+        <v>10</v>
+      </c>
+      <c r="X46">
+        <v>10.5</v>
+      </c>
+      <c r="Y46">
+        <v>76</v>
+      </c>
+      <c r="Z46">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB46" s="13">
+        <f t="shared" si="25"/>
+        <v>4.5999999999999943</v>
+      </c>
+      <c r="AG46" s="12"/>
+      <c r="AH46">
+        <v>10</v>
+      </c>
+      <c r="AJ46">
+        <v>76</v>
+      </c>
+      <c r="AK46">
+        <v>61</v>
+      </c>
+      <c r="AL46">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="AM46" s="13">
+        <f t="shared" si="27"/>
+        <v>15</v>
+      </c>
+      <c r="AR46" s="12"/>
+      <c r="AS46">
+        <v>10</v>
+      </c>
+      <c r="AT46">
+        <v>10</v>
+      </c>
+      <c r="AU46">
+        <v>76</v>
+      </c>
+      <c r="AV46">
         <v>69.599999999999994</v>
       </c>
-      <c r="AW43">
-        <f t="shared" si="19"/>
+      <c r="AW46">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AX43" s="13">
-        <f>ABS(AU43-AV43)</f>
+      <c r="AX46" s="13">
+        <f t="shared" si="29"/>
         <v>6.4000000000000057</v>
       </c>
     </row>
-    <row r="44" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B44" s="12"/>
-      <c r="C44">
-        <v>10</v>
-      </c>
-      <c r="D44">
+    <row r="47" spans="2:50" x14ac:dyDescent="0.35">
+      <c r="B47" s="12"/>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
         <v>9</v>
       </c>
-      <c r="E44">
+      <c r="E47">
         <v>72</v>
       </c>
-      <c r="F44">
+      <c r="F47">
         <v>66</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="15"/>
+      <c r="G47">
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="H44" s="13">
-        <f t="shared" si="10"/>
+      <c r="H47" s="13">
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="L44" s="12"/>
-      <c r="M44">
-        <v>10</v>
-      </c>
-      <c r="N44">
+      <c r="L47" s="12"/>
+      <c r="M47">
+        <v>10</v>
+      </c>
+      <c r="N47">
         <v>9.5</v>
       </c>
-      <c r="O44">
+      <c r="O47">
         <v>72</v>
       </c>
-      <c r="P44">
+      <c r="P47">
         <v>50.8</v>
       </c>
-      <c r="Q44">
-        <f t="shared" si="16"/>
+      <c r="Q47">
+        <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
-      <c r="R44" s="13">
-        <f t="shared" si="11"/>
+      <c r="R47" s="13">
+        <f t="shared" si="23"/>
         <v>21.200000000000003</v>
       </c>
-      <c r="V44" s="12"/>
-      <c r="W44">
-        <v>10</v>
-      </c>
-      <c r="X44">
+      <c r="V47" s="12"/>
+      <c r="W47">
+        <v>10</v>
+      </c>
+      <c r="X47">
         <v>9.4</v>
       </c>
-      <c r="Y44">
+      <c r="Y47">
         <v>72</v>
       </c>
-      <c r="Z44">
+      <c r="Z47">
         <v>79.7</v>
       </c>
-      <c r="AA44">
-        <f t="shared" si="17"/>
+      <c r="AA47">
+        <f t="shared" si="24"/>
         <v>0.59999999999999964</v>
       </c>
-      <c r="AB44" s="13">
-        <f t="shared" si="12"/>
+      <c r="AB47" s="13">
+        <f t="shared" si="25"/>
         <v>7.7000000000000028</v>
       </c>
-      <c r="AG44" s="12"/>
-      <c r="AH44">
-        <v>10</v>
-      </c>
-      <c r="AJ44">
+      <c r="AG47" s="12"/>
+      <c r="AH47">
+        <v>10</v>
+      </c>
+      <c r="AJ47">
         <v>72</v>
       </c>
-      <c r="AK44">
+      <c r="AK47">
         <v>72.7</v>
       </c>
-      <c r="AL44">
-        <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="AM44" s="13">
-        <f t="shared" si="13"/>
+      <c r="AL47">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="AM47" s="13">
+        <f t="shared" si="27"/>
         <v>0.70000000000000284</v>
       </c>
-      <c r="AR44" s="12"/>
-      <c r="AS44">
-        <v>10</v>
-      </c>
-      <c r="AT44">
+      <c r="AR47" s="12"/>
+      <c r="AS47">
+        <v>10</v>
+      </c>
+      <c r="AT47">
         <v>9.6</v>
       </c>
-      <c r="AU44">
+      <c r="AU47">
         <v>72</v>
       </c>
-      <c r="AV44">
+      <c r="AV47">
         <v>57.3</v>
       </c>
-      <c r="AW44">
-        <f t="shared" si="19"/>
+      <c r="AW47">
+        <f t="shared" si="28"/>
         <v>0.40000000000000036</v>
       </c>
-      <c r="AX44" s="13">
-        <f>ABS(AU44-AV44)</f>
+      <c r="AX47" s="13">
+        <f t="shared" si="29"/>
         <v>14.700000000000003</v>
       </c>
     </row>
-    <row r="45" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="C45" s="7">
-        <v>10</v>
-      </c>
-      <c r="D45" s="7">
+    <row r="48" spans="2:50" x14ac:dyDescent="0.35">
+      <c r="B48" s="6"/>
+      <c r="C48" s="7">
+        <v>10</v>
+      </c>
+      <c r="D48" s="7">
         <v>10.8</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E48" s="7">
         <v>102</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F48" s="7">
         <v>81</v>
       </c>
-      <c r="G45" s="7">
-        <f t="shared" si="15"/>
+      <c r="G48" s="7">
+        <f t="shared" si="20"/>
         <v>0.80000000000000071</v>
       </c>
-      <c r="H45" s="13">
-        <f t="shared" si="10"/>
+      <c r="H48" s="13">
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
-      <c r="L45" s="6"/>
-      <c r="M45" s="7">
-        <v>10</v>
-      </c>
-      <c r="N45" s="7">
+      <c r="L48" s="6"/>
+      <c r="M48" s="7">
+        <v>10</v>
+      </c>
+      <c r="N48" s="7">
         <v>9.6999999999999993</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O48" s="7">
         <v>102</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P48" s="7">
         <v>102</v>
       </c>
-      <c r="Q45" s="7">
-        <f t="shared" si="16"/>
+      <c r="Q48" s="7">
+        <f t="shared" si="22"/>
         <v>0.30000000000000071</v>
       </c>
-      <c r="R45" s="8">
-        <f t="shared" si="11"/>
+      <c r="R48" s="8">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="V45" s="6"/>
-      <c r="W45" s="7">
-        <v>10</v>
-      </c>
-      <c r="X45" s="7">
-        <v>10</v>
-      </c>
-      <c r="Y45" s="7">
+      <c r="V48" s="6"/>
+      <c r="W48" s="7">
+        <v>10</v>
+      </c>
+      <c r="X48" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y48" s="7">
         <v>102</v>
       </c>
-      <c r="Z45" s="7">
+      <c r="Z48" s="7">
         <v>82</v>
       </c>
-      <c r="AA45" s="7">
-        <f t="shared" si="17"/>
+      <c r="AA48" s="7">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB45" s="8">
-        <f t="shared" si="12"/>
+      <c r="AB48" s="8">
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="AG45" s="6"/>
-      <c r="AH45" s="7">
-        <v>10</v>
-      </c>
-      <c r="AI45" s="7"/>
-      <c r="AJ45" s="7">
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="7">
+        <v>10</v>
+      </c>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="7">
         <v>102</v>
       </c>
-      <c r="AK45" s="7">
+      <c r="AK48" s="7">
         <v>136.80000000000001</v>
       </c>
-      <c r="AL45" s="7">
-        <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="AM45" s="8">
-        <f t="shared" si="13"/>
+      <c r="AL48" s="7">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="AM48" s="8">
+        <f t="shared" si="27"/>
         <v>34.800000000000011</v>
       </c>
-      <c r="AR45" s="6"/>
-      <c r="AS45" s="7">
-        <v>10</v>
-      </c>
-      <c r="AT45" s="7">
+      <c r="AR48" s="6"/>
+      <c r="AS48" s="7">
+        <v>10</v>
+      </c>
+      <c r="AT48" s="7">
         <v>10.5</v>
       </c>
-      <c r="AU45" s="7">
+      <c r="AU48" s="7">
         <v>102</v>
       </c>
-      <c r="AV45" s="7">
+      <c r="AV48" s="7">
         <v>84</v>
       </c>
-      <c r="AW45" s="7">
-        <f t="shared" si="19"/>
+      <c r="AW48" s="7">
+        <f t="shared" si="28"/>
         <v>0.5</v>
       </c>
-      <c r="AX45" s="8">
-        <f t="shared" si="14"/>
+      <c r="AX48" s="8">
+        <f t="shared" si="29"/>
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="G46">
-        <f>AVERAGE(G2:G45)</f>
-        <v>0.73181818181818192</v>
-      </c>
-      <c r="H46" s="4">
-        <f>AVERAGE(H2:H45)</f>
-        <v>12.786363636363637</v>
-      </c>
-      <c r="Q46">
-        <f>AVERAGE(Q2:Q45)</f>
-        <v>0.58636363636363642</v>
-      </c>
-      <c r="R46">
-        <f>AVERAGE(R2:R45)</f>
-        <v>20.650000000000002</v>
-      </c>
-      <c r="AA46">
-        <f>AVERAGE(AA2:AA45)</f>
-        <v>1.6772727272727268</v>
-      </c>
-      <c r="AB46">
-        <f>AVERAGE(AB2:AB45)</f>
-        <v>13.610227272727274</v>
-      </c>
-      <c r="AM46" s="20">
-        <f>AVERAGE(AM2:AM45)</f>
-        <v>37.231818181818191</v>
-      </c>
-      <c r="AW46">
-        <f>AVERAGE(AW2:AW45)</f>
-        <v>0.55454545454545456</v>
-      </c>
-      <c r="AX46" s="19">
-        <f>AVERAGE(AX2:AX45)</f>
-        <v>14.520454545454548</v>
-      </c>
-      <c r="AY46" s="19"/>
+    <row r="49" spans="2:50" x14ac:dyDescent="0.35">
+      <c r="B49" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="D49" s="4">
+        <v>10</v>
+      </c>
+      <c r="E49" s="4">
+        <v>91</v>
+      </c>
+      <c r="F49" s="4">
+        <v>68.8</v>
+      </c>
+      <c r="G49" s="4">
+        <f t="shared" si="20"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="H49" s="5">
+        <f>ABS(F49-E49)</f>
+        <v>22.200000000000003</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M49" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="N49" s="4">
+        <v>10</v>
+      </c>
+      <c r="O49" s="4">
+        <v>91</v>
+      </c>
+      <c r="P49" s="4">
+        <v>118.8</v>
+      </c>
+      <c r="Q49" s="4">
+        <f t="shared" si="22"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="R49" s="5">
+        <f>ABS(P49-O49)</f>
+        <v>27.799999999999997</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W49" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="X49" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="Y49" s="4">
+        <v>91</v>
+      </c>
+      <c r="Z49" s="4">
+        <v>88.7</v>
+      </c>
+      <c r="AA49" s="4">
+        <f t="shared" si="24"/>
+        <v>5.5000000000000009</v>
+      </c>
+      <c r="AB49" s="5">
+        <f>ABS(Z49-Y49)</f>
+        <v>2.2999999999999972</v>
+      </c>
+      <c r="AG49" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH49" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4">
+        <v>91</v>
+      </c>
+      <c r="AK49" s="4">
+        <v>114.6</v>
+      </c>
+      <c r="AL49" s="4">
+        <f t="shared" si="26"/>
+        <v>10.8</v>
+      </c>
+      <c r="AM49" s="5">
+        <f>ABS(AK49-AJ49)</f>
+        <v>23.599999999999994</v>
+      </c>
+      <c r="AR49" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS49" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="AT49" s="4">
+        <v>10</v>
+      </c>
+      <c r="AU49" s="4">
+        <v>91</v>
+      </c>
+      <c r="AV49" s="4">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AW49" s="4">
+        <f t="shared" si="28"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="AX49" s="5">
+        <f>ABS(AV49-AU49)</f>
+        <v>26.599999999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="2:50" x14ac:dyDescent="0.35">
+      <c r="B50" s="12"/>
+      <c r="C50">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D50">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E50">
+        <v>94</v>
+      </c>
+      <c r="F50">
+        <v>69.3</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="20"/>
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="H50" s="13">
+        <f t="shared" ref="H50:H56" si="30">ABS(F50-E50)</f>
+        <v>24.700000000000003</v>
+      </c>
+      <c r="L50" s="12"/>
+      <c r="M50">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N50">
+        <v>9.4</v>
+      </c>
+      <c r="O50">
+        <v>94</v>
+      </c>
+      <c r="P50">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="22"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="R50" s="13">
+        <f t="shared" ref="R50:R56" si="31">ABS(P50-O50)</f>
+        <v>17.599999999999994</v>
+      </c>
+      <c r="V50" s="12"/>
+      <c r="W50">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="X50" s="18">
+        <v>6.2</v>
+      </c>
+      <c r="Y50">
+        <v>94</v>
+      </c>
+      <c r="Z50" s="18">
+        <v>85.5</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="24"/>
+        <v>2.6000000000000005</v>
+      </c>
+      <c r="AB50" s="13">
+        <f t="shared" ref="AB50:AB56" si="32">ABS(Z50-Y50)</f>
+        <v>8.5</v>
+      </c>
+      <c r="AG50" s="12"/>
+      <c r="AH50">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AJ50">
+        <v>94</v>
+      </c>
+      <c r="AK50" s="18">
+        <v>74.5</v>
+      </c>
+      <c r="AL50">
+        <f t="shared" si="26"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AM50" s="13">
+        <f t="shared" ref="AM50:AM56" si="33">ABS(AK50-AJ50)</f>
+        <v>19.5</v>
+      </c>
+      <c r="AR50" s="12"/>
+      <c r="AS50">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AT50">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AU50">
+        <v>94</v>
+      </c>
+      <c r="AV50" s="18">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="AW50">
+        <f>ABS(AS50-AT50)</f>
+        <v>0</v>
+      </c>
+      <c r="AX50" s="13">
+        <f t="shared" ref="AX50:AX56" si="34">ABS(AV50-AU50)</f>
+        <v>15.099999999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="2:50" x14ac:dyDescent="0.35">
+      <c r="B51" s="12"/>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>9.5</v>
+      </c>
+      <c r="E51">
+        <v>76</v>
+      </c>
+      <c r="F51">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="H51" s="13">
+        <f t="shared" si="30"/>
+        <v>2.4000000000000057</v>
+      </c>
+      <c r="L51" s="12"/>
+      <c r="M51">
+        <v>10</v>
+      </c>
+      <c r="N51">
+        <v>9.6</v>
+      </c>
+      <c r="O51">
+        <v>76</v>
+      </c>
+      <c r="P51">
+        <v>85.6</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="22"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="R51" s="13">
+        <f t="shared" si="31"/>
+        <v>9.5999999999999943</v>
+      </c>
+      <c r="V51" s="12"/>
+      <c r="W51">
+        <v>10</v>
+      </c>
+      <c r="X51" s="18">
+        <v>7.3</v>
+      </c>
+      <c r="Y51">
+        <v>76</v>
+      </c>
+      <c r="Z51" s="18">
+        <v>85.5</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="24"/>
+        <v>2.7</v>
+      </c>
+      <c r="AB51" s="13">
+        <f t="shared" si="32"/>
+        <v>9.5</v>
+      </c>
+      <c r="AG51" s="12"/>
+      <c r="AH51">
+        <v>10</v>
+      </c>
+      <c r="AJ51">
+        <v>76</v>
+      </c>
+      <c r="AK51">
+        <v>172</v>
+      </c>
+      <c r="AL51">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="AM51" s="13">
+        <f t="shared" si="33"/>
+        <v>96</v>
+      </c>
+      <c r="AR51" s="12"/>
+      <c r="AS51">
+        <v>10</v>
+      </c>
+      <c r="AT51">
+        <v>10.15</v>
+      </c>
+      <c r="AU51">
+        <v>76</v>
+      </c>
+      <c r="AV51" s="18">
+        <v>89.7</v>
+      </c>
+      <c r="AW51">
+        <f>ABS(AS51-AT51)</f>
+        <v>0.15000000000000036</v>
+      </c>
+      <c r="AX51" s="13">
+        <f t="shared" si="34"/>
+        <v>13.700000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="2:50" x14ac:dyDescent="0.35">
+      <c r="B52" s="6"/>
+      <c r="C52" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D52" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E52" s="7">
+        <v>94</v>
+      </c>
+      <c r="F52" s="7">
+        <v>83.2</v>
+      </c>
+      <c r="G52" s="7">
+        <f t="shared" si="20"/>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="H52" s="13">
+        <f t="shared" si="30"/>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="L52" s="6"/>
+      <c r="M52" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N52" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O52" s="7">
+        <v>94</v>
+      </c>
+      <c r="P52" s="7">
+        <v>113</v>
+      </c>
+      <c r="Q52" s="7">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="R52" s="13">
+        <f t="shared" si="31"/>
+        <v>19</v>
+      </c>
+      <c r="V52" s="6"/>
+      <c r="W52" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="X52" s="7">
+        <v>9.9</v>
+      </c>
+      <c r="Y52" s="7">
+        <v>94</v>
+      </c>
+      <c r="Z52" s="7">
+        <v>81.7</v>
+      </c>
+      <c r="AA52" s="7">
+        <f t="shared" si="24"/>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="AB52" s="13">
+        <f t="shared" si="32"/>
+        <v>12.299999999999997</v>
+      </c>
+      <c r="AG52" s="6"/>
+      <c r="AH52" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="7">
+        <v>94</v>
+      </c>
+      <c r="AK52" s="7">
+        <v>165</v>
+      </c>
+      <c r="AL52" s="7">
+        <f t="shared" si="26"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AM52" s="13">
+        <f t="shared" si="33"/>
+        <v>71</v>
+      </c>
+      <c r="AR52" s="6"/>
+      <c r="AS52" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AT52" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AU52" s="7">
+        <v>94</v>
+      </c>
+      <c r="AV52" s="7">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="AW52" s="7">
+        <f t="shared" si="28"/>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="AX52" s="13">
+        <f t="shared" si="34"/>
+        <v>25.099999999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="2:50" x14ac:dyDescent="0.35">
+      <c r="B53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="D53" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="E53" s="4">
+        <v>95</v>
+      </c>
+      <c r="F53" s="4">
+        <v>68.7</v>
+      </c>
+      <c r="G53" s="4">
+        <f t="shared" si="20"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="H53" s="5">
+        <f t="shared" si="30"/>
+        <v>26.299999999999997</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M53" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="N53" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="O53" s="4">
+        <v>95</v>
+      </c>
+      <c r="P53" s="4">
+        <v>93.6</v>
+      </c>
+      <c r="Q53" s="4">
+        <f t="shared" si="22"/>
+        <v>0.70000000000000107</v>
+      </c>
+      <c r="R53" s="5">
+        <f t="shared" si="31"/>
+        <v>1.4000000000000057</v>
+      </c>
+      <c r="V53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W53" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="X53" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="Y53" s="4">
+        <v>95</v>
+      </c>
+      <c r="Z53" s="4">
+        <v>44.8</v>
+      </c>
+      <c r="AA53" s="4">
+        <f t="shared" si="24"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="AB53" s="5">
+        <f t="shared" si="32"/>
+        <v>50.2</v>
+      </c>
+      <c r="AG53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH53" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="4">
+        <v>95</v>
+      </c>
+      <c r="AK53" s="4">
+        <v>106.5</v>
+      </c>
+      <c r="AL53" s="4">
+        <f t="shared" si="26"/>
+        <v>10.8</v>
+      </c>
+      <c r="AM53" s="5">
+        <f t="shared" si="33"/>
+        <v>11.5</v>
+      </c>
+      <c r="AR53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS53" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="AT53" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="AU53" s="4">
+        <v>95</v>
+      </c>
+      <c r="AV53" s="4">
+        <v>86.7</v>
+      </c>
+      <c r="AW53" s="4">
+        <f t="shared" si="28"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="AX53" s="5">
+        <f t="shared" si="34"/>
+        <v>8.2999999999999972</v>
+      </c>
+    </row>
+    <row r="54" spans="2:50" x14ac:dyDescent="0.35">
+      <c r="B54" s="12"/>
+      <c r="C54">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D54">
+        <v>8.9</v>
+      </c>
+      <c r="E54">
+        <v>101</v>
+      </c>
+      <c r="F54">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="20"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="H54" s="13">
+        <f t="shared" si="30"/>
+        <v>28.400000000000006</v>
+      </c>
+      <c r="L54" s="12"/>
+      <c r="M54">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N54">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O54">
+        <v>101</v>
+      </c>
+      <c r="P54">
+        <v>50.5</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="22"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="R54" s="13">
+        <f t="shared" si="31"/>
+        <v>50.5</v>
+      </c>
+      <c r="V54" s="12"/>
+      <c r="W54">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="X54" s="18">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Y54">
+        <v>101</v>
+      </c>
+      <c r="Z54" s="18">
+        <v>95.8</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AB54" s="13">
+        <f t="shared" si="32"/>
+        <v>5.2000000000000028</v>
+      </c>
+      <c r="AG54" s="12"/>
+      <c r="AH54">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AJ54">
+        <v>101</v>
+      </c>
+      <c r="AK54" s="18">
+        <v>64.3</v>
+      </c>
+      <c r="AL54">
+        <f t="shared" si="26"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AM54" s="13">
+        <f t="shared" si="33"/>
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AR54" s="12"/>
+      <c r="AS54">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AT54" s="18">
+        <v>8.6</v>
+      </c>
+      <c r="AU54">
+        <v>101</v>
+      </c>
+      <c r="AV54" s="18">
+        <v>64.3</v>
+      </c>
+      <c r="AW54">
+        <f t="shared" si="28"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="AX54" s="13">
+        <f t="shared" si="34"/>
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="2:50" x14ac:dyDescent="0.35">
+      <c r="B55" s="12"/>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>7.1</v>
+      </c>
+      <c r="E55">
+        <v>90</v>
+      </c>
+      <c r="F55">
+        <v>70.8</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="20"/>
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="H55" s="13">
+        <f t="shared" si="30"/>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="L55" s="12"/>
+      <c r="M55">
+        <v>10</v>
+      </c>
+      <c r="N55">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O55">
+        <v>90</v>
+      </c>
+      <c r="P55">
+        <v>58.8</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="22"/>
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="R55" s="13">
+        <f t="shared" si="31"/>
+        <v>31.200000000000003</v>
+      </c>
+      <c r="V55" s="12"/>
+      <c r="W55">
+        <v>10</v>
+      </c>
+      <c r="X55" s="18">
+        <v>6.7</v>
+      </c>
+      <c r="Y55">
+        <v>90</v>
+      </c>
+      <c r="Z55" s="18">
+        <v>71.7</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="24"/>
+        <v>3.3</v>
+      </c>
+      <c r="AB55" s="13">
+        <f t="shared" si="32"/>
+        <v>18.299999999999997</v>
+      </c>
+      <c r="AG55" s="12"/>
+      <c r="AH55">
+        <v>10</v>
+      </c>
+      <c r="AJ55">
+        <v>90</v>
+      </c>
+      <c r="AK55" s="18">
+        <v>102</v>
+      </c>
+      <c r="AL55">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="AM55" s="13">
+        <f t="shared" si="33"/>
+        <v>12</v>
+      </c>
+      <c r="AR55" s="12"/>
+      <c r="AS55">
+        <v>10</v>
+      </c>
+      <c r="AT55">
+        <v>6.6</v>
+      </c>
+      <c r="AU55">
+        <v>90</v>
+      </c>
+      <c r="AV55">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="AW55">
+        <f t="shared" si="28"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="AX55" s="13">
+        <f t="shared" si="34"/>
+        <v>14.400000000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="2:50" x14ac:dyDescent="0.35">
+      <c r="B56" s="6"/>
+      <c r="C56" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="D56" s="7">
+        <v>8</v>
+      </c>
+      <c r="E56" s="7">
+        <v>75</v>
+      </c>
+      <c r="F56" s="7">
+        <v>65</v>
+      </c>
+      <c r="G56" s="7">
+        <f t="shared" si="20"/>
+        <v>2.8000000000000007</v>
+      </c>
+      <c r="H56" s="8">
+        <f t="shared" si="30"/>
+        <v>10</v>
+      </c>
+      <c r="L56" s="6"/>
+      <c r="M56" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="N56" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="O56" s="7">
+        <v>75</v>
+      </c>
+      <c r="P56" s="7">
+        <v>53.2</v>
+      </c>
+      <c r="Q56" s="7">
+        <f t="shared" si="22"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="R56" s="8">
+        <f t="shared" si="31"/>
+        <v>21.799999999999997</v>
+      </c>
+      <c r="V56" s="6"/>
+      <c r="W56" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="X56" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="Y56" s="7">
+        <v>75</v>
+      </c>
+      <c r="Z56" s="7">
+        <v>94.6</v>
+      </c>
+      <c r="AA56" s="19">
+        <f t="shared" si="24"/>
+        <v>8.2000000000000011</v>
+      </c>
+      <c r="AB56" s="13">
+        <f t="shared" si="32"/>
+        <v>19.599999999999994</v>
+      </c>
+      <c r="AG56" s="6"/>
+      <c r="AH56" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="7">
+        <v>75</v>
+      </c>
+      <c r="AK56" s="7">
+        <v>181.5</v>
+      </c>
+      <c r="AL56" s="7">
+        <f t="shared" si="26"/>
+        <v>10.8</v>
+      </c>
+      <c r="AM56" s="8">
+        <f t="shared" si="33"/>
+        <v>106.5</v>
+      </c>
+      <c r="AR56" s="6"/>
+      <c r="AS56" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="AT56" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="AU56" s="7">
+        <v>75</v>
+      </c>
+      <c r="AV56" s="7">
+        <v>89.8</v>
+      </c>
+      <c r="AW56" s="7">
+        <f t="shared" si="28"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="AX56" s="13">
+        <f t="shared" si="34"/>
+        <v>14.799999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="2:50" x14ac:dyDescent="0.35">
+      <c r="G57">
+        <f>AVERAGE(G2:G56)</f>
+        <v>0.76545454545454539</v>
+      </c>
+      <c r="H57">
+        <f>AVERAGE(H2:H56)</f>
+        <v>13.83090909090909</v>
+      </c>
+      <c r="Q57">
+        <f>AVERAGE(Q2:Q56)</f>
+        <v>0.59636363636363654</v>
+      </c>
+      <c r="R57" s="13">
+        <f>AVERAGE(R2:R56)</f>
+        <v>20.798181818181821</v>
+      </c>
+      <c r="AA57" s="18">
+        <f>AVERAGE(AA2:AA56)</f>
+        <v>1.8418181818181814</v>
+      </c>
+      <c r="AB57" s="20">
+        <f>AVERAGE(AB2:AB56)</f>
+        <v>13.677272727272729</v>
+      </c>
+      <c r="AM57" s="18">
+        <f>AVERAGE(AM2:AM56)</f>
+        <v>39.629090909090905</v>
+      </c>
+      <c r="AN57" s="21"/>
+      <c r="AW57" s="18">
+        <f>AVERAGE(AW2:AW56)</f>
+        <v>0.61163636363636376</v>
+      </c>
+      <c r="AX57" s="20">
+        <f>AVERAGE(AX2:AX56)</f>
+        <v>15.567272727272728</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CA3919-2C43-48C2-9876-C52C6F13045A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCB1718-9490-41E8-8FC5-33032318C60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +202,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -381,11 +387,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -666,35 +670,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX57"/>
+  <dimension ref="A1:AX58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U50" sqref="U50"/>
+    <sheetView tabSelected="1" topLeftCell="L28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD56" sqref="AD56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="30.1796875" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" customWidth="1"/>
-    <col min="11" max="11" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
     <col min="12" max="12" width="30" customWidth="1"/>
-    <col min="18" max="18" width="8.7265625" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" customWidth="1"/>
     <col min="21" max="21" width="16" customWidth="1"/>
-    <col min="22" max="22" width="29.81640625" customWidth="1"/>
+    <col min="22" max="22" width="29.85546875" customWidth="1"/>
     <col min="24" max="24" width="9" customWidth="1"/>
-    <col min="28" max="28" width="9.1796875" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" customWidth="1"/>
     <col min="32" max="32" width="8" customWidth="1"/>
     <col min="33" max="33" width="30" customWidth="1"/>
-    <col min="35" max="35" width="10.26953125" customWidth="1"/>
-    <col min="43" max="43" width="18.54296875" customWidth="1"/>
-    <col min="44" max="44" width="28.90625" customWidth="1"/>
-    <col min="48" max="48" width="9.1796875" customWidth="1"/>
-    <col min="49" max="49" width="9.81640625" customWidth="1"/>
+    <col min="35" max="35" width="10.28515625" customWidth="1"/>
+    <col min="43" max="43" width="18.5703125" customWidth="1"/>
+    <col min="44" max="44" width="28.85546875" customWidth="1"/>
+    <col min="48" max="48" width="9.140625" customWidth="1"/>
+    <col min="49" max="49" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,7 +820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
@@ -946,7 +950,7 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -1006,7 +1010,7 @@
         <v>71</v>
       </c>
       <c r="Z3" s="9">
-        <v>115.3</v>
+        <v>110.6</v>
       </c>
       <c r="AA3" s="9">
         <f t="shared" ref="AA3:AA12" si="4">ABS(W3-X3)</f>
@@ -1014,7 +1018,7 @@
       </c>
       <c r="AB3" s="10">
         <f t="shared" ref="AB3:AB12" si="5">ABS(Y3-Z3)</f>
-        <v>44.3</v>
+        <v>39.599999999999994</v>
       </c>
       <c r="AG3" s="14" t="s">
         <v>1</v>
@@ -1061,7 +1065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
@@ -1121,7 +1125,7 @@
         <v>100</v>
       </c>
       <c r="Z4" s="9">
-        <v>101.7</v>
+        <v>102.5</v>
       </c>
       <c r="AA4" s="9">
         <f t="shared" si="4"/>
@@ -1129,7 +1133,7 @@
       </c>
       <c r="AB4" s="10">
         <f t="shared" si="5"/>
-        <v>1.7000000000000028</v>
+        <v>2.5</v>
       </c>
       <c r="AG4" s="14" t="s">
         <v>2</v>
@@ -1176,7 +1180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
@@ -1236,7 +1240,7 @@
         <v>64</v>
       </c>
       <c r="Z5" s="9">
-        <v>93.75</v>
+        <v>99.6</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" si="4"/>
@@ -1244,7 +1248,7 @@
       </c>
       <c r="AB5" s="10">
         <f t="shared" si="5"/>
-        <v>29.75</v>
+        <v>35.599999999999994</v>
       </c>
       <c r="AG5" s="14" t="s">
         <v>3</v>
@@ -1291,7 +1295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
@@ -1352,7 +1356,7 @@
         <v>107</v>
       </c>
       <c r="Z6" s="9">
-        <v>104</v>
+        <v>103.2</v>
       </c>
       <c r="AA6" s="9">
         <f t="shared" si="4"/>
@@ -1360,7 +1364,7 @@
       </c>
       <c r="AB6" s="10">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>3.7999999999999972</v>
       </c>
       <c r="AG6" s="14" t="s">
         <v>15</v>
@@ -1407,7 +1411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
@@ -1461,22 +1465,22 @@
       <c r="W7" s="9">
         <v>21.8</v>
       </c>
-      <c r="X7" s="16">
-        <v>2.9</v>
+      <c r="X7" s="9">
+        <v>21.9</v>
       </c>
       <c r="Y7" s="9">
         <v>108</v>
       </c>
       <c r="Z7" s="9">
-        <v>109.8</v>
+        <v>108</v>
       </c>
       <c r="AA7" s="17">
         <f t="shared" si="4"/>
-        <v>18.900000000000002</v>
+        <v>9.9999999999997868E-2</v>
       </c>
       <c r="AB7" s="10">
         <f t="shared" si="5"/>
-        <v>1.7999999999999972</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="14" t="s">
         <v>16</v>
@@ -1523,7 +1527,7 @@
         <v>16.200000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
@@ -1578,21 +1582,21 @@
         <v>24.5</v>
       </c>
       <c r="X8" s="9">
-        <v>1.4</v>
+        <v>24.5</v>
       </c>
       <c r="Y8" s="9">
         <v>110</v>
       </c>
       <c r="Z8" s="9">
-        <v>111.3</v>
+        <v>111</v>
       </c>
       <c r="AA8" s="17">
         <f t="shared" si="4"/>
-        <v>23.1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="10">
         <f t="shared" si="5"/>
-        <v>1.2999999999999972</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="14" t="s">
         <v>17</v>
@@ -1639,7 +1643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
@@ -1699,7 +1703,7 @@
         <v>113</v>
       </c>
       <c r="Z9" s="9">
-        <v>101</v>
+        <v>100.7</v>
       </c>
       <c r="AA9" s="9">
         <f t="shared" si="4"/>
@@ -1707,7 +1711,7 @@
       </c>
       <c r="AB9" s="10">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>12.299999999999997</v>
       </c>
       <c r="AG9" s="14" t="s">
         <v>18</v>
@@ -1754,7 +1758,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
@@ -1814,7 +1818,7 @@
         <v>110</v>
       </c>
       <c r="Z10" s="9">
-        <v>107.1</v>
+        <v>105.1</v>
       </c>
       <c r="AA10" s="9">
         <f t="shared" si="4"/>
@@ -1822,7 +1826,7 @@
       </c>
       <c r="AB10" s="10">
         <f t="shared" si="5"/>
-        <v>2.9000000000000057</v>
+        <v>4.9000000000000057</v>
       </c>
       <c r="AG10" s="14" t="s">
         <v>19</v>
@@ -1869,7 +1873,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>20</v>
       </c>
@@ -1929,7 +1933,7 @@
         <v>102</v>
       </c>
       <c r="Z11" s="9">
-        <v>102.5</v>
+        <v>92.3</v>
       </c>
       <c r="AA11" s="9">
         <f t="shared" si="4"/>
@@ -1937,7 +1941,7 @@
       </c>
       <c r="AB11" s="10">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>9.7000000000000028</v>
       </c>
       <c r="AG11" s="14" t="s">
         <v>20</v>
@@ -1984,7 +1988,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>21</v>
       </c>
@@ -2038,7 +2042,7 @@
         <v>13</v>
       </c>
       <c r="X12" s="9">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="Y12" s="9">
         <v>104</v>
@@ -2048,7 +2052,7 @@
       </c>
       <c r="AA12" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AB12" s="10">
         <f t="shared" si="5"/>
@@ -2099,7 +2103,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>30</v>
       </c>
@@ -2159,7 +2163,7 @@
         <v>90</v>
       </c>
       <c r="Z13" s="9">
-        <v>108.4</v>
+        <v>106.9</v>
       </c>
       <c r="AA13" s="9">
         <f>ABS(W13-X13)</f>
@@ -2167,7 +2171,7 @@
       </c>
       <c r="AB13" s="10">
         <f>ABS(Y13-Z13)</f>
-        <v>18.400000000000006</v>
+        <v>16.900000000000006</v>
       </c>
       <c r="AG13" s="14" t="s">
         <v>30</v>
@@ -2214,7 +2218,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="12" t="s">
         <v>4</v>
@@ -2275,7 +2279,7 @@
         <v>67</v>
       </c>
       <c r="Z14">
-        <v>110.3</v>
+        <v>109.9</v>
       </c>
       <c r="AA14">
         <f>ABS(W14-X14)</f>
@@ -2283,7 +2287,7 @@
       </c>
       <c r="AB14" s="13">
         <f>ABS(Y14-Z14)</f>
-        <v>43.3</v>
+        <v>42.900000000000006</v>
       </c>
       <c r="AG14" s="12" t="s">
         <v>4</v>
@@ -2330,7 +2334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="7">
         <v>16.5</v>
@@ -2384,7 +2388,7 @@
         <v>105</v>
       </c>
       <c r="Z15" s="7">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AA15" s="7">
         <f>ABS(W15-X15)</f>
@@ -2392,7 +2396,7 @@
       </c>
       <c r="AB15" s="8">
         <f>ABS(Y15-Z15)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG15" s="6"/>
       <c r="AH15" s="7">
@@ -2435,7 +2439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2489,21 +2493,21 @@
         <v>14</v>
       </c>
       <c r="X16" s="4">
-        <v>13.9</v>
+        <v>11.7</v>
       </c>
       <c r="Y16" s="4">
         <v>75</v>
       </c>
       <c r="Z16" s="4">
-        <v>102</v>
+        <v>107.3</v>
       </c>
       <c r="AA16" s="4">
         <f>ABS(W16-X16)</f>
-        <v>9.9999999999999645E-2</v>
+        <v>2.3000000000000007</v>
       </c>
       <c r="AB16" s="5">
         <f t="shared" ref="AB16:AB28" si="12">ABS(Y16-Z16)</f>
-        <v>27</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="AG16" s="3" t="s">
         <v>25</v>
@@ -2550,7 +2554,7 @@
         <v>7.7000000000000028</v>
       </c>
     </row>
-    <row r="17" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" s="7">
         <v>20.5</v>
@@ -2604,7 +2608,7 @@
         <v>105</v>
       </c>
       <c r="Z17" s="7">
-        <v>133.30000000000001</v>
+        <v>104.3</v>
       </c>
       <c r="AA17" s="7">
         <f>ABS(W17-X17)</f>
@@ -2612,7 +2616,7 @@
       </c>
       <c r="AB17" s="8">
         <f t="shared" si="12"/>
-        <v>28.300000000000011</v>
+        <v>0.70000000000000284</v>
       </c>
       <c r="AG17" s="6"/>
       <c r="AH17" s="7">
@@ -2655,7 +2659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
@@ -2715,7 +2719,7 @@
         <v>100</v>
       </c>
       <c r="Z18" s="4">
-        <v>99.6</v>
+        <v>100</v>
       </c>
       <c r="AA18" s="4">
         <f t="shared" ref="AA18:AA28" si="17">ABS(W18-X18)</f>
@@ -2723,7 +2727,7 @@
       </c>
       <c r="AB18" s="5">
         <f t="shared" si="12"/>
-        <v>0.40000000000000568</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="3" t="s">
         <v>26</v>
@@ -2770,7 +2774,7 @@
         <v>8.7000000000000028</v>
       </c>
     </row>
-    <row r="19" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="7">
         <v>12.5</v>
@@ -2824,7 +2828,7 @@
         <v>75</v>
       </c>
       <c r="Z19" s="7">
-        <v>100.8</v>
+        <v>105.5</v>
       </c>
       <c r="AA19" s="7">
         <f t="shared" si="17"/>
@@ -2832,7 +2836,7 @@
       </c>
       <c r="AB19" s="8">
         <f t="shared" si="12"/>
-        <v>25.799999999999997</v>
+        <v>30.5</v>
       </c>
       <c r="AG19" s="6"/>
       <c r="AH19" s="7">
@@ -2875,7 +2879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
@@ -2935,7 +2939,7 @@
         <v>72</v>
       </c>
       <c r="Z20" s="4">
-        <v>93.8</v>
+        <v>101.8</v>
       </c>
       <c r="AA20" s="4">
         <f t="shared" si="17"/>
@@ -2943,7 +2947,7 @@
       </c>
       <c r="AB20" s="5">
         <f t="shared" si="12"/>
-        <v>21.799999999999997</v>
+        <v>29.799999999999997</v>
       </c>
       <c r="AG20" s="3" t="s">
         <v>27</v>
@@ -2990,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="7">
         <v>17.5</v>
@@ -3044,7 +3048,7 @@
         <v>111</v>
       </c>
       <c r="Z21" s="7">
-        <v>99.6</v>
+        <v>102.2</v>
       </c>
       <c r="AA21" s="7">
         <f t="shared" si="17"/>
@@ -3052,7 +3056,7 @@
       </c>
       <c r="AB21" s="8">
         <f t="shared" si="12"/>
-        <v>11.400000000000006</v>
+        <v>8.7999999999999972</v>
       </c>
       <c r="AG21" s="6"/>
       <c r="AH21" s="7">
@@ -3095,7 +3099,7 @@
         <v>29.400000000000006</v>
       </c>
     </row>
-    <row r="22" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
@@ -3210,7 +3214,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="23" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="7">
         <v>13</v>
@@ -3264,7 +3268,7 @@
         <v>94</v>
       </c>
       <c r="Z23" s="7">
-        <v>112.8</v>
+        <v>104.4</v>
       </c>
       <c r="AA23" s="7">
         <f t="shared" si="17"/>
@@ -3272,7 +3276,7 @@
       </c>
       <c r="AB23" s="8">
         <f t="shared" si="12"/>
-        <v>18.799999999999997</v>
+        <v>10.400000000000006</v>
       </c>
       <c r="AG23" s="6"/>
       <c r="AH23" s="7">
@@ -3315,7 +3319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
@@ -3369,21 +3373,21 @@
         <v>14.5</v>
       </c>
       <c r="X24" s="4">
-        <v>13.2</v>
+        <v>13.9</v>
       </c>
       <c r="Y24" s="4">
         <v>104</v>
       </c>
       <c r="Z24" s="4">
-        <v>126</v>
+        <v>105.8</v>
       </c>
       <c r="AA24" s="4">
         <f t="shared" si="17"/>
-        <v>1.3000000000000007</v>
+        <v>0.59999999999999964</v>
       </c>
       <c r="AB24" s="5">
         <f t="shared" si="12"/>
-        <v>22</v>
+        <v>1.7999999999999972</v>
       </c>
       <c r="AG24" s="3" t="s">
         <v>29</v>
@@ -3430,7 +3434,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="25" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="7">
         <v>11</v>
@@ -3484,7 +3488,7 @@
         <v>98</v>
       </c>
       <c r="Z25" s="7">
-        <v>93.8</v>
+        <v>107.7</v>
       </c>
       <c r="AA25" s="7">
         <f t="shared" si="17"/>
@@ -3492,7 +3496,7 @@
       </c>
       <c r="AB25" s="8">
         <f t="shared" si="12"/>
-        <v>4.2000000000000028</v>
+        <v>9.7000000000000028</v>
       </c>
       <c r="AG25" s="6"/>
       <c r="AH25" s="7">
@@ -3535,7 +3539,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="26" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
@@ -3650,7 +3654,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27">
         <v>8.8000000000000007</v>
@@ -3697,13 +3701,13 @@
       <c r="W27">
         <v>8.8000000000000007</v>
       </c>
-      <c r="X27" s="18">
+      <c r="X27">
         <v>8.1999999999999993</v>
       </c>
       <c r="Y27">
         <v>74</v>
       </c>
-      <c r="Z27" s="18">
+      <c r="Z27">
         <v>92</v>
       </c>
       <c r="AA27">
@@ -3721,7 +3725,7 @@
       <c r="AJ27">
         <v>74</v>
       </c>
-      <c r="AK27" s="18">
+      <c r="AK27">
         <v>192.5</v>
       </c>
       <c r="AL27">
@@ -3736,13 +3740,13 @@
       <c r="AS27">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AT27" s="18">
+      <c r="AT27">
         <v>8.6</v>
       </c>
       <c r="AU27">
         <v>74</v>
       </c>
-      <c r="AV27" s="18">
+      <c r="AV27">
         <v>60.6</v>
       </c>
       <c r="AW27">
@@ -3754,7 +3758,7 @@
         <v>13.399999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="7">
         <v>8.8000000000000007</v>
@@ -3808,7 +3812,7 @@
         <v>91</v>
       </c>
       <c r="Z28" s="7">
-        <v>92.6</v>
+        <v>93.2</v>
       </c>
       <c r="AA28" s="7">
         <f t="shared" si="17"/>
@@ -3816,7 +3820,7 @@
       </c>
       <c r="AB28" s="8">
         <f t="shared" si="12"/>
-        <v>1.5999999999999943</v>
+        <v>2.2000000000000028</v>
       </c>
       <c r="AG28" s="6"/>
       <c r="AH28" s="7">
@@ -3859,7 +3863,7 @@
         <v>2.2000000000000028</v>
       </c>
     </row>
-    <row r="29" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>32</v>
       </c>
@@ -3919,7 +3923,7 @@
         <v>93</v>
       </c>
       <c r="Z29" s="4">
-        <v>106</v>
+        <v>106.6</v>
       </c>
       <c r="AA29" s="4">
         <f t="shared" ref="AA29:AA56" si="24">ABS(W29-X29)</f>
@@ -3927,7 +3931,7 @@
       </c>
       <c r="AB29" s="5">
         <f t="shared" ref="AB29:AB48" si="25">ABS(Y29-Z29)</f>
-        <v>13</v>
+        <v>13.599999999999994</v>
       </c>
       <c r="AG29" s="3" t="s">
         <v>32</v>
@@ -3974,7 +3978,7 @@
         <v>14.299999999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="C30">
         <v>11.6</v>
@@ -4028,7 +4032,7 @@
         <v>69</v>
       </c>
       <c r="Z30">
-        <v>91</v>
+        <v>83.2</v>
       </c>
       <c r="AA30">
         <f t="shared" si="24"/>
@@ -4036,7 +4040,7 @@
       </c>
       <c r="AB30" s="13">
         <f t="shared" si="25"/>
-        <v>22</v>
+        <v>14.200000000000003</v>
       </c>
       <c r="AG30" s="12"/>
       <c r="AH30">
@@ -4078,7 +4082,7 @@
         <v>13.200000000000003</v>
       </c>
     </row>
-    <row r="31" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="7">
         <v>12.4</v>
@@ -4132,7 +4136,7 @@
         <v>77</v>
       </c>
       <c r="Z31" s="7">
-        <v>86.4</v>
+        <v>92</v>
       </c>
       <c r="AA31" s="7">
         <f t="shared" si="24"/>
@@ -4140,7 +4144,7 @@
       </c>
       <c r="AB31" s="8">
         <f t="shared" si="25"/>
-        <v>9.4000000000000057</v>
+        <v>15</v>
       </c>
       <c r="AG31" s="6"/>
       <c r="AH31" s="7">
@@ -4183,7 +4187,7 @@
         <v>10.799999999999997</v>
       </c>
     </row>
-    <row r="32" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>33</v>
       </c>
@@ -4243,7 +4247,7 @@
         <v>75</v>
       </c>
       <c r="Z32" s="4">
-        <v>80.3</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="AA32" s="4">
         <f t="shared" si="24"/>
@@ -4251,7 +4255,7 @@
       </c>
       <c r="AB32" s="5">
         <f t="shared" si="25"/>
-        <v>5.2999999999999972</v>
+        <v>1.5999999999999943</v>
       </c>
       <c r="AG32" s="3" t="s">
         <v>33</v>
@@ -4298,7 +4302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
       <c r="C33">
         <v>9.6</v>
@@ -4402,7 +4406,7 @@
         <v>5.4000000000000057</v>
       </c>
     </row>
-    <row r="34" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="7">
         <v>10.4</v>
@@ -4456,7 +4460,7 @@
         <v>72</v>
       </c>
       <c r="Z34" s="7">
-        <v>80.3</v>
+        <v>82.9</v>
       </c>
       <c r="AA34" s="7">
         <f t="shared" si="24"/>
@@ -4464,7 +4468,7 @@
       </c>
       <c r="AB34" s="8">
         <f t="shared" si="25"/>
-        <v>8.2999999999999972</v>
+        <v>10.900000000000006</v>
       </c>
       <c r="AG34" s="6"/>
       <c r="AH34" s="7">
@@ -4507,7 +4511,7 @@
         <v>12.599999999999994</v>
       </c>
     </row>
-    <row r="35" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4622,7 +4626,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="36" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36">
         <v>10.4</v>
@@ -4676,7 +4680,7 @@
         <v>72</v>
       </c>
       <c r="Z36">
-        <v>92.6</v>
+        <v>92.3</v>
       </c>
       <c r="AA36">
         <f t="shared" si="24"/>
@@ -4684,7 +4688,7 @@
       </c>
       <c r="AB36" s="13">
         <f t="shared" si="25"/>
-        <v>20.599999999999994</v>
+        <v>20.299999999999997</v>
       </c>
       <c r="AG36" s="12"/>
       <c r="AH36">
@@ -4726,7 +4730,7 @@
         <v>2.9000000000000057</v>
       </c>
     </row>
-    <row r="37" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="7">
         <v>11.2</v>
@@ -4780,7 +4784,7 @@
         <v>79</v>
       </c>
       <c r="Z37" s="7">
-        <v>81.400000000000006</v>
+        <v>81.7</v>
       </c>
       <c r="AA37" s="7">
         <f t="shared" si="24"/>
@@ -4788,7 +4792,7 @@
       </c>
       <c r="AB37" s="8">
         <f t="shared" si="25"/>
-        <v>2.4000000000000057</v>
+        <v>2.7000000000000028</v>
       </c>
       <c r="AG37" s="6"/>
       <c r="AH37" s="7">
@@ -4830,7 +4834,7 @@
         <v>11.700000000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>35</v>
       </c>
@@ -4945,7 +4949,7 @@
         <v>2.4000000000000057</v>
       </c>
     </row>
-    <row r="39" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39">
         <v>10</v>
@@ -4999,7 +5003,7 @@
         <v>67</v>
       </c>
       <c r="Z39">
-        <v>95.5</v>
+        <v>90.8</v>
       </c>
       <c r="AA39">
         <f t="shared" si="24"/>
@@ -5007,7 +5011,7 @@
       </c>
       <c r="AB39" s="13">
         <f t="shared" si="25"/>
-        <v>28.5</v>
+        <v>23.799999999999997</v>
       </c>
       <c r="AG39" s="12"/>
       <c r="AH39">
@@ -5049,7 +5053,7 @@
         <v>9.9999999999994316E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="7">
         <v>10.4</v>
@@ -5097,21 +5101,21 @@
         <v>10.4</v>
       </c>
       <c r="X40" s="7">
-        <v>8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Y40" s="7">
         <v>91</v>
       </c>
       <c r="Z40" s="7">
-        <v>90.5</v>
+        <v>93.5</v>
       </c>
       <c r="AA40" s="7">
         <f t="shared" si="24"/>
-        <v>2.4000000000000004</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="AB40" s="8">
         <f t="shared" si="25"/>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="AG40" s="6"/>
       <c r="AH40" s="7">
@@ -5154,7 +5158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>36</v>
       </c>
@@ -5214,7 +5218,7 @@
         <v>92</v>
       </c>
       <c r="Z41" s="4">
-        <v>59.5</v>
+        <v>83.2</v>
       </c>
       <c r="AA41" s="4">
         <f t="shared" si="24"/>
@@ -5222,7 +5226,7 @@
       </c>
       <c r="AB41" s="5">
         <f t="shared" si="25"/>
-        <v>32.5</v>
+        <v>8.7999999999999972</v>
       </c>
       <c r="AG41" s="3" t="s">
         <v>36</v>
@@ -5269,7 +5273,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="42" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
       <c r="C42">
         <v>10</v>
@@ -5323,7 +5327,7 @@
         <v>71</v>
       </c>
       <c r="Z42">
-        <v>89.6</v>
+        <v>96.7</v>
       </c>
       <c r="AA42">
         <f t="shared" si="24"/>
@@ -5331,7 +5335,7 @@
       </c>
       <c r="AB42" s="13">
         <f t="shared" si="25"/>
-        <v>18.599999999999994</v>
+        <v>25.700000000000003</v>
       </c>
       <c r="AG42" s="12"/>
       <c r="AH42">
@@ -5373,7 +5377,7 @@
         <v>7.7999999999999972</v>
       </c>
     </row>
-    <row r="43" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
       <c r="C43">
         <v>11.2</v>
@@ -5477,7 +5481,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="44" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="7">
         <v>10.4</v>
@@ -5531,7 +5535,7 @@
         <v>72</v>
       </c>
       <c r="Z44" s="7">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AA44" s="7">
         <f t="shared" si="24"/>
@@ -5539,7 +5543,7 @@
       </c>
       <c r="AB44" s="8">
         <f t="shared" si="25"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AG44" s="6"/>
       <c r="AH44" s="7">
@@ -5582,7 +5586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>37</v>
       </c>
@@ -5642,7 +5646,7 @@
         <v>95</v>
       </c>
       <c r="Z45" s="4">
-        <v>88.5</v>
+        <v>95.5</v>
       </c>
       <c r="AA45">
         <f t="shared" si="24"/>
@@ -5650,7 +5654,7 @@
       </c>
       <c r="AB45" s="13">
         <f t="shared" si="25"/>
-        <v>6.5</v>
+        <v>0.5</v>
       </c>
       <c r="AG45" s="3" t="s">
         <v>37</v>
@@ -5697,7 +5701,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="46" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
       <c r="C46">
         <v>10</v>
@@ -5801,7 +5805,7 @@
         <v>6.4000000000000057</v>
       </c>
     </row>
-    <row r="47" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
       <c r="C47">
         <v>10</v>
@@ -5905,7 +5909,7 @@
         <v>14.700000000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="7">
         <v>10</v>
@@ -5959,7 +5963,7 @@
         <v>102</v>
       </c>
       <c r="Z48" s="7">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="AA48" s="7">
         <f t="shared" si="24"/>
@@ -5967,7 +5971,7 @@
       </c>
       <c r="AB48" s="8">
         <f t="shared" si="25"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AG48" s="6"/>
       <c r="AH48" s="7">
@@ -6010,7 +6014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>38</v>
       </c>
@@ -6064,21 +6068,21 @@
         <v>10.8</v>
       </c>
       <c r="X49" s="4">
-        <v>5.3</v>
+        <v>10</v>
       </c>
       <c r="Y49" s="4">
         <v>91</v>
       </c>
       <c r="Z49" s="4">
-        <v>88.7</v>
+        <v>81.2</v>
       </c>
       <c r="AA49" s="4">
         <f t="shared" si="24"/>
-        <v>5.5000000000000009</v>
+        <v>0.80000000000000071</v>
       </c>
       <c r="AB49" s="5">
         <f>ABS(Z49-Y49)</f>
-        <v>2.2999999999999972</v>
+        <v>9.7999999999999972</v>
       </c>
       <c r="AG49" s="3" t="s">
         <v>38</v>
@@ -6125,7 +6129,7 @@
         <v>26.599999999999994</v>
       </c>
     </row>
-    <row r="50" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B50" s="12"/>
       <c r="C50">
         <v>8.8000000000000007</v>
@@ -6172,22 +6176,22 @@
       <c r="W50">
         <v>8.8000000000000007</v>
       </c>
-      <c r="X50" s="18">
-        <v>6.2</v>
+      <c r="X50">
+        <v>7.3</v>
       </c>
       <c r="Y50">
         <v>94</v>
       </c>
-      <c r="Z50" s="18">
-        <v>85.5</v>
+      <c r="Z50">
+        <v>83.5</v>
       </c>
       <c r="AA50">
         <f t="shared" si="24"/>
-        <v>2.6000000000000005</v>
+        <v>1.5000000000000009</v>
       </c>
       <c r="AB50" s="13">
         <f t="shared" ref="AB50:AB56" si="32">ABS(Z50-Y50)</f>
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG50" s="12"/>
       <c r="AH50">
@@ -6196,7 +6200,7 @@
       <c r="AJ50">
         <v>94</v>
       </c>
-      <c r="AK50" s="18">
+      <c r="AK50">
         <v>74.5</v>
       </c>
       <c r="AL50">
@@ -6217,7 +6221,7 @@
       <c r="AU50">
         <v>94</v>
       </c>
-      <c r="AV50" s="18">
+      <c r="AV50">
         <v>78.900000000000006</v>
       </c>
       <c r="AW50">
@@ -6229,7 +6233,7 @@
         <v>15.099999999999994</v>
       </c>
     </row>
-    <row r="51" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B51" s="12"/>
       <c r="C51">
         <v>10</v>
@@ -6276,22 +6280,22 @@
       <c r="W51">
         <v>10</v>
       </c>
-      <c r="X51" s="18">
-        <v>7.3</v>
+      <c r="X51">
+        <v>9</v>
       </c>
       <c r="Y51">
         <v>76</v>
       </c>
-      <c r="Z51" s="18">
-        <v>85.5</v>
+      <c r="Z51">
+        <v>77.599999999999994</v>
       </c>
       <c r="AA51">
         <f t="shared" si="24"/>
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="AB51" s="13">
         <f t="shared" si="32"/>
-        <v>9.5</v>
+        <v>1.5999999999999943</v>
       </c>
       <c r="AG51" s="12"/>
       <c r="AH51">
@@ -6321,7 +6325,7 @@
       <c r="AU51">
         <v>76</v>
       </c>
-      <c r="AV51" s="18">
+      <c r="AV51">
         <v>89.7</v>
       </c>
       <c r="AW51">
@@ -6333,7 +6337,7 @@
         <v>13.700000000000003</v>
       </c>
     </row>
-    <row r="52" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="C52" s="7">
         <v>8.8000000000000007</v>
@@ -6381,21 +6385,21 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="X52" s="7">
-        <v>9.9</v>
+        <v>9</v>
       </c>
       <c r="Y52" s="7">
         <v>94</v>
       </c>
       <c r="Z52" s="7">
-        <v>81.7</v>
+        <v>87</v>
       </c>
       <c r="AA52" s="7">
         <f t="shared" si="24"/>
-        <v>1.0999999999999996</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AB52" s="13">
         <f t="shared" si="32"/>
-        <v>12.299999999999997</v>
+        <v>7</v>
       </c>
       <c r="AG52" s="6"/>
       <c r="AH52" s="7">
@@ -6438,7 +6442,7 @@
         <v>25.099999999999994</v>
       </c>
     </row>
-    <row r="53" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>39</v>
       </c>
@@ -6498,7 +6502,7 @@
         <v>95</v>
       </c>
       <c r="Z53" s="4">
-        <v>44.8</v>
+        <v>88.5</v>
       </c>
       <c r="AA53" s="4">
         <f t="shared" si="24"/>
@@ -6506,7 +6510,7 @@
       </c>
       <c r="AB53" s="5">
         <f t="shared" si="32"/>
-        <v>50.2</v>
+        <v>6.5</v>
       </c>
       <c r="AG53" s="3" t="s">
         <v>39</v>
@@ -6553,7 +6557,7 @@
         <v>8.2999999999999972</v>
       </c>
     </row>
-    <row r="54" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B54" s="12"/>
       <c r="C54">
         <v>9.1999999999999993</v>
@@ -6600,13 +6604,13 @@
       <c r="W54">
         <v>9.1999999999999993</v>
       </c>
-      <c r="X54" s="18">
+      <c r="X54">
         <v>8.1999999999999993</v>
       </c>
       <c r="Y54">
         <v>101</v>
       </c>
-      <c r="Z54" s="18">
+      <c r="Z54">
         <v>95.8</v>
       </c>
       <c r="AA54">
@@ -6624,7 +6628,7 @@
       <c r="AJ54">
         <v>101</v>
       </c>
-      <c r="AK54" s="18">
+      <c r="AK54">
         <v>64.3</v>
       </c>
       <c r="AL54">
@@ -6639,13 +6643,13 @@
       <c r="AS54">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AT54" s="18">
+      <c r="AT54">
         <v>8.6</v>
       </c>
       <c r="AU54">
         <v>101</v>
       </c>
-      <c r="AV54" s="18">
+      <c r="AV54">
         <v>64.3</v>
       </c>
       <c r="AW54">
@@ -6657,7 +6661,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="55" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B55" s="12"/>
       <c r="C55">
         <v>10</v>
@@ -6704,22 +6708,22 @@
       <c r="W55">
         <v>10</v>
       </c>
-      <c r="X55" s="18">
-        <v>6.7</v>
+      <c r="X55">
+        <v>7</v>
       </c>
       <c r="Y55">
         <v>90</v>
       </c>
-      <c r="Z55" s="18">
-        <v>71.7</v>
+      <c r="Z55">
+        <v>88.5</v>
       </c>
       <c r="AA55">
         <f t="shared" si="24"/>
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AB55" s="13">
         <f t="shared" si="32"/>
-        <v>18.299999999999997</v>
+        <v>1.5</v>
       </c>
       <c r="AG55" s="12"/>
       <c r="AH55">
@@ -6728,7 +6732,7 @@
       <c r="AJ55">
         <v>90</v>
       </c>
-      <c r="AK55" s="18">
+      <c r="AK55">
         <v>102</v>
       </c>
       <c r="AL55">
@@ -6761,7 +6765,7 @@
         <v>14.400000000000006</v>
       </c>
     </row>
-    <row r="56" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="7">
         <v>10.8</v>
@@ -6800,7 +6804,7 @@
         <f t="shared" si="22"/>
         <v>1.4000000000000004</v>
       </c>
-      <c r="R56" s="8">
+      <c r="R56" s="13">
         <f t="shared" si="31"/>
         <v>21.799999999999997</v>
       </c>
@@ -6809,21 +6813,21 @@
         <v>10.8</v>
       </c>
       <c r="X56" s="7">
-        <v>2.6</v>
+        <v>7.3</v>
       </c>
       <c r="Y56" s="7">
         <v>75</v>
       </c>
       <c r="Z56" s="7">
-        <v>94.6</v>
-      </c>
-      <c r="AA56" s="19">
+        <v>86.1</v>
+      </c>
+      <c r="AA56" s="18">
         <f t="shared" si="24"/>
-        <v>8.2000000000000011</v>
+        <v>3.5000000000000009</v>
       </c>
       <c r="AB56" s="13">
         <f t="shared" si="32"/>
-        <v>19.599999999999994</v>
+        <v>11.099999999999994</v>
       </c>
       <c r="AG56" s="6"/>
       <c r="AH56" s="7">
@@ -6866,7 +6870,7 @@
         <v>14.799999999999997</v>
       </c>
     </row>
-    <row r="57" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:50" x14ac:dyDescent="0.25">
       <c r="G57">
         <f>AVERAGE(G2:G56)</f>
         <v>0.76545454545454539</v>
@@ -6879,31 +6883,33 @@
         <f>AVERAGE(Q2:Q56)</f>
         <v>0.59636363636363654</v>
       </c>
-      <c r="R57" s="13">
+      <c r="R57" s="4">
         <f>AVERAGE(R2:R56)</f>
         <v>20.798181818181821</v>
       </c>
-      <c r="AA57" s="18">
+      <c r="AA57">
         <f>AVERAGE(AA2:AA56)</f>
-        <v>1.8418181818181814</v>
-      </c>
-      <c r="AB57" s="20">
+        <v>0.85272727272727311</v>
+      </c>
+      <c r="AB57" s="4">
         <f>AVERAGE(AB2:AB56)</f>
-        <v>13.677272727272729</v>
-      </c>
-      <c r="AM57" s="18">
+        <v>10.92181818181818</v>
+      </c>
+      <c r="AM57">
         <f>AVERAGE(AM2:AM56)</f>
         <v>39.629090909090905</v>
       </c>
-      <c r="AN57" s="21"/>
-      <c r="AW57" s="18">
+      <c r="AW57">
         <f>AVERAGE(AW2:AW56)</f>
         <v>0.61163636363636376</v>
       </c>
-      <c r="AX57" s="20">
+      <c r="AX57" s="4">
         <f>AVERAGE(AX2:AX56)</f>
         <v>15.567272727272728</v>
       </c>
+    </row>
+    <row r="58" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AB58" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCB1718-9490-41E8-8FC5-33032318C60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D6D01D-3993-4777-8C10-D0D3C0EE5C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="46">
   <si>
     <t>yosef</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t xml:space="preserve">BR </t>
+  </si>
+  <si>
+    <t>muhamad-yosef3</t>
+  </si>
+  <si>
+    <t>muhamad-yosef4</t>
+  </si>
+  <si>
+    <t>muhamad-yosef5</t>
+  </si>
+  <si>
+    <t>muhamad-yosef6</t>
   </si>
 </sst>
 </file>
@@ -369,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -388,8 +400,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -670,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX58"/>
+  <dimension ref="A1:AX65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AD56" sqref="AD56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE70" sqref="AE70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +703,7 @@
     <col min="33" max="33" width="30" customWidth="1"/>
     <col min="35" max="35" width="10.28515625" customWidth="1"/>
     <col min="43" max="43" width="18.5703125" customWidth="1"/>
-    <col min="44" max="44" width="28.85546875" customWidth="1"/>
+    <col min="44" max="44" width="31.5703125" customWidth="1"/>
     <col min="48" max="48" width="9.140625" customWidth="1"/>
     <col min="49" max="49" width="9.85546875" customWidth="1"/>
   </cols>
@@ -2460,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" ref="H16:H28" si="10">ABS(E16-F16)</f>
+        <f t="shared" ref="H16:H25" si="10">ABS(E16-F16)</f>
         <v>5</v>
       </c>
       <c r="L16" s="3" t="s">
@@ -2483,7 +2493,7 @@
         <v>0.80000000000000071</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" ref="R16:R28" si="11">ABS(O16-P16)</f>
+        <f t="shared" ref="R16:R25" si="11">ABS(O16-P16)</f>
         <v>24.5</v>
       </c>
       <c r="V16" s="3" t="s">
@@ -2506,7 +2516,7 @@
         <v>2.3000000000000007</v>
       </c>
       <c r="AB16" s="5">
-        <f t="shared" ref="AB16:AB28" si="12">ABS(Y16-Z16)</f>
+        <f t="shared" ref="AB16:AB25" si="12">ABS(Y16-Z16)</f>
         <v>32.299999999999997</v>
       </c>
       <c r="AG16" s="3" t="s">
@@ -2527,7 +2537,7 @@
         <v>14</v>
       </c>
       <c r="AM16" s="5">
-        <f t="shared" ref="AM16:AM28" si="13">ABS(AJ16-AK16)</f>
+        <f t="shared" ref="AM16:AM25" si="13">ABS(AJ16-AK16)</f>
         <v>4.7000000000000028</v>
       </c>
       <c r="AR16" s="3" t="s">
@@ -2550,7 +2560,7 @@
         <v>0.5</v>
       </c>
       <c r="AX16" s="5">
-        <f t="shared" ref="AX16:AX28" si="14">ABS(AU16-AV16)</f>
+        <f t="shared" ref="AX16:AX25" si="14">ABS(AU16-AV16)</f>
         <v>7.7000000000000028</v>
       </c>
     </row>
@@ -2568,11 +2578,11 @@
       <c r="F17" s="7">
         <v>114</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17">
         <f>ABS(C17-D17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="13">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
@@ -2661,352 +2671,352 @@
     </row>
     <row r="18" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4">
-        <v>16.5</v>
+        <v>8.4</v>
       </c>
       <c r="D18" s="4">
-        <v>16.2</v>
+        <v>7.7</v>
       </c>
       <c r="E18" s="4">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F18" s="4">
-        <v>93.8</v>
+        <v>77.2</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" ref="G18:G28" si="15">ABS(C18-D18)</f>
-        <v>0.30000000000000071</v>
+        <f t="shared" ref="G18:G25" si="15">ABS(C18-D18)</f>
+        <v>0.70000000000000018</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="10"/>
-        <v>6.2000000000000028</v>
+        <v>12.200000000000003</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M18" s="4">
-        <v>16.5</v>
+        <v>8.4</v>
       </c>
       <c r="N18" s="4">
-        <v>16.899999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="O18" s="4">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="P18" s="4">
-        <v>100</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" ref="Q18:Q28" si="16">ABS(M18-N18)</f>
-        <v>0.39999999999999858</v>
+        <f t="shared" ref="Q18:Q25" si="16">ABS(M18-N18)</f>
+        <v>0.69999999999999929</v>
       </c>
       <c r="R18" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.5999999999999943</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="W18" s="4">
-        <v>16.5</v>
+        <v>8.4</v>
       </c>
       <c r="X18" s="4">
-        <v>17.600000000000001</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Y18" s="4">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="Z18" s="4">
-        <v>100</v>
+        <v>82.3</v>
       </c>
       <c r="AA18" s="4">
-        <f t="shared" ref="AA18:AA28" si="17">ABS(W18-X18)</f>
-        <v>1.1000000000000014</v>
+        <f t="shared" ref="AA18:AA25" si="17">ABS(W18-X18)</f>
+        <v>0.20000000000000107</v>
       </c>
       <c r="AB18" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>17.299999999999997</v>
       </c>
       <c r="AG18" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AH18" s="4">
-        <v>16.5</v>
+        <v>8.4</v>
       </c>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AK18" s="4">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="AL18" s="4">
-        <f t="shared" ref="AL18:AL28" si="18">ABS(AH18-AI18)</f>
-        <v>16.5</v>
+        <f t="shared" ref="AL18:AL25" si="18">ABS(AH18-AI18)</f>
+        <v>8.4</v>
       </c>
       <c r="AM18" s="5">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AS18" s="4">
-        <v>16.5</v>
+        <v>8.4</v>
       </c>
       <c r="AT18" s="4">
-        <v>17.2</v>
+        <v>7.8</v>
       </c>
       <c r="AU18" s="4">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AV18" s="4">
-        <v>91.3</v>
+        <v>70.5</v>
       </c>
       <c r="AW18" s="4">
-        <f t="shared" ref="AW18:AW28" si="19">ABS(AS18-AT18)</f>
-        <v>0.69999999999999929</v>
+        <f t="shared" ref="AW18:AW25" si="19">ABS(AS18-AT18)</f>
+        <v>0.60000000000000053</v>
       </c>
       <c r="AX18" s="5">
         <f t="shared" si="14"/>
-        <v>8.7000000000000028</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="19" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="7">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E19" s="7">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F19" s="7">
-        <v>80</v>
+        <v>81.7</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>12.299999999999997</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="7">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>11.7</v>
+        <v>9</v>
       </c>
       <c r="O19" s="7">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="P19" s="7">
-        <v>55.5</v>
+        <v>101.2</v>
       </c>
       <c r="Q19" s="7">
         <f t="shared" si="16"/>
-        <v>0.80000000000000071</v>
+        <v>1</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="11"/>
-        <v>19.5</v>
+        <v>7.2000000000000028</v>
       </c>
       <c r="V19" s="6"/>
       <c r="W19" s="7">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="X19" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Y19" s="7">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="Z19" s="7">
-        <v>105.5</v>
+        <v>97.9</v>
       </c>
       <c r="AA19" s="7">
         <f t="shared" si="17"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="8">
         <f t="shared" si="12"/>
-        <v>30.5</v>
+        <v>3.9000000000000057</v>
       </c>
       <c r="AG19" s="6"/>
       <c r="AH19" s="7">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="7">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AK19" s="7">
-        <v>62</v>
+        <v>117.3</v>
       </c>
       <c r="AL19" s="7">
         <f t="shared" si="18"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="AM19" s="8">
         <f t="shared" si="13"/>
-        <v>13</v>
+        <v>23.299999999999997</v>
       </c>
       <c r="AR19" s="6"/>
       <c r="AS19" s="7">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="AT19" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AU19" s="7">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AV19" s="7">
-        <v>81</v>
+        <v>75.2</v>
       </c>
       <c r="AW19" s="7">
         <f t="shared" si="19"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AX19" s="8">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>18.799999999999997</v>
       </c>
     </row>
     <row r="20" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C20" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D20" s="4">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="E20" s="4">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F20" s="4">
-        <v>78.8</v>
+        <v>69.3</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.79999999999999982</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="10"/>
-        <v>6.7999999999999972</v>
+        <v>5.2999999999999972</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="M20" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N20" s="4">
-        <v>8.3000000000000007</v>
+        <v>7</v>
       </c>
       <c r="O20" s="4">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P20" s="4">
-        <v>49.5</v>
+        <v>63.2</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="16"/>
-        <v>1.6999999999999993</v>
+        <v>1</v>
       </c>
       <c r="R20" s="5">
         <f t="shared" si="11"/>
-        <v>22.5</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="W20" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X20" s="4">
-        <v>10.3</v>
+        <v>7</v>
       </c>
       <c r="Y20" s="4">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Z20" s="4">
-        <v>101.8</v>
+        <v>85.5</v>
       </c>
       <c r="AA20" s="4">
         <f t="shared" si="17"/>
-        <v>0.30000000000000071</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="5">
         <f t="shared" si="12"/>
-        <v>29.799999999999997</v>
+        <v>21.5</v>
       </c>
       <c r="AG20" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="AH20" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="AK20" s="4">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AL20" s="4">
         <f t="shared" si="18"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AM20" s="5">
         <f t="shared" si="13"/>
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="AR20" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="AS20" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT20" s="4">
-        <v>9.8000000000000007</v>
+        <v>7.2</v>
       </c>
       <c r="AU20" s="4">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="AV20" s="4">
-        <v>71</v>
+        <v>65.3</v>
       </c>
       <c r="AW20" s="4">
         <f t="shared" si="19"/>
-        <v>0.19999999999999929</v>
+        <v>0.79999999999999982</v>
       </c>
       <c r="AX20" s="5">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>1.2999999999999972</v>
       </c>
     </row>
     <row r="21" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="7">
-        <v>17.5</v>
-      </c>
-      <c r="D21" s="7">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>7.5</v>
       </c>
       <c r="E21" s="7">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="F21" s="7">
-        <v>74.3</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="15"/>
@@ -3014,81 +3024,81 @@
       </c>
       <c r="H21" s="8">
         <f t="shared" si="10"/>
-        <v>36.700000000000003</v>
+        <v>10.400000000000006</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="7">
-        <v>17.5</v>
+        <v>8</v>
       </c>
       <c r="N21" s="7">
-        <v>17.2</v>
+        <v>9.5</v>
       </c>
       <c r="O21" s="7">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="P21" s="7">
-        <v>63.5</v>
+        <v>94.8</v>
       </c>
       <c r="Q21" s="7">
         <f t="shared" si="16"/>
-        <v>0.30000000000000071</v>
+        <v>1.5</v>
       </c>
       <c r="R21" s="8">
         <f t="shared" si="11"/>
-        <v>47.5</v>
+        <v>7.7999999999999972</v>
       </c>
       <c r="V21" s="6"/>
       <c r="W21" s="7">
-        <v>17.5</v>
+        <v>8</v>
       </c>
       <c r="X21" s="7">
-        <v>16.899999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="Y21" s="7">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="Z21" s="7">
-        <v>102.2</v>
+        <v>82.6</v>
       </c>
       <c r="AA21" s="7">
         <f t="shared" si="17"/>
-        <v>0.60000000000000142</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="AB21" s="8">
         <f t="shared" si="12"/>
-        <v>8.7999999999999972</v>
+        <v>4.4000000000000057</v>
       </c>
       <c r="AG21" s="6"/>
       <c r="AH21" s="7">
-        <v>17.5</v>
+        <v>8</v>
       </c>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="7">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AK21" s="7">
-        <v>75.3</v>
+        <v>117</v>
       </c>
       <c r="AL21" s="7">
         <f t="shared" si="18"/>
-        <v>17.5</v>
+        <v>8</v>
       </c>
       <c r="AM21" s="8">
         <f t="shared" si="13"/>
-        <v>35.700000000000003</v>
+        <v>30</v>
       </c>
       <c r="AR21" s="6"/>
       <c r="AS21" s="7">
-        <v>17.5</v>
+        <v>8</v>
       </c>
       <c r="AT21" s="7">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="AU21" s="7">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="AV21" s="7">
-        <v>81.599999999999994</v>
+        <v>84.9</v>
       </c>
       <c r="AW21" s="7">
         <f t="shared" si="19"/>
@@ -3096,290 +3106,290 @@
       </c>
       <c r="AX21" s="8">
         <f t="shared" si="14"/>
-        <v>29.400000000000006</v>
+        <v>2.0999999999999943</v>
       </c>
     </row>
     <row r="22" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C22" s="4">
-        <v>15.5</v>
+        <v>7.6</v>
       </c>
       <c r="D22" s="4">
-        <v>14.6</v>
+        <v>6.5</v>
       </c>
       <c r="E22" s="4">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="F22" s="4">
-        <v>85.5</v>
+        <v>78.2</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="15"/>
-        <v>0.90000000000000036</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="10"/>
-        <v>8.5</v>
+        <v>13.200000000000003</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M22" s="4">
-        <v>15.5</v>
+        <v>7.6</v>
       </c>
       <c r="N22" s="4">
-        <v>14.6</v>
+        <v>6.9</v>
       </c>
       <c r="O22" s="4">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="P22" s="4">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="Q22" s="4">
         <f t="shared" si="16"/>
-        <v>0.90000000000000036</v>
+        <v>0.69999999999999929</v>
       </c>
       <c r="R22" s="5">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="W22" s="4">
-        <v>15.5</v>
+        <v>7.6</v>
       </c>
       <c r="X22" s="4">
-        <v>13.9</v>
+        <v>7</v>
       </c>
       <c r="Y22" s="4">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="Z22" s="4">
-        <v>108.4</v>
+        <v>90.8</v>
       </c>
       <c r="AA22" s="4">
         <f t="shared" si="17"/>
-        <v>1.5999999999999996</v>
+        <v>0.59999999999999964</v>
       </c>
       <c r="AB22" s="5">
         <f t="shared" si="12"/>
-        <v>14.400000000000006</v>
+        <v>25.799999999999997</v>
       </c>
       <c r="AG22" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AH22" s="4">
-        <v>15.5</v>
+        <v>7.6</v>
       </c>
       <c r="AI22" s="4"/>
       <c r="AJ22" s="4">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="AK22" s="4">
-        <v>75</v>
+        <v>169.3</v>
       </c>
       <c r="AL22" s="4">
         <f t="shared" si="18"/>
-        <v>15.5</v>
+        <v>7.6</v>
       </c>
       <c r="AM22" s="5">
         <f t="shared" si="13"/>
-        <v>19</v>
+        <v>104.30000000000001</v>
       </c>
       <c r="AR22" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AS22" s="4">
-        <v>15.5</v>
+        <v>7.6</v>
       </c>
       <c r="AT22" s="4">
-        <v>15.5</v>
+        <v>6.4</v>
       </c>
       <c r="AU22" s="4">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="AV22" s="4">
-        <v>72.5</v>
+        <v>91.1</v>
       </c>
       <c r="AW22" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.1999999999999993</v>
       </c>
       <c r="AX22" s="5">
         <f t="shared" si="14"/>
-        <v>21.5</v>
+        <v>26.099999999999994</v>
       </c>
     </row>
     <row r="23" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D23" s="7">
-        <v>12.2</v>
+        <v>10.7</v>
       </c>
       <c r="E23" s="7">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F23" s="7">
-        <v>76</v>
+        <v>77.3</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="15"/>
-        <v>0.80000000000000071</v>
+        <v>0.69999999999999929</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>11.700000000000003</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N23" s="7">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="O23" s="7">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="P23" s="7">
-        <v>63.5</v>
+        <v>65.2</v>
       </c>
       <c r="Q23" s="7">
-        <f t="shared" si="16"/>
-        <v>0.80000000000000071</v>
+        <f>ABS(M23-N23)</f>
+        <v>0</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="11"/>
-        <v>30.5</v>
+        <v>23.799999999999997</v>
       </c>
       <c r="V23" s="6"/>
       <c r="W23" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X23" s="7">
-        <v>11.7</v>
+        <v>10.5</v>
       </c>
       <c r="Y23" s="7">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Z23" s="7">
-        <v>104.4</v>
+        <v>88.2</v>
       </c>
       <c r="AA23" s="7">
         <f t="shared" si="17"/>
-        <v>1.3000000000000007</v>
+        <v>0.5</v>
       </c>
       <c r="AB23" s="8">
         <f t="shared" si="12"/>
-        <v>10.400000000000006</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="AG23" s="6"/>
       <c r="AH23" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI23" s="7"/>
       <c r="AJ23" s="7">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AK23" s="7">
-        <v>115.5</v>
+        <v>126.5</v>
       </c>
       <c r="AL23" s="7">
         <f t="shared" si="18"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AM23" s="8">
         <f t="shared" si="13"/>
-        <v>21.5</v>
+        <v>37.5</v>
       </c>
       <c r="AR23" s="6"/>
       <c r="AS23" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AT23" s="7">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="AU23" s="7">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AV23" s="7">
-        <v>106</v>
+        <v>76.2</v>
       </c>
       <c r="AW23" s="7">
         <f t="shared" si="19"/>
-        <v>1.6999999999999993</v>
+        <v>0.80000000000000071</v>
       </c>
       <c r="AX23" s="8">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>12.799999999999997</v>
       </c>
     </row>
     <row r="24" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C24" s="4">
-        <v>14.5</v>
+        <v>7.6</v>
       </c>
       <c r="D24" s="4">
-        <v>13.9</v>
+        <v>7.3</v>
       </c>
       <c r="E24" s="4">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="F24" s="4">
-        <v>98.2</v>
+        <v>75</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="15"/>
-        <v>0.59999999999999964</v>
+        <v>0.29999999999999982</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="10"/>
-        <v>5.7999999999999972</v>
+        <v>9</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M24" s="4">
-        <v>14.5</v>
+        <v>7.6</v>
       </c>
       <c r="N24" s="4">
-        <v>13.6</v>
+        <v>9.4</v>
       </c>
       <c r="O24" s="4">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="P24" s="4">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="16"/>
-        <v>0.90000000000000036</v>
+        <f>ABS(M24-N24)</f>
+        <v>1.8000000000000007</v>
       </c>
       <c r="R24" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="W24" s="4">
-        <v>14.5</v>
+        <v>7.6</v>
       </c>
       <c r="X24" s="4">
-        <v>13.9</v>
+        <v>7</v>
       </c>
       <c r="Y24" s="4">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="Z24" s="4">
-        <v>105.8</v>
+        <v>83.8</v>
       </c>
       <c r="AA24" s="4">
         <f t="shared" si="17"/>
@@ -3387,2422 +3397,2446 @@
       </c>
       <c r="AB24" s="5">
         <f t="shared" si="12"/>
-        <v>1.7999999999999972</v>
+        <v>17.799999999999997</v>
       </c>
       <c r="AG24" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AH24" s="4">
-        <v>14.5</v>
+        <v>7.6</v>
       </c>
       <c r="AI24" s="4"/>
       <c r="AJ24" s="4">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="AK24" s="4">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="AL24" s="4">
         <f t="shared" si="18"/>
-        <v>14.5</v>
+        <v>7.6</v>
       </c>
       <c r="AM24" s="5">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AR24" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AS24" s="4">
-        <v>14.5</v>
+        <v>7.6</v>
       </c>
       <c r="AT24" s="4">
-        <v>14</v>
+        <v>7.7</v>
       </c>
       <c r="AU24" s="4">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="AV24" s="4">
-        <v>99.5</v>
+        <v>68.7</v>
       </c>
       <c r="AW24" s="4">
         <f t="shared" si="19"/>
-        <v>0.5</v>
+        <v>0.10000000000000053</v>
       </c>
       <c r="AX24" s="5">
         <f t="shared" si="14"/>
-        <v>4.5</v>
+        <v>2.7000000000000028</v>
       </c>
     </row>
     <row r="25" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="7">
-        <v>11</v>
+        <v>11.6</v>
       </c>
       <c r="D25" s="7">
-        <v>10.5</v>
+        <v>13.2</v>
       </c>
       <c r="E25" s="7">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F25" s="7">
-        <v>76.3</v>
+        <v>79.2</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="15"/>
-        <v>0.5</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="10"/>
-        <v>21.700000000000003</v>
+        <v>7.7999999999999972</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="7">
-        <v>11</v>
+        <v>11.6</v>
       </c>
       <c r="N25" s="7">
-        <v>11.9</v>
+        <v>13.6</v>
       </c>
       <c r="O25" s="7">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="P25" s="7">
-        <v>61.5</v>
+        <v>84</v>
       </c>
       <c r="Q25" s="7">
         <f t="shared" si="16"/>
-        <v>0.90000000000000036</v>
+        <v>2</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="11"/>
-        <v>36.5</v>
+        <v>3</v>
       </c>
       <c r="V25" s="6"/>
       <c r="W25" s="7">
-        <v>11</v>
+        <v>11.6</v>
       </c>
       <c r="X25" s="7">
-        <v>10.3</v>
+        <v>14.4</v>
       </c>
       <c r="Y25" s="7">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="Z25" s="7">
-        <v>107.7</v>
+        <v>90.8</v>
       </c>
       <c r="AA25" s="7">
         <f t="shared" si="17"/>
-        <v>0.69999999999999929</v>
+        <v>2.8000000000000007</v>
       </c>
       <c r="AB25" s="8">
         <f t="shared" si="12"/>
-        <v>9.7000000000000028</v>
+        <v>3.7999999999999972</v>
       </c>
       <c r="AG25" s="6"/>
       <c r="AH25" s="7">
-        <v>11</v>
+        <v>11.6</v>
       </c>
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="AK25" s="7">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="AL25" s="7">
         <f t="shared" si="18"/>
-        <v>11</v>
+        <v>11.6</v>
       </c>
       <c r="AM25" s="8">
         <f t="shared" si="13"/>
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="AR25" s="6"/>
       <c r="AS25" s="7">
-        <v>11</v>
+        <v>11.6</v>
       </c>
       <c r="AT25" s="7">
-        <v>10</v>
+        <v>14.4</v>
       </c>
       <c r="AU25" s="7">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="AV25" s="7">
-        <v>86.5</v>
+        <v>102.9</v>
       </c>
       <c r="AW25" s="7">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2.8000000000000007</v>
       </c>
       <c r="AX25" s="8">
         <f t="shared" si="14"/>
-        <v>11.5</v>
+        <v>15.900000000000006</v>
       </c>
     </row>
     <row r="26" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C26" s="4">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="D26" s="4">
-        <v>18.3</v>
+        <v>16.2</v>
       </c>
       <c r="E26" s="4">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F26" s="4">
-        <v>44.5</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="15"/>
+        <v>93.8</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:G36" si="20">ABS(C26-D26)</f>
         <v>0.30000000000000071</v>
       </c>
-      <c r="H26" s="5">
-        <f t="shared" si="10"/>
-        <v>42.5</v>
+      <c r="H26" s="13">
+        <f t="shared" ref="H26:H36" si="21">ABS(E26-F26)</f>
+        <v>6.2000000000000028</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M26" s="4">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="N26" s="4">
-        <v>17.899999999999999</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="O26" s="4">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="P26" s="4">
-        <v>71.599999999999994</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="16"/>
-        <v>0.10000000000000142</v>
+        <f t="shared" ref="Q26:Q36" si="22">ABS(M26-N26)</f>
+        <v>0.39999999999999858</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="11"/>
-        <v>15.400000000000006</v>
+        <f t="shared" ref="R26:R36" si="23">ABS(O26-P26)</f>
+        <v>0</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="W26" s="4">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="X26" s="4">
         <v>17.600000000000001</v>
       </c>
       <c r="Y26" s="4">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="Z26" s="4">
-        <v>79.099999999999994</v>
+        <v>100</v>
       </c>
       <c r="AA26" s="4">
-        <f t="shared" si="17"/>
-        <v>0.39999999999999858</v>
+        <f t="shared" ref="AA26:AA36" si="24">ABS(W26-X26)</f>
+        <v>1.1000000000000014</v>
       </c>
       <c r="AB26" s="5">
-        <f t="shared" si="12"/>
-        <v>7.9000000000000057</v>
+        <f t="shared" ref="AB26:AB36" si="25">ABS(Y26-Z26)</f>
+        <v>0</v>
       </c>
       <c r="AG26" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AH26" s="4">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI26" s="4"/>
       <c r="AJ26" s="4">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="AK26" s="4">
-        <v>66.5</v>
+        <v>108</v>
       </c>
       <c r="AL26" s="4">
-        <f t="shared" si="18"/>
-        <v>18</v>
+        <f t="shared" ref="AL26:AL36" si="26">ABS(AH26-AI26)</f>
+        <v>16.5</v>
       </c>
       <c r="AM26" s="5">
-        <f t="shared" si="13"/>
-        <v>20.5</v>
+        <f t="shared" ref="AM26:AM36" si="27">ABS(AJ26-AK26)</f>
+        <v>8</v>
       </c>
       <c r="AR26" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AS26" s="4">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AT26" s="4">
-        <v>17.61</v>
+        <v>17.2</v>
       </c>
       <c r="AU26" s="4">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="AV26" s="4">
-        <v>40</v>
+        <v>91.3</v>
       </c>
       <c r="AW26" s="4">
-        <f t="shared" si="19"/>
-        <v>0.39000000000000057</v>
+        <f t="shared" ref="AW26:AW36" si="28">ABS(AS26-AT26)</f>
+        <v>0.69999999999999929</v>
       </c>
       <c r="AX26" s="5">
-        <f t="shared" si="14"/>
-        <v>47</v>
+        <f t="shared" ref="AX26:AX36" si="29">ABS(AU26-AV26)</f>
+        <v>8.7000000000000028</v>
       </c>
     </row>
     <row r="27" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
-      <c r="C27">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D27">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E27">
-        <v>74</v>
-      </c>
-      <c r="F27">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="15"/>
-        <v>0.5</v>
-      </c>
-      <c r="H27" s="13">
-        <f t="shared" si="10"/>
-        <v>1.5999999999999943</v>
-      </c>
-      <c r="L27" s="12"/>
-      <c r="M27">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="N27">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="O27">
-        <v>74</v>
-      </c>
-      <c r="P27">
-        <v>59.2</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="16"/>
-        <v>0.5</v>
-      </c>
-      <c r="R27" s="13">
-        <f t="shared" si="11"/>
-        <v>14.799999999999997</v>
-      </c>
-      <c r="V27" s="12"/>
-      <c r="W27">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="X27">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="Y27">
-        <v>74</v>
-      </c>
-      <c r="Z27">
-        <v>92</v>
-      </c>
-      <c r="AA27">
-        <f t="shared" si="17"/>
-        <v>0.60000000000000142</v>
-      </c>
-      <c r="AB27" s="13">
-        <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-      <c r="AG27" s="12"/>
-      <c r="AH27">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AJ27">
-        <v>74</v>
-      </c>
-      <c r="AK27">
-        <v>192.5</v>
-      </c>
-      <c r="AL27">
-        <f t="shared" si="18"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AM27" s="13">
-        <f t="shared" si="13"/>
-        <v>118.5</v>
-      </c>
-      <c r="AR27" s="12"/>
-      <c r="AS27">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AT27">
-        <v>8.6</v>
-      </c>
-      <c r="AU27">
-        <v>74</v>
-      </c>
-      <c r="AV27">
-        <v>60.6</v>
-      </c>
-      <c r="AW27">
-        <f t="shared" si="19"/>
-        <v>0.20000000000000107</v>
-      </c>
-      <c r="AX27" s="13">
-        <f t="shared" si="14"/>
-        <v>13.399999999999999</v>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="D27" s="7">
+        <v>11</v>
+      </c>
+      <c r="E27" s="7">
+        <v>75</v>
+      </c>
+      <c r="F27" s="7">
+        <v>80</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="20"/>
+        <v>1.5</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="N27" s="7">
+        <v>11.7</v>
+      </c>
+      <c r="O27" s="7">
+        <v>75</v>
+      </c>
+      <c r="P27" s="7">
+        <v>55.5</v>
+      </c>
+      <c r="Q27" s="7">
+        <f t="shared" si="22"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="R27" s="8">
+        <f t="shared" si="23"/>
+        <v>19.5</v>
+      </c>
+      <c r="V27" s="6"/>
+      <c r="W27" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="X27" s="7">
+        <v>11</v>
+      </c>
+      <c r="Y27" s="7">
+        <v>75</v>
+      </c>
+      <c r="Z27" s="7">
+        <v>105.5</v>
+      </c>
+      <c r="AA27" s="7">
+        <f t="shared" si="24"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB27" s="8">
+        <f t="shared" si="25"/>
+        <v>30.5</v>
+      </c>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7">
+        <v>75</v>
+      </c>
+      <c r="AK27" s="7">
+        <v>62</v>
+      </c>
+      <c r="AL27" s="7">
+        <f t="shared" si="26"/>
+        <v>12.5</v>
+      </c>
+      <c r="AM27" s="8">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="AR27" s="6"/>
+      <c r="AS27" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="AT27" s="7">
+        <v>11</v>
+      </c>
+      <c r="AU27" s="7">
+        <v>75</v>
+      </c>
+      <c r="AV27" s="7">
+        <v>81</v>
+      </c>
+      <c r="AW27" s="7">
+        <f t="shared" si="28"/>
+        <v>1.5</v>
+      </c>
+      <c r="AX27" s="8">
+        <f t="shared" si="29"/>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D28" s="7">
-        <v>9</v>
-      </c>
-      <c r="E28" s="7">
-        <v>91</v>
-      </c>
-      <c r="F28" s="7">
-        <v>81</v>
-      </c>
-      <c r="G28" s="7">
-        <f t="shared" si="15"/>
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4">
+        <v>72</v>
+      </c>
+      <c r="F28" s="4">
+        <v>78.8</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="21"/>
+        <v>6.7999999999999972</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="4">
+        <v>10</v>
+      </c>
+      <c r="N28" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="O28" s="4">
+        <v>72</v>
+      </c>
+      <c r="P28" s="4">
+        <v>49.5</v>
+      </c>
+      <c r="Q28" s="4">
+        <f t="shared" si="22"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="R28" s="5">
+        <f t="shared" si="23"/>
+        <v>22.5</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" s="4">
+        <v>10</v>
+      </c>
+      <c r="X28" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>72</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>101.8</v>
+      </c>
+      <c r="AA28" s="4">
+        <f t="shared" si="24"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="AB28" s="5">
+        <f t="shared" si="25"/>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="AG28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>10</v>
+      </c>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4">
+        <v>72</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>157</v>
+      </c>
+      <c r="AL28" s="4">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="AM28" s="5">
+        <f t="shared" si="27"/>
+        <v>85</v>
+      </c>
+      <c r="AR28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS28" s="4">
+        <v>10</v>
+      </c>
+      <c r="AT28" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AU28" s="4">
+        <v>72</v>
+      </c>
+      <c r="AV28" s="4">
+        <v>71</v>
+      </c>
+      <c r="AW28" s="4">
+        <f t="shared" si="28"/>
         <v>0.19999999999999929</v>
       </c>
-      <c r="H28" s="8">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="7">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="N28" s="7">
-        <v>8.6</v>
-      </c>
-      <c r="O28" s="7">
-        <v>91</v>
-      </c>
-      <c r="P28" s="7">
-        <v>64.8</v>
-      </c>
-      <c r="Q28" s="7">
-        <f t="shared" si="16"/>
-        <v>0.20000000000000107</v>
-      </c>
-      <c r="R28" s="8">
-        <f t="shared" si="11"/>
-        <v>26.200000000000003</v>
-      </c>
-      <c r="V28" s="6"/>
-      <c r="W28" s="7">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="X28" s="7">
-        <v>7</v>
-      </c>
-      <c r="Y28" s="7">
-        <v>91</v>
-      </c>
-      <c r="Z28" s="7">
-        <v>93.2</v>
-      </c>
-      <c r="AA28" s="7">
-        <f t="shared" si="17"/>
-        <v>1.8000000000000007</v>
-      </c>
-      <c r="AB28" s="8">
-        <f t="shared" si="12"/>
-        <v>2.2000000000000028</v>
-      </c>
-      <c r="AG28" s="6"/>
-      <c r="AH28" s="7">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AI28" s="7"/>
-      <c r="AJ28" s="7">
-        <v>91</v>
-      </c>
-      <c r="AK28" s="7">
-        <v>116.6</v>
-      </c>
-      <c r="AL28" s="7">
-        <f t="shared" si="18"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AM28" s="8">
-        <f t="shared" si="13"/>
-        <v>25.599999999999994</v>
-      </c>
-      <c r="AR28" s="6"/>
-      <c r="AS28" s="7">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AT28" s="7">
-        <v>7.1</v>
-      </c>
-      <c r="AU28" s="7">
-        <v>91</v>
-      </c>
-      <c r="AV28" s="7">
-        <v>88.8</v>
-      </c>
-      <c r="AW28" s="7">
-        <f t="shared" si="19"/>
-        <v>1.7000000000000011</v>
-      </c>
-      <c r="AX28" s="8">
-        <f t="shared" si="14"/>
-        <v>2.2000000000000028</v>
+      <c r="AX28" s="5">
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="4">
-        <v>16</v>
-      </c>
-      <c r="D29" s="4">
-        <v>15.6</v>
-      </c>
-      <c r="E29" s="4">
-        <v>93</v>
-      </c>
-      <c r="F29" s="4">
-        <v>95.7</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" ref="G29:G56" si="20">ABS(C29-D29)</f>
-        <v>0.40000000000000036</v>
-      </c>
-      <c r="H29" s="5">
-        <f t="shared" ref="H29:H48" si="21">ABS(E29-F29)</f>
-        <v>2.7000000000000028</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M29" s="4">
-        <v>16</v>
-      </c>
-      <c r="N29" s="4">
-        <v>15.2</v>
-      </c>
-      <c r="O29" s="4">
-        <v>93</v>
-      </c>
-      <c r="P29" s="4">
-        <v>106</v>
-      </c>
-      <c r="Q29" s="4">
-        <f t="shared" ref="Q29:Q56" si="22">ABS(M29-N29)</f>
-        <v>0.80000000000000071</v>
-      </c>
-      <c r="R29" s="5">
-        <f t="shared" ref="R29:R48" si="23">ABS(O29-P29)</f>
-        <v>13</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W29" s="4">
-        <v>16</v>
-      </c>
-      <c r="X29" s="4">
-        <v>15.2</v>
-      </c>
-      <c r="Y29" s="4">
-        <v>93</v>
-      </c>
-      <c r="Z29" s="4">
-        <v>106.6</v>
-      </c>
-      <c r="AA29" s="4">
-        <f t="shared" ref="AA29:AA56" si="24">ABS(W29-X29)</f>
-        <v>0.80000000000000071</v>
-      </c>
-      <c r="AB29" s="5">
-        <f t="shared" ref="AB29:AB48" si="25">ABS(Y29-Z29)</f>
-        <v>13.599999999999994</v>
-      </c>
-      <c r="AG29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH29" s="4">
-        <v>16</v>
-      </c>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="4">
-        <v>93</v>
-      </c>
-      <c r="AK29" s="4">
-        <v>133</v>
-      </c>
-      <c r="AL29" s="4">
-        <f t="shared" ref="AL29:AL56" si="26">ABS(AH29-AI29)</f>
-        <v>16</v>
-      </c>
-      <c r="AM29" s="5">
-        <f t="shared" ref="AM29:AM48" si="27">ABS(AJ29-AK29)</f>
-        <v>40</v>
-      </c>
-      <c r="AR29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS29" s="4">
-        <v>16</v>
-      </c>
-      <c r="AT29" s="4">
-        <v>15.2</v>
-      </c>
-      <c r="AU29" s="4">
-        <v>93</v>
-      </c>
-      <c r="AV29" s="4">
-        <v>107.3</v>
-      </c>
-      <c r="AW29" s="4">
-        <f t="shared" ref="AW29:AW56" si="28">ABS(AS29-AT29)</f>
-        <v>0.80000000000000071</v>
-      </c>
-      <c r="AX29" s="5">
-        <f t="shared" ref="AX29:AX48" si="29">ABS(AU29-AV29)</f>
-        <v>14.299999999999997</v>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="D29" s="7">
+        <v>17</v>
+      </c>
+      <c r="E29" s="7">
+        <v>111</v>
+      </c>
+      <c r="F29" s="7">
+        <v>74.3</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="21"/>
+        <v>36.700000000000003</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="N29" s="7">
+        <v>17.2</v>
+      </c>
+      <c r="O29" s="7">
+        <v>111</v>
+      </c>
+      <c r="P29" s="7">
+        <v>63.5</v>
+      </c>
+      <c r="Q29" s="7">
+        <f t="shared" si="22"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="R29" s="8">
+        <f t="shared" si="23"/>
+        <v>47.5</v>
+      </c>
+      <c r="V29" s="6"/>
+      <c r="W29" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="X29" s="7">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="Y29" s="7">
+        <v>111</v>
+      </c>
+      <c r="Z29" s="7">
+        <v>102.2</v>
+      </c>
+      <c r="AA29" s="7">
+        <f t="shared" si="24"/>
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="AB29" s="8">
+        <f t="shared" si="25"/>
+        <v>8.7999999999999972</v>
+      </c>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7">
+        <v>111</v>
+      </c>
+      <c r="AK29" s="7">
+        <v>75.3</v>
+      </c>
+      <c r="AL29" s="7">
+        <f t="shared" si="26"/>
+        <v>17.5</v>
+      </c>
+      <c r="AM29" s="8">
+        <f t="shared" si="27"/>
+        <v>35.700000000000003</v>
+      </c>
+      <c r="AR29" s="6"/>
+      <c r="AS29" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="AT29" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="AU29" s="7">
+        <v>111</v>
+      </c>
+      <c r="AV29" s="7">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="AW29" s="7">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="AX29" s="8">
+        <f t="shared" si="29"/>
+        <v>29.400000000000006</v>
       </c>
     </row>
     <row r="30" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="C30">
-        <v>11.6</v>
-      </c>
-      <c r="D30">
-        <v>10.8</v>
-      </c>
-      <c r="E30">
-        <v>69</v>
-      </c>
-      <c r="F30">
-        <v>64</v>
-      </c>
-      <c r="G30">
+      <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="D30" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="E30" s="4">
+        <v>94</v>
+      </c>
+      <c r="F30" s="4">
+        <v>85.5</v>
+      </c>
+      <c r="G30" s="4">
         <f t="shared" si="20"/>
-        <v>0.79999999999999893</v>
-      </c>
-      <c r="H30" s="13">
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="H30" s="5">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="L30" s="12"/>
-      <c r="M30">
-        <v>11.6</v>
-      </c>
-      <c r="N30">
-        <v>10.5</v>
-      </c>
-      <c r="O30">
-        <v>69</v>
-      </c>
-      <c r="P30">
-        <v>80</v>
-      </c>
-      <c r="Q30">
+        <v>8.5</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="N30" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="O30" s="4">
+        <v>94</v>
+      </c>
+      <c r="P30" s="4">
+        <v>72</v>
+      </c>
+      <c r="Q30" s="4">
         <f t="shared" si="22"/>
-        <v>1.0999999999999996</v>
-      </c>
-      <c r="R30" s="13">
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="R30" s="5">
         <f t="shared" si="23"/>
-        <v>11</v>
-      </c>
-      <c r="V30" s="12"/>
-      <c r="W30">
-        <v>11.6</v>
-      </c>
-      <c r="X30">
-        <v>10.5</v>
-      </c>
-      <c r="Y30">
-        <v>69</v>
-      </c>
-      <c r="Z30">
-        <v>83.2</v>
-      </c>
-      <c r="AA30">
+        <v>22</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W30" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="X30" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>94</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>108.4</v>
+      </c>
+      <c r="AA30" s="4">
         <f t="shared" si="24"/>
-        <v>1.0999999999999996</v>
-      </c>
-      <c r="AB30" s="13">
+        <v>1.5999999999999996</v>
+      </c>
+      <c r="AB30" s="5">
         <f t="shared" si="25"/>
-        <v>14.200000000000003</v>
-      </c>
-      <c r="AG30" s="12"/>
-      <c r="AH30">
-        <v>11.6</v>
-      </c>
-      <c r="AJ30">
-        <v>69</v>
-      </c>
-      <c r="AK30">
-        <v>74.5</v>
-      </c>
-      <c r="AL30">
+        <v>14.400000000000006</v>
+      </c>
+      <c r="AG30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4">
+        <v>94</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>75</v>
+      </c>
+      <c r="AL30" s="4">
         <f t="shared" si="26"/>
-        <v>11.6</v>
-      </c>
-      <c r="AM30" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="AM30" s="5">
         <f t="shared" si="27"/>
-        <v>5.5</v>
-      </c>
-      <c r="AR30" s="12"/>
-      <c r="AS30">
-        <v>11.6</v>
-      </c>
-      <c r="AT30">
-        <v>11</v>
-      </c>
-      <c r="AU30">
-        <v>69</v>
-      </c>
-      <c r="AV30">
-        <v>55.8</v>
-      </c>
-      <c r="AW30">
+        <v>19</v>
+      </c>
+      <c r="AR30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS30" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="AT30" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="AU30" s="4">
+        <v>94</v>
+      </c>
+      <c r="AV30" s="4">
+        <v>72.5</v>
+      </c>
+      <c r="AW30" s="4">
         <f t="shared" si="28"/>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="AX30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="5">
         <f t="shared" si="29"/>
-        <v>13.200000000000003</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="31" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="7">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="D31" s="7">
         <v>12.2</v>
       </c>
       <c r="E31" s="7">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F31" s="7">
-        <v>65.8</v>
+        <v>76</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="20"/>
-        <v>0.20000000000000107</v>
+        <v>0.80000000000000071</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="21"/>
-        <v>11.200000000000003</v>
+        <v>18</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="7">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="N31" s="7">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="O31" s="7">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="P31" s="7">
-        <v>72</v>
+        <v>63.5</v>
       </c>
       <c r="Q31" s="7">
         <f t="shared" si="22"/>
-        <v>0.5</v>
+        <v>0.80000000000000071</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>30.5</v>
       </c>
       <c r="V31" s="6"/>
       <c r="W31" s="7">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="X31" s="7">
-        <v>12.8</v>
+        <v>11.7</v>
       </c>
       <c r="Y31" s="7">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="Z31" s="7">
-        <v>92</v>
+        <v>104.4</v>
       </c>
       <c r="AA31" s="7">
         <f t="shared" si="24"/>
-        <v>0.40000000000000036</v>
+        <v>1.3000000000000007</v>
       </c>
       <c r="AB31" s="8">
         <f t="shared" si="25"/>
-        <v>15</v>
+        <v>10.400000000000006</v>
       </c>
       <c r="AG31" s="6"/>
       <c r="AH31" s="7">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="AI31" s="7"/>
       <c r="AJ31" s="7">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AK31" s="7">
-        <v>67.5</v>
+        <v>115.5</v>
       </c>
       <c r="AL31" s="7">
         <f t="shared" si="26"/>
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="AM31" s="8">
         <f t="shared" si="27"/>
-        <v>9.5</v>
+        <v>21.5</v>
       </c>
       <c r="AR31" s="6"/>
       <c r="AS31" s="7">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="AT31" s="7">
-        <v>12.2</v>
+        <v>11.3</v>
       </c>
       <c r="AU31" s="7">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AV31" s="7">
-        <v>66.2</v>
+        <v>106</v>
       </c>
       <c r="AW31" s="7">
         <f t="shared" si="28"/>
-        <v>0.20000000000000107</v>
+        <v>1.6999999999999993</v>
       </c>
       <c r="AX31" s="8">
         <f t="shared" si="29"/>
-        <v>10.799999999999997</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C32" s="4">
-        <v>10.4</v>
+        <v>14.5</v>
       </c>
       <c r="D32" s="4">
-        <v>10.1</v>
+        <v>13.9</v>
       </c>
       <c r="E32" s="4">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="F32" s="4">
-        <v>67.2</v>
+        <v>98.2</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="20"/>
-        <v>0.30000000000000071</v>
+        <v>0.59999999999999964</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" si="21"/>
-        <v>7.7999999999999972</v>
+        <v>5.7999999999999972</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M32" s="4">
-        <v>10.4</v>
+        <v>14.5</v>
       </c>
       <c r="N32" s="4">
-        <v>10</v>
+        <v>13.6</v>
       </c>
       <c r="O32" s="4">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="P32" s="4">
-        <v>67.599999999999994</v>
+        <v>105</v>
       </c>
       <c r="Q32" s="4">
         <f t="shared" si="22"/>
-        <v>0.40000000000000036</v>
+        <v>0.90000000000000036</v>
       </c>
       <c r="R32" s="5">
         <f t="shared" si="23"/>
-        <v>7.4000000000000057</v>
+        <v>1</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="W32" s="4">
-        <v>10.4</v>
+        <v>14.5</v>
       </c>
       <c r="X32" s="4">
-        <v>10.5</v>
+        <v>13.9</v>
       </c>
       <c r="Y32" s="4">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="Z32" s="4">
-        <v>76.599999999999994</v>
+        <v>105.8</v>
       </c>
       <c r="AA32" s="4">
         <f t="shared" si="24"/>
-        <v>9.9999999999999645E-2</v>
+        <v>0.59999999999999964</v>
       </c>
       <c r="AB32" s="5">
         <f t="shared" si="25"/>
-        <v>1.5999999999999943</v>
+        <v>1.7999999999999972</v>
       </c>
       <c r="AG32" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AH32" s="4">
-        <v>10.4</v>
+        <v>14.5</v>
       </c>
       <c r="AI32" s="4"/>
       <c r="AJ32" s="4">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="AK32" s="4">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="AL32" s="4">
         <f t="shared" si="26"/>
-        <v>10.4</v>
+        <v>14.5</v>
       </c>
       <c r="AM32" s="5">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AR32" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AS32" s="4">
-        <v>10.4</v>
+        <v>14.5</v>
       </c>
       <c r="AT32" s="4">
-        <v>10.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AU32" s="4">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="AV32" s="4">
-        <v>69</v>
+        <v>99.5</v>
       </c>
       <c r="AW32" s="4">
         <f t="shared" si="28"/>
-        <v>0.20000000000000107</v>
+        <v>0.5</v>
       </c>
       <c r="AX32" s="5">
         <f t="shared" si="29"/>
-        <v>6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="33" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
-      <c r="C33">
-        <v>9.6</v>
-      </c>
-      <c r="D33">
-        <v>8.9</v>
-      </c>
-      <c r="E33">
-        <v>92</v>
-      </c>
-      <c r="F33">
-        <v>82.3</v>
-      </c>
-      <c r="G33">
+      <c r="B33" s="6"/>
+      <c r="C33" s="7">
+        <v>11</v>
+      </c>
+      <c r="D33" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="E33" s="7">
+        <v>98</v>
+      </c>
+      <c r="F33" s="7">
+        <v>76.3</v>
+      </c>
+      <c r="G33" s="7">
         <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" si="21"/>
+        <v>21.700000000000003</v>
+      </c>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7">
+        <v>11</v>
+      </c>
+      <c r="N33" s="7">
+        <v>11.9</v>
+      </c>
+      <c r="O33" s="7">
+        <v>98</v>
+      </c>
+      <c r="P33" s="7">
+        <v>61.5</v>
+      </c>
+      <c r="Q33" s="7">
+        <f t="shared" si="22"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="R33" s="8">
+        <f t="shared" si="23"/>
+        <v>36.5</v>
+      </c>
+      <c r="V33" s="6"/>
+      <c r="W33" s="7">
+        <v>11</v>
+      </c>
+      <c r="X33" s="7">
+        <v>10.3</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>98</v>
+      </c>
+      <c r="Z33" s="7">
+        <v>107.7</v>
+      </c>
+      <c r="AA33" s="7">
+        <f t="shared" si="24"/>
         <v>0.69999999999999929</v>
       </c>
-      <c r="H33" s="13">
-        <f t="shared" si="21"/>
+      <c r="AB33" s="8">
+        <f t="shared" si="25"/>
         <v>9.7000000000000028</v>
       </c>
-      <c r="L33" s="12"/>
-      <c r="M33">
-        <v>9.6</v>
-      </c>
-      <c r="N33">
-        <v>9.5</v>
-      </c>
-      <c r="O33">
-        <v>92</v>
-      </c>
-      <c r="P33">
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="7">
+        <v>11</v>
+      </c>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7">
         <v>98</v>
       </c>
-      <c r="Q33">
-        <f t="shared" si="22"/>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="R33" s="13">
-        <f t="shared" si="23"/>
-        <v>6</v>
-      </c>
-      <c r="V33" s="12"/>
-      <c r="W33">
-        <v>9.6</v>
-      </c>
-      <c r="X33">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="Y33">
-        <v>92</v>
-      </c>
-      <c r="Z33">
-        <v>96.4</v>
-      </c>
-      <c r="AA33">
-        <f t="shared" si="24"/>
-        <v>1.4000000000000004</v>
-      </c>
-      <c r="AB33" s="13">
-        <f t="shared" si="25"/>
-        <v>4.4000000000000057</v>
-      </c>
-      <c r="AG33" s="12"/>
-      <c r="AH33">
-        <v>9.6</v>
-      </c>
-      <c r="AJ33">
-        <v>92</v>
-      </c>
-      <c r="AK33">
-        <v>78.3</v>
-      </c>
-      <c r="AL33">
+      <c r="AK33" s="7">
+        <v>219</v>
+      </c>
+      <c r="AL33" s="7">
         <f t="shared" si="26"/>
-        <v>9.6</v>
-      </c>
-      <c r="AM33" s="13">
+        <v>11</v>
+      </c>
+      <c r="AM33" s="8">
         <f t="shared" si="27"/>
-        <v>13.700000000000003</v>
-      </c>
-      <c r="AR33" s="12"/>
-      <c r="AS33">
-        <v>9.6</v>
-      </c>
-      <c r="AT33">
-        <v>8.5</v>
-      </c>
-      <c r="AU33">
-        <v>92</v>
-      </c>
-      <c r="AV33">
-        <v>97.4</v>
-      </c>
-      <c r="AW33">
+        <v>121</v>
+      </c>
+      <c r="AR33" s="6"/>
+      <c r="AS33" s="7">
+        <v>11</v>
+      </c>
+      <c r="AT33" s="7">
+        <v>10</v>
+      </c>
+      <c r="AU33" s="7">
+        <v>98</v>
+      </c>
+      <c r="AV33" s="7">
+        <v>86.5</v>
+      </c>
+      <c r="AW33" s="7">
         <f t="shared" si="28"/>
-        <v>1.0999999999999996</v>
-      </c>
-      <c r="AX33" s="13">
+        <v>1</v>
+      </c>
+      <c r="AX33" s="8">
         <f t="shared" si="29"/>
-        <v>5.4000000000000057</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="34" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="D34" s="7">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E34" s="7">
-        <v>72</v>
-      </c>
-      <c r="F34" s="7">
-        <v>65.5</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="B34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="4">
+        <v>18</v>
+      </c>
+      <c r="D34" s="4">
+        <v>18.3</v>
+      </c>
+      <c r="E34" s="4">
+        <v>87</v>
+      </c>
+      <c r="F34" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="G34" s="4">
         <f t="shared" si="20"/>
-        <v>0.70000000000000107</v>
-      </c>
-      <c r="H34" s="8">
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="H34" s="5">
         <f t="shared" si="21"/>
-        <v>6.5</v>
-      </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="N34" s="7">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="O34" s="7">
-        <v>72</v>
-      </c>
-      <c r="P34" s="7">
-        <v>72</v>
-      </c>
-      <c r="Q34" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" s="4">
+        <v>18</v>
+      </c>
+      <c r="N34" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="O34" s="4">
+        <v>87</v>
+      </c>
+      <c r="P34" s="4">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="Q34" s="4">
         <f t="shared" si="22"/>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="R34" s="8">
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="R34" s="5">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="6"/>
-      <c r="W34" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="X34" s="7">
-        <v>9.4</v>
-      </c>
-      <c r="Y34" s="7">
-        <v>72</v>
-      </c>
-      <c r="Z34" s="7">
-        <v>82.9</v>
-      </c>
-      <c r="AA34" s="7">
+        <v>15.400000000000006</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W34" s="4">
+        <v>18</v>
+      </c>
+      <c r="X34" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>87</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="AA34" s="4">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="AB34" s="8">
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="AB34" s="5">
         <f t="shared" si="25"/>
-        <v>10.900000000000006</v>
-      </c>
-      <c r="AG34" s="6"/>
-      <c r="AH34" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="AI34" s="7"/>
-      <c r="AJ34" s="7">
-        <v>72</v>
-      </c>
-      <c r="AK34" s="7">
-        <v>159</v>
-      </c>
-      <c r="AL34" s="7">
+        <v>7.9000000000000057</v>
+      </c>
+      <c r="AG34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>18</v>
+      </c>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4">
+        <v>87</v>
+      </c>
+      <c r="AK34" s="4">
+        <v>66.5</v>
+      </c>
+      <c r="AL34" s="4">
         <f t="shared" si="26"/>
-        <v>10.4</v>
-      </c>
-      <c r="AM34" s="8">
+        <v>18</v>
+      </c>
+      <c r="AM34" s="5">
         <f t="shared" si="27"/>
+        <v>20.5</v>
+      </c>
+      <c r="AR34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS34" s="4">
+        <v>18</v>
+      </c>
+      <c r="AT34" s="4">
+        <v>17.61</v>
+      </c>
+      <c r="AU34" s="4">
         <v>87</v>
       </c>
-      <c r="AR34" s="6"/>
-      <c r="AS34" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="AT34" s="7">
-        <v>9.6</v>
-      </c>
-      <c r="AU34" s="7">
-        <v>72</v>
-      </c>
-      <c r="AV34" s="7">
-        <v>84.6</v>
-      </c>
-      <c r="AW34" s="7">
+      <c r="AV34" s="4">
+        <v>40</v>
+      </c>
+      <c r="AW34" s="4">
         <f t="shared" si="28"/>
-        <v>0.80000000000000071</v>
-      </c>
-      <c r="AX34" s="8">
+        <v>0.39000000000000057</v>
+      </c>
+      <c r="AX34" s="5">
         <f t="shared" si="29"/>
-        <v>12.599999999999994</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="4">
-        <v>10.4</v>
-      </c>
-      <c r="D35" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E35" s="4">
-        <v>95</v>
-      </c>
-      <c r="F35" s="4">
-        <v>81.2</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="B35" s="12"/>
+      <c r="C35">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D35">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E35">
+        <v>74</v>
+      </c>
+      <c r="F35">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="20"/>
-        <v>1.2000000000000011</v>
-      </c>
-      <c r="H35" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H35" s="13">
         <f t="shared" si="21"/>
-        <v>13.799999999999997</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M35" s="4">
-        <v>10.4</v>
-      </c>
-      <c r="N35" s="4">
-        <v>9.9</v>
-      </c>
-      <c r="O35" s="4">
-        <v>95</v>
-      </c>
-      <c r="P35" s="4">
-        <v>64.8</v>
-      </c>
-      <c r="Q35" s="4">
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="L35" s="12"/>
+      <c r="M35">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N35">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O35">
+        <v>74</v>
+      </c>
+      <c r="P35">
+        <v>59.2</v>
+      </c>
+      <c r="Q35">
         <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
-      <c r="R35" s="5">
+      <c r="R35" s="13">
         <f t="shared" si="23"/>
-        <v>30.200000000000003</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W35" s="4">
-        <v>10.4</v>
-      </c>
-      <c r="X35" s="4">
-        <v>10.3</v>
-      </c>
-      <c r="Y35" s="4">
-        <v>95</v>
-      </c>
-      <c r="Z35" s="4">
-        <v>95.8</v>
-      </c>
-      <c r="AA35" s="4">
+        <v>14.799999999999997</v>
+      </c>
+      <c r="V35" s="12"/>
+      <c r="W35">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="X35">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Y35">
+        <v>74</v>
+      </c>
+      <c r="Z35">
+        <v>92</v>
+      </c>
+      <c r="AA35">
         <f t="shared" si="24"/>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="AB35" s="5">
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="AB35" s="13">
         <f t="shared" si="25"/>
-        <v>0.79999999999999716</v>
-      </c>
-      <c r="AG35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH35" s="4">
-        <v>10.4</v>
-      </c>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4">
-        <v>95</v>
-      </c>
-      <c r="AK35" s="4">
-        <v>76.3</v>
-      </c>
-      <c r="AL35" s="4">
+        <v>18</v>
+      </c>
+      <c r="AG35" s="12"/>
+      <c r="AH35">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AJ35">
+        <v>74</v>
+      </c>
+      <c r="AK35">
+        <v>192.5</v>
+      </c>
+      <c r="AL35">
         <f t="shared" si="26"/>
-        <v>10.4</v>
-      </c>
-      <c r="AM35" s="5">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AM35" s="13">
         <f t="shared" si="27"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="AR35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AS35" s="4">
-        <v>10.4</v>
-      </c>
-      <c r="AT35" s="4">
-        <v>10</v>
-      </c>
-      <c r="AU35" s="4">
-        <v>95</v>
-      </c>
-      <c r="AV35" s="4">
-        <v>88.5</v>
-      </c>
-      <c r="AW35" s="4">
+        <v>118.5</v>
+      </c>
+      <c r="AR35" s="12"/>
+      <c r="AS35">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AT35">
+        <v>8.6</v>
+      </c>
+      <c r="AU35">
+        <v>74</v>
+      </c>
+      <c r="AV35">
+        <v>60.6</v>
+      </c>
+      <c r="AW35">
         <f t="shared" si="28"/>
-        <v>0.40000000000000036</v>
-      </c>
-      <c r="AX35" s="5">
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="AX35" s="13">
         <f t="shared" si="29"/>
-        <v>6.5</v>
+        <v>13.399999999999999</v>
       </c>
     </row>
     <row r="36" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
-      <c r="C36">
-        <v>10.4</v>
-      </c>
-      <c r="D36">
-        <v>10.4</v>
-      </c>
-      <c r="E36">
-        <v>72</v>
-      </c>
-      <c r="F36">
-        <v>72.8</v>
-      </c>
-      <c r="G36">
+      <c r="B36" s="6"/>
+      <c r="C36" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D36" s="7">
+        <v>9</v>
+      </c>
+      <c r="E36" s="7">
+        <v>91</v>
+      </c>
+      <c r="F36" s="7">
+        <v>81</v>
+      </c>
+      <c r="G36" s="7">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="13">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="H36" s="8">
         <f t="shared" si="21"/>
-        <v>0.79999999999999716</v>
-      </c>
-      <c r="L36" s="12"/>
-      <c r="M36">
-        <v>10.4</v>
-      </c>
-      <c r="N36">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="O36">
-        <v>72</v>
-      </c>
-      <c r="P36">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="Q36">
+        <v>10</v>
+      </c>
+      <c r="L36" s="6"/>
+      <c r="M36" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N36" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="O36" s="7">
+        <v>91</v>
+      </c>
+      <c r="P36" s="7">
+        <v>64.8</v>
+      </c>
+      <c r="Q36" s="7">
         <f t="shared" si="22"/>
-        <v>0.70000000000000107</v>
-      </c>
-      <c r="R36" s="13">
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="R36" s="8">
         <f t="shared" si="23"/>
-        <v>7.5999999999999943</v>
-      </c>
-      <c r="V36" s="12"/>
-      <c r="W36">
-        <v>10.4</v>
-      </c>
-      <c r="X36">
-        <v>9.4</v>
-      </c>
-      <c r="Y36">
-        <v>72</v>
-      </c>
-      <c r="Z36">
-        <v>92.3</v>
-      </c>
-      <c r="AA36">
+        <v>26.200000000000003</v>
+      </c>
+      <c r="V36" s="6"/>
+      <c r="W36" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="X36" s="7">
+        <v>7</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>91</v>
+      </c>
+      <c r="Z36" s="7">
+        <v>93.2</v>
+      </c>
+      <c r="AA36" s="7">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="AB36" s="13">
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="AB36" s="8">
         <f t="shared" si="25"/>
-        <v>20.299999999999997</v>
-      </c>
-      <c r="AG36" s="12"/>
-      <c r="AH36">
-        <v>10.4</v>
-      </c>
-      <c r="AJ36">
-        <v>72</v>
-      </c>
-      <c r="AK36">
-        <v>72</v>
-      </c>
-      <c r="AL36">
+        <v>2.2000000000000028</v>
+      </c>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7">
+        <v>91</v>
+      </c>
+      <c r="AK36" s="7">
+        <v>116.6</v>
+      </c>
+      <c r="AL36" s="7">
         <f t="shared" si="26"/>
-        <v>10.4</v>
-      </c>
-      <c r="AM36" s="13">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AM36" s="8">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AR36" s="12"/>
-      <c r="AS36">
-        <v>10.4</v>
-      </c>
-      <c r="AT36">
-        <v>10</v>
-      </c>
-      <c r="AU36">
-        <v>72</v>
-      </c>
-      <c r="AV36">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="AW36">
+        <v>25.599999999999994</v>
+      </c>
+      <c r="AR36" s="6"/>
+      <c r="AS36" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AT36" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="AU36" s="7">
+        <v>91</v>
+      </c>
+      <c r="AV36" s="7">
+        <v>88.8</v>
+      </c>
+      <c r="AW36" s="7">
         <f t="shared" si="28"/>
-        <v>0.40000000000000036</v>
-      </c>
-      <c r="AX36" s="13">
+        <v>1.7000000000000011</v>
+      </c>
+      <c r="AX36" s="8">
         <f t="shared" si="29"/>
-        <v>2.9000000000000057</v>
+        <v>2.2000000000000028</v>
       </c>
     </row>
     <row r="37" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="7">
-        <v>11.2</v>
-      </c>
-      <c r="D37">
-        <v>10.9</v>
-      </c>
-      <c r="E37" s="7">
-        <v>79</v>
-      </c>
-      <c r="F37" s="7">
-        <v>69</v>
-      </c>
-      <c r="G37" s="7">
-        <f t="shared" si="20"/>
-        <v>0.29999999999999893</v>
-      </c>
-      <c r="H37" s="8">
-        <f t="shared" si="21"/>
-        <v>10</v>
-      </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="7">
-        <v>11.2</v>
-      </c>
-      <c r="N37">
-        <v>10.3</v>
-      </c>
-      <c r="O37" s="7">
-        <v>79</v>
-      </c>
-      <c r="P37" s="7">
-        <v>75.5</v>
-      </c>
-      <c r="Q37" s="7">
-        <f t="shared" si="22"/>
-        <v>0.89999999999999858</v>
-      </c>
-      <c r="R37" s="8">
-        <f t="shared" si="23"/>
-        <v>3.5</v>
-      </c>
-      <c r="V37" s="6"/>
-      <c r="W37" s="7">
-        <v>11.2</v>
-      </c>
-      <c r="X37">
-        <v>10.5</v>
-      </c>
-      <c r="Y37" s="7">
-        <v>79</v>
-      </c>
-      <c r="Z37" s="7">
-        <v>81.7</v>
-      </c>
-      <c r="AA37" s="7">
-        <f t="shared" si="24"/>
-        <v>0.69999999999999929</v>
-      </c>
-      <c r="AB37" s="8">
-        <f t="shared" si="25"/>
+      <c r="B37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="4">
+        <v>16</v>
+      </c>
+      <c r="D37" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="E37" s="4">
+        <v>93</v>
+      </c>
+      <c r="F37" s="4">
+        <v>95.7</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" ref="G37:G64" si="30">ABS(C37-D37)</f>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" ref="H37:H56" si="31">ABS(E37-F37)</f>
         <v>2.7000000000000028</v>
       </c>
-      <c r="AG37" s="6"/>
-      <c r="AH37" s="7">
-        <v>11.2</v>
-      </c>
-      <c r="AJ37" s="7">
-        <v>79</v>
-      </c>
-      <c r="AK37" s="7">
-        <v>121</v>
-      </c>
-      <c r="AL37" s="7">
-        <f t="shared" si="26"/>
-        <v>11.2</v>
-      </c>
-      <c r="AM37" s="8">
-        <f t="shared" si="27"/>
-        <v>42</v>
-      </c>
-      <c r="AR37" s="6"/>
-      <c r="AS37" s="7">
-        <v>11.2</v>
-      </c>
-      <c r="AT37">
-        <v>11.2</v>
-      </c>
-      <c r="AU37" s="7">
-        <v>79</v>
-      </c>
-      <c r="AV37" s="7">
-        <v>67.3</v>
-      </c>
-      <c r="AW37" s="7">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AX37" s="8">
-        <f t="shared" si="29"/>
-        <v>11.700000000000003</v>
+      <c r="L37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" s="4">
+        <v>16</v>
+      </c>
+      <c r="N37" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="O37" s="4">
+        <v>93</v>
+      </c>
+      <c r="P37" s="4">
+        <v>106</v>
+      </c>
+      <c r="Q37" s="4">
+        <f t="shared" ref="Q37:Q64" si="32">ABS(M37-N37)</f>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="R37" s="5">
+        <f t="shared" ref="R37:R56" si="33">ABS(O37-P37)</f>
+        <v>13</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W37" s="4">
+        <v>16</v>
+      </c>
+      <c r="X37" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>93</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>106.6</v>
+      </c>
+      <c r="AA37" s="4">
+        <f t="shared" ref="AA37:AA64" si="34">ABS(W37-X37)</f>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="AB37" s="5">
+        <f t="shared" ref="AB37:AB56" si="35">ABS(Y37-Z37)</f>
+        <v>13.599999999999994</v>
+      </c>
+      <c r="AG37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH37" s="4">
+        <v>16</v>
+      </c>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4">
+        <v>93</v>
+      </c>
+      <c r="AK37" s="4">
+        <v>133</v>
+      </c>
+      <c r="AL37" s="4">
+        <f t="shared" ref="AL37:AL64" si="36">ABS(AH37-AI37)</f>
+        <v>16</v>
+      </c>
+      <c r="AM37" s="5">
+        <f t="shared" ref="AM37:AM56" si="37">ABS(AJ37-AK37)</f>
+        <v>40</v>
+      </c>
+      <c r="AR37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS37" s="4">
+        <v>16</v>
+      </c>
+      <c r="AT37" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="AU37" s="4">
+        <v>93</v>
+      </c>
+      <c r="AV37" s="4">
+        <v>107.3</v>
+      </c>
+      <c r="AW37" s="4">
+        <f t="shared" ref="AW37:AW64" si="38">ABS(AS37-AT37)</f>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="AX37" s="5">
+        <f t="shared" ref="AX37:AX56" si="39">ABS(AU37-AV37)</f>
+        <v>14.299999999999997</v>
       </c>
     </row>
     <row r="38" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="4">
-        <v>10</v>
-      </c>
-      <c r="D38" s="4">
-        <v>8.6</v>
-      </c>
-      <c r="E38" s="4">
-        <v>75</v>
-      </c>
-      <c r="F38" s="4">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="G38" s="4">
-        <f t="shared" si="20"/>
-        <v>1.4000000000000004</v>
-      </c>
-      <c r="H38" s="5">
-        <f t="shared" si="21"/>
-        <v>1.4000000000000057</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M38" s="4">
-        <v>10</v>
-      </c>
-      <c r="N38" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="O38" s="4">
-        <v>75</v>
-      </c>
-      <c r="P38" s="4">
-        <v>89.2</v>
-      </c>
-      <c r="Q38" s="4">
-        <f t="shared" si="22"/>
-        <v>0.5</v>
-      </c>
-      <c r="R38" s="5">
-        <f t="shared" si="23"/>
+      <c r="B38" s="12"/>
+      <c r="C38">
+        <v>11.6</v>
+      </c>
+      <c r="D38">
+        <v>10.8</v>
+      </c>
+      <c r="E38">
+        <v>69</v>
+      </c>
+      <c r="F38">
+        <v>64</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="30"/>
+        <v>0.79999999999999893</v>
+      </c>
+      <c r="H38" s="13">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="L38" s="12"/>
+      <c r="M38">
+        <v>11.6</v>
+      </c>
+      <c r="N38">
+        <v>10.5</v>
+      </c>
+      <c r="O38">
+        <v>69</v>
+      </c>
+      <c r="P38">
+        <v>80</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="32"/>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="R38" s="13">
+        <f t="shared" si="33"/>
+        <v>11</v>
+      </c>
+      <c r="V38" s="12"/>
+      <c r="W38">
+        <v>11.6</v>
+      </c>
+      <c r="X38">
+        <v>10.5</v>
+      </c>
+      <c r="Y38">
+        <v>69</v>
+      </c>
+      <c r="Z38">
+        <v>83.2</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="34"/>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="AB38" s="13">
+        <f t="shared" si="35"/>
         <v>14.200000000000003</v>
       </c>
-      <c r="V38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W38" s="4">
-        <v>10</v>
-      </c>
-      <c r="X38" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="Y38" s="4">
-        <v>75</v>
-      </c>
-      <c r="Z38" s="4">
-        <v>91.7</v>
-      </c>
-      <c r="AA38" s="4">
-        <f t="shared" si="24"/>
-        <v>1.8000000000000007</v>
-      </c>
-      <c r="AB38" s="5">
-        <f t="shared" si="25"/>
-        <v>16.700000000000003</v>
-      </c>
-      <c r="AG38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH38" s="4">
-        <v>10</v>
-      </c>
-      <c r="AI38" s="4"/>
-      <c r="AJ38" s="4">
-        <v>75</v>
-      </c>
-      <c r="AK38" s="4">
-        <v>111</v>
-      </c>
-      <c r="AL38" s="4">
-        <f t="shared" si="26"/>
-        <v>10</v>
-      </c>
-      <c r="AM38" s="5">
-        <f t="shared" si="27"/>
-        <v>36</v>
-      </c>
-      <c r="AR38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS38" s="4">
-        <v>10</v>
-      </c>
-      <c r="AT38" s="4">
-        <v>9.4</v>
-      </c>
-      <c r="AU38" s="4">
-        <v>75</v>
-      </c>
-      <c r="AV38" s="4">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="AW38" s="4">
-        <f t="shared" si="28"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38">
+        <v>11.6</v>
+      </c>
+      <c r="AJ38">
+        <v>69</v>
+      </c>
+      <c r="AK38">
+        <v>74.5</v>
+      </c>
+      <c r="AL38">
+        <f t="shared" si="36"/>
+        <v>11.6</v>
+      </c>
+      <c r="AM38" s="13">
+        <f t="shared" si="37"/>
+        <v>5.5</v>
+      </c>
+      <c r="AR38" s="12"/>
+      <c r="AS38">
+        <v>11.6</v>
+      </c>
+      <c r="AT38">
+        <v>11</v>
+      </c>
+      <c r="AU38">
+        <v>69</v>
+      </c>
+      <c r="AV38">
+        <v>55.8</v>
+      </c>
+      <c r="AW38">
+        <f t="shared" si="38"/>
         <v>0.59999999999999964</v>
       </c>
-      <c r="AX38" s="5">
-        <f t="shared" si="29"/>
-        <v>2.4000000000000057</v>
+      <c r="AX38" s="13">
+        <f t="shared" si="39"/>
+        <v>13.200000000000003</v>
       </c>
     </row>
     <row r="39" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
-      <c r="C39">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>10</v>
-      </c>
-      <c r="E39">
-        <v>67</v>
-      </c>
-      <c r="F39">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="13">
-        <f t="shared" si="21"/>
-        <v>11.099999999999994</v>
-      </c>
-      <c r="L39" s="12"/>
-      <c r="M39">
-        <v>10</v>
-      </c>
-      <c r="N39">
-        <v>10</v>
-      </c>
-      <c r="O39">
-        <v>67</v>
-      </c>
-      <c r="P39">
-        <v>52.8</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="13">
-        <f t="shared" si="23"/>
-        <v>14.200000000000003</v>
-      </c>
-      <c r="V39" s="12"/>
-      <c r="W39">
-        <v>10</v>
-      </c>
-      <c r="X39">
-        <v>10.5</v>
-      </c>
-      <c r="Y39">
-        <v>67</v>
-      </c>
-      <c r="Z39">
-        <v>90.8</v>
-      </c>
-      <c r="AA39">
-        <f t="shared" si="24"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="D39" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="E39" s="7">
+        <v>77</v>
+      </c>
+      <c r="F39" s="7">
+        <v>65.8</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="30"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="H39" s="8">
+        <f t="shared" si="31"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="N39" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="O39" s="7">
+        <v>77</v>
+      </c>
+      <c r="P39" s="7">
+        <v>72</v>
+      </c>
+      <c r="Q39" s="7">
+        <f t="shared" si="32"/>
         <v>0.5</v>
       </c>
-      <c r="AB39" s="13">
-        <f t="shared" si="25"/>
-        <v>23.799999999999997</v>
-      </c>
-      <c r="AG39" s="12"/>
-      <c r="AH39">
-        <v>10</v>
-      </c>
-      <c r="AJ39">
-        <v>67</v>
-      </c>
-      <c r="AK39">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="AL39">
-        <f t="shared" si="26"/>
-        <v>10</v>
-      </c>
-      <c r="AM39" s="13">
-        <f t="shared" si="27"/>
-        <v>2.5999999999999943</v>
-      </c>
-      <c r="AR39" s="12"/>
-      <c r="AS39">
-        <v>10</v>
-      </c>
-      <c r="AT39">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AU39">
-        <v>67</v>
-      </c>
-      <c r="AV39">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="AW39">
-        <f t="shared" si="28"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="AX39" s="13">
-        <f t="shared" si="29"/>
-        <v>9.9999999999994316E-2</v>
+      <c r="R39" s="8">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="V39" s="6"/>
+      <c r="W39" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="X39" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="Y39" s="7">
+        <v>77</v>
+      </c>
+      <c r="Z39" s="7">
+        <v>92</v>
+      </c>
+      <c r="AA39" s="7">
+        <f t="shared" si="34"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="AB39" s="8">
+        <f t="shared" si="35"/>
+        <v>15</v>
+      </c>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7">
+        <v>77</v>
+      </c>
+      <c r="AK39" s="7">
+        <v>67.5</v>
+      </c>
+      <c r="AL39" s="7">
+        <f t="shared" si="36"/>
+        <v>12.4</v>
+      </c>
+      <c r="AM39" s="8">
+        <f t="shared" si="37"/>
+        <v>9.5</v>
+      </c>
+      <c r="AR39" s="6"/>
+      <c r="AS39" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="AT39" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="AU39" s="7">
+        <v>77</v>
+      </c>
+      <c r="AV39" s="7">
+        <v>66.2</v>
+      </c>
+      <c r="AW39" s="7">
+        <f t="shared" si="38"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="AX39" s="8">
+        <f t="shared" si="39"/>
+        <v>10.799999999999997</v>
       </c>
     </row>
     <row r="40" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="7">
+      <c r="B40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="4">
         <v>10.4</v>
       </c>
-      <c r="D40" s="7">
-        <v>9.6</v>
-      </c>
-      <c r="E40" s="7">
-        <v>91</v>
-      </c>
-      <c r="F40" s="7">
+      <c r="D40" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="E40" s="4">
+        <v>75</v>
+      </c>
+      <c r="F40" s="4">
+        <v>67.2</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="30"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="31"/>
+        <v>7.7999999999999972</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M40" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="N40" s="4">
+        <v>10</v>
+      </c>
+      <c r="O40" s="4">
+        <v>75</v>
+      </c>
+      <c r="P40" s="4">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="Q40" s="4">
+        <f t="shared" si="32"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="R40" s="5">
+        <f t="shared" si="33"/>
+        <v>7.4000000000000057</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W40" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="X40" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="Y40" s="4">
+        <v>75</v>
+      </c>
+      <c r="Z40" s="4">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="AA40" s="4">
+        <f t="shared" si="34"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="AB40" s="5">
+        <f t="shared" si="35"/>
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="AG40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH40" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4">
+        <v>75</v>
+      </c>
+      <c r="AK40" s="4">
         <v>71</v>
       </c>
-      <c r="G40" s="7">
-        <f t="shared" si="20"/>
-        <v>0.80000000000000071</v>
-      </c>
-      <c r="H40" s="8">
-        <f t="shared" si="21"/>
-        <v>20</v>
-      </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="7">
+      <c r="AL40" s="4">
+        <f t="shared" si="36"/>
         <v>10.4</v>
       </c>
-      <c r="N40" s="7">
-        <v>9.6</v>
-      </c>
-      <c r="O40" s="7">
-        <v>91</v>
-      </c>
-      <c r="P40" s="7">
-        <v>61.2</v>
-      </c>
-      <c r="Q40" s="7">
-        <f t="shared" si="22"/>
-        <v>0.80000000000000071</v>
-      </c>
-      <c r="R40" s="8">
-        <f t="shared" si="23"/>
-        <v>29.799999999999997</v>
-      </c>
-      <c r="V40" s="6"/>
-      <c r="W40" s="7">
+      <c r="AM40" s="5">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
+      <c r="AR40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS40" s="4">
         <v>10.4</v>
       </c>
-      <c r="X40" s="7">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Y40" s="7">
-        <v>91</v>
-      </c>
-      <c r="Z40" s="7">
-        <v>93.5</v>
-      </c>
-      <c r="AA40" s="7">
-        <f t="shared" si="24"/>
-        <v>1.5999999999999996</v>
-      </c>
-      <c r="AB40" s="8">
-        <f t="shared" si="25"/>
-        <v>2.5</v>
-      </c>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="AI40" s="7"/>
-      <c r="AJ40" s="7">
-        <v>91</v>
-      </c>
-      <c r="AK40" s="7">
-        <v>163</v>
-      </c>
-      <c r="AL40" s="7">
-        <f t="shared" si="26"/>
-        <v>10.4</v>
-      </c>
-      <c r="AM40" s="8">
-        <f t="shared" si="27"/>
-        <v>72</v>
-      </c>
-      <c r="AR40" s="6"/>
-      <c r="AS40" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="AT40" s="7">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AU40" s="7">
-        <v>91</v>
-      </c>
-      <c r="AV40" s="7">
+      <c r="AT40" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AU40" s="4">
         <v>75</v>
       </c>
-      <c r="AW40" s="7">
-        <f t="shared" si="28"/>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="AX40" s="8">
-        <f t="shared" si="29"/>
-        <v>16</v>
+      <c r="AV40" s="4">
+        <v>69</v>
+      </c>
+      <c r="AW40" s="4">
+        <f t="shared" si="38"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="AX40" s="5">
+        <f t="shared" si="39"/>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="D41" s="4">
-        <v>11.4</v>
-      </c>
-      <c r="E41" s="4">
+      <c r="B41" s="12"/>
+      <c r="C41">
+        <v>9.6</v>
+      </c>
+      <c r="D41">
+        <v>8.9</v>
+      </c>
+      <c r="E41">
         <v>92</v>
       </c>
-      <c r="F41" s="4">
-        <v>66.3</v>
-      </c>
-      <c r="G41" s="4">
-        <f t="shared" si="20"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="H41" s="5">
-        <f t="shared" si="21"/>
-        <v>25.700000000000003</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M41" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="N41" s="4">
-        <v>10.7</v>
-      </c>
-      <c r="O41" s="4">
+      <c r="F41">
+        <v>82.3</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="30"/>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="H41" s="13">
+        <f t="shared" si="31"/>
+        <v>9.7000000000000028</v>
+      </c>
+      <c r="L41" s="12"/>
+      <c r="M41">
+        <v>9.6</v>
+      </c>
+      <c r="N41">
+        <v>9.5</v>
+      </c>
+      <c r="O41">
         <v>92</v>
       </c>
-      <c r="P41" s="4">
-        <v>49.2</v>
-      </c>
-      <c r="Q41" s="4">
-        <f t="shared" si="22"/>
-        <v>0.90000000000000036</v>
-      </c>
-      <c r="R41" s="5">
-        <f t="shared" si="23"/>
-        <v>42.8</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W41" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="X41" s="4">
-        <v>11.7</v>
-      </c>
-      <c r="Y41" s="4">
+      <c r="P41">
+        <v>98</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="R41" s="13">
+        <f t="shared" si="33"/>
+        <v>6</v>
+      </c>
+      <c r="V41" s="12"/>
+      <c r="W41">
+        <v>9.6</v>
+      </c>
+      <c r="X41">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Y41">
         <v>92</v>
       </c>
-      <c r="Z41" s="4">
-        <v>83.2</v>
-      </c>
-      <c r="AA41" s="4">
-        <f t="shared" si="24"/>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="AB41" s="5">
-        <f t="shared" si="25"/>
-        <v>8.7999999999999972</v>
-      </c>
-      <c r="AG41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH41" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="AI41" s="4"/>
-      <c r="AJ41" s="4">
+      <c r="Z41">
+        <v>96.4</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="34"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="AB41" s="13">
+        <f t="shared" si="35"/>
+        <v>4.4000000000000057</v>
+      </c>
+      <c r="AG41" s="12"/>
+      <c r="AH41">
+        <v>9.6</v>
+      </c>
+      <c r="AJ41">
         <v>92</v>
       </c>
-      <c r="AK41" s="4">
-        <v>234</v>
-      </c>
-      <c r="AL41" s="4">
-        <f t="shared" si="26"/>
-        <v>11.6</v>
-      </c>
-      <c r="AM41" s="5">
-        <f t="shared" si="27"/>
-        <v>142</v>
-      </c>
-      <c r="AR41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS41" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="AT41" s="4">
-        <v>11.4</v>
-      </c>
-      <c r="AU41" s="4">
+      <c r="AK41">
+        <v>78.3</v>
+      </c>
+      <c r="AL41">
+        <f t="shared" si="36"/>
+        <v>9.6</v>
+      </c>
+      <c r="AM41" s="13">
+        <f t="shared" si="37"/>
+        <v>13.700000000000003</v>
+      </c>
+      <c r="AR41" s="12"/>
+      <c r="AS41">
+        <v>9.6</v>
+      </c>
+      <c r="AT41">
+        <v>8.5</v>
+      </c>
+      <c r="AU41">
         <v>92</v>
       </c>
-      <c r="AV41" s="4">
-        <v>62.9</v>
-      </c>
-      <c r="AW41" s="4">
-        <f t="shared" si="28"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="AX41" s="5">
-        <f t="shared" si="29"/>
-        <v>29.1</v>
+      <c r="AV41">
+        <v>97.4</v>
+      </c>
+      <c r="AW41">
+        <f t="shared" si="38"/>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="AX41" s="13">
+        <f t="shared" si="39"/>
+        <v>5.4000000000000057</v>
       </c>
     </row>
     <row r="42" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B42" s="12"/>
-      <c r="C42">
-        <v>10</v>
-      </c>
-      <c r="D42">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E42">
-        <v>71</v>
-      </c>
-      <c r="F42">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="20"/>
-        <v>1.8000000000000007</v>
-      </c>
-      <c r="H42" s="13">
-        <f t="shared" si="21"/>
-        <v>1.5999999999999943</v>
-      </c>
-      <c r="L42" s="12"/>
-      <c r="M42">
-        <v>10</v>
-      </c>
-      <c r="N42">
+      <c r="B42" s="6"/>
+      <c r="C42" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="D42" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E42" s="7">
+        <v>72</v>
+      </c>
+      <c r="F42" s="7">
+        <v>65.5</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="30"/>
+        <v>0.70000000000000107</v>
+      </c>
+      <c r="H42" s="8">
+        <f t="shared" si="31"/>
+        <v>6.5</v>
+      </c>
+      <c r="L42" s="6"/>
+      <c r="M42" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="N42" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O42" s="7">
+        <v>72</v>
+      </c>
+      <c r="P42" s="7">
+        <v>72</v>
+      </c>
+      <c r="Q42" s="7">
+        <f t="shared" si="32"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="R42" s="8">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="6"/>
+      <c r="W42" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="X42" s="7">
         <v>9.4</v>
       </c>
-      <c r="O42">
-        <v>71</v>
-      </c>
-      <c r="P42">
-        <v>54</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="22"/>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="R42" s="13">
-        <f t="shared" si="23"/>
-        <v>17</v>
-      </c>
-      <c r="V42" s="12"/>
-      <c r="W42">
-        <v>10</v>
-      </c>
-      <c r="X42">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="Y42">
-        <v>71</v>
-      </c>
-      <c r="Z42">
-        <v>96.7</v>
-      </c>
-      <c r="AA42">
-        <f t="shared" si="24"/>
-        <v>1.8000000000000007</v>
-      </c>
-      <c r="AB42" s="13">
-        <f t="shared" si="25"/>
-        <v>25.700000000000003</v>
-      </c>
-      <c r="AG42" s="12"/>
-      <c r="AH42">
-        <v>10</v>
-      </c>
-      <c r="AJ42">
-        <v>71</v>
-      </c>
-      <c r="AK42">
-        <v>139</v>
-      </c>
-      <c r="AL42">
-        <f t="shared" si="26"/>
-        <v>10</v>
-      </c>
-      <c r="AM42" s="13">
-        <f t="shared" si="27"/>
-        <v>68</v>
-      </c>
-      <c r="AR42" s="12"/>
-      <c r="AS42">
-        <v>10</v>
-      </c>
-      <c r="AT42">
-        <v>8</v>
-      </c>
-      <c r="AU42">
-        <v>71</v>
-      </c>
-      <c r="AV42">
-        <v>63.2</v>
-      </c>
-      <c r="AW42">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AX42" s="13">
-        <f t="shared" si="29"/>
-        <v>7.7999999999999972</v>
+      <c r="Y42" s="7">
+        <v>72</v>
+      </c>
+      <c r="Z42" s="7">
+        <v>82.9</v>
+      </c>
+      <c r="AA42" s="7">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AB42" s="8">
+        <f t="shared" si="35"/>
+        <v>10.900000000000006</v>
+      </c>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="AI42" s="7"/>
+      <c r="AJ42" s="7">
+        <v>72</v>
+      </c>
+      <c r="AK42" s="7">
+        <v>159</v>
+      </c>
+      <c r="AL42" s="7">
+        <f t="shared" si="36"/>
+        <v>10.4</v>
+      </c>
+      <c r="AM42" s="8">
+        <f t="shared" si="37"/>
+        <v>87</v>
+      </c>
+      <c r="AR42" s="6"/>
+      <c r="AS42" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="AT42" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="AU42" s="7">
+        <v>72</v>
+      </c>
+      <c r="AV42" s="7">
+        <v>84.6</v>
+      </c>
+      <c r="AW42" s="7">
+        <f t="shared" si="38"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="AX42" s="8">
+        <f t="shared" si="39"/>
+        <v>12.599999999999994</v>
       </c>
     </row>
     <row r="43" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B43" s="12"/>
-      <c r="C43">
-        <v>11.2</v>
-      </c>
-      <c r="D43">
-        <v>11</v>
-      </c>
-      <c r="E43">
-        <v>105</v>
-      </c>
-      <c r="F43">
-        <v>62</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="20"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="H43" s="13">
-        <f t="shared" si="21"/>
-        <v>43</v>
-      </c>
-      <c r="L43" s="12"/>
-      <c r="M43">
-        <v>11.2</v>
-      </c>
-      <c r="N43">
+      <c r="B43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="4">
         <v>10.4</v>
       </c>
-      <c r="O43">
-        <v>105</v>
-      </c>
-      <c r="P43">
-        <v>62.8</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" si="22"/>
-        <v>0.79999999999999893</v>
-      </c>
-      <c r="R43" s="13">
-        <f t="shared" si="23"/>
-        <v>42.2</v>
-      </c>
-      <c r="V43" s="12"/>
-      <c r="W43">
-        <v>11.2</v>
-      </c>
-      <c r="X43">
-        <v>10.5</v>
-      </c>
-      <c r="Y43">
-        <v>105</v>
-      </c>
-      <c r="Z43">
-        <v>85</v>
-      </c>
-      <c r="AA43">
-        <f t="shared" si="24"/>
-        <v>0.69999999999999929</v>
-      </c>
-      <c r="AB43" s="13">
-        <f t="shared" si="25"/>
-        <v>20</v>
-      </c>
-      <c r="AG43" s="12"/>
-      <c r="AH43">
-        <v>11.2</v>
-      </c>
-      <c r="AJ43">
-        <v>105</v>
-      </c>
-      <c r="AK43">
-        <v>69.5</v>
-      </c>
-      <c r="AL43">
-        <f t="shared" si="26"/>
-        <v>11.2</v>
-      </c>
-      <c r="AM43" s="13">
-        <f t="shared" si="27"/>
-        <v>35.5</v>
-      </c>
-      <c r="AR43" s="12"/>
-      <c r="AS43">
-        <v>11.2</v>
-      </c>
-      <c r="AT43">
-        <v>11.4</v>
-      </c>
-      <c r="AU43">
-        <v>105</v>
-      </c>
-      <c r="AV43">
-        <v>59.3</v>
-      </c>
-      <c r="AW43">
-        <f t="shared" si="28"/>
-        <v>0.20000000000000107</v>
-      </c>
-      <c r="AX43" s="13">
-        <f t="shared" si="29"/>
-        <v>45.7</v>
+      <c r="D43" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E43" s="4">
+        <v>95</v>
+      </c>
+      <c r="F43" s="4">
+        <v>81.2</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="30"/>
+        <v>1.2000000000000011</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="31"/>
+        <v>13.799999999999997</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="N43" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="O43" s="4">
+        <v>95</v>
+      </c>
+      <c r="P43" s="4">
+        <v>64.8</v>
+      </c>
+      <c r="Q43" s="4">
+        <f t="shared" si="32"/>
+        <v>0.5</v>
+      </c>
+      <c r="R43" s="5">
+        <f t="shared" si="33"/>
+        <v>30.200000000000003</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W43" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="X43" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="Y43" s="4">
+        <v>95</v>
+      </c>
+      <c r="Z43" s="4">
+        <v>95.8</v>
+      </c>
+      <c r="AA43" s="4">
+        <f t="shared" si="34"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="AB43" s="5">
+        <f t="shared" si="35"/>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="AG43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH43" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4">
+        <v>95</v>
+      </c>
+      <c r="AK43" s="4">
+        <v>76.3</v>
+      </c>
+      <c r="AL43" s="4">
+        <f t="shared" si="36"/>
+        <v>10.4</v>
+      </c>
+      <c r="AM43" s="5">
+        <f t="shared" si="37"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="AR43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS43" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="AT43" s="4">
+        <v>10</v>
+      </c>
+      <c r="AU43" s="4">
+        <v>95</v>
+      </c>
+      <c r="AV43" s="4">
+        <v>88.5</v>
+      </c>
+      <c r="AW43" s="4">
+        <f t="shared" si="38"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="AX43" s="5">
+        <f t="shared" si="39"/>
+        <v>6.5</v>
       </c>
     </row>
     <row r="44" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
-      <c r="C44" s="7">
+      <c r="B44" s="12"/>
+      <c r="C44">
         <v>10.4</v>
       </c>
-      <c r="D44" s="7">
-        <v>10.7</v>
-      </c>
-      <c r="E44" s="7">
+      <c r="D44">
+        <v>10.4</v>
+      </c>
+      <c r="E44">
         <v>72</v>
       </c>
-      <c r="F44" s="7">
-        <v>68.8</v>
-      </c>
-      <c r="G44" s="7">
-        <f t="shared" si="20"/>
-        <v>0.29999999999999893</v>
-      </c>
-      <c r="H44" s="8">
-        <f t="shared" si="21"/>
-        <v>3.2000000000000028</v>
-      </c>
-      <c r="L44" s="6"/>
-      <c r="M44" s="7">
+      <c r="F44">
+        <v>72.8</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="13">
+        <f t="shared" si="31"/>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="L44" s="12"/>
+      <c r="M44">
         <v>10.4</v>
       </c>
-      <c r="N44" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="O44" s="7">
+      <c r="N44">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O44">
         <v>72</v>
       </c>
-      <c r="P44" s="7">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="Q44" s="7">
-        <f t="shared" si="22"/>
-        <v>0.30000000000000071</v>
-      </c>
-      <c r="R44" s="8">
-        <f t="shared" si="23"/>
-        <v>2.4000000000000057</v>
-      </c>
-      <c r="V44" s="6"/>
-      <c r="W44" s="7">
+      <c r="P44">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="32"/>
+        <v>0.70000000000000107</v>
+      </c>
+      <c r="R44" s="13">
+        <f t="shared" si="33"/>
+        <v>7.5999999999999943</v>
+      </c>
+      <c r="V44" s="12"/>
+      <c r="W44">
         <v>10.4</v>
       </c>
-      <c r="X44" s="7">
-        <v>10.5</v>
-      </c>
-      <c r="Y44" s="7">
+      <c r="X44">
+        <v>9.4</v>
+      </c>
+      <c r="Y44">
         <v>72</v>
       </c>
-      <c r="Z44" s="7">
-        <v>84</v>
-      </c>
-      <c r="AA44" s="7">
-        <f t="shared" si="24"/>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="AB44" s="8">
-        <f t="shared" si="25"/>
-        <v>12</v>
-      </c>
-      <c r="AG44" s="6"/>
-      <c r="AH44" s="7">
+      <c r="Z44">
+        <v>92.3</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AB44" s="13">
+        <f t="shared" si="35"/>
+        <v>20.299999999999997</v>
+      </c>
+      <c r="AG44" s="12"/>
+      <c r="AH44">
         <v>10.4</v>
       </c>
-      <c r="AI44" s="7"/>
-      <c r="AJ44" s="7">
+      <c r="AJ44">
         <v>72</v>
       </c>
-      <c r="AK44" s="7">
-        <v>82.3</v>
-      </c>
-      <c r="AL44" s="7">
-        <f t="shared" si="26"/>
+      <c r="AK44">
+        <v>72</v>
+      </c>
+      <c r="AL44">
+        <f t="shared" si="36"/>
         <v>10.4</v>
       </c>
-      <c r="AM44" s="8">
-        <f t="shared" si="27"/>
-        <v>10.299999999999997</v>
-      </c>
-      <c r="AR44" s="6"/>
-      <c r="AS44" s="7">
+      <c r="AM44" s="13">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AR44" s="12"/>
+      <c r="AS44">
         <v>10.4</v>
       </c>
-      <c r="AT44" s="7">
-        <v>10.6</v>
-      </c>
-      <c r="AU44" s="7">
+      <c r="AT44">
+        <v>10</v>
+      </c>
+      <c r="AU44">
         <v>72</v>
       </c>
-      <c r="AV44" s="7">
-        <v>67</v>
-      </c>
-      <c r="AW44" s="7">
-        <f t="shared" si="28"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="AX44" s="8">
-        <f t="shared" si="29"/>
-        <v>5</v>
+      <c r="AV44">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="AW44">
+        <f t="shared" si="38"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="AX44" s="13">
+        <f t="shared" si="39"/>
+        <v>2.9000000000000057</v>
       </c>
     </row>
     <row r="45" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="D45" s="4">
-        <v>12.3</v>
-      </c>
-      <c r="E45" s="4">
-        <v>95</v>
-      </c>
-      <c r="F45" s="4">
-        <v>56.6</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="20"/>
-        <v>0.5</v>
-      </c>
-      <c r="H45" s="13">
-        <f t="shared" si="21"/>
-        <v>38.4</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M45" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="N45" s="4">
-        <v>12.9</v>
-      </c>
-      <c r="O45" s="4">
-        <v>95</v>
-      </c>
-      <c r="P45" s="4">
-        <v>50</v>
-      </c>
-      <c r="Q45">
-        <f t="shared" si="22"/>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="R45" s="13">
-        <f t="shared" si="23"/>
-        <v>45</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W45" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="X45" s="4">
-        <v>12.9</v>
-      </c>
-      <c r="Y45" s="4">
-        <v>95</v>
-      </c>
-      <c r="Z45" s="4">
-        <v>95.5</v>
-      </c>
-      <c r="AA45">
-        <f t="shared" si="24"/>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="AB45" s="13">
-        <f t="shared" si="25"/>
-        <v>0.5</v>
-      </c>
-      <c r="AG45" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH45" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="AI45" s="4"/>
-      <c r="AJ45" s="4">
-        <v>95</v>
-      </c>
-      <c r="AK45" s="4">
-        <v>150</v>
-      </c>
-      <c r="AL45">
-        <f t="shared" si="26"/>
-        <v>12.8</v>
-      </c>
-      <c r="AM45" s="13">
-        <f t="shared" si="27"/>
-        <v>55</v>
-      </c>
-      <c r="AR45" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AS45" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="AT45" s="4">
-        <v>12.4</v>
-      </c>
-      <c r="AU45" s="4">
-        <v>95</v>
-      </c>
-      <c r="AV45" s="4">
-        <v>57.6</v>
-      </c>
-      <c r="AW45">
-        <f t="shared" si="28"/>
-        <v>0.40000000000000036</v>
-      </c>
-      <c r="AX45" s="13">
-        <f t="shared" si="29"/>
-        <v>37.4</v>
+      <c r="B45" s="6"/>
+      <c r="C45" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="D45">
+        <v>10.9</v>
+      </c>
+      <c r="E45" s="7">
+        <v>79</v>
+      </c>
+      <c r="F45" s="7">
+        <v>69</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="30"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="H45" s="8">
+        <f t="shared" si="31"/>
+        <v>10</v>
+      </c>
+      <c r="L45" s="6"/>
+      <c r="M45" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="N45">
+        <v>10.3</v>
+      </c>
+      <c r="O45" s="7">
+        <v>79</v>
+      </c>
+      <c r="P45" s="7">
+        <v>75.5</v>
+      </c>
+      <c r="Q45" s="7">
+        <f t="shared" si="32"/>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="R45" s="8">
+        <f t="shared" si="33"/>
+        <v>3.5</v>
+      </c>
+      <c r="V45" s="6"/>
+      <c r="W45" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="X45">
+        <v>10.5</v>
+      </c>
+      <c r="Y45" s="7">
+        <v>79</v>
+      </c>
+      <c r="Z45" s="7">
+        <v>81.7</v>
+      </c>
+      <c r="AA45" s="7">
+        <f t="shared" si="34"/>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="AB45" s="8">
+        <f t="shared" si="35"/>
+        <v>2.7000000000000028</v>
+      </c>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="AJ45" s="7">
+        <v>79</v>
+      </c>
+      <c r="AK45" s="7">
+        <v>121</v>
+      </c>
+      <c r="AL45" s="7">
+        <f t="shared" si="36"/>
+        <v>11.2</v>
+      </c>
+      <c r="AM45" s="8">
+        <f t="shared" si="37"/>
+        <v>42</v>
+      </c>
+      <c r="AR45" s="6"/>
+      <c r="AS45" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="AT45">
+        <v>11.2</v>
+      </c>
+      <c r="AU45" s="7">
+        <v>79</v>
+      </c>
+      <c r="AV45" s="7">
+        <v>67.3</v>
+      </c>
+      <c r="AW45" s="7">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AX45" s="8">
+        <f t="shared" si="39"/>
+        <v>11.700000000000003</v>
       </c>
     </row>
     <row r="46" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B46" s="12"/>
-      <c r="C46">
-        <v>10</v>
-      </c>
-      <c r="D46">
-        <v>10</v>
-      </c>
-      <c r="E46">
-        <v>76</v>
-      </c>
-      <c r="F46">
-        <v>63.9</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="13">
-        <f t="shared" si="21"/>
-        <v>12.100000000000001</v>
-      </c>
-      <c r="L46" s="12"/>
-      <c r="M46">
-        <v>10</v>
-      </c>
-      <c r="N46">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="O46">
-        <v>76</v>
-      </c>
-      <c r="P46">
-        <v>58.4</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="22"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="R46" s="13">
-        <f t="shared" si="23"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="V46" s="12"/>
-      <c r="W46">
-        <v>10</v>
-      </c>
-      <c r="X46">
-        <v>10.5</v>
-      </c>
-      <c r="Y46">
-        <v>76</v>
-      </c>
-      <c r="Z46">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="AA46">
-        <f t="shared" si="24"/>
+      <c r="B46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="4">
+        <v>10</v>
+      </c>
+      <c r="D46" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="E46" s="4">
+        <v>75</v>
+      </c>
+      <c r="F46" s="4">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" si="30"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" si="31"/>
+        <v>1.4000000000000057</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M46" s="4">
+        <v>10</v>
+      </c>
+      <c r="N46" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="O46" s="4">
+        <v>75</v>
+      </c>
+      <c r="P46" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="Q46" s="4">
+        <f t="shared" si="32"/>
         <v>0.5</v>
       </c>
-      <c r="AB46" s="13">
-        <f t="shared" si="25"/>
-        <v>4.5999999999999943</v>
-      </c>
-      <c r="AG46" s="12"/>
-      <c r="AH46">
-        <v>10</v>
-      </c>
-      <c r="AJ46">
-        <v>76</v>
-      </c>
-      <c r="AK46">
-        <v>61</v>
-      </c>
-      <c r="AL46">
-        <f t="shared" si="26"/>
-        <v>10</v>
-      </c>
-      <c r="AM46" s="13">
-        <f t="shared" si="27"/>
-        <v>15</v>
-      </c>
-      <c r="AR46" s="12"/>
-      <c r="AS46">
-        <v>10</v>
-      </c>
-      <c r="AT46">
-        <v>10</v>
-      </c>
-      <c r="AU46">
-        <v>76</v>
-      </c>
-      <c r="AV46">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="AW46">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AX46" s="13">
-        <f t="shared" si="29"/>
-        <v>6.4000000000000057</v>
+      <c r="R46" s="5">
+        <f t="shared" si="33"/>
+        <v>14.200000000000003</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W46" s="4">
+        <v>10</v>
+      </c>
+      <c r="X46" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Y46" s="4">
+        <v>75</v>
+      </c>
+      <c r="Z46" s="4">
+        <v>91.7</v>
+      </c>
+      <c r="AA46" s="4">
+        <f t="shared" si="34"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="AB46" s="5">
+        <f t="shared" si="35"/>
+        <v>16.700000000000003</v>
+      </c>
+      <c r="AG46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH46" s="4">
+        <v>10</v>
+      </c>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4">
+        <v>75</v>
+      </c>
+      <c r="AK46" s="4">
+        <v>111</v>
+      </c>
+      <c r="AL46" s="4">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="AM46" s="5">
+        <f t="shared" si="37"/>
+        <v>36</v>
+      </c>
+      <c r="AR46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS46" s="4">
+        <v>10</v>
+      </c>
+      <c r="AT46" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="AU46" s="4">
+        <v>75</v>
+      </c>
+      <c r="AV46" s="4">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AW46" s="4">
+        <f t="shared" si="38"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="AX46" s="5">
+        <f t="shared" si="39"/>
+        <v>2.4000000000000057</v>
       </c>
     </row>
     <row r="47" spans="2:50" x14ac:dyDescent="0.25">
@@ -5811,854 +5845,854 @@
         <v>10</v>
       </c>
       <c r="D47">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F47">
-        <v>66</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="G47">
-        <f t="shared" si="20"/>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="H47" s="13">
-        <f t="shared" si="21"/>
-        <v>6</v>
+        <f t="shared" si="31"/>
+        <v>11.099999999999994</v>
       </c>
       <c r="L47" s="12"/>
       <c r="M47">
         <v>10</v>
       </c>
       <c r="N47">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O47">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P47">
-        <v>50.8</v>
+        <v>52.8</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="22"/>
-        <v>0.5</v>
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="R47" s="13">
-        <f t="shared" si="23"/>
-        <v>21.200000000000003</v>
+        <f t="shared" si="33"/>
+        <v>14.200000000000003</v>
       </c>
       <c r="V47" s="12"/>
       <c r="W47">
         <v>10</v>
       </c>
       <c r="X47">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="Y47">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Z47">
-        <v>79.7</v>
+        <v>90.8</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="24"/>
-        <v>0.59999999999999964</v>
+        <f t="shared" si="34"/>
+        <v>0.5</v>
       </c>
       <c r="AB47" s="13">
-        <f t="shared" si="25"/>
-        <v>7.7000000000000028</v>
+        <f t="shared" si="35"/>
+        <v>23.799999999999997</v>
       </c>
       <c r="AG47" s="12"/>
       <c r="AH47">
         <v>10</v>
       </c>
       <c r="AJ47">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AK47">
-        <v>72.7</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="AL47">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="AM47" s="13">
-        <f t="shared" si="27"/>
-        <v>0.70000000000000284</v>
+        <f t="shared" si="37"/>
+        <v>2.5999999999999943</v>
       </c>
       <c r="AR47" s="12"/>
       <c r="AS47">
         <v>10</v>
       </c>
       <c r="AT47">
-        <v>9.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AU47">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AV47">
-        <v>57.3</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="AW47">
-        <f t="shared" si="28"/>
-        <v>0.40000000000000036</v>
+        <f t="shared" si="38"/>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AX47" s="13">
-        <f t="shared" si="29"/>
-        <v>14.700000000000003</v>
+        <f t="shared" si="39"/>
+        <v>9.9999999999994316E-2</v>
       </c>
     </row>
     <row r="48" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="7">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="D48" s="7">
-        <v>10.8</v>
+        <v>9.6</v>
       </c>
       <c r="E48" s="7">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F48" s="7">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.80000000000000071</v>
       </c>
-      <c r="H48" s="13">
-        <f t="shared" si="21"/>
-        <v>21</v>
+      <c r="H48" s="8">
+        <f t="shared" si="31"/>
+        <v>20</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="7">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="N48" s="7">
-        <v>9.6999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="O48" s="7">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="P48" s="7">
-        <v>102</v>
+        <v>61.2</v>
       </c>
       <c r="Q48" s="7">
-        <f t="shared" si="22"/>
-        <v>0.30000000000000071</v>
+        <f t="shared" si="32"/>
+        <v>0.80000000000000071</v>
       </c>
       <c r="R48" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>29.799999999999997</v>
       </c>
       <c r="V48" s="6"/>
       <c r="W48" s="7">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="X48" s="7">
-        <v>10</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Y48" s="7">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="Z48" s="7">
-        <v>101</v>
+        <v>93.5</v>
       </c>
       <c r="AA48" s="7">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>1.5999999999999996</v>
       </c>
       <c r="AB48" s="8">
-        <f t="shared" si="25"/>
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>2.5</v>
       </c>
       <c r="AG48" s="6"/>
       <c r="AH48" s="7">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="AI48" s="7"/>
       <c r="AJ48" s="7">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="AK48" s="7">
-        <v>136.80000000000001</v>
+        <v>163</v>
       </c>
       <c r="AL48" s="7">
-        <f t="shared" si="26"/>
-        <v>10</v>
+        <f t="shared" si="36"/>
+        <v>10.4</v>
       </c>
       <c r="AM48" s="8">
-        <f t="shared" si="27"/>
-        <v>34.800000000000011</v>
+        <f t="shared" si="37"/>
+        <v>72</v>
       </c>
       <c r="AR48" s="6"/>
       <c r="AS48" s="7">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="AT48" s="7">
-        <v>10.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AU48" s="7">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="AV48" s="7">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AW48" s="7">
-        <f t="shared" si="28"/>
-        <v>0.5</v>
+        <f t="shared" si="38"/>
+        <v>0.59999999999999964</v>
       </c>
       <c r="AX48" s="8">
-        <f t="shared" si="29"/>
-        <v>18</v>
+        <f t="shared" si="39"/>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C49" s="4">
-        <v>10.8</v>
+        <v>11.6</v>
       </c>
       <c r="D49" s="4">
-        <v>10</v>
+        <v>11.4</v>
       </c>
       <c r="E49" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F49" s="4">
-        <v>68.8</v>
+        <v>66.3</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" si="20"/>
-        <v>0.80000000000000071</v>
+        <f t="shared" si="30"/>
+        <v>0.19999999999999929</v>
       </c>
       <c r="H49" s="5">
-        <f>ABS(F49-E49)</f>
-        <v>22.200000000000003</v>
+        <f t="shared" si="31"/>
+        <v>25.700000000000003</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M49" s="4">
-        <v>10.8</v>
+        <v>11.6</v>
       </c>
       <c r="N49" s="4">
-        <v>10</v>
+        <v>10.7</v>
       </c>
       <c r="O49" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P49" s="4">
-        <v>118.8</v>
+        <v>49.2</v>
       </c>
       <c r="Q49" s="4">
-        <f t="shared" si="22"/>
-        <v>0.80000000000000071</v>
+        <f t="shared" si="32"/>
+        <v>0.90000000000000036</v>
       </c>
       <c r="R49" s="5">
-        <f>ABS(P49-O49)</f>
-        <v>27.799999999999997</v>
+        <f t="shared" si="33"/>
+        <v>42.8</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W49" s="4">
-        <v>10.8</v>
+        <v>11.6</v>
       </c>
       <c r="X49" s="4">
-        <v>10</v>
+        <v>11.7</v>
       </c>
       <c r="Y49" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z49" s="4">
-        <v>81.2</v>
+        <v>83.2</v>
       </c>
       <c r="AA49" s="4">
-        <f t="shared" si="24"/>
-        <v>0.80000000000000071</v>
+        <f t="shared" si="34"/>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="AB49" s="5">
-        <f>ABS(Z49-Y49)</f>
-        <v>9.7999999999999972</v>
+        <f t="shared" si="35"/>
+        <v>8.7999999999999972</v>
       </c>
       <c r="AG49" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AH49" s="4">
-        <v>10.8</v>
+        <v>11.6</v>
       </c>
       <c r="AI49" s="4"/>
       <c r="AJ49" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK49" s="4">
-        <v>114.6</v>
+        <v>234</v>
       </c>
       <c r="AL49" s="4">
-        <f t="shared" si="26"/>
-        <v>10.8</v>
+        <f t="shared" si="36"/>
+        <v>11.6</v>
       </c>
       <c r="AM49" s="5">
-        <f>ABS(AK49-AJ49)</f>
-        <v>23.599999999999994</v>
+        <f t="shared" si="37"/>
+        <v>142</v>
       </c>
       <c r="AR49" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AS49" s="4">
-        <v>10.8</v>
+        <v>11.6</v>
       </c>
       <c r="AT49" s="4">
-        <v>10</v>
+        <v>11.4</v>
       </c>
       <c r="AU49" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AV49" s="4">
-        <v>64.400000000000006</v>
+        <v>62.9</v>
       </c>
       <c r="AW49" s="4">
-        <f t="shared" si="28"/>
-        <v>0.80000000000000071</v>
+        <f t="shared" si="38"/>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AX49" s="5">
-        <f>ABS(AV49-AU49)</f>
-        <v>26.599999999999994</v>
+        <f t="shared" si="39"/>
+        <v>29.1</v>
       </c>
     </row>
     <row r="50" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B50" s="12"/>
       <c r="C50">
-        <v>8.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="D50">
         <v>8.1999999999999993</v>
       </c>
       <c r="E50">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="F50">
-        <v>69.3</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="G50">
-        <f t="shared" si="20"/>
-        <v>0.60000000000000142</v>
+        <f t="shared" si="30"/>
+        <v>1.8000000000000007</v>
       </c>
       <c r="H50" s="13">
-        <f t="shared" ref="H50:H56" si="30">ABS(F50-E50)</f>
-        <v>24.700000000000003</v>
+        <f t="shared" si="31"/>
+        <v>1.5999999999999943</v>
       </c>
       <c r="L50" s="12"/>
       <c r="M50">
-        <v>8.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="N50">
         <v>9.4</v>
       </c>
       <c r="O50">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="P50">
-        <v>76.400000000000006</v>
+        <v>54</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.59999999999999964</v>
       </c>
       <c r="R50" s="13">
-        <f t="shared" ref="R50:R56" si="31">ABS(P50-O50)</f>
-        <v>17.599999999999994</v>
+        <f t="shared" si="33"/>
+        <v>17</v>
       </c>
       <c r="V50" s="12"/>
       <c r="W50">
-        <v>8.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="X50">
-        <v>7.3</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Y50">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="Z50">
-        <v>83.5</v>
+        <v>96.7</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="24"/>
-        <v>1.5000000000000009</v>
+        <f t="shared" si="34"/>
+        <v>1.8000000000000007</v>
       </c>
       <c r="AB50" s="13">
-        <f t="shared" ref="AB50:AB56" si="32">ABS(Z50-Y50)</f>
-        <v>10.5</v>
+        <f t="shared" si="35"/>
+        <v>25.700000000000003</v>
       </c>
       <c r="AG50" s="12"/>
       <c r="AH50">
-        <v>8.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="AJ50">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="AK50">
-        <v>74.5</v>
+        <v>139</v>
       </c>
       <c r="AL50">
-        <f t="shared" si="26"/>
-        <v>8.8000000000000007</v>
+        <f t="shared" si="36"/>
+        <v>10</v>
       </c>
       <c r="AM50" s="13">
-        <f t="shared" ref="AM50:AM56" si="33">ABS(AK50-AJ50)</f>
-        <v>19.5</v>
+        <f t="shared" si="37"/>
+        <v>68</v>
       </c>
       <c r="AR50" s="12"/>
       <c r="AS50">
-        <v>8.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="AT50">
-        <v>8.8000000000000007</v>
+        <v>8</v>
       </c>
       <c r="AU50">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="AV50">
-        <v>78.900000000000006</v>
+        <v>63.2</v>
       </c>
       <c r="AW50">
-        <f>ABS(AS50-AT50)</f>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>2</v>
       </c>
       <c r="AX50" s="13">
-        <f t="shared" ref="AX50:AX56" si="34">ABS(AV50-AU50)</f>
-        <v>15.099999999999994</v>
+        <f t="shared" si="39"/>
+        <v>7.7999999999999972</v>
       </c>
     </row>
     <row r="51" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B51" s="12"/>
       <c r="C51">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="D51">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="E51">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="F51">
-        <v>78.400000000000006</v>
+        <v>62</v>
       </c>
       <c r="G51">
-        <f t="shared" si="20"/>
-        <v>0.5</v>
+        <f t="shared" si="30"/>
+        <v>0.19999999999999929</v>
       </c>
       <c r="H51" s="13">
-        <f t="shared" si="30"/>
-        <v>2.4000000000000057</v>
+        <f t="shared" si="31"/>
+        <v>43</v>
       </c>
       <c r="L51" s="12"/>
       <c r="M51">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="N51">
-        <v>9.6</v>
+        <v>10.4</v>
       </c>
       <c r="O51">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="P51">
-        <v>85.6</v>
+        <v>62.8</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="22"/>
-        <v>0.40000000000000036</v>
+        <f t="shared" si="32"/>
+        <v>0.79999999999999893</v>
       </c>
       <c r="R51" s="13">
-        <f t="shared" si="31"/>
-        <v>9.5999999999999943</v>
+        <f t="shared" si="33"/>
+        <v>42.2</v>
       </c>
       <c r="V51" s="12"/>
       <c r="W51">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="X51">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Y51">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="Z51">
-        <v>77.599999999999994</v>
+        <v>85</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="24"/>
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>0.69999999999999929</v>
       </c>
       <c r="AB51" s="13">
-        <f t="shared" si="32"/>
-        <v>1.5999999999999943</v>
+        <f t="shared" si="35"/>
+        <v>20</v>
       </c>
       <c r="AG51" s="12"/>
       <c r="AH51">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="AJ51">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="AK51">
-        <v>172</v>
+        <v>69.5</v>
       </c>
       <c r="AL51">
-        <f t="shared" si="26"/>
-        <v>10</v>
+        <f t="shared" si="36"/>
+        <v>11.2</v>
       </c>
       <c r="AM51" s="13">
-        <f t="shared" si="33"/>
-        <v>96</v>
+        <f t="shared" si="37"/>
+        <v>35.5</v>
       </c>
       <c r="AR51" s="12"/>
       <c r="AS51">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="AT51">
-        <v>10.15</v>
+        <v>11.4</v>
       </c>
       <c r="AU51">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="AV51">
-        <v>89.7</v>
+        <v>59.3</v>
       </c>
       <c r="AW51">
-        <f>ABS(AS51-AT51)</f>
-        <v>0.15000000000000036</v>
+        <f t="shared" si="38"/>
+        <v>0.20000000000000107</v>
       </c>
       <c r="AX51" s="13">
-        <f t="shared" si="34"/>
-        <v>13.700000000000003</v>
+        <f t="shared" si="39"/>
+        <v>45.7</v>
       </c>
     </row>
     <row r="52" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="C52" s="7">
-        <v>8.8000000000000007</v>
+        <v>10.4</v>
       </c>
       <c r="D52" s="7">
-        <v>9.6999999999999993</v>
+        <v>10.7</v>
       </c>
       <c r="E52" s="7">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F52" s="7">
-        <v>83.2</v>
+        <v>68.8</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" si="20"/>
-        <v>0.89999999999999858</v>
-      </c>
-      <c r="H52" s="13">
         <f t="shared" si="30"/>
-        <v>10.799999999999997</v>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="H52" s="8">
+        <f t="shared" si="31"/>
+        <v>3.2000000000000028</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="7">
-        <v>8.8000000000000007</v>
+        <v>10.4</v>
       </c>
       <c r="N52" s="7">
-        <v>9.8000000000000007</v>
+        <v>10.1</v>
       </c>
       <c r="O52" s="7">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="P52" s="7">
-        <v>113</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="Q52" s="7">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="R52" s="13">
-        <f t="shared" si="31"/>
-        <v>19</v>
+        <f t="shared" si="32"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="R52" s="8">
+        <f t="shared" si="33"/>
+        <v>2.4000000000000057</v>
       </c>
       <c r="V52" s="6"/>
       <c r="W52" s="7">
-        <v>8.8000000000000007</v>
+        <v>10.4</v>
       </c>
       <c r="X52" s="7">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Y52" s="7">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="Z52" s="7">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA52" s="7">
-        <f t="shared" si="24"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="AB52" s="13">
-        <f t="shared" si="32"/>
-        <v>7</v>
+        <f t="shared" si="34"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="AB52" s="8">
+        <f t="shared" si="35"/>
+        <v>12</v>
       </c>
       <c r="AG52" s="6"/>
       <c r="AH52" s="7">
-        <v>8.8000000000000007</v>
+        <v>10.4</v>
       </c>
       <c r="AI52" s="7"/>
       <c r="AJ52" s="7">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AK52" s="7">
-        <v>165</v>
+        <v>82.3</v>
       </c>
       <c r="AL52" s="7">
-        <f t="shared" si="26"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AM52" s="13">
-        <f t="shared" si="33"/>
-        <v>71</v>
+        <f t="shared" si="36"/>
+        <v>10.4</v>
+      </c>
+      <c r="AM52" s="8">
+        <f t="shared" si="37"/>
+        <v>10.299999999999997</v>
       </c>
       <c r="AR52" s="6"/>
       <c r="AS52" s="7">
-        <v>8.8000000000000007</v>
+        <v>10.4</v>
       </c>
       <c r="AT52" s="7">
-        <v>9.1999999999999993</v>
+        <v>10.6</v>
       </c>
       <c r="AU52" s="7">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AV52" s="7">
-        <v>68.900000000000006</v>
+        <v>67</v>
       </c>
       <c r="AW52" s="7">
-        <f t="shared" si="28"/>
-        <v>0.39999999999999858</v>
-      </c>
-      <c r="AX52" s="13">
-        <f t="shared" si="34"/>
-        <v>25.099999999999994</v>
+        <f t="shared" si="38"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AX52" s="8">
+        <f t="shared" si="39"/>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C53" s="4">
-        <v>10.8</v>
+        <v>12.8</v>
       </c>
       <c r="D53" s="4">
-        <v>10.7</v>
+        <v>12.3</v>
       </c>
       <c r="E53" s="4">
         <v>95</v>
       </c>
       <c r="F53" s="4">
-        <v>68.7</v>
-      </c>
-      <c r="G53" s="4">
-        <f t="shared" si="20"/>
-        <v>0.10000000000000142</v>
-      </c>
-      <c r="H53" s="5">
+        <v>56.6</v>
+      </c>
+      <c r="G53">
         <f t="shared" si="30"/>
-        <v>26.299999999999997</v>
+        <v>0.5</v>
+      </c>
+      <c r="H53" s="13">
+        <f t="shared" si="31"/>
+        <v>38.4</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M53" s="4">
-        <v>10.8</v>
+        <v>12.8</v>
       </c>
       <c r="N53" s="4">
-        <v>10.1</v>
+        <v>12.9</v>
       </c>
       <c r="O53" s="4">
         <v>95</v>
       </c>
       <c r="P53" s="4">
-        <v>93.6</v>
-      </c>
-      <c r="Q53" s="4">
-        <f t="shared" si="22"/>
-        <v>0.70000000000000107</v>
-      </c>
-      <c r="R53" s="5">
-        <f t="shared" si="31"/>
-        <v>1.4000000000000057</v>
+        <v>50</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="R53" s="13">
+        <f t="shared" si="33"/>
+        <v>45</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W53" s="4">
-        <v>10.8</v>
+        <v>12.8</v>
       </c>
       <c r="X53" s="4">
-        <v>10.5</v>
+        <v>12.9</v>
       </c>
       <c r="Y53" s="4">
         <v>95</v>
       </c>
       <c r="Z53" s="4">
-        <v>88.5</v>
-      </c>
-      <c r="AA53" s="4">
-        <f t="shared" si="24"/>
-        <v>0.30000000000000071</v>
-      </c>
-      <c r="AB53" s="5">
-        <f t="shared" si="32"/>
-        <v>6.5</v>
+        <v>95.5</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="34"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="AB53" s="13">
+        <f t="shared" si="35"/>
+        <v>0.5</v>
       </c>
       <c r="AG53" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AH53" s="4">
-        <v>10.8</v>
+        <v>12.8</v>
       </c>
       <c r="AI53" s="4"/>
       <c r="AJ53" s="4">
         <v>95</v>
       </c>
       <c r="AK53" s="4">
-        <v>106.5</v>
-      </c>
-      <c r="AL53" s="4">
-        <f t="shared" si="26"/>
-        <v>10.8</v>
-      </c>
-      <c r="AM53" s="5">
-        <f t="shared" si="33"/>
-        <v>11.5</v>
+        <v>150</v>
+      </c>
+      <c r="AL53">
+        <f t="shared" si="36"/>
+        <v>12.8</v>
+      </c>
+      <c r="AM53" s="13">
+        <f t="shared" si="37"/>
+        <v>55</v>
       </c>
       <c r="AR53" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AS53" s="4">
-        <v>10.8</v>
+        <v>12.8</v>
       </c>
       <c r="AT53" s="4">
-        <v>10.6</v>
+        <v>12.4</v>
       </c>
       <c r="AU53" s="4">
         <v>95</v>
       </c>
       <c r="AV53" s="4">
-        <v>86.7</v>
-      </c>
-      <c r="AW53" s="4">
-        <f t="shared" si="28"/>
-        <v>0.20000000000000107</v>
-      </c>
-      <c r="AX53" s="5">
-        <f t="shared" si="34"/>
-        <v>8.2999999999999972</v>
+        <v>57.6</v>
+      </c>
+      <c r="AW53">
+        <f t="shared" si="38"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="AX53" s="13">
+        <f t="shared" si="39"/>
+        <v>37.4</v>
       </c>
     </row>
     <row r="54" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B54" s="12"/>
       <c r="C54">
-        <v>9.1999999999999993</v>
+        <v>10</v>
       </c>
       <c r="D54">
-        <v>8.9</v>
+        <v>10</v>
       </c>
       <c r="E54">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="F54">
-        <v>72.599999999999994</v>
+        <v>63.9</v>
       </c>
       <c r="G54">
-        <f t="shared" si="20"/>
-        <v>0.29999999999999893</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="H54" s="13">
-        <f t="shared" si="30"/>
-        <v>28.400000000000006</v>
+        <f t="shared" si="31"/>
+        <v>12.100000000000001</v>
       </c>
       <c r="L54" s="12"/>
       <c r="M54">
-        <v>9.1999999999999993</v>
+        <v>10</v>
       </c>
       <c r="N54">
-        <v>9.3000000000000007</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="O54">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="P54">
-        <v>50.5</v>
+        <v>58.4</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="22"/>
-        <v>0.10000000000000142</v>
+        <f t="shared" si="32"/>
+        <v>0.19999999999999929</v>
       </c>
       <c r="R54" s="13">
-        <f t="shared" si="31"/>
-        <v>50.5</v>
+        <f t="shared" si="33"/>
+        <v>17.600000000000001</v>
       </c>
       <c r="V54" s="12"/>
       <c r="W54">
-        <v>9.1999999999999993</v>
+        <v>10</v>
       </c>
       <c r="X54">
-        <v>8.1999999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="Y54">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="Z54">
-        <v>95.8</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="AA54">
-        <f t="shared" si="24"/>
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>0.5</v>
       </c>
       <c r="AB54" s="13">
-        <f t="shared" si="32"/>
-        <v>5.2000000000000028</v>
+        <f t="shared" si="35"/>
+        <v>4.5999999999999943</v>
       </c>
       <c r="AG54" s="12"/>
       <c r="AH54">
-        <v>9.1999999999999993</v>
+        <v>10</v>
       </c>
       <c r="AJ54">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AK54">
-        <v>64.3</v>
+        <v>61</v>
       </c>
       <c r="AL54">
-        <f t="shared" si="26"/>
-        <v>9.1999999999999993</v>
+        <f t="shared" si="36"/>
+        <v>10</v>
       </c>
       <c r="AM54" s="13">
-        <f t="shared" si="33"/>
-        <v>36.700000000000003</v>
+        <f t="shared" si="37"/>
+        <v>15</v>
       </c>
       <c r="AR54" s="12"/>
       <c r="AS54">
-        <v>9.1999999999999993</v>
+        <v>10</v>
       </c>
       <c r="AT54">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AU54">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AV54">
-        <v>64.3</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="AW54">
-        <f t="shared" si="28"/>
-        <v>0.59999999999999964</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="AX54" s="13">
-        <f t="shared" si="34"/>
-        <v>36.700000000000003</v>
+        <f t="shared" si="39"/>
+        <v>6.4000000000000057</v>
       </c>
     </row>
     <row r="55" spans="2:50" x14ac:dyDescent="0.25">
@@ -6667,249 +6701,1102 @@
         <v>10</v>
       </c>
       <c r="D55">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="E55">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F55">
-        <v>70.8</v>
+        <v>66</v>
       </c>
       <c r="G55">
-        <f t="shared" si="20"/>
-        <v>2.9000000000000004</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="H55" s="13">
-        <f t="shared" si="30"/>
-        <v>19.200000000000003</v>
+        <f t="shared" si="31"/>
+        <v>6</v>
       </c>
       <c r="L55" s="12"/>
       <c r="M55">
         <v>10</v>
       </c>
       <c r="N55">
-        <v>8.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="O55">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="P55">
-        <v>58.8</v>
+        <v>50.8</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="22"/>
-        <v>1.1999999999999993</v>
+        <f t="shared" si="32"/>
+        <v>0.5</v>
       </c>
       <c r="R55" s="13">
-        <f t="shared" si="31"/>
-        <v>31.200000000000003</v>
+        <f t="shared" si="33"/>
+        <v>21.200000000000003</v>
       </c>
       <c r="V55" s="12"/>
       <c r="W55">
         <v>10</v>
       </c>
       <c r="X55">
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="Y55">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="Z55">
-        <v>88.5</v>
+        <v>79.7</v>
       </c>
       <c r="AA55">
-        <f t="shared" si="24"/>
-        <v>3</v>
+        <f t="shared" si="34"/>
+        <v>0.59999999999999964</v>
       </c>
       <c r="AB55" s="13">
-        <f t="shared" si="32"/>
-        <v>1.5</v>
+        <f t="shared" si="35"/>
+        <v>7.7000000000000028</v>
       </c>
       <c r="AG55" s="12"/>
       <c r="AH55">
         <v>10</v>
       </c>
       <c r="AJ55">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AK55">
-        <v>102</v>
+        <v>72.7</v>
       </c>
       <c r="AL55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="AM55" s="13">
-        <f t="shared" si="33"/>
-        <v>12</v>
+        <f t="shared" si="37"/>
+        <v>0.70000000000000284</v>
       </c>
       <c r="AR55" s="12"/>
       <c r="AS55">
         <v>10</v>
       </c>
       <c r="AT55">
-        <v>6.6</v>
+        <v>9.6</v>
       </c>
       <c r="AU55">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AV55">
-        <v>75.599999999999994</v>
+        <v>57.3</v>
       </c>
       <c r="AW55">
-        <f t="shared" si="28"/>
-        <v>3.4000000000000004</v>
+        <f t="shared" si="38"/>
+        <v>0.40000000000000036</v>
       </c>
       <c r="AX55" s="13">
-        <f t="shared" si="34"/>
-        <v>14.400000000000006</v>
+        <f t="shared" si="39"/>
+        <v>14.700000000000003</v>
       </c>
     </row>
     <row r="56" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="7">
+        <v>10</v>
+      </c>
+      <c r="D56" s="7">
         <v>10.8</v>
       </c>
-      <c r="D56" s="7">
-        <v>8</v>
-      </c>
       <c r="E56" s="7">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F56" s="7">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="G56" s="7">
-        <f t="shared" si="20"/>
-        <v>2.8000000000000007</v>
-      </c>
-      <c r="H56" s="8">
         <f t="shared" si="30"/>
-        <v>10</v>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="H56" s="13">
+        <f t="shared" si="31"/>
+        <v>21</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="7">
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="N56" s="7">
-        <v>9.4</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="O56" s="7">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="P56" s="7">
-        <v>53.2</v>
+        <v>102</v>
       </c>
       <c r="Q56" s="7">
-        <f t="shared" si="22"/>
-        <v>1.4000000000000004</v>
-      </c>
-      <c r="R56" s="13">
-        <f t="shared" si="31"/>
-        <v>21.799999999999997</v>
+        <f t="shared" si="32"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="R56" s="8">
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="V56" s="6"/>
       <c r="W56" s="7">
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="X56" s="7">
-        <v>7.3</v>
+        <v>10</v>
       </c>
       <c r="Y56" s="7">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="Z56" s="7">
-        <v>86.1</v>
-      </c>
-      <c r="AA56" s="18">
-        <f t="shared" si="24"/>
-        <v>3.5000000000000009</v>
-      </c>
-      <c r="AB56" s="13">
-        <f t="shared" si="32"/>
-        <v>11.099999999999994</v>
+        <v>101</v>
+      </c>
+      <c r="AA56" s="7">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AB56" s="8">
+        <f t="shared" si="35"/>
+        <v>1</v>
       </c>
       <c r="AG56" s="6"/>
       <c r="AH56" s="7">
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="AI56" s="7"/>
       <c r="AJ56" s="7">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="AK56" s="7">
-        <v>181.5</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="AL56" s="7">
-        <f t="shared" si="26"/>
-        <v>10.8</v>
+        <f t="shared" si="36"/>
+        <v>10</v>
       </c>
       <c r="AM56" s="8">
-        <f t="shared" si="33"/>
-        <v>106.5</v>
+        <f t="shared" si="37"/>
+        <v>34.800000000000011</v>
       </c>
       <c r="AR56" s="6"/>
       <c r="AS56" s="7">
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="AT56" s="7">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AU56" s="7">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="AV56" s="7">
-        <v>89.8</v>
+        <v>84</v>
       </c>
       <c r="AW56" s="7">
-        <f t="shared" si="28"/>
-        <v>1.4000000000000004</v>
-      </c>
-      <c r="AX56" s="13">
-        <f t="shared" si="34"/>
-        <v>14.799999999999997</v>
+        <f t="shared" si="38"/>
+        <v>0.5</v>
+      </c>
+      <c r="AX56" s="8">
+        <f t="shared" si="39"/>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="G57">
-        <f>AVERAGE(G2:G56)</f>
-        <v>0.76545454545454539</v>
-      </c>
-      <c r="H57">
-        <f>AVERAGE(H2:H56)</f>
-        <v>13.83090909090909</v>
-      </c>
-      <c r="Q57">
-        <f>AVERAGE(Q2:Q56)</f>
-        <v>0.59636363636363654</v>
-      </c>
-      <c r="R57" s="4">
-        <f>AVERAGE(R2:R56)</f>
-        <v>20.798181818181821</v>
-      </c>
-      <c r="AA57">
-        <f>AVERAGE(AA2:AA56)</f>
-        <v>0.85272727272727311</v>
-      </c>
-      <c r="AB57" s="4">
-        <f>AVERAGE(AB2:AB56)</f>
-        <v>10.92181818181818</v>
-      </c>
-      <c r="AM57">
-        <f>AVERAGE(AM2:AM56)</f>
-        <v>39.629090909090905</v>
-      </c>
-      <c r="AW57">
-        <f>AVERAGE(AW2:AW56)</f>
-        <v>0.61163636363636376</v>
-      </c>
-      <c r="AX57" s="4">
-        <f>AVERAGE(AX2:AX56)</f>
-        <v>15.567272727272728</v>
+      <c r="B57" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="D57" s="4">
+        <v>10</v>
+      </c>
+      <c r="E57" s="4">
+        <v>91</v>
+      </c>
+      <c r="F57" s="4">
+        <v>68.8</v>
+      </c>
+      <c r="G57" s="4">
+        <f t="shared" si="30"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="H57" s="5">
+        <f>ABS(F57-E57)</f>
+        <v>22.200000000000003</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M57" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="N57" s="4">
+        <v>10</v>
+      </c>
+      <c r="O57" s="4">
+        <v>91</v>
+      </c>
+      <c r="P57" s="4">
+        <v>118.8</v>
+      </c>
+      <c r="Q57" s="4">
+        <f t="shared" si="32"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="R57" s="5">
+        <f>ABS(P57-O57)</f>
+        <v>27.799999999999997</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W57" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="X57" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y57" s="4">
+        <v>91</v>
+      </c>
+      <c r="Z57" s="4">
+        <v>81.2</v>
+      </c>
+      <c r="AA57" s="4">
+        <f t="shared" si="34"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="AB57" s="5">
+        <f>ABS(Z57-Y57)</f>
+        <v>9.7999999999999972</v>
+      </c>
+      <c r="AG57" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH57" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="AI57" s="4"/>
+      <c r="AJ57" s="4">
+        <v>91</v>
+      </c>
+      <c r="AK57" s="4">
+        <v>114.6</v>
+      </c>
+      <c r="AL57" s="4">
+        <f t="shared" si="36"/>
+        <v>10.8</v>
+      </c>
+      <c r="AM57" s="5">
+        <f>ABS(AK57-AJ57)</f>
+        <v>23.599999999999994</v>
+      </c>
+      <c r="AR57" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS57" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="AT57" s="4">
+        <v>10</v>
+      </c>
+      <c r="AU57" s="4">
+        <v>91</v>
+      </c>
+      <c r="AV57" s="4">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AW57" s="4">
+        <f t="shared" si="38"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="AX57" s="5">
+        <f>ABS(AV57-AU57)</f>
+        <v>26.599999999999994</v>
       </c>
     </row>
     <row r="58" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="AB58" s="19"/>
+      <c r="B58" s="12"/>
+      <c r="C58">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D58">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E58">
+        <v>94</v>
+      </c>
+      <c r="F58">
+        <v>69.3</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="30"/>
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="H58" s="13">
+        <f t="shared" ref="H58:H64" si="40">ABS(F58-E58)</f>
+        <v>24.700000000000003</v>
+      </c>
+      <c r="L58" s="12"/>
+      <c r="M58">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N58">
+        <v>9.4</v>
+      </c>
+      <c r="O58">
+        <v>94</v>
+      </c>
+      <c r="P58">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="32"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="R58" s="13">
+        <f t="shared" ref="R58:R64" si="41">ABS(P58-O58)</f>
+        <v>17.599999999999994</v>
+      </c>
+      <c r="V58" s="12"/>
+      <c r="W58">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="X58">
+        <v>7.3</v>
+      </c>
+      <c r="Y58">
+        <v>94</v>
+      </c>
+      <c r="Z58">
+        <v>83.5</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="34"/>
+        <v>1.5000000000000009</v>
+      </c>
+      <c r="AB58" s="13">
+        <f t="shared" ref="AB58:AB64" si="42">ABS(Z58-Y58)</f>
+        <v>10.5</v>
+      </c>
+      <c r="AG58" s="12"/>
+      <c r="AH58">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AJ58">
+        <v>94</v>
+      </c>
+      <c r="AK58">
+        <v>74.5</v>
+      </c>
+      <c r="AL58">
+        <f t="shared" si="36"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AM58" s="13">
+        <f t="shared" ref="AM58:AM64" si="43">ABS(AK58-AJ58)</f>
+        <v>19.5</v>
+      </c>
+      <c r="AR58" s="12"/>
+      <c r="AS58">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AT58">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AU58">
+        <v>94</v>
+      </c>
+      <c r="AV58">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="AW58">
+        <f>ABS(AS58-AT58)</f>
+        <v>0</v>
+      </c>
+      <c r="AX58" s="13">
+        <f t="shared" ref="AX58:AX64" si="44">ABS(AV58-AU58)</f>
+        <v>15.099999999999994</v>
+      </c>
+    </row>
+    <row r="59" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B59" s="12"/>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>9.5</v>
+      </c>
+      <c r="E59">
+        <v>76</v>
+      </c>
+      <c r="F59">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="30"/>
+        <v>0.5</v>
+      </c>
+      <c r="H59" s="13">
+        <f t="shared" si="40"/>
+        <v>2.4000000000000057</v>
+      </c>
+      <c r="L59" s="12"/>
+      <c r="M59">
+        <v>10</v>
+      </c>
+      <c r="N59">
+        <v>9.6</v>
+      </c>
+      <c r="O59">
+        <v>76</v>
+      </c>
+      <c r="P59">
+        <v>85.6</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="32"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="R59" s="13">
+        <f t="shared" si="41"/>
+        <v>9.5999999999999943</v>
+      </c>
+      <c r="V59" s="12"/>
+      <c r="W59">
+        <v>10</v>
+      </c>
+      <c r="X59">
+        <v>9</v>
+      </c>
+      <c r="Y59">
+        <v>76</v>
+      </c>
+      <c r="Z59">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AB59" s="13">
+        <f t="shared" si="42"/>
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="AG59" s="12"/>
+      <c r="AH59">
+        <v>10</v>
+      </c>
+      <c r="AJ59">
+        <v>76</v>
+      </c>
+      <c r="AK59">
+        <v>172</v>
+      </c>
+      <c r="AL59">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="AM59" s="13">
+        <f t="shared" si="43"/>
+        <v>96</v>
+      </c>
+      <c r="AR59" s="12"/>
+      <c r="AS59">
+        <v>10</v>
+      </c>
+      <c r="AT59">
+        <v>10.15</v>
+      </c>
+      <c r="AU59">
+        <v>76</v>
+      </c>
+      <c r="AV59">
+        <v>89.7</v>
+      </c>
+      <c r="AW59">
+        <f>ABS(AS59-AT59)</f>
+        <v>0.15000000000000036</v>
+      </c>
+      <c r="AX59" s="13">
+        <f t="shared" si="44"/>
+        <v>13.700000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B60" s="6"/>
+      <c r="C60" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D60" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E60" s="7">
+        <v>94</v>
+      </c>
+      <c r="F60" s="7">
+        <v>83.2</v>
+      </c>
+      <c r="G60" s="7">
+        <f t="shared" si="30"/>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="H60" s="13">
+        <f t="shared" si="40"/>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="L60" s="6"/>
+      <c r="M60" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N60" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O60" s="7">
+        <v>94</v>
+      </c>
+      <c r="P60" s="7">
+        <v>113</v>
+      </c>
+      <c r="Q60" s="7">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="R60" s="13">
+        <f t="shared" si="41"/>
+        <v>19</v>
+      </c>
+      <c r="V60" s="6"/>
+      <c r="W60" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="X60" s="7">
+        <v>9</v>
+      </c>
+      <c r="Y60" s="7">
+        <v>94</v>
+      </c>
+      <c r="Z60" s="7">
+        <v>87</v>
+      </c>
+      <c r="AA60" s="7">
+        <f t="shared" si="34"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AB60" s="13">
+        <f t="shared" si="42"/>
+        <v>7</v>
+      </c>
+      <c r="AG60" s="6"/>
+      <c r="AH60" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AI60" s="7"/>
+      <c r="AJ60" s="7">
+        <v>94</v>
+      </c>
+      <c r="AK60" s="7">
+        <v>165</v>
+      </c>
+      <c r="AL60" s="7">
+        <f t="shared" si="36"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AM60" s="13">
+        <f t="shared" si="43"/>
+        <v>71</v>
+      </c>
+      <c r="AR60" s="6"/>
+      <c r="AS60" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AT60" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AU60" s="7">
+        <v>94</v>
+      </c>
+      <c r="AV60" s="7">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="AW60" s="7">
+        <f t="shared" si="38"/>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="AX60" s="13">
+        <f t="shared" si="44"/>
+        <v>25.099999999999994</v>
+      </c>
+    </row>
+    <row r="61" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="D61" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="E61" s="4">
+        <v>95</v>
+      </c>
+      <c r="F61" s="4">
+        <v>68.7</v>
+      </c>
+      <c r="G61" s="4">
+        <f t="shared" si="30"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="H61" s="5">
+        <f t="shared" si="40"/>
+        <v>26.299999999999997</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M61" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="N61" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="O61" s="4">
+        <v>95</v>
+      </c>
+      <c r="P61" s="4">
+        <v>93.6</v>
+      </c>
+      <c r="Q61" s="4">
+        <f t="shared" si="32"/>
+        <v>0.70000000000000107</v>
+      </c>
+      <c r="R61" s="5">
+        <f t="shared" si="41"/>
+        <v>1.4000000000000057</v>
+      </c>
+      <c r="V61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W61" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="X61" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="Y61" s="4">
+        <v>95</v>
+      </c>
+      <c r="Z61" s="4">
+        <v>88.5</v>
+      </c>
+      <c r="AA61" s="4">
+        <f t="shared" si="34"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="AB61" s="5">
+        <f t="shared" si="42"/>
+        <v>6.5</v>
+      </c>
+      <c r="AG61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH61" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="AI61" s="4"/>
+      <c r="AJ61" s="4">
+        <v>95</v>
+      </c>
+      <c r="AK61" s="4">
+        <v>106.5</v>
+      </c>
+      <c r="AL61" s="4">
+        <f t="shared" si="36"/>
+        <v>10.8</v>
+      </c>
+      <c r="AM61" s="5">
+        <f t="shared" si="43"/>
+        <v>11.5</v>
+      </c>
+      <c r="AR61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS61" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="AT61" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="AU61" s="4">
+        <v>95</v>
+      </c>
+      <c r="AV61" s="4">
+        <v>86.7</v>
+      </c>
+      <c r="AW61" s="4">
+        <f t="shared" si="38"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="AX61" s="5">
+        <f t="shared" si="44"/>
+        <v>8.2999999999999972</v>
+      </c>
+    </row>
+    <row r="62" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B62" s="12"/>
+      <c r="C62">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D62">
+        <v>8.9</v>
+      </c>
+      <c r="E62">
+        <v>101</v>
+      </c>
+      <c r="F62">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="30"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="H62" s="13">
+        <f t="shared" si="40"/>
+        <v>28.400000000000006</v>
+      </c>
+      <c r="L62" s="12"/>
+      <c r="M62">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N62">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O62">
+        <v>101</v>
+      </c>
+      <c r="P62">
+        <v>50.5</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="32"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="R62" s="13">
+        <f t="shared" si="41"/>
+        <v>50.5</v>
+      </c>
+      <c r="V62" s="12"/>
+      <c r="W62">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="X62">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Y62">
+        <v>101</v>
+      </c>
+      <c r="Z62">
+        <v>95.8</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AB62" s="13">
+        <f t="shared" si="42"/>
+        <v>5.2000000000000028</v>
+      </c>
+      <c r="AG62" s="12"/>
+      <c r="AH62">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AJ62">
+        <v>101</v>
+      </c>
+      <c r="AK62">
+        <v>64.3</v>
+      </c>
+      <c r="AL62">
+        <f t="shared" si="36"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AM62" s="13">
+        <f t="shared" si="43"/>
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AR62" s="12"/>
+      <c r="AS62">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AT62">
+        <v>8.6</v>
+      </c>
+      <c r="AU62">
+        <v>101</v>
+      </c>
+      <c r="AV62">
+        <v>64.3</v>
+      </c>
+      <c r="AW62">
+        <f t="shared" si="38"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="AX62" s="13">
+        <f t="shared" si="44"/>
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B63" s="12"/>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>7.1</v>
+      </c>
+      <c r="E63">
+        <v>90</v>
+      </c>
+      <c r="F63">
+        <v>70.8</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="30"/>
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="H63" s="13">
+        <f t="shared" si="40"/>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="L63" s="12"/>
+      <c r="M63">
+        <v>10</v>
+      </c>
+      <c r="N63">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O63">
+        <v>90</v>
+      </c>
+      <c r="P63">
+        <v>58.8</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="32"/>
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="R63" s="13">
+        <f t="shared" si="41"/>
+        <v>31.200000000000003</v>
+      </c>
+      <c r="V63" s="12"/>
+      <c r="W63">
+        <v>10</v>
+      </c>
+      <c r="X63">
+        <v>7</v>
+      </c>
+      <c r="Y63">
+        <v>90</v>
+      </c>
+      <c r="Z63">
+        <v>88.5</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="AB63" s="13">
+        <f t="shared" si="42"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG63" s="12"/>
+      <c r="AH63">
+        <v>10</v>
+      </c>
+      <c r="AJ63">
+        <v>90</v>
+      </c>
+      <c r="AK63">
+        <v>102</v>
+      </c>
+      <c r="AL63">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="AM63" s="13">
+        <f t="shared" si="43"/>
+        <v>12</v>
+      </c>
+      <c r="AR63" s="12"/>
+      <c r="AS63">
+        <v>10</v>
+      </c>
+      <c r="AT63">
+        <v>6.6</v>
+      </c>
+      <c r="AU63">
+        <v>90</v>
+      </c>
+      <c r="AV63">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="AW63">
+        <f t="shared" si="38"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="AX63" s="13">
+        <f t="shared" si="44"/>
+        <v>14.400000000000006</v>
+      </c>
+    </row>
+    <row r="64" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B64" s="6"/>
+      <c r="C64" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="D64" s="7">
+        <v>8</v>
+      </c>
+      <c r="E64" s="7">
+        <v>75</v>
+      </c>
+      <c r="F64" s="7">
+        <v>65</v>
+      </c>
+      <c r="G64" s="7">
+        <f t="shared" si="30"/>
+        <v>2.8000000000000007</v>
+      </c>
+      <c r="H64" s="8">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="L64" s="6"/>
+      <c r="M64" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="N64" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="O64" s="7">
+        <v>75</v>
+      </c>
+      <c r="P64" s="7">
+        <v>53.2</v>
+      </c>
+      <c r="Q64" s="7">
+        <f t="shared" si="32"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="R64" s="13">
+        <f t="shared" si="41"/>
+        <v>21.799999999999997</v>
+      </c>
+      <c r="V64" s="6"/>
+      <c r="W64" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="X64" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="Y64" s="7">
+        <v>75</v>
+      </c>
+      <c r="Z64" s="7">
+        <v>86.1</v>
+      </c>
+      <c r="AA64" s="7">
+        <f t="shared" si="34"/>
+        <v>3.5000000000000009</v>
+      </c>
+      <c r="AB64" s="13">
+        <f t="shared" si="42"/>
+        <v>11.099999999999994</v>
+      </c>
+      <c r="AG64" s="6"/>
+      <c r="AH64" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="AI64" s="7"/>
+      <c r="AJ64" s="7">
+        <v>75</v>
+      </c>
+      <c r="AK64" s="7">
+        <v>181.5</v>
+      </c>
+      <c r="AL64" s="7">
+        <f t="shared" si="36"/>
+        <v>10.8</v>
+      </c>
+      <c r="AM64" s="8">
+        <f t="shared" si="43"/>
+        <v>106.5</v>
+      </c>
+      <c r="AR64" s="6"/>
+      <c r="AS64" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="AT64" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="AU64" s="7">
+        <v>75</v>
+      </c>
+      <c r="AV64" s="7">
+        <v>89.8</v>
+      </c>
+      <c r="AW64" s="7">
+        <f t="shared" si="38"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="AX64" s="13">
+        <f t="shared" si="44"/>
+        <v>14.799999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="7:50" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <f>AVERAGE(G2:G64)</f>
+        <v>0.7587301587301587</v>
+      </c>
+      <c r="H65">
+        <f>AVERAGE(H2:H64)</f>
+        <v>13.374603174603177</v>
+      </c>
+      <c r="Q65">
+        <f>AVERAGE(Q2:Q64)</f>
+        <v>0.65873015873015883</v>
+      </c>
+      <c r="R65" s="4">
+        <f>AVERAGE(R2:R64)</f>
+        <v>19.652380952380952</v>
+      </c>
+      <c r="AA65">
+        <f>AVERAGE(AA2:AA64)</f>
+        <v>0.85238095238095246</v>
+      </c>
+      <c r="AB65" s="4">
+        <f>AVERAGE(AB2:AB64)</f>
+        <v>11.047619047619049</v>
+      </c>
+      <c r="AM65">
+        <f>AVERAGE(AM2:AM64)</f>
+        <v>41.614285714285721</v>
+      </c>
+      <c r="AW65">
+        <f>AVERAGE(AW2:AW64)</f>
+        <v>0.64984126984126989</v>
+      </c>
+      <c r="AX65" s="4">
+        <f>AVERAGE(AX2:AX64)</f>
+        <v>14.942857142857145</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402CCC3B-BDDB-4D07-AE05-DAFB5F723C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DF6341-4362-4C2F-BB8C-484852C0235E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="94">
   <si>
     <t>yosef</t>
   </si>
@@ -307,6 +307,18 @@
   <si>
     <t>x-x-x-christian10</t>
   </si>
+  <si>
+    <t>yosef-muhamad-michael</t>
+  </si>
+  <si>
+    <t>yosef-muhamad-michael2</t>
+  </si>
+  <si>
+    <t>yosef-muhamad-michael3</t>
+  </si>
+  <si>
+    <t>yosef-muhamad-michael4</t>
+  </si>
 </sst>
 </file>
 
@@ -513,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -532,6 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -812,23 +825,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX113"/>
+  <dimension ref="A1:AX125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AK52" sqref="AK52"/>
+    <sheetView tabSelected="1" topLeftCell="AB103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="30" customWidth="1"/>
+    <col min="12" max="12" width="31.140625" customWidth="1"/>
     <col min="18" max="18" width="8.7109375" customWidth="1"/>
     <col min="21" max="21" width="16" customWidth="1"/>
-    <col min="22" max="22" width="29.85546875" customWidth="1"/>
+    <col min="22" max="22" width="31.28515625" customWidth="1"/>
     <col min="24" max="24" width="9" customWidth="1"/>
     <col min="28" max="28" width="9.140625" customWidth="1"/>
     <col min="32" max="32" width="8" customWidth="1"/>
@@ -10382,11 +10395,11 @@
         <v>95.7</v>
       </c>
       <c r="G85" s="4">
-        <f t="shared" ref="G85:G112" si="40">ABS(C85-D85)</f>
+        <f t="shared" ref="G85:G108" si="40">ABS(C85-D85)</f>
         <v>0.40000000000000036</v>
       </c>
       <c r="H85" s="5">
-        <f t="shared" ref="H85:H104" si="41">ABS(E85-F85)</f>
+        <f t="shared" ref="H85:H108" si="41">ABS(E85-F85)</f>
         <v>2.7000000000000028</v>
       </c>
       <c r="L85" s="3" t="s">
@@ -10405,11 +10418,11 @@
         <v>106</v>
       </c>
       <c r="Q85" s="4">
-        <f t="shared" ref="Q85:Q112" si="42">ABS(M85-N85)</f>
+        <f t="shared" ref="Q85:Q108" si="42">ABS(M85-N85)</f>
         <v>0.80000000000000071</v>
       </c>
       <c r="R85" s="5">
-        <f t="shared" ref="R85:R104" si="43">ABS(O85-P85)</f>
+        <f t="shared" ref="R85:R108" si="43">ABS(O85-P85)</f>
         <v>13</v>
       </c>
       <c r="V85" s="3" t="s">
@@ -10428,11 +10441,11 @@
         <v>106.6</v>
       </c>
       <c r="AA85" s="4">
-        <f t="shared" ref="AA85:AA112" si="44">ABS(W85-X85)</f>
+        <f t="shared" ref="AA85:AA108" si="44">ABS(W85-X85)</f>
         <v>0.80000000000000071</v>
       </c>
       <c r="AB85" s="5">
-        <f t="shared" ref="AB85:AB104" si="45">ABS(Y85-Z85)</f>
+        <f t="shared" ref="AB85:AB108" si="45">ABS(Y85-Z85)</f>
         <v>13.599999999999994</v>
       </c>
       <c r="AG85" s="3" t="s">
@@ -10449,11 +10462,11 @@
         <v>133</v>
       </c>
       <c r="AL85" s="4">
-        <f t="shared" ref="AL85:AL112" si="46">ABS(AH85-AI85)</f>
+        <f t="shared" ref="AL85:AL108" si="46">ABS(AH85-AI85)</f>
         <v>16</v>
       </c>
       <c r="AM85" s="5">
-        <f t="shared" ref="AM85:AM104" si="47">ABS(AJ85-AK85)</f>
+        <f t="shared" ref="AM85:AM108" si="47">ABS(AJ85-AK85)</f>
         <v>40</v>
       </c>
       <c r="AR85" s="3" t="s">
@@ -10472,11 +10485,11 @@
         <v>107.3</v>
       </c>
       <c r="AW85" s="4">
-        <f t="shared" ref="AW85:AW112" si="48">ABS(AS85-AT85)</f>
+        <f t="shared" ref="AW85:AW108" si="48">ABS(AS85-AT85)</f>
         <v>0.80000000000000071</v>
       </c>
       <c r="AX85" s="5">
-        <f t="shared" ref="AX85:AX104" si="49">ABS(AU85-AV85)</f>
+        <f t="shared" ref="AX85:AX108" si="49">ABS(AU85-AV85)</f>
         <v>14.299999999999997</v>
       </c>
     </row>
@@ -11569,11 +11582,11 @@
       <c r="F96" s="7">
         <v>71</v>
       </c>
-      <c r="G96" s="7">
+      <c r="G96">
         <f t="shared" si="40"/>
         <v>0.80000000000000071</v>
       </c>
-      <c r="H96" s="8">
+      <c r="H96" s="13">
         <f t="shared" si="41"/>
         <v>20</v>
       </c>
@@ -11662,1752 +11675,3048 @@
     </row>
     <row r="97" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C97" s="4">
-        <v>11.6</v>
+        <v>8</v>
       </c>
       <c r="D97" s="4">
-        <v>11.4</v>
+        <v>8</v>
       </c>
       <c r="E97" s="4">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F97" s="4">
-        <v>66.3</v>
+        <v>66.8</v>
       </c>
       <c r="G97" s="4">
         <f t="shared" si="40"/>
-        <v>0.19999999999999929</v>
+        <v>0</v>
       </c>
       <c r="H97" s="5">
         <f t="shared" si="41"/>
-        <v>25.700000000000003</v>
+        <v>23.200000000000003</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="M97" s="4">
-        <v>11.6</v>
+        <v>8</v>
       </c>
       <c r="N97" s="4">
-        <v>10.7</v>
+        <v>9.5</v>
       </c>
       <c r="O97" s="4">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P97" s="4">
-        <v>49.2</v>
+        <v>60.4</v>
       </c>
       <c r="Q97" s="4">
         <f t="shared" si="42"/>
-        <v>0.90000000000000036</v>
+        <v>1.5</v>
       </c>
       <c r="R97" s="5">
         <f t="shared" si="43"/>
-        <v>42.8</v>
+        <v>29.6</v>
       </c>
       <c r="V97" s="3" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="W97" s="4">
-        <v>11.6</v>
+        <v>8</v>
       </c>
       <c r="X97" s="4">
-        <v>11.7</v>
+        <v>7</v>
       </c>
       <c r="Y97" s="4">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Z97" s="4">
-        <v>83.2</v>
+        <v>95.8</v>
       </c>
       <c r="AA97" s="4">
         <f t="shared" si="44"/>
-        <v>9.9999999999999645E-2</v>
+        <v>1</v>
       </c>
       <c r="AB97" s="5">
         <f t="shared" si="45"/>
-        <v>8.7999999999999972</v>
+        <v>5.7999999999999972</v>
       </c>
       <c r="AG97" s="3" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AH97" s="4">
-        <v>11.6</v>
+        <v>8</v>
       </c>
       <c r="AI97" s="4"/>
       <c r="AJ97" s="4">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AK97" s="4">
-        <v>234</v>
+        <v>67.3</v>
       </c>
       <c r="AL97" s="4">
         <f t="shared" si="46"/>
-        <v>11.6</v>
+        <v>8</v>
       </c>
       <c r="AM97" s="5">
         <f t="shared" si="47"/>
-        <v>142</v>
+        <v>22.700000000000003</v>
       </c>
       <c r="AR97" s="3" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AS97" s="4">
-        <v>11.6</v>
+        <v>8</v>
       </c>
       <c r="AT97" s="4">
-        <v>11.4</v>
+        <v>8.5</v>
       </c>
       <c r="AU97" s="4">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AV97" s="4">
-        <v>62.9</v>
+        <v>62</v>
       </c>
       <c r="AW97" s="4">
         <f t="shared" si="48"/>
-        <v>0.19999999999999929</v>
+        <v>0.5</v>
       </c>
       <c r="AX97" s="5">
         <f t="shared" si="49"/>
-        <v>29.1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B98" s="12"/>
       <c r="C98">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="D98">
-        <v>8.1999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E98">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F98">
-        <v>69.400000000000006</v>
+        <v>67</v>
       </c>
       <c r="G98">
         <f t="shared" si="40"/>
-        <v>1.8000000000000007</v>
+        <v>0.79999999999999893</v>
       </c>
       <c r="H98" s="13">
         <f t="shared" si="41"/>
-        <v>1.5999999999999943</v>
+        <v>0</v>
       </c>
       <c r="L98" s="12"/>
       <c r="M98">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="N98">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="O98">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P98">
-        <v>54</v>
+        <v>48.8</v>
       </c>
       <c r="Q98">
         <f t="shared" si="42"/>
-        <v>0.59999999999999964</v>
+        <v>0</v>
       </c>
       <c r="R98" s="13">
         <f t="shared" si="43"/>
-        <v>17</v>
+        <v>18.200000000000003</v>
       </c>
       <c r="V98" s="12"/>
       <c r="W98">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="X98">
-        <v>8.1999999999999993</v>
+        <v>9.4</v>
       </c>
       <c r="Y98">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Z98">
-        <v>96.7</v>
+        <v>83.8</v>
       </c>
       <c r="AA98">
         <f t="shared" si="44"/>
-        <v>1.8000000000000007</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AB98" s="13">
         <f t="shared" si="45"/>
-        <v>25.700000000000003</v>
+        <v>16.799999999999997</v>
       </c>
       <c r="AG98" s="12"/>
       <c r="AH98">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AJ98">
-        <v>71</v>
-      </c>
-      <c r="AK98">
-        <v>139</v>
+        <v>67</v>
+      </c>
+      <c r="AK98" s="18">
+        <v>155</v>
       </c>
       <c r="AL98">
         <f t="shared" si="46"/>
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AM98" s="13">
         <f t="shared" si="47"/>
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="AR98" s="12"/>
       <c r="AS98">
-        <v>10</v>
-      </c>
-      <c r="AT98">
-        <v>8</v>
+        <v>9.6</v>
+      </c>
+      <c r="AT98" s="18">
+        <v>9.1999999999999993</v>
       </c>
       <c r="AU98">
-        <v>71</v>
-      </c>
-      <c r="AV98">
-        <v>63.2</v>
+        <v>67</v>
+      </c>
+      <c r="AV98" s="18">
+        <v>69.400000000000006</v>
       </c>
       <c r="AW98">
         <f t="shared" si="48"/>
-        <v>2</v>
+        <v>0.40000000000000036</v>
       </c>
       <c r="AX98" s="13">
         <f t="shared" si="49"/>
-        <v>7.7999999999999972</v>
+        <v>2.4000000000000057</v>
       </c>
     </row>
     <row r="99" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B99" s="12"/>
-      <c r="C99">
-        <v>11.2</v>
-      </c>
-      <c r="D99">
+      <c r="B99" s="6"/>
+      <c r="C99" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="D99" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="E99" s="7">
+        <v>104</v>
+      </c>
+      <c r="F99" s="7">
+        <v>93</v>
+      </c>
+      <c r="G99" s="7">
+        <f t="shared" si="40"/>
+        <v>2.3000000000000007</v>
+      </c>
+      <c r="H99" s="8">
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
-      <c r="E99">
-        <v>105</v>
-      </c>
-      <c r="F99">
-        <v>62</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="40"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="H99" s="13">
-        <f t="shared" si="41"/>
-        <v>43</v>
-      </c>
-      <c r="L99" s="12"/>
-      <c r="M99">
-        <v>11.2</v>
-      </c>
-      <c r="N99">
-        <v>10.4</v>
-      </c>
-      <c r="O99">
-        <v>105</v>
-      </c>
-      <c r="P99">
-        <v>62.8</v>
-      </c>
-      <c r="Q99">
+      <c r="L99" s="6"/>
+      <c r="M99" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="N99" s="7">
+        <v>10</v>
+      </c>
+      <c r="O99" s="7">
+        <v>104</v>
+      </c>
+      <c r="P99" s="7">
+        <v>103.6</v>
+      </c>
+      <c r="Q99" s="7">
         <f t="shared" si="42"/>
-        <v>0.79999999999999893</v>
-      </c>
-      <c r="R99" s="13">
+        <v>2.8000000000000007</v>
+      </c>
+      <c r="R99" s="8">
         <f t="shared" si="43"/>
-        <v>42.2</v>
-      </c>
-      <c r="V99" s="12"/>
-      <c r="W99">
-        <v>11.2</v>
-      </c>
-      <c r="X99">
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="V99" s="6"/>
+      <c r="W99" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="X99" s="7">
         <v>10.5</v>
       </c>
-      <c r="Y99">
-        <v>105</v>
-      </c>
-      <c r="Z99">
-        <v>85</v>
-      </c>
-      <c r="AA99">
+      <c r="Y99" s="7">
+        <v>104</v>
+      </c>
+      <c r="Z99" s="7">
+        <v>96.7</v>
+      </c>
+      <c r="AA99" s="7">
         <f t="shared" si="44"/>
-        <v>0.69999999999999929</v>
-      </c>
-      <c r="AB99" s="13">
+        <v>2.3000000000000007</v>
+      </c>
+      <c r="AB99" s="8">
         <f t="shared" si="45"/>
-        <v>20</v>
-      </c>
-      <c r="AG99" s="12"/>
-      <c r="AH99">
-        <v>11.2</v>
-      </c>
-      <c r="AJ99">
-        <v>105</v>
-      </c>
-      <c r="AK99">
-        <v>69.5</v>
-      </c>
-      <c r="AL99">
+        <v>7.2999999999999972</v>
+      </c>
+      <c r="AG99" s="6"/>
+      <c r="AH99" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="AI99" s="7"/>
+      <c r="AJ99" s="7">
+        <v>104</v>
+      </c>
+      <c r="AK99" s="7">
+        <v>103.3</v>
+      </c>
+      <c r="AL99" s="7">
         <f t="shared" si="46"/>
-        <v>11.2</v>
-      </c>
-      <c r="AM99" s="13">
+        <v>12.8</v>
+      </c>
+      <c r="AM99" s="8">
         <f t="shared" si="47"/>
-        <v>35.5</v>
-      </c>
-      <c r="AR99" s="12"/>
-      <c r="AS99">
-        <v>11.2</v>
-      </c>
-      <c r="AT99">
-        <v>11.4</v>
-      </c>
-      <c r="AU99">
-        <v>105</v>
-      </c>
-      <c r="AV99">
-        <v>59.3</v>
-      </c>
-      <c r="AW99">
+        <v>0.70000000000000284</v>
+      </c>
+      <c r="AR99" s="6"/>
+      <c r="AS99" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="AT99" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="AU99" s="7">
+        <v>104</v>
+      </c>
+      <c r="AV99" s="7">
+        <v>90.2</v>
+      </c>
+      <c r="AW99" s="7">
         <f t="shared" si="48"/>
-        <v>0.20000000000000107</v>
-      </c>
-      <c r="AX99" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AX99" s="8">
         <f t="shared" si="49"/>
-        <v>45.7</v>
+        <v>13.799999999999997</v>
       </c>
     </row>
     <row r="100" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B100" s="6"/>
-      <c r="C100" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="D100" s="7">
-        <v>10.7</v>
-      </c>
-      <c r="E100" s="7">
+      <c r="B100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" s="4">
+        <v>8</v>
+      </c>
+      <c r="D100" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="E100" s="4">
+        <v>99</v>
+      </c>
+      <c r="F100" s="4">
+        <v>87.8</v>
+      </c>
+      <c r="G100" s="4">
+        <f t="shared" si="40"/>
+        <v>0.5</v>
+      </c>
+      <c r="H100" s="5">
+        <f t="shared" si="41"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M100" s="4">
+        <v>8</v>
+      </c>
+      <c r="N100" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="O100" s="4">
+        <v>99</v>
+      </c>
+      <c r="P100" s="4">
+        <v>93.2</v>
+      </c>
+      <c r="Q100" s="4">
+        <f t="shared" si="42"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="R100" s="5">
+        <f t="shared" si="43"/>
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="W100" s="4">
+        <v>8</v>
+      </c>
+      <c r="X100" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="Y100" s="4">
+        <v>99</v>
+      </c>
+      <c r="Z100" s="4">
+        <v>89.9</v>
+      </c>
+      <c r="AA100" s="4">
+        <f t="shared" si="44"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="AB100" s="5">
+        <f t="shared" si="45"/>
+        <v>9.0999999999999943</v>
+      </c>
+      <c r="AG100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH100" s="4">
+        <v>8</v>
+      </c>
+      <c r="AI100" s="4"/>
+      <c r="AJ100" s="4">
+        <v>99</v>
+      </c>
+      <c r="AK100" s="4">
+        <v>93</v>
+      </c>
+      <c r="AL100" s="4">
+        <f t="shared" si="46"/>
+        <v>8</v>
+      </c>
+      <c r="AM100" s="5">
+        <f t="shared" si="47"/>
+        <v>6</v>
+      </c>
+      <c r="AR100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS100" s="4">
+        <v>8</v>
+      </c>
+      <c r="AT100" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AU100" s="4">
+        <v>99</v>
+      </c>
+      <c r="AV100" s="4">
+        <v>95.3</v>
+      </c>
+      <c r="AW100" s="4">
+        <f t="shared" si="48"/>
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="AX100" s="5">
+        <f t="shared" si="49"/>
+        <v>3.7000000000000028</v>
+      </c>
+    </row>
+    <row r="101" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B101" s="12"/>
+      <c r="C101">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D101">
+        <v>8.6</v>
+      </c>
+      <c r="E101">
+        <v>69</v>
+      </c>
+      <c r="F101">
+        <v>82.1</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="40"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="H101" s="13">
+        <f t="shared" si="41"/>
+        <v>13.099999999999994</v>
+      </c>
+      <c r="L101" s="12"/>
+      <c r="M101">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N101">
+        <v>9.5</v>
+      </c>
+      <c r="O101">
+        <v>69</v>
+      </c>
+      <c r="P101">
+        <v>55.2</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="42"/>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="R101" s="13">
+        <f t="shared" si="43"/>
+        <v>13.799999999999997</v>
+      </c>
+      <c r="V101" s="12"/>
+      <c r="W101">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="X101">
+        <v>8.5</v>
+      </c>
+      <c r="Y101">
+        <v>69</v>
+      </c>
+      <c r="Z101">
+        <v>102</v>
+      </c>
+      <c r="AA101">
+        <f t="shared" si="44"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="AB101" s="13">
+        <f t="shared" si="45"/>
+        <v>33</v>
+      </c>
+      <c r="AG101" s="12"/>
+      <c r="AH101">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AJ101">
+        <v>69</v>
+      </c>
+      <c r="AK101" s="18">
+        <v>123.3</v>
+      </c>
+      <c r="AL101">
+        <f t="shared" si="46"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AM101" s="13">
+        <f t="shared" si="47"/>
+        <v>54.3</v>
+      </c>
+      <c r="AR101" s="12"/>
+      <c r="AS101">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AT101" s="18">
+        <v>9</v>
+      </c>
+      <c r="AU101">
+        <v>69</v>
+      </c>
+      <c r="AV101" s="18">
+        <v>63.2</v>
+      </c>
+      <c r="AW101">
+        <f t="shared" si="48"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AX101" s="13">
+        <f t="shared" si="49"/>
+        <v>5.7999999999999972</v>
+      </c>
+    </row>
+    <row r="102" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B102" s="6"/>
+      <c r="C102" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="D102" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="E102" s="7">
+        <v>100</v>
+      </c>
+      <c r="F102" s="7">
+        <v>85</v>
+      </c>
+      <c r="G102" s="7">
+        <f t="shared" si="40"/>
+        <v>0.70000000000000107</v>
+      </c>
+      <c r="H102" s="8">
+        <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="L102" s="6"/>
+      <c r="M102" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="N102" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="O102" s="7">
+        <v>100</v>
+      </c>
+      <c r="P102" s="7">
+        <v>100.4</v>
+      </c>
+      <c r="Q102" s="7">
+        <f t="shared" si="42"/>
+        <v>0.70000000000000107</v>
+      </c>
+      <c r="R102" s="8">
+        <f>ABS(O102-P102)</f>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="V102" s="6"/>
+      <c r="W102" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="X102" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="Y102" s="7">
+        <v>100</v>
+      </c>
+      <c r="Z102" s="7">
+        <v>93.2</v>
+      </c>
+      <c r="AA102" s="7">
+        <f t="shared" si="44"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="AB102" s="8">
+        <f t="shared" si="45"/>
+        <v>6.7999999999999972</v>
+      </c>
+      <c r="AG102" s="6"/>
+      <c r="AH102" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="AI102" s="7"/>
+      <c r="AJ102" s="7">
+        <v>100</v>
+      </c>
+      <c r="AK102" s="7">
+        <v>103.3</v>
+      </c>
+      <c r="AL102" s="7">
+        <f t="shared" si="46"/>
+        <v>10.8</v>
+      </c>
+      <c r="AM102" s="8">
+        <f t="shared" si="47"/>
+        <v>3.2999999999999972</v>
+      </c>
+      <c r="AR102" s="6"/>
+      <c r="AS102" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="AT102" s="7">
+        <v>9.9</v>
+      </c>
+      <c r="AU102" s="7">
+        <v>100</v>
+      </c>
+      <c r="AV102" s="7">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="AW102" s="7">
+        <f t="shared" si="48"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="AX102" s="8">
+        <f t="shared" si="49"/>
+        <v>18.900000000000006</v>
+      </c>
+    </row>
+    <row r="103" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="D103" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="E103" s="4">
+        <v>93</v>
+      </c>
+      <c r="F103" s="4">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="G103" s="4">
+        <f t="shared" si="40"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="H103" s="5">
+        <f t="shared" si="41"/>
+        <v>16.599999999999994</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M103" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="N103" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O103" s="4">
+        <v>93</v>
+      </c>
+      <c r="P103" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q103" s="4">
+        <f t="shared" si="42"/>
+        <v>1.7999999999999989</v>
+      </c>
+      <c r="R103" s="5">
+        <f>ABS(O103-P103)</f>
+        <v>43</v>
+      </c>
+      <c r="V103" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="W103" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="X103" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="Y103" s="4">
+        <v>93</v>
+      </c>
+      <c r="Z103" s="4">
+        <v>91.1</v>
+      </c>
+      <c r="AA103" s="4">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="AB103" s="5">
+        <f t="shared" si="45"/>
+        <v>1.9000000000000057</v>
+      </c>
+      <c r="AG103" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH103" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="AI103" s="4"/>
+      <c r="AJ103" s="4">
+        <v>93</v>
+      </c>
+      <c r="AK103" s="4">
+        <v>53.3</v>
+      </c>
+      <c r="AL103" s="4">
+        <f t="shared" si="46"/>
+        <v>11.6</v>
+      </c>
+      <c r="AM103" s="5">
+        <f t="shared" si="47"/>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="AR103" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS103" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="AT103" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AU103" s="4">
+        <v>93</v>
+      </c>
+      <c r="AV103" s="4">
+        <v>88.2</v>
+      </c>
+      <c r="AW103" s="4">
+        <f t="shared" si="48"/>
+        <v>2.2999999999999989</v>
+      </c>
+      <c r="AX103" s="5">
+        <f t="shared" si="49"/>
+        <v>4.7999999999999972</v>
+      </c>
+    </row>
+    <row r="104" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B104" s="12"/>
+      <c r="C104">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D104">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E104">
+        <v>67</v>
+      </c>
+      <c r="F104">
         <v>72</v>
       </c>
-      <c r="F100" s="7">
-        <v>68.8</v>
-      </c>
-      <c r="G100" s="7">
+      <c r="G104">
         <f t="shared" si="40"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="H104" s="13">
+        <f t="shared" si="41"/>
+        <v>5</v>
+      </c>
+      <c r="L104" s="12"/>
+      <c r="M104">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N104">
+        <v>9.1</v>
+      </c>
+      <c r="O104">
+        <v>67</v>
+      </c>
+      <c r="P104">
+        <v>62.8</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="42"/>
         <v>0.29999999999999893</v>
       </c>
-      <c r="H100" s="8">
+      <c r="R104" s="13">
+        <f t="shared" si="43"/>
+        <v>4.2000000000000028</v>
+      </c>
+      <c r="V104" s="12"/>
+      <c r="W104">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="X104">
+        <v>8.5</v>
+      </c>
+      <c r="Y104">
+        <v>67</v>
+      </c>
+      <c r="Z104">
+        <v>94.3</v>
+      </c>
+      <c r="AA104">
+        <f t="shared" si="44"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="AB104" s="13">
+        <f t="shared" si="45"/>
+        <v>27.299999999999997</v>
+      </c>
+      <c r="AG104" s="12"/>
+      <c r="AH104">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AJ104">
+        <v>67</v>
+      </c>
+      <c r="AK104" s="18">
+        <v>62.8</v>
+      </c>
+      <c r="AL104">
+        <f t="shared" si="46"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AM104" s="13">
+        <f t="shared" si="47"/>
+        <v>4.2000000000000028</v>
+      </c>
+      <c r="AR104" s="12"/>
+      <c r="AS104">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AT104" s="18">
+        <v>8.4</v>
+      </c>
+      <c r="AU104">
+        <v>67</v>
+      </c>
+      <c r="AV104" s="18">
+        <v>67.2</v>
+      </c>
+      <c r="AW104">
+        <f t="shared" si="48"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="AX104" s="13">
+        <f t="shared" si="49"/>
+        <v>0.20000000000000284</v>
+      </c>
+    </row>
+    <row r="105" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B105" s="6"/>
+      <c r="C105" s="7">
+        <v>10</v>
+      </c>
+      <c r="D105" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="E105" s="7">
+        <v>104</v>
+      </c>
+      <c r="F105" s="7">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="G105" s="7">
+        <f t="shared" si="40"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="H105" s="8">
         <f t="shared" si="41"/>
-        <v>3.2000000000000028</v>
-      </c>
-      <c r="L100" s="6"/>
-      <c r="M100" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="N100" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="O100" s="7">
-        <v>72</v>
-      </c>
-      <c r="P100" s="7">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="Q100" s="7">
+        <v>23.099999999999994</v>
+      </c>
+      <c r="L105" s="6"/>
+      <c r="M105" s="7">
+        <v>10</v>
+      </c>
+      <c r="N105" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O105" s="7">
+        <v>104</v>
+      </c>
+      <c r="P105" s="7">
+        <v>106.8</v>
+      </c>
+      <c r="Q105" s="7">
         <f t="shared" si="42"/>
         <v>0.30000000000000071</v>
       </c>
-      <c r="R100" s="8">
+      <c r="R105" s="8">
         <f t="shared" si="43"/>
-        <v>2.4000000000000057</v>
-      </c>
-      <c r="V100" s="6"/>
-      <c r="W100" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="X100" s="7">
-        <v>10.5</v>
-      </c>
-      <c r="Y100" s="7">
-        <v>72</v>
-      </c>
-      <c r="Z100" s="7">
-        <v>84</v>
-      </c>
-      <c r="AA100" s="7">
+        <v>2.7999999999999972</v>
+      </c>
+      <c r="V105" s="6"/>
+      <c r="W105" s="7">
+        <v>10</v>
+      </c>
+      <c r="X105" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Y105" s="7">
+        <v>104</v>
+      </c>
+      <c r="Z105" s="7">
+        <v>93.2</v>
+      </c>
+      <c r="AA105" s="7">
         <f t="shared" si="44"/>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="AB100" s="8">
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="AB105" s="8">
         <f t="shared" si="45"/>
-        <v>12</v>
-      </c>
-      <c r="AG100" s="6"/>
-      <c r="AH100" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="AI100" s="7"/>
-      <c r="AJ100" s="7">
-        <v>72</v>
-      </c>
-      <c r="AK100" s="7">
-        <v>82.3</v>
-      </c>
-      <c r="AL100" s="7">
-        <f t="shared" si="46"/>
-        <v>10.4</v>
-      </c>
-      <c r="AM100" s="8">
-        <f t="shared" si="47"/>
-        <v>10.299999999999997</v>
-      </c>
-      <c r="AR100" s="6"/>
-      <c r="AS100" s="7">
-        <v>10.4</v>
-      </c>
-      <c r="AT100" s="7">
-        <v>10.6</v>
-      </c>
-      <c r="AU100" s="7">
-        <v>72</v>
-      </c>
-      <c r="AV100" s="7">
-        <v>67</v>
-      </c>
-      <c r="AW100" s="7">
-        <f t="shared" si="48"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="AX100" s="8">
-        <f t="shared" si="49"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B101" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C101" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="D101" s="4">
-        <v>12.3</v>
-      </c>
-      <c r="E101" s="4">
-        <v>95</v>
-      </c>
-      <c r="F101" s="4">
-        <v>56.6</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="40"/>
-        <v>0.5</v>
-      </c>
-      <c r="H101" s="13">
-        <f t="shared" si="41"/>
-        <v>38.4</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M101" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="N101" s="4">
-        <v>12.9</v>
-      </c>
-      <c r="O101" s="4">
-        <v>95</v>
-      </c>
-      <c r="P101" s="4">
-        <v>50</v>
-      </c>
-      <c r="Q101">
-        <f t="shared" si="42"/>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="R101" s="13">
-        <f t="shared" si="43"/>
-        <v>45</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W101" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="X101" s="4">
-        <v>12.9</v>
-      </c>
-      <c r="Y101" s="4">
-        <v>95</v>
-      </c>
-      <c r="Z101" s="4">
-        <v>95.5</v>
-      </c>
-      <c r="AA101">
-        <f t="shared" si="44"/>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="AB101" s="13">
-        <f t="shared" si="45"/>
-        <v>0.5</v>
-      </c>
-      <c r="AG101" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH101" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="AI101" s="4"/>
-      <c r="AJ101" s="4">
-        <v>95</v>
-      </c>
-      <c r="AK101" s="4">
-        <v>150</v>
-      </c>
-      <c r="AL101">
-        <f t="shared" si="46"/>
-        <v>12.8</v>
-      </c>
-      <c r="AM101" s="13">
-        <f t="shared" si="47"/>
-        <v>55</v>
-      </c>
-      <c r="AR101" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AS101" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="AT101" s="4">
-        <v>12.4</v>
-      </c>
-      <c r="AU101" s="4">
-        <v>95</v>
-      </c>
-      <c r="AV101" s="4">
-        <v>57.6</v>
-      </c>
-      <c r="AW101">
-        <f t="shared" si="48"/>
-        <v>0.40000000000000036</v>
-      </c>
-      <c r="AX101" s="13">
-        <f t="shared" si="49"/>
-        <v>37.4</v>
-      </c>
-    </row>
-    <row r="102" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B102" s="12"/>
-      <c r="C102">
+        <v>10.799999999999997</v>
+      </c>
+      <c r="AG105" s="6"/>
+      <c r="AH105" s="7">
         <v>10</v>
       </c>
-      <c r="D102">
-        <v>10</v>
-      </c>
-      <c r="E102">
-        <v>76</v>
-      </c>
-      <c r="F102">
-        <v>63.9</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="H102" s="13">
-        <f t="shared" si="41"/>
-        <v>12.100000000000001</v>
-      </c>
-      <c r="L102" s="12"/>
-      <c r="M102">
-        <v>10</v>
-      </c>
-      <c r="N102">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="O102">
-        <v>76</v>
-      </c>
-      <c r="P102">
-        <v>58.4</v>
-      </c>
-      <c r="Q102">
-        <f t="shared" si="42"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="R102" s="13">
-        <f t="shared" si="43"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="V102" s="12"/>
-      <c r="W102">
-        <v>10</v>
-      </c>
-      <c r="X102">
-        <v>10.5</v>
-      </c>
-      <c r="Y102">
-        <v>76</v>
-      </c>
-      <c r="Z102">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="AA102">
-        <f t="shared" si="44"/>
-        <v>0.5</v>
-      </c>
-      <c r="AB102" s="13">
-        <f t="shared" si="45"/>
-        <v>4.5999999999999943</v>
-      </c>
-      <c r="AG102" s="12"/>
-      <c r="AH102">
-        <v>10</v>
-      </c>
-      <c r="AJ102">
-        <v>76</v>
-      </c>
-      <c r="AK102">
-        <v>61</v>
-      </c>
-      <c r="AL102">
+      <c r="AI105" s="7"/>
+      <c r="AJ105" s="7">
+        <v>104</v>
+      </c>
+      <c r="AK105" s="7">
+        <v>105.1</v>
+      </c>
+      <c r="AL105" s="7">
         <f t="shared" si="46"/>
         <v>10</v>
       </c>
-      <c r="AM102" s="13">
+      <c r="AM105" s="8">
         <f t="shared" si="47"/>
-        <v>15</v>
-      </c>
-      <c r="AR102" s="12"/>
-      <c r="AS102">
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="AR105" s="6"/>
+      <c r="AS105" s="7">
         <v>10</v>
       </c>
-      <c r="AT102">
+      <c r="AT105" s="7">
         <v>10</v>
       </c>
-      <c r="AU102">
-        <v>76</v>
-      </c>
-      <c r="AV102">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="AW102">
+      <c r="AU105" s="7">
+        <v>104</v>
+      </c>
+      <c r="AV105" s="7">
+        <v>81.5</v>
+      </c>
+      <c r="AW105" s="7">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AX102" s="13">
+      <c r="AX105" s="8">
         <f t="shared" si="49"/>
-        <v>6.4000000000000057</v>
+        <v>22.5</v>
       </c>
     </row>
-    <row r="103" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B103" s="12"/>
-      <c r="C103">
+    <row r="106" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C106" s="4">
         <v>10</v>
       </c>
-      <c r="D103">
-        <v>9</v>
-      </c>
-      <c r="E103">
-        <v>72</v>
-      </c>
-      <c r="F103">
-        <v>66</v>
-      </c>
-      <c r="G103">
+      <c r="D106" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E106" s="4">
+        <v>88</v>
+      </c>
+      <c r="F106" s="4">
+        <v>68.8</v>
+      </c>
+      <c r="G106">
         <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="H103" s="13">
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="H106" s="13">
         <f t="shared" si="41"/>
-        <v>6</v>
-      </c>
-      <c r="L103" s="12"/>
-      <c r="M103">
+        <v>19.200000000000003</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M106" s="4">
         <v>10</v>
       </c>
-      <c r="N103">
+      <c r="N106" s="4">
         <v>9.5</v>
       </c>
-      <c r="O103">
-        <v>72</v>
-      </c>
-      <c r="P103">
-        <v>50.8</v>
-      </c>
-      <c r="Q103">
+      <c r="O106" s="4">
+        <v>88</v>
+      </c>
+      <c r="P106" s="4">
+        <v>82.4</v>
+      </c>
+      <c r="Q106">
         <f t="shared" si="42"/>
         <v>0.5</v>
       </c>
-      <c r="R103" s="13">
+      <c r="R106" s="13">
         <f t="shared" si="43"/>
-        <v>21.200000000000003</v>
-      </c>
-      <c r="V103" s="12"/>
-      <c r="W103">
+        <v>5.5999999999999943</v>
+      </c>
+      <c r="V106" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="W106" s="4">
         <v>10</v>
       </c>
-      <c r="X103">
-        <v>9.4</v>
-      </c>
-      <c r="Y103">
-        <v>72</v>
-      </c>
-      <c r="Z103">
-        <v>79.7</v>
-      </c>
-      <c r="AA103">
+      <c r="X106" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Y106" s="4">
+        <v>88</v>
+      </c>
+      <c r="Z106" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="AA106">
         <f t="shared" si="44"/>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="AB103" s="13">
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="AB106" s="13">
         <f t="shared" si="45"/>
-        <v>7.7000000000000028</v>
-      </c>
-      <c r="AG103" s="12"/>
-      <c r="AH103">
+        <v>7.5</v>
+      </c>
+      <c r="AG106" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH106" s="4">
         <v>10</v>
       </c>
-      <c r="AJ103">
-        <v>72</v>
-      </c>
-      <c r="AK103">
-        <v>72.7</v>
-      </c>
-      <c r="AL103">
+      <c r="AI106" s="4"/>
+      <c r="AJ106" s="4">
+        <v>88</v>
+      </c>
+      <c r="AK106" s="4">
+        <v>171.3</v>
+      </c>
+      <c r="AL106">
         <f t="shared" si="46"/>
         <v>10</v>
       </c>
-      <c r="AM103" s="13">
+      <c r="AM106" s="13">
         <f t="shared" si="47"/>
-        <v>0.70000000000000284</v>
-      </c>
-      <c r="AR103" s="12"/>
-      <c r="AS103">
+        <v>83.300000000000011</v>
+      </c>
+      <c r="AR106" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS106" s="4">
         <v>10</v>
       </c>
-      <c r="AT103">
-        <v>9.6</v>
-      </c>
-      <c r="AU103">
-        <v>72</v>
-      </c>
-      <c r="AV103">
-        <v>57.3</v>
-      </c>
-      <c r="AW103">
+      <c r="AT106" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="AU106" s="4">
+        <v>88</v>
+      </c>
+      <c r="AV106" s="4">
+        <v>71.5</v>
+      </c>
+      <c r="AW106">
         <f t="shared" si="48"/>
-        <v>0.40000000000000036</v>
-      </c>
-      <c r="AX103" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AX106" s="13">
         <f t="shared" si="49"/>
-        <v>14.700000000000003</v>
-      </c>
-    </row>
-    <row r="104" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B104" s="6"/>
-      <c r="C104" s="7">
-        <v>10</v>
-      </c>
-      <c r="D104" s="7">
-        <v>10.8</v>
-      </c>
-      <c r="E104" s="7">
-        <v>102</v>
-      </c>
-      <c r="F104" s="7">
-        <v>81</v>
-      </c>
-      <c r="G104" s="7">
-        <f t="shared" si="40"/>
-        <v>0.80000000000000071</v>
-      </c>
-      <c r="H104" s="13">
-        <f t="shared" si="41"/>
-        <v>21</v>
-      </c>
-      <c r="L104" s="6"/>
-      <c r="M104" s="7">
-        <v>10</v>
-      </c>
-      <c r="N104" s="7">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="O104" s="7">
-        <v>102</v>
-      </c>
-      <c r="P104" s="7">
-        <v>102</v>
-      </c>
-      <c r="Q104" s="7">
-        <f t="shared" si="42"/>
-        <v>0.30000000000000071</v>
-      </c>
-      <c r="R104" s="8">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="V104" s="6"/>
-      <c r="W104" s="7">
-        <v>10</v>
-      </c>
-      <c r="X104" s="7">
-        <v>10</v>
-      </c>
-      <c r="Y104" s="7">
-        <v>102</v>
-      </c>
-      <c r="Z104" s="7">
-        <v>101</v>
-      </c>
-      <c r="AA104" s="7">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AB104" s="8">
-        <f t="shared" si="45"/>
-        <v>1</v>
-      </c>
-      <c r="AG104" s="6"/>
-      <c r="AH104" s="7">
-        <v>10</v>
-      </c>
-      <c r="AI104" s="7"/>
-      <c r="AJ104" s="7">
-        <v>102</v>
-      </c>
-      <c r="AK104" s="7">
-        <v>136.80000000000001</v>
-      </c>
-      <c r="AL104" s="7">
-        <f t="shared" si="46"/>
-        <v>10</v>
-      </c>
-      <c r="AM104" s="8">
-        <f t="shared" si="47"/>
-        <v>34.800000000000011</v>
-      </c>
-      <c r="AR104" s="6"/>
-      <c r="AS104" s="7">
-        <v>10</v>
-      </c>
-      <c r="AT104" s="7">
-        <v>10.5</v>
-      </c>
-      <c r="AU104" s="7">
-        <v>102</v>
-      </c>
-      <c r="AV104" s="7">
-        <v>84</v>
-      </c>
-      <c r="AW104" s="7">
-        <f t="shared" si="48"/>
-        <v>0.5</v>
-      </c>
-      <c r="AX104" s="8">
-        <f t="shared" si="49"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B105" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C105" s="4">
-        <v>10.8</v>
-      </c>
-      <c r="D105" s="4">
-        <v>10</v>
-      </c>
-      <c r="E105" s="4">
-        <v>91</v>
-      </c>
-      <c r="F105" s="4">
-        <v>68.8</v>
-      </c>
-      <c r="G105" s="4">
-        <f t="shared" si="40"/>
-        <v>0.80000000000000071</v>
-      </c>
-      <c r="H105" s="5">
-        <f>ABS(F105-E105)</f>
-        <v>22.200000000000003</v>
-      </c>
-      <c r="L105" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M105" s="4">
-        <v>10.8</v>
-      </c>
-      <c r="N105" s="4">
-        <v>10</v>
-      </c>
-      <c r="O105" s="4">
-        <v>91</v>
-      </c>
-      <c r="P105" s="4">
-        <v>118.8</v>
-      </c>
-      <c r="Q105" s="4">
-        <f t="shared" si="42"/>
-        <v>0.80000000000000071</v>
-      </c>
-      <c r="R105" s="5">
-        <f>ABS(P105-O105)</f>
-        <v>27.799999999999997</v>
-      </c>
-      <c r="V105" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W105" s="4">
-        <v>10.8</v>
-      </c>
-      <c r="X105" s="4">
-        <v>10</v>
-      </c>
-      <c r="Y105" s="4">
-        <v>91</v>
-      </c>
-      <c r="Z105" s="4">
-        <v>81.2</v>
-      </c>
-      <c r="AA105" s="4">
-        <f t="shared" si="44"/>
-        <v>0.80000000000000071</v>
-      </c>
-      <c r="AB105" s="5">
-        <f>ABS(Z105-Y105)</f>
-        <v>9.7999999999999972</v>
-      </c>
-      <c r="AG105" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH105" s="4">
-        <v>10.8</v>
-      </c>
-      <c r="AI105" s="4"/>
-      <c r="AJ105" s="4">
-        <v>91</v>
-      </c>
-      <c r="AK105" s="4">
-        <v>114.6</v>
-      </c>
-      <c r="AL105" s="4">
-        <f t="shared" si="46"/>
-        <v>10.8</v>
-      </c>
-      <c r="AM105" s="5">
-        <f>ABS(AK105-AJ105)</f>
-        <v>23.599999999999994</v>
-      </c>
-      <c r="AR105" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS105" s="4">
-        <v>10.8</v>
-      </c>
-      <c r="AT105" s="4">
-        <v>10</v>
-      </c>
-      <c r="AU105" s="4">
-        <v>91</v>
-      </c>
-      <c r="AV105" s="4">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="AW105" s="4">
-        <f t="shared" si="48"/>
-        <v>0.80000000000000071</v>
-      </c>
-      <c r="AX105" s="5">
-        <f>ABS(AV105-AU105)</f>
-        <v>26.599999999999994</v>
-      </c>
-    </row>
-    <row r="106" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B106" s="12"/>
-      <c r="C106">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D106">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E106">
-        <v>94</v>
-      </c>
-      <c r="F106">
-        <v>69.3</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="40"/>
-        <v>0.60000000000000142</v>
-      </c>
-      <c r="H106" s="13">
-        <f t="shared" ref="H106:H112" si="50">ABS(F106-E106)</f>
-        <v>24.700000000000003</v>
-      </c>
-      <c r="L106" s="12"/>
-      <c r="M106">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="N106">
-        <v>9.4</v>
-      </c>
-      <c r="O106">
-        <v>94</v>
-      </c>
-      <c r="P106">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="Q106">
-        <f t="shared" si="42"/>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="R106" s="13">
-        <f t="shared" ref="R106:R112" si="51">ABS(P106-O106)</f>
-        <v>17.599999999999994</v>
-      </c>
-      <c r="V106" s="12"/>
-      <c r="W106">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="X106">
-        <v>7.3</v>
-      </c>
-      <c r="Y106">
-        <v>94</v>
-      </c>
-      <c r="Z106">
-        <v>83.5</v>
-      </c>
-      <c r="AA106">
-        <f t="shared" si="44"/>
-        <v>1.5000000000000009</v>
-      </c>
-      <c r="AB106" s="13">
-        <f t="shared" ref="AB106:AB112" si="52">ABS(Z106-Y106)</f>
-        <v>10.5</v>
-      </c>
-      <c r="AG106" s="12"/>
-      <c r="AH106">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AJ106">
-        <v>94</v>
-      </c>
-      <c r="AK106">
-        <v>74.5</v>
-      </c>
-      <c r="AL106">
-        <f t="shared" si="46"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AM106" s="13">
-        <f t="shared" ref="AM106:AM112" si="53">ABS(AK106-AJ106)</f>
-        <v>19.5</v>
-      </c>
-      <c r="AR106" s="12"/>
-      <c r="AS106">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AT106">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AU106">
-        <v>94</v>
-      </c>
-      <c r="AV106">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="AW106">
-        <f>ABS(AS106-AT106)</f>
-        <v>0</v>
-      </c>
-      <c r="AX106" s="13">
-        <f t="shared" ref="AX106:AX112" si="54">ABS(AV106-AU106)</f>
-        <v>15.099999999999994</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="107" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B107" s="12"/>
       <c r="C107">
-        <v>10</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D107">
-        <v>9.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E107">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F107">
-        <v>78.400000000000006</v>
+        <v>80</v>
       </c>
       <c r="G107">
         <f t="shared" si="40"/>
         <v>0.5</v>
       </c>
       <c r="H107" s="13">
-        <f t="shared" si="50"/>
-        <v>2.4000000000000057</v>
+        <f t="shared" si="41"/>
+        <v>11</v>
       </c>
       <c r="L107" s="12"/>
       <c r="M107">
-        <v>10</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="N107">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="O107">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P107">
-        <v>85.6</v>
+        <v>102.8</v>
       </c>
       <c r="Q107">
         <f t="shared" si="42"/>
-        <v>0.40000000000000036</v>
+        <v>0.59999999999999964</v>
       </c>
       <c r="R107" s="13">
-        <f t="shared" si="51"/>
-        <v>9.5999999999999943</v>
+        <f t="shared" si="43"/>
+        <v>33.799999999999997</v>
       </c>
       <c r="V107" s="12"/>
       <c r="W107">
-        <v>10</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="X107">
-        <v>9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Y107">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="Z107">
-        <v>77.599999999999994</v>
+        <v>92</v>
       </c>
       <c r="AA107">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>0.60000000000000142</v>
       </c>
       <c r="AB107" s="13">
-        <f t="shared" si="52"/>
-        <v>1.5999999999999943</v>
+        <f t="shared" si="45"/>
+        <v>23</v>
       </c>
       <c r="AG107" s="12"/>
       <c r="AH107">
-        <v>10</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AJ107">
-        <v>76</v>
-      </c>
-      <c r="AK107">
-        <v>172</v>
+        <v>69</v>
+      </c>
+      <c r="AK107" s="18">
+        <v>94.3</v>
       </c>
       <c r="AL107">
         <f t="shared" si="46"/>
-        <v>10</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AM107" s="13">
-        <f t="shared" si="53"/>
-        <v>96</v>
+        <f t="shared" si="47"/>
+        <v>25.299999999999997</v>
       </c>
       <c r="AR107" s="12"/>
       <c r="AS107">
-        <v>10</v>
-      </c>
-      <c r="AT107">
-        <v>10.15</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AT107" s="18">
+        <v>8.8000000000000007</v>
       </c>
       <c r="AU107">
-        <v>76</v>
-      </c>
-      <c r="AV107">
-        <v>89.7</v>
+        <v>69</v>
+      </c>
+      <c r="AV107" s="18">
+        <v>73.099999999999994</v>
       </c>
       <c r="AW107">
-        <f>ABS(AS107-AT107)</f>
-        <v>0.15000000000000036</v>
+        <f t="shared" si="48"/>
+        <v>0</v>
       </c>
       <c r="AX107" s="13">
-        <f t="shared" si="54"/>
-        <v>13.700000000000003</v>
+        <f t="shared" si="49"/>
+        <v>4.0999999999999943</v>
       </c>
     </row>
     <row r="108" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
       <c r="C108" s="7">
-        <v>8.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D108" s="7">
-        <v>9.6999999999999993</v>
+        <v>8.9</v>
       </c>
       <c r="E108" s="7">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F108" s="7">
-        <v>83.2</v>
+        <v>85.4</v>
       </c>
       <c r="G108" s="7">
         <f t="shared" si="40"/>
-        <v>0.89999999999999858</v>
-      </c>
-      <c r="H108" s="13">
-        <f t="shared" si="50"/>
-        <v>10.799999999999997</v>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="H108" s="8">
+        <f t="shared" si="41"/>
+        <v>23.599999999999994</v>
       </c>
       <c r="L108" s="6"/>
       <c r="M108" s="7">
-        <v>8.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="N108" s="7">
-        <v>9.8000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="O108" s="7">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="P108" s="7">
-        <v>113</v>
+        <v>101.6</v>
       </c>
       <c r="Q108" s="7">
         <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="R108" s="13">
-        <f t="shared" si="51"/>
-        <v>19</v>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="R108" s="8">
+        <f t="shared" si="43"/>
+        <v>7.4000000000000057</v>
       </c>
       <c r="V108" s="6"/>
       <c r="W108" s="7">
-        <v>8.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="X108" s="7">
-        <v>9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Y108" s="7">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="Z108" s="7">
-        <v>87</v>
+        <v>98.4</v>
       </c>
       <c r="AA108" s="7">
         <f t="shared" si="44"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="AB108" s="13">
-        <f t="shared" si="52"/>
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="AB108" s="8">
+        <f t="shared" si="45"/>
+        <v>10.599999999999994</v>
       </c>
       <c r="AG108" s="6"/>
       <c r="AH108" s="7">
-        <v>8.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AI108" s="7"/>
       <c r="AJ108" s="7">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="AK108" s="7">
-        <v>165</v>
+        <v>112.5</v>
       </c>
       <c r="AL108" s="7">
         <f t="shared" si="46"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AM108" s="13">
-        <f t="shared" si="53"/>
-        <v>71</v>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AM108" s="8">
+        <f t="shared" si="47"/>
+        <v>3.5</v>
       </c>
       <c r="AR108" s="6"/>
       <c r="AS108" s="7">
-        <v>8.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AT108" s="7">
-        <v>9.1999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="AU108" s="7">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="AV108" s="7">
-        <v>68.900000000000006</v>
+        <v>82.2</v>
       </c>
       <c r="AW108" s="7">
         <f t="shared" si="48"/>
-        <v>0.39999999999999858</v>
-      </c>
-      <c r="AX108" s="13">
-        <f t="shared" si="54"/>
-        <v>25.099999999999994</v>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="AX108" s="8">
+        <f t="shared" si="49"/>
+        <v>26.799999999999997</v>
       </c>
     </row>
     <row r="109" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C109" s="4">
-        <v>10.8</v>
+        <v>11.6</v>
       </c>
       <c r="D109" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="E109" s="4">
+        <v>92</v>
+      </c>
+      <c r="F109" s="4">
+        <v>66.3</v>
+      </c>
+      <c r="G109">
+        <f t="shared" ref="G109:G124" si="50">ABS(C109-D109)</f>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="H109" s="13">
+        <f t="shared" ref="H109:H116" si="51">ABS(E109-F109)</f>
+        <v>25.700000000000003</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M109" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="N109" s="4">
         <v>10.7</v>
       </c>
-      <c r="E109" s="4">
-        <v>95</v>
-      </c>
-      <c r="F109" s="4">
-        <v>68.7</v>
-      </c>
-      <c r="G109" s="4">
-        <f t="shared" si="40"/>
-        <v>0.10000000000000142</v>
-      </c>
-      <c r="H109" s="5">
-        <f t="shared" si="50"/>
-        <v>26.299999999999997</v>
-      </c>
-      <c r="L109" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M109" s="4">
-        <v>10.8</v>
-      </c>
-      <c r="N109" s="4">
-        <v>10.1</v>
-      </c>
       <c r="O109" s="4">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P109" s="4">
-        <v>93.6</v>
+        <v>49.2</v>
       </c>
       <c r="Q109" s="4">
-        <f t="shared" si="42"/>
-        <v>0.70000000000000107</v>
+        <f t="shared" ref="Q109:Q124" si="52">ABS(M109-N109)</f>
+        <v>0.90000000000000036</v>
       </c>
       <c r="R109" s="5">
-        <f t="shared" si="51"/>
-        <v>1.4000000000000057</v>
+        <f t="shared" ref="R109:R116" si="53">ABS(O109-P109)</f>
+        <v>42.8</v>
       </c>
       <c r="V109" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W109" s="4">
-        <v>10.8</v>
+        <v>11.6</v>
       </c>
       <c r="X109" s="4">
-        <v>10.5</v>
+        <v>11.7</v>
       </c>
       <c r="Y109" s="4">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Z109" s="4">
-        <v>88.5</v>
+        <v>83.2</v>
       </c>
       <c r="AA109" s="4">
-        <f t="shared" si="44"/>
-        <v>0.30000000000000071</v>
+        <f t="shared" ref="AA109:AA124" si="54">ABS(W109-X109)</f>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="AB109" s="5">
-        <f t="shared" si="52"/>
-        <v>6.5</v>
+        <f t="shared" ref="AB109:AB116" si="55">ABS(Y109-Z109)</f>
+        <v>8.7999999999999972</v>
       </c>
       <c r="AG109" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AH109" s="4">
-        <v>10.8</v>
+        <v>11.6</v>
       </c>
       <c r="AI109" s="4"/>
       <c r="AJ109" s="4">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AK109" s="4">
-        <v>106.5</v>
+        <v>234</v>
       </c>
       <c r="AL109" s="4">
-        <f t="shared" si="46"/>
-        <v>10.8</v>
+        <f t="shared" ref="AL109:AL124" si="56">ABS(AH109-AI109)</f>
+        <v>11.6</v>
       </c>
       <c r="AM109" s="5">
-        <f t="shared" si="53"/>
-        <v>11.5</v>
+        <f t="shared" ref="AM109:AM116" si="57">ABS(AJ109-AK109)</f>
+        <v>142</v>
       </c>
       <c r="AR109" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AS109" s="4">
-        <v>10.8</v>
+        <v>11.6</v>
       </c>
       <c r="AT109" s="4">
-        <v>10.6</v>
+        <v>11.4</v>
       </c>
       <c r="AU109" s="4">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AV109" s="4">
-        <v>86.7</v>
+        <v>62.9</v>
       </c>
       <c r="AW109" s="4">
-        <f t="shared" si="48"/>
-        <v>0.20000000000000107</v>
+        <f t="shared" ref="AW109:AW124" si="58">ABS(AS109-AT109)</f>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AX109" s="5">
-        <f t="shared" si="54"/>
-        <v>8.2999999999999972</v>
+        <f t="shared" ref="AX109:AX116" si="59">ABS(AU109-AV109)</f>
+        <v>29.1</v>
       </c>
     </row>
     <row r="110" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B110" s="12"/>
       <c r="C110">
-        <v>9.1999999999999993</v>
+        <v>10</v>
       </c>
       <c r="D110">
-        <v>8.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E110">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="F110">
-        <v>72.599999999999994</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="G110">
-        <f t="shared" si="40"/>
-        <v>0.29999999999999893</v>
+        <f t="shared" si="50"/>
+        <v>1.8000000000000007</v>
       </c>
       <c r="H110" s="13">
-        <f t="shared" si="50"/>
-        <v>28.400000000000006</v>
+        <f t="shared" si="51"/>
+        <v>1.5999999999999943</v>
       </c>
       <c r="L110" s="12"/>
       <c r="M110">
-        <v>9.1999999999999993</v>
+        <v>10</v>
       </c>
       <c r="N110">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="O110">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="P110">
-        <v>50.5</v>
+        <v>54</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="42"/>
-        <v>0.10000000000000142</v>
+        <f t="shared" si="52"/>
+        <v>0.59999999999999964</v>
       </c>
       <c r="R110" s="13">
-        <f t="shared" si="51"/>
-        <v>50.5</v>
+        <f t="shared" si="53"/>
+        <v>17</v>
       </c>
       <c r="V110" s="12"/>
       <c r="W110">
-        <v>9.1999999999999993</v>
+        <v>10</v>
       </c>
       <c r="X110">
         <v>8.1999999999999993</v>
       </c>
       <c r="Y110">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="Z110">
-        <v>95.8</v>
+        <v>96.7</v>
       </c>
       <c r="AA110">
-        <f t="shared" si="44"/>
-        <v>1</v>
+        <f t="shared" si="54"/>
+        <v>1.8000000000000007</v>
       </c>
       <c r="AB110" s="13">
-        <f t="shared" si="52"/>
-        <v>5.2000000000000028</v>
+        <f t="shared" si="55"/>
+        <v>25.700000000000003</v>
       </c>
       <c r="AG110" s="12"/>
       <c r="AH110">
-        <v>9.1999999999999993</v>
+        <v>10</v>
       </c>
       <c r="AJ110">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="AK110">
-        <v>64.3</v>
+        <v>139</v>
       </c>
       <c r="AL110">
-        <f t="shared" si="46"/>
-        <v>9.1999999999999993</v>
+        <f t="shared" si="56"/>
+        <v>10</v>
       </c>
       <c r="AM110" s="13">
-        <f t="shared" si="53"/>
-        <v>36.700000000000003</v>
+        <f t="shared" si="57"/>
+        <v>68</v>
       </c>
       <c r="AR110" s="12"/>
       <c r="AS110">
-        <v>9.1999999999999993</v>
+        <v>10</v>
       </c>
       <c r="AT110">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AU110">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="AV110">
-        <v>64.3</v>
+        <v>63.2</v>
       </c>
       <c r="AW110">
-        <f t="shared" si="48"/>
-        <v>0.59999999999999964</v>
+        <f t="shared" si="58"/>
+        <v>2</v>
       </c>
       <c r="AX110" s="13">
-        <f t="shared" si="54"/>
-        <v>36.700000000000003</v>
+        <f t="shared" si="59"/>
+        <v>7.7999999999999972</v>
       </c>
     </row>
     <row r="111" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B111" s="12"/>
       <c r="C111">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="D111">
-        <v>7.1</v>
+        <v>11</v>
       </c>
       <c r="E111">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="F111">
-        <v>70.8</v>
+        <v>62</v>
       </c>
       <c r="G111">
-        <f t="shared" si="40"/>
-        <v>2.9000000000000004</v>
+        <f t="shared" si="50"/>
+        <v>0.19999999999999929</v>
       </c>
       <c r="H111" s="13">
-        <f t="shared" si="50"/>
-        <v>19.200000000000003</v>
+        <f t="shared" si="51"/>
+        <v>43</v>
       </c>
       <c r="L111" s="12"/>
       <c r="M111">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="N111">
-        <v>8.8000000000000007</v>
+        <v>10.4</v>
       </c>
       <c r="O111">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="P111">
-        <v>58.8</v>
+        <v>62.8</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="42"/>
-        <v>1.1999999999999993</v>
+        <f t="shared" si="52"/>
+        <v>0.79999999999999893</v>
       </c>
       <c r="R111" s="13">
-        <f t="shared" si="51"/>
-        <v>31.200000000000003</v>
+        <f t="shared" si="53"/>
+        <v>42.2</v>
       </c>
       <c r="V111" s="12"/>
       <c r="W111">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="X111">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="Y111">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="Z111">
-        <v>88.5</v>
+        <v>85</v>
       </c>
       <c r="AA111">
-        <f t="shared" si="44"/>
-        <v>3</v>
+        <f t="shared" si="54"/>
+        <v>0.69999999999999929</v>
       </c>
       <c r="AB111" s="13">
-        <f t="shared" si="52"/>
-        <v>1.5</v>
+        <f t="shared" si="55"/>
+        <v>20</v>
       </c>
       <c r="AG111" s="12"/>
       <c r="AH111">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="AJ111">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AK111">
-        <v>102</v>
+        <v>69.5</v>
       </c>
       <c r="AL111">
-        <f t="shared" si="46"/>
-        <v>10</v>
+        <f t="shared" si="56"/>
+        <v>11.2</v>
       </c>
       <c r="AM111" s="13">
-        <f t="shared" si="53"/>
-        <v>12</v>
+        <f t="shared" si="57"/>
+        <v>35.5</v>
       </c>
       <c r="AR111" s="12"/>
       <c r="AS111">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="AT111">
-        <v>6.6</v>
+        <v>11.4</v>
       </c>
       <c r="AU111">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AV111">
-        <v>75.599999999999994</v>
+        <v>59.3</v>
       </c>
       <c r="AW111">
-        <f t="shared" si="48"/>
-        <v>3.4000000000000004</v>
+        <f t="shared" si="58"/>
+        <v>0.20000000000000107</v>
       </c>
       <c r="AX111" s="13">
-        <f t="shared" si="54"/>
-        <v>14.400000000000006</v>
+        <f t="shared" si="59"/>
+        <v>45.7</v>
       </c>
     </row>
     <row r="112" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
       <c r="C112" s="7">
-        <v>10.8</v>
+        <v>10.4</v>
       </c>
       <c r="D112" s="7">
-        <v>8</v>
+        <v>10.7</v>
       </c>
       <c r="E112" s="7">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F112" s="7">
-        <v>65</v>
+        <v>68.8</v>
       </c>
       <c r="G112" s="7">
-        <f t="shared" si="40"/>
-        <v>2.8000000000000007</v>
+        <f t="shared" si="50"/>
+        <v>0.29999999999999893</v>
       </c>
       <c r="H112" s="8">
-        <f t="shared" si="50"/>
-        <v>10</v>
+        <f t="shared" si="51"/>
+        <v>3.2000000000000028</v>
       </c>
       <c r="L112" s="6"/>
       <c r="M112" s="7">
-        <v>10.8</v>
+        <v>10.4</v>
       </c>
       <c r="N112" s="7">
-        <v>9.4</v>
+        <v>10.1</v>
       </c>
       <c r="O112" s="7">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P112" s="7">
-        <v>53.2</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="Q112" s="7">
-        <f t="shared" si="42"/>
-        <v>1.4000000000000004</v>
-      </c>
-      <c r="R112" s="13">
-        <f t="shared" si="51"/>
-        <v>21.799999999999997</v>
+        <f t="shared" si="52"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="R112" s="8">
+        <f t="shared" si="53"/>
+        <v>2.4000000000000057</v>
       </c>
       <c r="V112" s="6"/>
       <c r="W112" s="7">
-        <v>10.8</v>
+        <v>10.4</v>
       </c>
       <c r="X112" s="7">
-        <v>7.3</v>
+        <v>10.5</v>
       </c>
       <c r="Y112" s="7">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z112" s="7">
-        <v>86.1</v>
+        <v>84</v>
       </c>
       <c r="AA112" s="7">
-        <f t="shared" si="44"/>
-        <v>3.5000000000000009</v>
-      </c>
-      <c r="AB112" s="13">
-        <f t="shared" si="52"/>
-        <v>11.099999999999994</v>
+        <f t="shared" si="54"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="AB112" s="8">
+        <f t="shared" si="55"/>
+        <v>12</v>
       </c>
       <c r="AG112" s="6"/>
       <c r="AH112" s="7">
-        <v>10.8</v>
+        <v>10.4</v>
       </c>
       <c r="AI112" s="7"/>
       <c r="AJ112" s="7">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AK112" s="7">
-        <v>181.5</v>
+        <v>82.3</v>
       </c>
       <c r="AL112" s="7">
-        <f t="shared" si="46"/>
-        <v>10.8</v>
+        <f t="shared" si="56"/>
+        <v>10.4</v>
       </c>
       <c r="AM112" s="8">
-        <f t="shared" si="53"/>
-        <v>106.5</v>
+        <f t="shared" si="57"/>
+        <v>10.299999999999997</v>
       </c>
       <c r="AR112" s="6"/>
       <c r="AS112" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="AT112" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="AU112" s="7">
+        <v>72</v>
+      </c>
+      <c r="AV112" s="7">
+        <v>67</v>
+      </c>
+      <c r="AW112" s="7">
+        <f t="shared" si="58"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AX112" s="8">
+        <f t="shared" si="59"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C113" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="D113" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="E113" s="4">
+        <v>95</v>
+      </c>
+      <c r="F113" s="4">
+        <v>56.6</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="H113" s="13">
+        <f t="shared" si="51"/>
+        <v>38.4</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M113" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="N113" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="O113" s="4">
+        <v>95</v>
+      </c>
+      <c r="P113" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="52"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="R113" s="13">
+        <f t="shared" si="53"/>
+        <v>45</v>
+      </c>
+      <c r="V113" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W113" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="X113" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="Y113" s="4">
+        <v>95</v>
+      </c>
+      <c r="Z113" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="AA113">
+        <f t="shared" si="54"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="AB113" s="13">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG113" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH113" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="AI113" s="4"/>
+      <c r="AJ113" s="4">
+        <v>95</v>
+      </c>
+      <c r="AK113" s="4">
+        <v>150</v>
+      </c>
+      <c r="AL113">
+        <f t="shared" si="56"/>
+        <v>12.8</v>
+      </c>
+      <c r="AM113" s="13">
+        <f t="shared" si="57"/>
+        <v>55</v>
+      </c>
+      <c r="AR113" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS113" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="AT113" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="AU113" s="4">
+        <v>95</v>
+      </c>
+      <c r="AV113" s="4">
+        <v>57.6</v>
+      </c>
+      <c r="AW113">
+        <f t="shared" si="58"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="AX113" s="13">
+        <f t="shared" si="59"/>
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="114" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B114" s="12"/>
+      <c r="C114">
+        <v>10</v>
+      </c>
+      <c r="D114">
+        <v>10</v>
+      </c>
+      <c r="E114">
+        <v>76</v>
+      </c>
+      <c r="F114">
+        <v>63.9</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="13">
+        <f t="shared" si="51"/>
+        <v>12.100000000000001</v>
+      </c>
+      <c r="L114" s="12"/>
+      <c r="M114">
+        <v>10</v>
+      </c>
+      <c r="N114">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O114">
+        <v>76</v>
+      </c>
+      <c r="P114">
+        <v>58.4</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="52"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="R114" s="13">
+        <f t="shared" si="53"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="V114" s="12"/>
+      <c r="W114">
+        <v>10</v>
+      </c>
+      <c r="X114">
+        <v>10.5</v>
+      </c>
+      <c r="Y114">
+        <v>76</v>
+      </c>
+      <c r="Z114">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="AA114">
+        <f t="shared" si="54"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB114" s="13">
+        <f t="shared" si="55"/>
+        <v>4.5999999999999943</v>
+      </c>
+      <c r="AG114" s="12"/>
+      <c r="AH114">
+        <v>10</v>
+      </c>
+      <c r="AJ114">
+        <v>76</v>
+      </c>
+      <c r="AK114">
+        <v>61</v>
+      </c>
+      <c r="AL114">
+        <f t="shared" si="56"/>
+        <v>10</v>
+      </c>
+      <c r="AM114" s="13">
+        <f t="shared" si="57"/>
+        <v>15</v>
+      </c>
+      <c r="AR114" s="12"/>
+      <c r="AS114">
+        <v>10</v>
+      </c>
+      <c r="AT114">
+        <v>10</v>
+      </c>
+      <c r="AU114">
+        <v>76</v>
+      </c>
+      <c r="AV114">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AW114">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AX114" s="13">
+        <f t="shared" si="59"/>
+        <v>6.4000000000000057</v>
+      </c>
+    </row>
+    <row r="115" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B115" s="12"/>
+      <c r="C115">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <v>9</v>
+      </c>
+      <c r="E115">
+        <v>72</v>
+      </c>
+      <c r="F115">
+        <v>66</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="H115" s="13">
+        <f t="shared" si="51"/>
+        <v>6</v>
+      </c>
+      <c r="L115" s="12"/>
+      <c r="M115">
+        <v>10</v>
+      </c>
+      <c r="N115">
+        <v>9.5</v>
+      </c>
+      <c r="O115">
+        <v>72</v>
+      </c>
+      <c r="P115">
+        <v>50.8</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="52"/>
+        <v>0.5</v>
+      </c>
+      <c r="R115" s="13">
+        <f t="shared" si="53"/>
+        <v>21.200000000000003</v>
+      </c>
+      <c r="V115" s="12"/>
+      <c r="W115">
+        <v>10</v>
+      </c>
+      <c r="X115">
+        <v>9.4</v>
+      </c>
+      <c r="Y115">
+        <v>72</v>
+      </c>
+      <c r="Z115">
+        <v>79.7</v>
+      </c>
+      <c r="AA115">
+        <f t="shared" si="54"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="AB115" s="13">
+        <f t="shared" si="55"/>
+        <v>7.7000000000000028</v>
+      </c>
+      <c r="AG115" s="12"/>
+      <c r="AH115">
+        <v>10</v>
+      </c>
+      <c r="AJ115">
+        <v>72</v>
+      </c>
+      <c r="AK115">
+        <v>72.7</v>
+      </c>
+      <c r="AL115">
+        <f t="shared" si="56"/>
+        <v>10</v>
+      </c>
+      <c r="AM115" s="13">
+        <f t="shared" si="57"/>
+        <v>0.70000000000000284</v>
+      </c>
+      <c r="AR115" s="12"/>
+      <c r="AS115">
+        <v>10</v>
+      </c>
+      <c r="AT115">
+        <v>9.6</v>
+      </c>
+      <c r="AU115">
+        <v>72</v>
+      </c>
+      <c r="AV115">
+        <v>57.3</v>
+      </c>
+      <c r="AW115">
+        <f t="shared" si="58"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="AX115" s="13">
+        <f t="shared" si="59"/>
+        <v>14.700000000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B116" s="6"/>
+      <c r="C116" s="7">
+        <v>10</v>
+      </c>
+      <c r="D116" s="7">
         <v>10.8</v>
       </c>
-      <c r="AT112" s="7">
+      <c r="E116" s="7">
+        <v>102</v>
+      </c>
+      <c r="F116" s="7">
+        <v>81</v>
+      </c>
+      <c r="G116" s="7">
+        <f t="shared" si="50"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="H116" s="13">
+        <f t="shared" si="51"/>
+        <v>21</v>
+      </c>
+      <c r="L116" s="6"/>
+      <c r="M116" s="7">
+        <v>10</v>
+      </c>
+      <c r="N116" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O116" s="7">
+        <v>102</v>
+      </c>
+      <c r="P116" s="7">
+        <v>102</v>
+      </c>
+      <c r="Q116" s="7">
+        <f t="shared" si="52"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="R116" s="8">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="V116" s="6"/>
+      <c r="W116" s="7">
+        <v>10</v>
+      </c>
+      <c r="X116" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y116" s="7">
+        <v>102</v>
+      </c>
+      <c r="Z116" s="7">
+        <v>101</v>
+      </c>
+      <c r="AA116" s="7">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AB116" s="8">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AG116" s="6"/>
+      <c r="AH116" s="7">
+        <v>10</v>
+      </c>
+      <c r="AI116" s="7"/>
+      <c r="AJ116" s="7">
+        <v>102</v>
+      </c>
+      <c r="AK116" s="7">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="AL116" s="7">
+        <f t="shared" si="56"/>
+        <v>10</v>
+      </c>
+      <c r="AM116" s="8">
+        <f t="shared" si="57"/>
+        <v>34.800000000000011</v>
+      </c>
+      <c r="AR116" s="6"/>
+      <c r="AS116" s="7">
+        <v>10</v>
+      </c>
+      <c r="AT116" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="AU116" s="7">
+        <v>102</v>
+      </c>
+      <c r="AV116" s="7">
+        <v>84</v>
+      </c>
+      <c r="AW116" s="7">
+        <f t="shared" si="58"/>
+        <v>0.5</v>
+      </c>
+      <c r="AX116" s="8">
+        <f t="shared" si="59"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C117" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="D117" s="4">
+        <v>10</v>
+      </c>
+      <c r="E117" s="4">
+        <v>91</v>
+      </c>
+      <c r="F117" s="4">
+        <v>68.8</v>
+      </c>
+      <c r="G117" s="4">
+        <f t="shared" si="50"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="H117" s="5">
+        <f>ABS(F117-E117)</f>
+        <v>22.200000000000003</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M117" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="N117" s="4">
+        <v>10</v>
+      </c>
+      <c r="O117" s="4">
+        <v>91</v>
+      </c>
+      <c r="P117" s="4">
+        <v>118.8</v>
+      </c>
+      <c r="Q117" s="4">
+        <f t="shared" si="52"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="R117" s="5">
+        <f>ABS(P117-O117)</f>
+        <v>27.799999999999997</v>
+      </c>
+      <c r="V117" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W117" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="X117" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y117" s="4">
+        <v>91</v>
+      </c>
+      <c r="Z117" s="4">
+        <v>81.2</v>
+      </c>
+      <c r="AA117" s="4">
+        <f t="shared" si="54"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="AB117" s="5">
+        <f>ABS(Z117-Y117)</f>
+        <v>9.7999999999999972</v>
+      </c>
+      <c r="AG117" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH117" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="AI117" s="4"/>
+      <c r="AJ117" s="4">
+        <v>91</v>
+      </c>
+      <c r="AK117" s="4">
+        <v>114.6</v>
+      </c>
+      <c r="AL117" s="4">
+        <f t="shared" si="56"/>
+        <v>10.8</v>
+      </c>
+      <c r="AM117" s="5">
+        <f>ABS(AK117-AJ117)</f>
+        <v>23.599999999999994</v>
+      </c>
+      <c r="AR117" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS117" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="AT117" s="4">
+        <v>10</v>
+      </c>
+      <c r="AU117" s="4">
+        <v>91</v>
+      </c>
+      <c r="AV117" s="4">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AW117" s="4">
+        <f t="shared" si="58"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="AX117" s="5">
+        <f>ABS(AV117-AU117)</f>
+        <v>26.599999999999994</v>
+      </c>
+    </row>
+    <row r="118" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B118" s="12"/>
+      <c r="C118">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D118">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E118">
+        <v>94</v>
+      </c>
+      <c r="F118">
+        <v>69.3</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="50"/>
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="H118" s="13">
+        <f t="shared" ref="H118:H124" si="60">ABS(F118-E118)</f>
+        <v>24.700000000000003</v>
+      </c>
+      <c r="L118" s="12"/>
+      <c r="M118">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N118">
         <v>9.4</v>
       </c>
-      <c r="AU112" s="7">
+      <c r="O118">
+        <v>94</v>
+      </c>
+      <c r="P118">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="52"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="R118" s="13">
+        <f t="shared" ref="R118:R124" si="61">ABS(P118-O118)</f>
+        <v>17.599999999999994</v>
+      </c>
+      <c r="V118" s="12"/>
+      <c r="W118">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="X118">
+        <v>7.3</v>
+      </c>
+      <c r="Y118">
+        <v>94</v>
+      </c>
+      <c r="Z118">
+        <v>83.5</v>
+      </c>
+      <c r="AA118">
+        <f t="shared" si="54"/>
+        <v>1.5000000000000009</v>
+      </c>
+      <c r="AB118" s="13">
+        <f t="shared" ref="AB118:AB124" si="62">ABS(Z118-Y118)</f>
+        <v>10.5</v>
+      </c>
+      <c r="AG118" s="12"/>
+      <c r="AH118">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AJ118">
+        <v>94</v>
+      </c>
+      <c r="AK118">
+        <v>74.5</v>
+      </c>
+      <c r="AL118">
+        <f t="shared" si="56"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AM118" s="13">
+        <f t="shared" ref="AM118:AM124" si="63">ABS(AK118-AJ118)</f>
+        <v>19.5</v>
+      </c>
+      <c r="AR118" s="12"/>
+      <c r="AS118">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AT118">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AU118">
+        <v>94</v>
+      </c>
+      <c r="AV118">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="AW118">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AX118" s="13">
+        <f t="shared" ref="AX118:AX124" si="64">ABS(AV118-AU118)</f>
+        <v>15.099999999999994</v>
+      </c>
+    </row>
+    <row r="119" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B119" s="12"/>
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>9.5</v>
+      </c>
+      <c r="E119">
+        <v>76</v>
+      </c>
+      <c r="F119">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="H119" s="13">
+        <f t="shared" si="60"/>
+        <v>2.4000000000000057</v>
+      </c>
+      <c r="L119" s="12"/>
+      <c r="M119">
+        <v>10</v>
+      </c>
+      <c r="N119">
+        <v>9.6</v>
+      </c>
+      <c r="O119">
+        <v>76</v>
+      </c>
+      <c r="P119">
+        <v>85.6</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="52"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="R119" s="13">
+        <f t="shared" si="61"/>
+        <v>9.5999999999999943</v>
+      </c>
+      <c r="V119" s="12"/>
+      <c r="W119">
+        <v>10</v>
+      </c>
+      <c r="X119">
+        <v>9</v>
+      </c>
+      <c r="Y119">
+        <v>76</v>
+      </c>
+      <c r="Z119">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="AA119">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="AB119" s="13">
+        <f t="shared" si="62"/>
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="AG119" s="12"/>
+      <c r="AH119">
+        <v>10</v>
+      </c>
+      <c r="AJ119">
+        <v>76</v>
+      </c>
+      <c r="AK119">
+        <v>172</v>
+      </c>
+      <c r="AL119">
+        <f t="shared" si="56"/>
+        <v>10</v>
+      </c>
+      <c r="AM119" s="13">
+        <f t="shared" si="63"/>
+        <v>96</v>
+      </c>
+      <c r="AR119" s="12"/>
+      <c r="AS119">
+        <v>10</v>
+      </c>
+      <c r="AT119">
+        <v>10.15</v>
+      </c>
+      <c r="AU119">
+        <v>76</v>
+      </c>
+      <c r="AV119">
+        <v>89.7</v>
+      </c>
+      <c r="AW119">
+        <f t="shared" si="58"/>
+        <v>0.15000000000000036</v>
+      </c>
+      <c r="AX119" s="13">
+        <f t="shared" si="64"/>
+        <v>13.700000000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B120" s="6"/>
+      <c r="C120" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D120" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E120" s="7">
+        <v>94</v>
+      </c>
+      <c r="F120" s="7">
+        <v>83.2</v>
+      </c>
+      <c r="G120" s="7">
+        <f t="shared" si="50"/>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="H120" s="13">
+        <f t="shared" si="60"/>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="L120" s="6"/>
+      <c r="M120" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N120" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O120" s="7">
+        <v>94</v>
+      </c>
+      <c r="P120" s="7">
+        <v>113</v>
+      </c>
+      <c r="Q120" s="7">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="R120" s="13">
+        <f t="shared" si="61"/>
+        <v>19</v>
+      </c>
+      <c r="V120" s="6"/>
+      <c r="W120" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="X120" s="7">
+        <v>9</v>
+      </c>
+      <c r="Y120" s="7">
+        <v>94</v>
+      </c>
+      <c r="Z120" s="7">
+        <v>87</v>
+      </c>
+      <c r="AA120" s="7">
+        <f t="shared" si="54"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AB120" s="13">
+        <f t="shared" si="62"/>
+        <v>7</v>
+      </c>
+      <c r="AG120" s="6"/>
+      <c r="AH120" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AI120" s="7"/>
+      <c r="AJ120" s="7">
+        <v>94</v>
+      </c>
+      <c r="AK120" s="7">
+        <v>165</v>
+      </c>
+      <c r="AL120" s="7">
+        <f t="shared" si="56"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AM120" s="13">
+        <f t="shared" si="63"/>
+        <v>71</v>
+      </c>
+      <c r="AR120" s="6"/>
+      <c r="AS120" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AT120" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AU120" s="7">
+        <v>94</v>
+      </c>
+      <c r="AV120" s="7">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="AW120" s="7">
+        <f t="shared" si="58"/>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="AX120" s="13">
+        <f t="shared" si="64"/>
+        <v>25.099999999999994</v>
+      </c>
+    </row>
+    <row r="121" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B121" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C121" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="D121" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="E121" s="4">
+        <v>95</v>
+      </c>
+      <c r="F121" s="4">
+        <v>68.7</v>
+      </c>
+      <c r="G121" s="4">
+        <f t="shared" si="50"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="H121" s="5">
+        <f t="shared" si="60"/>
+        <v>26.299999999999997</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M121" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="N121" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="O121" s="4">
+        <v>95</v>
+      </c>
+      <c r="P121" s="4">
+        <v>93.6</v>
+      </c>
+      <c r="Q121" s="4">
+        <f t="shared" si="52"/>
+        <v>0.70000000000000107</v>
+      </c>
+      <c r="R121" s="5">
+        <f t="shared" si="61"/>
+        <v>1.4000000000000057</v>
+      </c>
+      <c r="V121" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W121" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="X121" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="Y121" s="4">
+        <v>95</v>
+      </c>
+      <c r="Z121" s="4">
+        <v>88.5</v>
+      </c>
+      <c r="AA121" s="4">
+        <f t="shared" si="54"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="AB121" s="5">
+        <f t="shared" si="62"/>
+        <v>6.5</v>
+      </c>
+      <c r="AG121" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH121" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="AI121" s="4"/>
+      <c r="AJ121" s="4">
+        <v>95</v>
+      </c>
+      <c r="AK121" s="4">
+        <v>106.5</v>
+      </c>
+      <c r="AL121" s="4">
+        <f t="shared" si="56"/>
+        <v>10.8</v>
+      </c>
+      <c r="AM121" s="5">
+        <f t="shared" si="63"/>
+        <v>11.5</v>
+      </c>
+      <c r="AR121" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS121" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="AT121" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="AU121" s="4">
+        <v>95</v>
+      </c>
+      <c r="AV121" s="4">
+        <v>86.7</v>
+      </c>
+      <c r="AW121" s="4">
+        <f t="shared" si="58"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="AX121" s="5">
+        <f t="shared" si="64"/>
+        <v>8.2999999999999972</v>
+      </c>
+    </row>
+    <row r="122" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B122" s="12"/>
+      <c r="C122">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D122">
+        <v>8.9</v>
+      </c>
+      <c r="E122">
+        <v>101</v>
+      </c>
+      <c r="F122">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="50"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="H122" s="13">
+        <f t="shared" si="60"/>
+        <v>28.400000000000006</v>
+      </c>
+      <c r="L122" s="12"/>
+      <c r="M122">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N122">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O122">
+        <v>101</v>
+      </c>
+      <c r="P122">
+        <v>50.5</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="52"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="R122" s="13">
+        <f t="shared" si="61"/>
+        <v>50.5</v>
+      </c>
+      <c r="V122" s="12"/>
+      <c r="W122">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="X122">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Y122">
+        <v>101</v>
+      </c>
+      <c r="Z122">
+        <v>95.8</v>
+      </c>
+      <c r="AA122">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="AB122" s="13">
+        <f t="shared" si="62"/>
+        <v>5.2000000000000028</v>
+      </c>
+      <c r="AG122" s="12"/>
+      <c r="AH122">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AJ122">
+        <v>101</v>
+      </c>
+      <c r="AK122">
+        <v>64.3</v>
+      </c>
+      <c r="AL122">
+        <f t="shared" si="56"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AM122" s="13">
+        <f t="shared" si="63"/>
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AR122" s="12"/>
+      <c r="AS122">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AT122">
+        <v>8.6</v>
+      </c>
+      <c r="AU122">
+        <v>101</v>
+      </c>
+      <c r="AV122">
+        <v>64.3</v>
+      </c>
+      <c r="AW122">
+        <f t="shared" si="58"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="AX122" s="13">
+        <f t="shared" si="64"/>
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B123" s="12"/>
+      <c r="C123">
+        <v>10</v>
+      </c>
+      <c r="D123">
+        <v>7.1</v>
+      </c>
+      <c r="E123">
+        <v>90</v>
+      </c>
+      <c r="F123">
+        <v>70.8</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="50"/>
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="H123" s="13">
+        <f t="shared" si="60"/>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="L123" s="12"/>
+      <c r="M123">
+        <v>10</v>
+      </c>
+      <c r="N123">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O123">
+        <v>90</v>
+      </c>
+      <c r="P123">
+        <v>58.8</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="52"/>
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="R123" s="13">
+        <f t="shared" si="61"/>
+        <v>31.200000000000003</v>
+      </c>
+      <c r="V123" s="12"/>
+      <c r="W123">
+        <v>10</v>
+      </c>
+      <c r="X123">
+        <v>7</v>
+      </c>
+      <c r="Y123">
+        <v>90</v>
+      </c>
+      <c r="Z123">
+        <v>88.5</v>
+      </c>
+      <c r="AA123">
+        <f t="shared" si="54"/>
+        <v>3</v>
+      </c>
+      <c r="AB123" s="13">
+        <f t="shared" si="62"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG123" s="12"/>
+      <c r="AH123">
+        <v>10</v>
+      </c>
+      <c r="AJ123">
+        <v>90</v>
+      </c>
+      <c r="AK123">
+        <v>102</v>
+      </c>
+      <c r="AL123">
+        <f t="shared" si="56"/>
+        <v>10</v>
+      </c>
+      <c r="AM123" s="13">
+        <f t="shared" si="63"/>
+        <v>12</v>
+      </c>
+      <c r="AR123" s="12"/>
+      <c r="AS123">
+        <v>10</v>
+      </c>
+      <c r="AT123">
+        <v>6.6</v>
+      </c>
+      <c r="AU123">
+        <v>90</v>
+      </c>
+      <c r="AV123">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="AW123">
+        <f t="shared" si="58"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="AX123" s="13">
+        <f t="shared" si="64"/>
+        <v>14.400000000000006</v>
+      </c>
+    </row>
+    <row r="124" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B124" s="6"/>
+      <c r="C124" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="D124" s="7">
+        <v>8</v>
+      </c>
+      <c r="E124" s="7">
         <v>75</v>
       </c>
-      <c r="AV112" s="7">
+      <c r="F124" s="7">
+        <v>65</v>
+      </c>
+      <c r="G124" s="7">
+        <f t="shared" si="50"/>
+        <v>2.8000000000000007</v>
+      </c>
+      <c r="H124" s="8">
+        <f t="shared" si="60"/>
+        <v>10</v>
+      </c>
+      <c r="L124" s="6"/>
+      <c r="M124" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="N124" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="O124" s="7">
+        <v>75</v>
+      </c>
+      <c r="P124" s="7">
+        <v>53.2</v>
+      </c>
+      <c r="Q124" s="7">
+        <f t="shared" si="52"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="R124" s="13">
+        <f t="shared" si="61"/>
+        <v>21.799999999999997</v>
+      </c>
+      <c r="V124" s="6"/>
+      <c r="W124" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="X124" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="Y124" s="7">
+        <v>75</v>
+      </c>
+      <c r="Z124" s="7">
+        <v>86.1</v>
+      </c>
+      <c r="AA124" s="7">
+        <f t="shared" si="54"/>
+        <v>3.5000000000000009</v>
+      </c>
+      <c r="AB124" s="13">
+        <f t="shared" si="62"/>
+        <v>11.099999999999994</v>
+      </c>
+      <c r="AG124" s="6"/>
+      <c r="AH124" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="AI124" s="7"/>
+      <c r="AJ124" s="7">
+        <v>75</v>
+      </c>
+      <c r="AK124" s="7">
+        <v>181.5</v>
+      </c>
+      <c r="AL124" s="7">
+        <f t="shared" si="56"/>
+        <v>10.8</v>
+      </c>
+      <c r="AM124" s="8">
+        <f t="shared" si="63"/>
+        <v>106.5</v>
+      </c>
+      <c r="AR124" s="6"/>
+      <c r="AS124" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="AT124" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="AU124" s="7">
+        <v>75</v>
+      </c>
+      <c r="AV124" s="7">
         <v>89.8</v>
       </c>
-      <c r="AW112" s="7">
-        <f t="shared" si="48"/>
+      <c r="AW124" s="7">
+        <f t="shared" si="58"/>
         <v>1.4000000000000004</v>
       </c>
-      <c r="AX112" s="13">
-        <f t="shared" si="54"/>
+      <c r="AX124" s="13">
+        <f t="shared" si="64"/>
         <v>14.799999999999997</v>
       </c>
     </row>
-    <row r="113" spans="7:50" x14ac:dyDescent="0.25">
-      <c r="G113">
-        <f>AVERAGE(G2:G112)</f>
-        <v>0.6225225225225226</v>
-      </c>
-      <c r="H113">
-        <f>AVERAGE(H2:H112)</f>
-        <v>20.939639639639637</v>
-      </c>
-      <c r="Q113">
-        <f>AVERAGE(Q2:Q112)</f>
-        <v>0.6135135135135138</v>
-      </c>
-      <c r="R113" s="4">
-        <f>AVERAGE(R2:R112)</f>
-        <v>23.557657657657654</v>
-      </c>
-      <c r="AA113">
-        <f>AVERAGE(AA2:AA112)</f>
-        <v>0.89009009009008977</v>
-      </c>
-      <c r="AB113" s="4">
-        <f>AVERAGE(AB2:AB112)</f>
-        <v>10.296396396396389</v>
-      </c>
-      <c r="AM113">
-        <f>AVERAGE(AM2:AM112)</f>
-        <v>48.176576576576579</v>
-      </c>
-      <c r="AW113">
-        <f>AVERAGE(AW2:AW112)</f>
-        <v>0.59765765765765766</v>
-      </c>
-      <c r="AX113" s="4">
-        <f>AVERAGE(AX2:AX112)</f>
-        <v>21.21621621621621</v>
+    <row r="125" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="G125">
+        <f>AVERAGE(G2:G124)</f>
+        <v>0.62926829268292683</v>
+      </c>
+      <c r="H125">
+        <f>AVERAGE(H2:H124)</f>
+        <v>20.295121951219503</v>
+      </c>
+      <c r="Q125">
+        <f>AVERAGE(Q2:Q124)</f>
+        <v>0.64146341463414647</v>
+      </c>
+      <c r="R125" s="4">
+        <f>AVERAGE(R2:R124)</f>
+        <v>22.600813008130082</v>
+      </c>
+      <c r="AA125">
+        <f>AVERAGE(AA2:AA124)</f>
+        <v>0.91707317073170702</v>
+      </c>
+      <c r="AB125" s="4">
+        <f>AVERAGE(AB2:AB124)</f>
+        <v>10.59186991869918</v>
+      </c>
+      <c r="AM125">
+        <f>AVERAGE(AM2:AM124)</f>
+        <v>46.176422764227645</v>
+      </c>
+      <c r="AW125">
+        <f>AVERAGE(AW2:AW124)</f>
+        <v>0.6084552845528457</v>
+      </c>
+      <c r="AX125" s="4">
+        <f>AVERAGE(AX2:AX124)</f>
+        <v>20.345528455284551</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DF6341-4362-4C2F-BB8C-484852C0235E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACFDA70-6E13-43E5-9C66-B9E390F87D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -544,7 +544,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -827,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="L91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA49" sqref="AA49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3605,7 +3604,7 @@
         <v>100</v>
       </c>
       <c r="AK24" s="9">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="AL24" s="9">
         <f t="shared" si="16"/>
@@ -3613,7 +3612,7 @@
       </c>
       <c r="AM24" s="10">
         <f t="shared" si="17"/>
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="AR24" s="14" t="s">
         <v>60</v>
@@ -6135,7 +6134,7 @@
         <v>108</v>
       </c>
       <c r="AK46" s="9">
-        <v>324</v>
+        <v>124</v>
       </c>
       <c r="AL46" s="9">
         <f t="shared" si="16"/>
@@ -6143,7 +6142,7 @@
       </c>
       <c r="AM46" s="10">
         <f t="shared" si="17"/>
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="AR46" s="14" t="s">
         <v>82</v>
@@ -6710,7 +6709,7 @@
         <v>111</v>
       </c>
       <c r="AK51" s="9">
-        <v>265</v>
+        <v>111.1</v>
       </c>
       <c r="AL51" s="9">
         <f t="shared" si="16"/>
@@ -6718,7 +6717,7 @@
       </c>
       <c r="AM51" s="10">
         <f t="shared" si="17"/>
-        <v>154</v>
+        <v>9.9999999999994316E-2</v>
       </c>
       <c r="AR51" s="14" t="s">
         <v>87</v>
@@ -8375,7 +8374,7 @@
         <v>76</v>
       </c>
       <c r="AK66" s="4">
-        <v>141</v>
+        <v>107.3</v>
       </c>
       <c r="AL66" s="4">
         <f t="shared" si="28"/>
@@ -8383,7 +8382,7 @@
       </c>
       <c r="AM66" s="5">
         <f t="shared" si="23"/>
-        <v>65</v>
+        <v>31.299999999999997</v>
       </c>
       <c r="AR66" s="3" t="s">
         <v>56</v>
@@ -8482,7 +8481,7 @@
         <v>101</v>
       </c>
       <c r="AK67" s="7">
-        <v>161.5</v>
+        <v>129</v>
       </c>
       <c r="AL67" s="7">
         <f t="shared" si="28"/>
@@ -8490,7 +8489,7 @@
       </c>
       <c r="AM67" s="8">
         <f t="shared" si="23"/>
-        <v>60.5</v>
+        <v>28</v>
       </c>
       <c r="AR67" s="6"/>
       <c r="AS67" s="7">
@@ -11859,7 +11858,7 @@
       <c r="AJ98">
         <v>67</v>
       </c>
-      <c r="AK98" s="18">
+      <c r="AK98">
         <v>155</v>
       </c>
       <c r="AL98">
@@ -11874,13 +11873,13 @@
       <c r="AS98">
         <v>9.6</v>
       </c>
-      <c r="AT98" s="18">
+      <c r="AT98">
         <v>9.1999999999999993</v>
       </c>
       <c r="AU98">
         <v>67</v>
       </c>
-      <c r="AV98" s="18">
+      <c r="AV98">
         <v>69.400000000000006</v>
       </c>
       <c r="AW98">
@@ -12183,7 +12182,7 @@
       <c r="AJ101">
         <v>69</v>
       </c>
-      <c r="AK101" s="18">
+      <c r="AK101">
         <v>123.3</v>
       </c>
       <c r="AL101">
@@ -12198,13 +12197,13 @@
       <c r="AS101">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AT101" s="18">
+      <c r="AT101">
         <v>9</v>
       </c>
       <c r="AU101">
         <v>69</v>
       </c>
-      <c r="AV101" s="18">
+      <c r="AV101">
         <v>63.2</v>
       </c>
       <c r="AW101">
@@ -12507,7 +12506,7 @@
       <c r="AJ104">
         <v>67</v>
       </c>
-      <c r="AK104" s="18">
+      <c r="AK104">
         <v>62.8</v>
       </c>
       <c r="AL104">
@@ -12522,13 +12521,13 @@
       <c r="AS104">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AT104" s="18">
+      <c r="AT104">
         <v>8.4</v>
       </c>
       <c r="AU104">
         <v>67</v>
       </c>
-      <c r="AV104" s="18">
+      <c r="AV104">
         <v>67.2</v>
       </c>
       <c r="AW104">
@@ -12831,7 +12830,7 @@
       <c r="AJ107">
         <v>69</v>
       </c>
-      <c r="AK107" s="18">
+      <c r="AK107">
         <v>94.3</v>
       </c>
       <c r="AL107">
@@ -12846,13 +12845,13 @@
       <c r="AS107">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AT107" s="18">
+      <c r="AT107">
         <v>8.8000000000000007</v>
       </c>
       <c r="AU107">
         <v>69</v>
       </c>
-      <c r="AV107" s="18">
+      <c r="AV107">
         <v>73.099999999999994</v>
       </c>
       <c r="AW107">
@@ -14708,7 +14707,7 @@
       </c>
       <c r="AM125">
         <f>AVERAGE(AM2:AM124)</f>
-        <v>46.176422764227645</v>
+        <v>42.395121951219515</v>
       </c>
       <c r="AW125">
         <f>AVERAGE(AW2:AW124)</f>
